--- a/trading_results.xlsx
+++ b/trading_results.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\Backtesting\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Trade History" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="26">
   <si>
     <t>Position</t>
   </si>
@@ -102,13 +97,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="$#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,13 +113,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -170,11 +158,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -182,28 +169,13 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -250,7 +222,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -282,10 +254,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -317,7 +288,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -493,31 +463,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" style="7" customWidth="1"/>
-    <col min="6" max="8" width="15.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="10" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="11" customWidth="1"/>
+    <col min="4" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="9" width="15.7109375" style="1" customWidth="1"/>
+    <col min="10" max="11" width="15.7109375" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="20.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -527,7 +488,7 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -539,13 +500,13 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -564,7 +525,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -572,34 +533,34 @@
         <v>15</v>
       </c>
       <c r="C2" s="4">
-        <v>45666.635416666657</v>
+        <v>45666.63541666666</v>
       </c>
       <c r="D2" s="4">
-        <v>45666.645833333343</v>
-      </c>
-      <c r="E2" s="7">
+        <v>45666.64583333334</v>
+      </c>
+      <c r="E2">
         <v>93188.2</v>
       </c>
       <c r="F2" s="1">
-        <v>93801.349971594973</v>
+        <v>93801.34997159497</v>
       </c>
       <c r="G2" s="1">
-        <v>91348.750085215084</v>
+        <v>91348.75008521508</v>
       </c>
       <c r="H2" s="1">
         <v>93452</v>
       </c>
-      <c r="I2" s="9">
-        <v>0.16309223621077859</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="11">
-        <v>-43.023731912403868</v>
+      <c r="I2" s="1">
+        <v>0.1630922362107786</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2">
+        <v>-43.02373191240387</v>
       </c>
       <c r="L2" s="1">
-        <v>9956.9762680875956</v>
+        <v>9956.976268087596</v>
       </c>
       <c r="M2" s="1">
         <v>100</v>
@@ -611,10 +572,10 @@
         <v>613.1499715949758</v>
       </c>
       <c r="P2">
-        <v>1839.4499147849131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1839.449914784913</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -622,49 +583,49 @@
         <v>15</v>
       </c>
       <c r="C3" s="4">
-        <v>45666.649305555547</v>
+        <v>45666.64930555555</v>
       </c>
       <c r="D3" s="4">
-        <v>45666.659722222219</v>
-      </c>
-      <c r="E3" s="7">
+        <v>45666.65972222222</v>
+      </c>
+      <c r="E3">
         <v>93739.87</v>
       </c>
       <c r="F3" s="1">
         <v>94376.30887387348</v>
       </c>
       <c r="G3" s="1">
-        <v>91830.553378379525</v>
+        <v>91830.55337837953</v>
       </c>
       <c r="H3" s="1">
-        <v>94100.49</v>
-      </c>
-      <c r="I3" s="9">
-        <v>0.15644827298947961</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="11">
-        <v>-56.418376205467673</v>
+        <v>94100.49000000001</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.1564482729894796</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3">
+        <v>-56.41837620546767</v>
       </c>
       <c r="L3" s="1">
-        <v>9900.5578918821284</v>
+        <v>9900.557891882128</v>
       </c>
       <c r="M3" s="1">
-        <v>99.569762680875954</v>
+        <v>99.56976268087595</v>
       </c>
       <c r="N3" t="s">
         <v>19</v>
       </c>
       <c r="O3">
-        <v>636.43887387348514</v>
+        <v>636.4388738734851</v>
       </c>
       <c r="P3">
         <v>1909.31662162047</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -672,49 +633,49 @@
         <v>15</v>
       </c>
       <c r="C4" s="4">
-        <v>45666.663194444453</v>
+        <v>45666.66319444445</v>
       </c>
       <c r="D4" s="4">
-        <v>45666.822916666657</v>
-      </c>
-      <c r="E4" s="7">
+        <v>45666.82291666666</v>
+      </c>
+      <c r="E4">
         <v>94244.02</v>
       </c>
       <c r="F4" s="1">
-        <v>94919.843700976169</v>
+        <v>94919.84370097617</v>
       </c>
       <c r="G4" s="1">
-        <v>92216.548897071494</v>
+        <v>92216.54889707149</v>
       </c>
       <c r="H4" s="1">
-        <v>92106.85</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0.14649616279484851</v>
-      </c>
-      <c r="J4" s="10" t="s">
+        <v>92106.85000000001</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.1464961627948485</v>
+      </c>
+      <c r="J4" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="11">
-        <v>313.08720424026609</v>
+      <c r="K4">
+        <v>313.0872042402661</v>
       </c>
       <c r="L4" s="1">
-        <v>10213.645096122391</v>
+        <v>10213.64509612239</v>
       </c>
       <c r="M4" s="1">
-        <v>99.005578918821286</v>
+        <v>99.00557891882129</v>
       </c>
       <c r="N4" t="s">
         <v>19</v>
       </c>
       <c r="O4">
-        <v>675.82370097616513</v>
+        <v>675.8237009761651</v>
       </c>
       <c r="P4">
-        <v>2027.4711029285099</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2027.47110292851</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -725,31 +686,31 @@
         <v>45667.75</v>
       </c>
       <c r="D5" s="4">
-        <v>45670.541666666657</v>
-      </c>
-      <c r="E5" s="7">
+        <v>45670.54166666666</v>
+      </c>
+      <c r="E5">
         <v>95486.73</v>
       </c>
       <c r="F5" s="1">
-        <v>96318.698924743541</v>
+        <v>96318.69892474354</v>
       </c>
       <c r="G5" s="1">
         <v>92990.82322576936</v>
       </c>
       <c r="H5" s="1">
-        <v>90583.24</v>
-      </c>
-      <c r="I5" s="9">
+        <v>90583.24000000001</v>
+      </c>
+      <c r="I5" s="1">
         <v>0.1227647426767863</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="11">
-        <v>601.97568806819379</v>
+      <c r="K5">
+        <v>601.9756880681938</v>
       </c>
       <c r="L5" s="1">
-        <v>10815.620784190591</v>
+        <v>10815.62078419059</v>
       </c>
       <c r="M5" s="1">
         <v>102.1364509612239</v>
@@ -758,13 +719,13 @@
         <v>19</v>
       </c>
       <c r="O5">
-        <v>831.96892474354536</v>
+        <v>831.9689247435454</v>
       </c>
       <c r="P5">
-        <v>2495.9067742306361</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2495.906774230636</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -772,31 +733,31 @@
         <v>15</v>
       </c>
       <c r="C6" s="4">
-        <v>45670.635416666657</v>
+        <v>45670.63541666666</v>
       </c>
       <c r="D6" s="4">
-        <v>45670.868055555547</v>
-      </c>
-      <c r="E6" s="7">
-        <v>92680.01</v>
+        <v>45670.86805555555</v>
+      </c>
+      <c r="E6">
+        <v>92680.00999999999</v>
       </c>
       <c r="F6" s="1">
-        <v>93739.195790475918</v>
+        <v>93739.19579047592</v>
       </c>
       <c r="G6" s="1">
-        <v>89502.452628572224</v>
+        <v>89502.45262857222</v>
       </c>
       <c r="H6" s="1">
-        <v>93228.99</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0.10211259329046329</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="11">
-        <v>-56.057771464599632</v>
+        <v>93228.99000000001</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.1021125932904633</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6">
+        <v>-56.05777146459963</v>
       </c>
       <c r="L6" s="1">
         <v>10759.56301272599</v>
@@ -811,10 +772,10 @@
         <v>1059.185790475924</v>
       </c>
       <c r="P6">
-        <v>3177.5573714277712</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3177.557371427771</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -825,46 +786,46 @@
         <v>45673.625</v>
       </c>
       <c r="D7" s="4">
-        <v>45673.670138888891</v>
-      </c>
-      <c r="E7" s="7">
+        <v>45673.67013888889</v>
+      </c>
+      <c r="E7">
         <v>97571.23</v>
       </c>
       <c r="F7" s="1">
-        <v>96887.646241804439</v>
+        <v>96887.64624180444</v>
       </c>
       <c r="G7" s="1">
-        <v>99621.981274586666</v>
+        <v>99621.98127458667</v>
       </c>
       <c r="H7" s="1">
         <v>99815.27</v>
       </c>
-      <c r="I7" s="9">
-        <v>0.15739933671226791</v>
-      </c>
-      <c r="J7" s="10" t="s">
+      <c r="I7" s="1">
+        <v>0.1573993367122679</v>
+      </c>
+      <c r="J7" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="11">
-        <v>353.21040755579878</v>
+      <c r="K7">
+        <v>353.2104075557988</v>
       </c>
       <c r="L7" s="1">
         <v>11112.77342028179</v>
       </c>
       <c r="M7" s="1">
-        <v>107.59563012725989</v>
+        <v>107.5956301272599</v>
       </c>
       <c r="N7" t="s">
         <v>19</v>
       </c>
       <c r="O7">
-        <v>683.58375819555658</v>
+        <v>683.5837581955566</v>
       </c>
       <c r="P7">
-        <v>2050.7512745866702</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2050.75127458667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -872,31 +833,31 @@
         <v>16</v>
       </c>
       <c r="C8" s="4">
-        <v>45674.871527777781</v>
+        <v>45674.87152777778</v>
       </c>
       <c r="D8" s="4">
-        <v>45675.541666666657</v>
-      </c>
-      <c r="E8" s="7">
+        <v>45675.54166666666</v>
+      </c>
+      <c r="E8">
         <v>104692.7</v>
       </c>
       <c r="F8" s="1">
         <v>104197.1529992671</v>
       </c>
       <c r="G8" s="1">
-        <v>106179.34100219861</v>
+        <v>106179.3410021986</v>
       </c>
       <c r="H8" s="1">
         <v>103424.59</v>
       </c>
-      <c r="I8" s="9">
-        <v>0.22425266228726379</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="11">
-        <v>-284.37704357310218</v>
+      <c r="I8" s="1">
+        <v>0.2242526622872638</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8">
+        <v>-284.3770435731022</v>
       </c>
       <c r="L8" s="1">
         <v>10828.39637670869</v>
@@ -908,13 +869,13 @@
         <v>19</v>
       </c>
       <c r="O8">
-        <v>495.54700073288399</v>
+        <v>495.547000732884</v>
       </c>
       <c r="P8">
         <v>1486.641002198638</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -922,34 +883,34 @@
         <v>16</v>
       </c>
       <c r="C9" s="4">
-        <v>45675.701388888891</v>
+        <v>45675.70138888889</v>
       </c>
       <c r="D9" s="4">
-        <v>45676.541666666657</v>
-      </c>
-      <c r="E9" s="7">
+        <v>45676.54166666666</v>
+      </c>
+      <c r="E9">
         <v>103240.85</v>
       </c>
       <c r="F9" s="1">
         <v>102688.8552242209</v>
       </c>
       <c r="G9" s="1">
-        <v>104896.83432733751</v>
+        <v>104896.8343273375</v>
       </c>
       <c r="H9" s="1">
         <v>105157.8</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="1">
         <v>0.1961684575986099</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="11">
-        <v>376.04512479365468</v>
+      <c r="K9">
+        <v>376.0451247936547</v>
       </c>
       <c r="L9" s="1">
-        <v>11204.441501502341</v>
+        <v>11204.44150150234</v>
       </c>
       <c r="M9" s="1">
         <v>108.2839637670869</v>
@@ -958,13 +919,13 @@
         <v>19</v>
       </c>
       <c r="O9">
-        <v>551.99477577915241</v>
+        <v>551.9947757791524</v>
       </c>
       <c r="P9">
         <v>1655.984327337472</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -972,30 +933,30 @@
         <v>16</v>
       </c>
       <c r="C10" s="4">
-        <v>45677.659722222219</v>
+        <v>45677.65972222222</v>
       </c>
       <c r="D10" s="4">
-        <v>45677.673611111109</v>
-      </c>
-      <c r="E10" s="7">
+        <v>45677.67361111111</v>
+      </c>
+      <c r="E10">
         <v>105535.7</v>
       </c>
       <c r="F10" s="1">
         <v>104427.1512541753</v>
       </c>
       <c r="G10" s="1">
-        <v>108861.34623747411</v>
+        <v>108861.3462374741</v>
       </c>
       <c r="H10" s="1">
         <v>103708</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="1">
         <v>0.1010730610061438</v>
       </c>
-      <c r="J10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" s="11">
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10">
         <v>-184.7312336009287</v>
       </c>
       <c r="L10" s="1">
@@ -1014,7 +975,7 @@
         <v>3325.64623747408</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1022,12 +983,12 @@
         <v>16</v>
       </c>
       <c r="C11" s="4">
-        <v>45678.628472222219</v>
+        <v>45678.62847222222</v>
       </c>
       <c r="D11" s="4">
-        <v>45678.673611111109</v>
-      </c>
-      <c r="E11" s="7">
+        <v>45678.67361111111</v>
+      </c>
+      <c r="E11">
         <v>103281.22</v>
       </c>
       <c r="F11" s="1">
@@ -1039,32 +1000,32 @@
       <c r="H11" s="1">
         <v>106300</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="1">
         <v>0.1152930814464031</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="11">
-        <v>348.04444840877261</v>
+      <c r="K11">
+        <v>348.0444484087726</v>
       </c>
       <c r="L11" s="1">
-        <v>11367.754716310181</v>
+        <v>11367.75471631018</v>
       </c>
       <c r="M11" s="1">
-        <v>110.19710267901409</v>
+        <v>110.1971026790141</v>
       </c>
       <c r="N11" t="s">
         <v>19</v>
       </c>
       <c r="O11">
-        <v>955.79978691299038</v>
+        <v>955.7997869129904</v>
       </c>
       <c r="P11">
-        <v>2867.3993607389862</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2867.399360738986</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1072,16 +1033,16 @@
         <v>16</v>
       </c>
       <c r="C12" s="4">
-        <v>45678.861111111109</v>
+        <v>45678.86111111111</v>
       </c>
       <c r="D12" s="4">
-        <v>45679.541666666657</v>
-      </c>
-      <c r="E12" s="7">
+        <v>45679.54166666666</v>
+      </c>
+      <c r="E12">
         <v>106072</v>
       </c>
       <c r="F12" s="1">
-        <v>105391.07836610261</v>
+        <v>105391.0783661026</v>
       </c>
       <c r="G12" s="1">
         <v>108114.7649016923</v>
@@ -1089,20 +1050,20 @@
       <c r="H12" s="1">
         <v>105039.74</v>
       </c>
-      <c r="I12" s="9">
-        <v>0.16694659341698481</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="11">
+      <c r="I12" s="1">
+        <v>0.1669465934169848</v>
+      </c>
+      <c r="J12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12">
         <v>-172.3322905206158</v>
       </c>
       <c r="L12" s="1">
-        <v>11195.422425789569</v>
+        <v>11195.42242578957</v>
       </c>
       <c r="M12" s="1">
-        <v>113.67754716310181</v>
+        <v>113.6775471631018</v>
       </c>
       <c r="N12" t="s">
         <v>19</v>
@@ -1114,7 +1075,7 @@
         <v>2042.764901692251</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1122,16 +1083,16 @@
         <v>16</v>
       </c>
       <c r="C13" s="4">
-        <v>45679.548611111109</v>
+        <v>45679.54861111111</v>
       </c>
       <c r="D13" s="4">
-        <v>45679.565972222219</v>
-      </c>
-      <c r="E13" s="7">
+        <v>45679.56597222222</v>
+      </c>
+      <c r="E13">
         <v>104947.17</v>
       </c>
       <c r="F13" s="1">
-        <v>104638.47922487849</v>
+        <v>104638.4792248785</v>
       </c>
       <c r="G13" s="1">
         <v>105873.2423253646</v>
@@ -1139,17 +1100,17 @@
       <c r="H13" s="1">
         <v>104283.67</v>
       </c>
-      <c r="I13" s="9">
-        <v>0.36267434364960688</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="11">
-        <v>-240.63442701151419</v>
+      <c r="I13" s="1">
+        <v>0.3626743436496069</v>
+      </c>
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13">
+        <v>-240.6344270115142</v>
       </c>
       <c r="L13" s="1">
-        <v>10954.787998778051</v>
+        <v>10954.78799877805</v>
       </c>
       <c r="M13" s="1">
         <v>111.9542242578957</v>
@@ -1158,13 +1119,13 @@
         <v>19</v>
       </c>
       <c r="O13">
-        <v>308.69077512154757</v>
+        <v>308.6907751215476</v>
       </c>
       <c r="P13">
-        <v>926.07232536464289</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>926.0723253646429</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1172,16 +1133,16 @@
         <v>16</v>
       </c>
       <c r="C14" s="4">
-        <v>45679.579861111109</v>
+        <v>45679.57986111111</v>
       </c>
       <c r="D14" s="4">
-        <v>45679.694444444453</v>
-      </c>
-      <c r="E14" s="7">
+        <v>45679.69444444445</v>
+      </c>
+      <c r="E14">
         <v>104073.94</v>
       </c>
       <c r="F14" s="1">
-        <v>103607.83220123249</v>
+        <v>103607.8322012325</v>
       </c>
       <c r="G14" s="1">
         <v>105472.2633963026</v>
@@ -1189,17 +1150,17 @@
       <c r="H14" s="1">
         <v>103339.12</v>
       </c>
-      <c r="I14" s="9">
-        <v>0.23502691926082819</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14" s="11">
-        <v>-172.70248081124339</v>
+      <c r="I14" s="1">
+        <v>0.2350269192608282</v>
+      </c>
+      <c r="J14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14">
+        <v>-172.7024808112434</v>
       </c>
       <c r="L14" s="1">
-        <v>10782.085517966811</v>
+        <v>10782.08551796681</v>
       </c>
       <c r="M14" s="1">
         <v>109.5478799877805</v>
@@ -1208,13 +1169,13 @@
         <v>19</v>
       </c>
       <c r="O14">
-        <v>466.10779876753799</v>
+        <v>466.107798767538</v>
       </c>
       <c r="P14">
-        <v>1398.3233963026139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1398.323396302614</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1222,12 +1183,12 @@
         <v>16</v>
       </c>
       <c r="C15" s="4">
-        <v>45679.881944444453</v>
+        <v>45679.88194444445</v>
       </c>
       <c r="D15" s="4">
-        <v>45680.541666666657</v>
-      </c>
-      <c r="E15" s="7">
+        <v>45680.54166666666</v>
+      </c>
+      <c r="E15">
         <v>103891.76</v>
       </c>
       <c r="F15" s="1">
@@ -1239,14 +1200,14 @@
       <c r="H15" s="1">
         <v>101592.48</v>
       </c>
-      <c r="I15" s="9">
-        <v>0.21213591568689311</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="11">
-        <v>-487.75986822055938</v>
+      <c r="I15" s="1">
+        <v>0.2121359156868931</v>
+      </c>
+      <c r="J15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15">
+        <v>-487.7598682205594</v>
       </c>
       <c r="L15" s="1">
         <v>10294.32564974625</v>
@@ -1258,13 +1219,13 @@
         <v>19</v>
       </c>
       <c r="O15">
-        <v>508.26308609999251</v>
+        <v>508.2630860999925</v>
       </c>
       <c r="P15">
         <v>1524.789258299978</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1272,12 +1233,12 @@
         <v>16</v>
       </c>
       <c r="C16" s="4">
-        <v>45680.829861111109</v>
+        <v>45680.82986111111</v>
       </c>
       <c r="D16" s="4">
-        <v>45680.850694444453</v>
-      </c>
-      <c r="E16" s="7">
+        <v>45680.85069444445</v>
+      </c>
+      <c r="E16">
         <v>103770.04</v>
       </c>
       <c r="F16" s="1">
@@ -1289,17 +1250,17 @@
       <c r="H16" s="1">
         <v>106421.03</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="1">
         <v>0.1191027928070732</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16">
         <v>315.7403127036236</v>
       </c>
       <c r="L16" s="1">
-        <v>10610.065962449869</v>
+        <v>10610.06596244987</v>
       </c>
       <c r="M16" s="1">
         <v>102.9432564974625</v>
@@ -1308,13 +1269,13 @@
         <v>19</v>
       </c>
       <c r="O16">
-        <v>864.32277590848389</v>
+        <v>864.3227759084839</v>
       </c>
       <c r="P16">
-        <v>2592.9683277254521</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2592.968327725452</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1322,12 +1283,12 @@
         <v>16</v>
       </c>
       <c r="C17" s="4">
-        <v>45681.829861111109</v>
+        <v>45681.82986111111</v>
       </c>
       <c r="D17" s="4">
-        <v>45681.847222222219</v>
-      </c>
-      <c r="E17" s="7">
+        <v>45681.84722222222</v>
+      </c>
+      <c r="E17">
         <v>105760.94</v>
       </c>
       <c r="F17" s="1">
@@ -1339,17 +1300,17 @@
       <c r="H17" s="1">
         <v>105291.54</v>
       </c>
-      <c r="I17" s="9">
-        <v>0.22742242852035471</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="11">
+      <c r="I17" s="1">
+        <v>0.2274224285203547</v>
+      </c>
+      <c r="J17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17">
         <v>-106.7520879474565</v>
       </c>
       <c r="L17" s="1">
-        <v>10503.313874502421</v>
+        <v>10503.31387450242</v>
       </c>
       <c r="M17" s="1">
         <v>106.1006596244987</v>
@@ -1358,13 +1319,13 @@
         <v>19</v>
       </c>
       <c r="O17">
-        <v>466.53560211631702</v>
+        <v>466.535602116317</v>
       </c>
       <c r="P17">
-        <v>1399.6068063489511</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1399.606806348951</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1372,34 +1333,34 @@
         <v>16</v>
       </c>
       <c r="C18" s="4">
-        <v>45681.857638888891</v>
+        <v>45681.85763888889</v>
       </c>
       <c r="D18" s="4">
-        <v>45682.586805555547</v>
-      </c>
-      <c r="E18" s="7">
+        <v>45682.58680555555</v>
+      </c>
+      <c r="E18">
         <v>105052.52</v>
       </c>
       <c r="F18" s="1">
         <v>104590.815085935</v>
       </c>
       <c r="G18" s="1">
-        <v>106437.63474219519</v>
+        <v>106437.6347421952</v>
       </c>
       <c r="H18" s="1">
         <v>104541.68</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="1">
         <v>0.2274897570837339</v>
       </c>
-      <c r="J18" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" s="11">
+      <c r="J18" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18">
         <v>-116.2108675086571</v>
       </c>
       <c r="L18" s="1">
-        <v>10387.103006993761</v>
+        <v>10387.10300699376</v>
       </c>
       <c r="M18" s="1">
         <v>105.0331387450242</v>
@@ -1411,10 +1372,10 @@
         <v>461.7049140650488</v>
       </c>
       <c r="P18">
-        <v>1385.1147421951609</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1385.114742195161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -1422,31 +1383,31 @@
         <v>16</v>
       </c>
       <c r="C19" s="4">
-        <v>45683.885416666657</v>
+        <v>45683.88541666666</v>
       </c>
       <c r="D19" s="4">
         <v>45683.90625</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19">
         <v>104795.54</v>
       </c>
       <c r="F19" s="1">
         <v>104635.5126717815</v>
       </c>
       <c r="G19" s="1">
-        <v>105275.62198465561</v>
+        <v>105275.6219846556</v>
       </c>
       <c r="H19" s="1">
         <v>104552.48</v>
       </c>
-      <c r="I19" s="9">
-        <v>0.64908307366157403</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" s="11">
-        <v>-157.76613188418071</v>
+      <c r="I19" s="1">
+        <v>0.649083073661574</v>
+      </c>
+      <c r="J19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19">
+        <v>-157.7661318841807</v>
       </c>
       <c r="L19" s="1">
         <v>10229.33687510958</v>
@@ -1458,13 +1419,13 @@
         <v>19</v>
       </c>
       <c r="O19">
-        <v>160.02732821853709</v>
+        <v>160.0273282185371</v>
       </c>
       <c r="P19">
         <v>480.0819846555969</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1472,34 +1433,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="4">
-        <v>45684.541666666657</v>
+        <v>45684.54166666666</v>
       </c>
       <c r="D20" s="4">
-        <v>45684.545138888891</v>
-      </c>
-      <c r="E20" s="7">
+        <v>45684.54513888889</v>
+      </c>
+      <c r="E20">
         <v>100632.01</v>
       </c>
       <c r="F20" s="1">
         <v>101286.0915115136</v>
       </c>
       <c r="G20" s="1">
-        <v>98669.765465459277</v>
+        <v>98669.76546545928</v>
       </c>
       <c r="H20" s="1">
         <v>100622.87</v>
       </c>
-      <c r="I20" s="9">
-        <v>0.15639238680571149</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="11">
-        <v>1.4294264154041121</v>
+      <c r="I20" s="1">
+        <v>0.1563923868057115</v>
+      </c>
+      <c r="J20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20">
+        <v>1.429426415404112</v>
       </c>
       <c r="L20" s="1">
-        <v>10230.766301524989</v>
+        <v>10230.76630152499</v>
       </c>
       <c r="M20" s="1">
         <v>102.2933687510958</v>
@@ -1508,13 +1469,13 @@
         <v>19</v>
       </c>
       <c r="O20">
-        <v>654.08151151357742</v>
+        <v>654.0815115135774</v>
       </c>
       <c r="P20">
         <v>1962.244534540718</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1522,34 +1483,34 @@
         <v>15</v>
       </c>
       <c r="C21" s="4">
-        <v>45684.850694444453</v>
+        <v>45684.85069444445</v>
       </c>
       <c r="D21" s="4">
-        <v>45684.864583333343</v>
-      </c>
-      <c r="E21" s="7">
-        <v>100351.67999999999</v>
+        <v>45684.86458333334</v>
+      </c>
+      <c r="E21">
+        <v>100351.68</v>
       </c>
       <c r="F21" s="1">
         <v>100958.2739530618</v>
       </c>
       <c r="G21" s="1">
-        <v>98531.898140814548</v>
+        <v>98531.89814081455</v>
       </c>
       <c r="H21" s="1">
         <v>100932.23</v>
       </c>
-      <c r="I21" s="9">
-        <v>0.16865922005790809</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K21" s="11">
-        <v>-97.915110204619054</v>
+      <c r="I21" s="1">
+        <v>0.1686592200579081</v>
+      </c>
+      <c r="J21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21">
+        <v>-97.91511020461905</v>
       </c>
       <c r="L21" s="1">
-        <v>10132.851191320369</v>
+        <v>10132.85119132037</v>
       </c>
       <c r="M21" s="1">
         <v>102.3076630152499</v>
@@ -1558,13 +1519,13 @@
         <v>19</v>
       </c>
       <c r="O21">
-        <v>606.59395306181978</v>
+        <v>606.5939530618198</v>
       </c>
       <c r="P21">
         <v>1819.781859185445</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -1572,34 +1533,34 @@
         <v>15</v>
       </c>
       <c r="C22" s="4">
-        <v>45684.871527777781</v>
+        <v>45684.87152777778</v>
       </c>
       <c r="D22" s="4">
-        <v>45684.878472222219</v>
-      </c>
-      <c r="E22" s="7">
+        <v>45684.87847222222</v>
+      </c>
+      <c r="E22">
         <v>101386.5</v>
       </c>
       <c r="F22" s="1">
         <v>102047.4840323447</v>
       </c>
       <c r="G22" s="1">
-        <v>99403.547902965991</v>
+        <v>99403.54790296599</v>
       </c>
       <c r="H22" s="1">
         <v>101604</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="1">
         <v>0.1532994852443969</v>
       </c>
-      <c r="J22" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K22" s="11">
-        <v>-33.342638040656333</v>
+      <c r="J22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22">
+        <v>-33.34263804065633</v>
       </c>
       <c r="L22" s="1">
-        <v>10099.508553279709</v>
+        <v>10099.50855327971</v>
       </c>
       <c r="M22" s="1">
         <v>101.3285119132037</v>
@@ -1608,13 +1569,13 @@
         <v>19</v>
       </c>
       <c r="O22">
-        <v>660.98403234466969</v>
+        <v>660.9840323446697</v>
       </c>
       <c r="P22">
-        <v>1982.9520970340091</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1982.952097034009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -1622,12 +1583,12 @@
         <v>15</v>
       </c>
       <c r="C23" s="4">
-        <v>45684.881944444453</v>
+        <v>45684.88194444445</v>
       </c>
       <c r="D23" s="4">
         <v>45685.625</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23">
         <v>102295.12</v>
       </c>
       <c r="F23" s="1">
@@ -1639,32 +1600,32 @@
       <c r="H23" s="1">
         <v>102625.01</v>
       </c>
-      <c r="I23" s="9">
-        <v>0.14147039296331701</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K23" s="11">
+      <c r="I23" s="1">
+        <v>0.141470392963317</v>
+      </c>
+      <c r="J23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23">
         <v>-46.66966793466856</v>
       </c>
       <c r="L23" s="1">
         <v>10052.83888534504</v>
       </c>
       <c r="M23" s="1">
-        <v>100.99508553279711</v>
+        <v>100.9950855327971</v>
       </c>
       <c r="N23" t="s">
         <v>19</v>
       </c>
       <c r="O23">
-        <v>713.89556088237441</v>
+        <v>713.8955608823744</v>
       </c>
       <c r="P23">
-        <v>2141.6866826471228</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2141.686682647123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -1672,16 +1633,16 @@
         <v>16</v>
       </c>
       <c r="C24" s="4">
-        <v>45687.736111111109</v>
+        <v>45687.73611111111</v>
       </c>
       <c r="D24" s="4">
-        <v>45688.565972222219</v>
-      </c>
-      <c r="E24" s="7">
+        <v>45688.56597222222</v>
+      </c>
+      <c r="E24">
         <v>105018.14</v>
       </c>
       <c r="F24" s="1">
-        <v>104555.74558261409</v>
+        <v>104555.7455826141</v>
       </c>
       <c r="G24" s="1">
         <v>106405.3232521578</v>
@@ -1689,32 +1650,32 @@
       <c r="H24" s="1">
         <v>104551.09</v>
       </c>
-      <c r="I24" s="9">
-        <v>0.21740831003491171</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24" s="11">
+      <c r="I24" s="1">
+        <v>0.2174083100349117</v>
+      </c>
+      <c r="J24" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24">
         <v>-101.5405512018061</v>
       </c>
       <c r="L24" s="1">
-        <v>9951.2983341432355</v>
+        <v>9951.298334143235</v>
       </c>
       <c r="M24" s="1">
-        <v>100.52838885345039</v>
+        <v>100.5283888534504</v>
       </c>
       <c r="N24" t="s">
         <v>19</v>
       </c>
       <c r="O24">
-        <v>462.39441738592001</v>
+        <v>462.39441738592</v>
       </c>
       <c r="P24">
-        <v>1387.1832521577739</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1387.183252157774</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -1722,31 +1683,31 @@
         <v>15</v>
       </c>
       <c r="C25" s="4">
-        <v>45690.590277777781</v>
+        <v>45690.59027777778</v>
       </c>
       <c r="D25" s="4">
-        <v>45690.722222222219</v>
-      </c>
-      <c r="E25" s="7">
+        <v>45690.72222222222</v>
+      </c>
+      <c r="E25">
         <v>99272.12</v>
       </c>
       <c r="F25" s="1">
         <v>99715.13450807023</v>
       </c>
       <c r="G25" s="1">
-        <v>97943.076475789276</v>
+        <v>97943.07647578928</v>
       </c>
       <c r="H25" s="1">
         <v>97727</v>
       </c>
-      <c r="I25" s="9">
-        <v>0.22462691746802951</v>
-      </c>
-      <c r="J25" s="10" t="s">
+      <c r="I25" s="1">
+        <v>0.2246269174680295</v>
+      </c>
+      <c r="J25" t="s">
         <v>18</v>
       </c>
-      <c r="K25" s="11">
-        <v>347.07554271820072</v>
+      <c r="K25">
+        <v>347.0755427182007</v>
       </c>
       <c r="L25" s="1">
         <v>10298.37387686144</v>
@@ -1758,13 +1719,13 @@
         <v>19</v>
       </c>
       <c r="O25">
-        <v>443.01450807023502</v>
+        <v>443.014508070235</v>
       </c>
       <c r="P25">
-        <v>1329.0435242107201</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1329.04352421072</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -1772,31 +1733,31 @@
         <v>15</v>
       </c>
       <c r="C26" s="4">
-        <v>45690.822916666657</v>
+        <v>45690.82291666666</v>
       </c>
       <c r="D26" s="4">
-        <v>45691.541666666657</v>
-      </c>
-      <c r="E26" s="7">
+        <v>45691.54166666666</v>
+      </c>
+      <c r="E26">
         <v>98512.55</v>
       </c>
       <c r="F26" s="1">
-        <v>99337.822219288209</v>
+        <v>99337.82221928821</v>
       </c>
       <c r="G26" s="1">
-        <v>96036.733342135369</v>
+        <v>96036.73334213537</v>
       </c>
       <c r="H26" s="1">
-        <v>94564.71</v>
-      </c>
-      <c r="I26" s="9">
+        <v>94564.71000000001</v>
+      </c>
+      <c r="I26" s="1">
         <v>0.1247875990027113</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="J26" t="s">
         <v>18</v>
       </c>
-      <c r="K26" s="11">
-        <v>492.64147484686339</v>
+      <c r="K26">
+        <v>492.6414748468634</v>
       </c>
       <c r="L26" s="1">
         <v>10791.0153517083</v>
@@ -1808,13 +1769,13 @@
         <v>19</v>
       </c>
       <c r="O26">
-        <v>825.27221928820654</v>
+        <v>825.2722192882065</v>
       </c>
       <c r="P26">
-        <v>2475.8166578646342</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2475.816657864634</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -1822,30 +1783,30 @@
         <v>15</v>
       </c>
       <c r="C27" s="4">
-        <v>45691.611111111109</v>
+        <v>45691.61111111111</v>
       </c>
       <c r="D27" s="4">
-        <v>45691.635416666657</v>
-      </c>
-      <c r="E27" s="7">
+        <v>45691.63541666666</v>
+      </c>
+      <c r="E27">
         <v>96150.84</v>
       </c>
       <c r="F27" s="1">
-        <v>97150.404590042002</v>
+        <v>97150.404590042</v>
       </c>
       <c r="G27" s="1">
-        <v>93152.146229873964</v>
+        <v>93152.14622987396</v>
       </c>
       <c r="H27" s="1">
         <v>96570</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="1">
         <v>0.107957159139209</v>
       </c>
-      <c r="J27" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K27" s="11">
+      <c r="J27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27">
         <v>-45.25132282479121</v>
       </c>
       <c r="L27" s="1">
@@ -1858,13 +1819,13 @@
         <v>19</v>
       </c>
       <c r="O27">
-        <v>999.56459004200588</v>
+        <v>999.5645900420059</v>
       </c>
       <c r="P27">
-        <v>2998.6937701260322</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2998.693770126032</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -1872,49 +1833,49 @@
         <v>15</v>
       </c>
       <c r="C28" s="4">
-        <v>45691.666666666657</v>
+        <v>45691.66666666666</v>
       </c>
       <c r="D28" s="4">
-        <v>45691.784722222219</v>
-      </c>
-      <c r="E28" s="7">
-        <v>98730.93</v>
+        <v>45691.78472222222</v>
+      </c>
+      <c r="E28">
+        <v>98730.92999999999</v>
       </c>
       <c r="F28" s="1">
-        <v>99908.622508374698</v>
+        <v>99908.6225083747</v>
       </c>
       <c r="G28" s="1">
-        <v>95197.852474875894</v>
+        <v>95197.85247487589</v>
       </c>
       <c r="H28" s="1">
         <v>99795.94</v>
       </c>
-      <c r="I28" s="9">
-        <v>9.1244225062732123E-2</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K28" s="11">
-        <v>-97.176012134061182</v>
+      <c r="I28" s="1">
+        <v>0.09124422506273212</v>
+      </c>
+      <c r="J28" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28">
+        <v>-97.17601213406118</v>
       </c>
       <c r="L28" s="1">
-        <v>10648.588016749451</v>
+        <v>10648.58801674945</v>
       </c>
       <c r="M28" s="1">
-        <v>107.45764028883509</v>
+        <v>107.4576402888351</v>
       </c>
       <c r="N28" t="s">
         <v>19</v>
       </c>
       <c r="O28">
-        <v>1177.6925083747051</v>
+        <v>1177.692508374705</v>
       </c>
       <c r="P28">
-        <v>3533.0775251240989</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3533.077525124099</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -1922,31 +1883,31 @@
         <v>15</v>
       </c>
       <c r="C29" s="4">
-        <v>45693.576388888891</v>
+        <v>45693.57638888889</v>
       </c>
       <c r="D29" s="4">
-        <v>45693.611111111109</v>
-      </c>
-      <c r="E29" s="7">
-        <v>98581.99</v>
+        <v>45693.61111111111</v>
+      </c>
+      <c r="E29">
+        <v>98581.99000000001</v>
       </c>
       <c r="F29" s="1">
-        <v>98923.605897969013</v>
+        <v>98923.60589796901</v>
       </c>
       <c r="G29" s="1">
-        <v>97557.142306092981</v>
+        <v>97557.14230609298</v>
       </c>
       <c r="H29" s="1">
-        <v>98746.93</v>
-      </c>
-      <c r="I29" s="9">
-        <v>0.31171230847445819</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K29" s="11">
-        <v>-51.413828159773317</v>
+        <v>98746.92999999999</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.3117123084744582</v>
+      </c>
+      <c r="J29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29">
+        <v>-51.41382815977332</v>
       </c>
       <c r="L29" s="1">
         <v>10597.17418858967</v>
@@ -1958,13 +1919,13 @@
         <v>19</v>
       </c>
       <c r="O29">
-        <v>341.61589796900807</v>
+        <v>341.6158979690081</v>
       </c>
       <c r="P29">
         <v>1024.847693907024</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -1972,49 +1933,49 @@
         <v>15</v>
       </c>
       <c r="C30" s="4">
-        <v>45694.864583333343</v>
+        <v>45694.86458333334</v>
       </c>
       <c r="D30" s="4">
-        <v>45695.541666666657</v>
-      </c>
-      <c r="E30" s="7">
-        <v>96870.9</v>
+        <v>45695.54166666666</v>
+      </c>
+      <c r="E30">
+        <v>96870.89999999999</v>
       </c>
       <c r="F30" s="1">
-        <v>97360.841236914697</v>
+        <v>97360.8412369147</v>
       </c>
       <c r="G30" s="1">
-        <v>95401.076289255885</v>
+        <v>95401.07628925589</v>
       </c>
       <c r="H30" s="1">
         <v>97900</v>
       </c>
-      <c r="I30" s="9">
-        <v>0.21629480007282181</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30" s="11">
-        <v>-222.58897875494219</v>
+      <c r="I30" s="1">
+        <v>0.2162948000728218</v>
+      </c>
+      <c r="J30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30">
+        <v>-222.5889787549422</v>
       </c>
       <c r="L30" s="1">
         <v>10374.58520983473</v>
       </c>
       <c r="M30" s="1">
-        <v>105.97174188589671</v>
+        <v>105.9717418858967</v>
       </c>
       <c r="N30" t="s">
         <v>19</v>
       </c>
       <c r="O30">
-        <v>489.94123691470298</v>
+        <v>489.941236914703</v>
       </c>
       <c r="P30">
-        <v>1469.8237107441089</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1469.823710744109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -2022,31 +1983,31 @@
         <v>15</v>
       </c>
       <c r="C31" s="4">
-        <v>45696.569444444453</v>
+        <v>45696.56944444445</v>
       </c>
       <c r="D31" s="4">
-        <v>45696.645833333343</v>
-      </c>
-      <c r="E31" s="7">
+        <v>45696.64583333334</v>
+      </c>
+      <c r="E31">
         <v>96418.33</v>
       </c>
       <c r="F31" s="1">
-        <v>96632.080105326022</v>
+        <v>96632.08010532602</v>
       </c>
       <c r="G31" s="1">
-        <v>95777.079684021941</v>
+        <v>95777.07968402194</v>
       </c>
       <c r="H31" s="1">
         <v>95688</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="1">
         <v>0.4853604724082356</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="J31" t="s">
         <v>18</v>
       </c>
-      <c r="K31" s="11">
-        <v>354.47331381390762</v>
+      <c r="K31">
+        <v>354.4733138139076</v>
       </c>
       <c r="L31" s="1">
         <v>10729.05852364864</v>
@@ -2061,10 +2022,10 @@
         <v>213.7501053260203</v>
       </c>
       <c r="P31">
-        <v>641.25031597806083</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+        <v>641.2503159780608</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -2072,49 +2033,49 @@
         <v>15</v>
       </c>
       <c r="C32" s="4">
-        <v>45696.711805555547</v>
+        <v>45696.71180555555</v>
       </c>
       <c r="D32" s="4">
-        <v>45696.777777777781</v>
-      </c>
-      <c r="E32" s="7">
-        <v>96282.74</v>
+        <v>45696.77777777778</v>
+      </c>
+      <c r="E32">
+        <v>96282.74000000001</v>
       </c>
       <c r="F32" s="1">
-        <v>96504.355459768733</v>
+        <v>96504.35545976873</v>
       </c>
       <c r="G32" s="1">
-        <v>95617.893620693823</v>
+        <v>95617.89362069382</v>
       </c>
       <c r="H32" s="1">
         <v>96423.03</v>
       </c>
-      <c r="I32" s="9">
-        <v>0.48412951582192121</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K32" s="11">
-        <v>-67.918529774654218</v>
+      <c r="I32" s="1">
+        <v>0.4841295158219212</v>
+      </c>
+      <c r="J32" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32">
+        <v>-67.91852977465422</v>
       </c>
       <c r="L32" s="1">
-        <v>10661.139993873991</v>
+        <v>10661.13999387399</v>
       </c>
       <c r="M32" s="1">
-        <v>107.29058523648639</v>
+        <v>107.2905852364864</v>
       </c>
       <c r="N32" t="s">
         <v>19</v>
       </c>
       <c r="O32">
-        <v>221.61545976872731</v>
+        <v>221.6154597687273</v>
       </c>
       <c r="P32">
-        <v>664.84637930618192</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+        <v>664.8463793061819</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -2122,49 +2083,49 @@
         <v>15</v>
       </c>
       <c r="C33" s="4">
-        <v>45696.805555555547</v>
+        <v>45696.80555555555</v>
       </c>
       <c r="D33" s="4">
-        <v>45697.572916666657</v>
-      </c>
-      <c r="E33" s="7">
+        <v>45697.57291666666</v>
+      </c>
+      <c r="E33">
         <v>96622.64</v>
       </c>
       <c r="F33" s="1">
-        <v>96814.100350878842</v>
+        <v>96814.10035087884</v>
       </c>
       <c r="G33" s="1">
-        <v>96048.258947363458</v>
+        <v>96048.25894736346</v>
       </c>
       <c r="H33" s="1">
         <v>95915.44</v>
       </c>
-      <c r="I33" s="9">
-        <v>0.55683278260679903</v>
-      </c>
-      <c r="J33" s="10" t="s">
+      <c r="I33" s="1">
+        <v>0.556832782606799</v>
+      </c>
+      <c r="J33" t="s">
         <v>18</v>
       </c>
-      <c r="K33" s="11">
-        <v>393.79214385952667</v>
+      <c r="K33">
+        <v>393.7921438595267</v>
       </c>
       <c r="L33" s="1">
-        <v>11054.932137733511</v>
+        <v>11054.93213773351</v>
       </c>
       <c r="M33" s="1">
-        <v>106.61139993873989</v>
+        <v>106.6113999387399</v>
       </c>
       <c r="N33" t="s">
         <v>19</v>
       </c>
       <c r="O33">
-        <v>191.46035087884229</v>
+        <v>191.4603508788423</v>
       </c>
       <c r="P33">
-        <v>574.38105263654143</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+        <v>574.3810526365414</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -2172,31 +2133,31 @@
         <v>15</v>
       </c>
       <c r="C34" s="4">
-        <v>45697.652777777781</v>
+        <v>45697.65277777778</v>
       </c>
       <c r="D34" s="4">
-        <v>45697.899305555547</v>
-      </c>
-      <c r="E34" s="7">
+        <v>45697.89930555555</v>
+      </c>
+      <c r="E34">
         <v>96612.05</v>
       </c>
       <c r="F34" s="1">
-        <v>96880.507053391193</v>
+        <v>96880.50705339119</v>
       </c>
       <c r="G34" s="1">
-        <v>95806.678839826433</v>
+        <v>95806.67883982643</v>
       </c>
       <c r="H34" s="1">
-        <v>95376.65</v>
-      </c>
-      <c r="I34" s="9">
-        <v>0.41179518280804822</v>
-      </c>
-      <c r="J34" s="10" t="s">
+        <v>95376.64999999999</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.4117951828080482</v>
+      </c>
+      <c r="J34" t="s">
         <v>18</v>
       </c>
-      <c r="K34" s="11">
-        <v>508.73176884106641</v>
+      <c r="K34">
+        <v>508.7317688410664</v>
       </c>
       <c r="L34" s="1">
         <v>11563.66390657458</v>
@@ -2208,13 +2169,13 @@
         <v>19</v>
       </c>
       <c r="O34">
-        <v>268.45705339119007</v>
+        <v>268.4570533911901</v>
       </c>
       <c r="P34">
-        <v>805.37116017357039</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+        <v>805.3711601735704</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -2222,16 +2183,16 @@
         <v>15</v>
       </c>
       <c r="C35" s="4">
-        <v>45699.888888888891</v>
+        <v>45699.88888888889</v>
       </c>
       <c r="D35" s="4">
-        <v>45699.899305555547</v>
-      </c>
-      <c r="E35" s="7">
+        <v>45699.89930555555</v>
+      </c>
+      <c r="E35">
         <v>95686.37</v>
       </c>
       <c r="F35" s="1">
-        <v>96056.143740286512</v>
+        <v>96056.14374028651</v>
       </c>
       <c r="G35" s="1">
         <v>94577.04877914043</v>
@@ -2239,14 +2200,14 @@
       <c r="H35" s="1">
         <v>95959.38</v>
       </c>
-      <c r="I35" s="9">
-        <v>0.31272269084371818</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K35" s="11">
-        <v>-85.376421827246432</v>
+      <c r="I35" s="1">
+        <v>0.3127226908437182</v>
+      </c>
+      <c r="J35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35">
+        <v>-85.37642182724643</v>
       </c>
       <c r="L35" s="1">
         <v>11478.28748474733</v>
@@ -2258,13 +2219,13 @@
         <v>19</v>
       </c>
       <c r="O35">
-        <v>369.77374028651678</v>
+        <v>369.7737402865168</v>
       </c>
       <c r="P35">
-        <v>1109.3212208595651</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1109.321220859565</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -2277,44 +2238,44 @@
       <c r="D36" s="4">
         <v>45700.5625</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36">
         <v>96317.67</v>
       </c>
       <c r="F36" s="1">
-        <v>96720.531834451787</v>
+        <v>96720.53183445179</v>
       </c>
       <c r="G36" s="1">
-        <v>95109.084496644617</v>
+        <v>95109.08449664462</v>
       </c>
       <c r="H36" s="1">
-        <v>94844.800000000003</v>
-      </c>
-      <c r="I36" s="9">
-        <v>0.28491871165624028</v>
-      </c>
-      <c r="J36" s="10" t="s">
+        <v>94844.8</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.2849187116562403</v>
+      </c>
+      <c r="J36" t="s">
         <v>18</v>
       </c>
-      <c r="K36" s="11">
-        <v>419.64822283712539</v>
+      <c r="K36">
+        <v>419.6482228371254</v>
       </c>
       <c r="L36" s="1">
         <v>11897.93570758446</v>
       </c>
       <c r="M36" s="1">
-        <v>114.78287484747329</v>
+        <v>114.7828748474733</v>
       </c>
       <c r="N36" t="s">
         <v>19</v>
       </c>
       <c r="O36">
-        <v>402.86183445178898</v>
+        <v>402.861834451789</v>
       </c>
       <c r="P36">
-        <v>1208.5855033553819</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1208.585503355382</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -2322,31 +2283,31 @@
         <v>15</v>
       </c>
       <c r="C37" s="4">
-        <v>45701.798611111109</v>
+        <v>45701.79861111111</v>
       </c>
       <c r="D37" s="4">
-        <v>45701.895833333343</v>
-      </c>
-      <c r="E37" s="7">
+        <v>45701.89583333334</v>
+      </c>
+      <c r="E37">
         <v>96270.05</v>
       </c>
       <c r="F37" s="1">
-        <v>96701.702112878702</v>
+        <v>96701.70211287875</v>
       </c>
       <c r="G37" s="1">
-        <v>94975.093661363804</v>
+        <v>94975.09366136376</v>
       </c>
       <c r="H37" s="1">
-        <v>96412.79</v>
-      </c>
-      <c r="I37" s="9">
-        <v>0.27563714742957268</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K37" s="11">
-        <v>-39.344446424094649</v>
+        <v>96412.78999999999</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.2756371474295727</v>
+      </c>
+      <c r="J37" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37">
+        <v>-39.34444642409465</v>
       </c>
       <c r="L37" s="1">
         <v>11858.59126116036</v>
@@ -2358,18 +2319,18 @@
         <v>19</v>
       </c>
       <c r="O37">
-        <v>431.65211287874263</v>
+        <v>431.6521128787426</v>
       </c>
       <c r="P37">
         <v>1294.956338636242</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16">
       <c r="A41" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -2377,7 +2338,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -2385,15 +2346,15 @@
         <v>11858.59126116036</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
         <v>23</v>
       </c>
       <c r="B44" s="5">
-        <v>0.18585912611603631</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.1858591261160363</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -2401,7 +2362,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
         <v>25</v>
       </c>

--- a/trading_results.xlsx
+++ b/trading_results.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\Backtesting\strategy\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Trade History" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="27">
   <si>
     <t>Position</t>
   </si>
@@ -50,6 +55,9 @@
   </si>
   <si>
     <t>Risk Amount ($)</t>
+  </si>
+  <si>
+    <t>Actual Risk ($)</t>
   </si>
   <si>
     <t>Risk-Reward Ratio</t>
@@ -97,13 +105,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="$#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="0.00%"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +121,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -158,10 +173,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -169,13 +185,24 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -222,7 +249,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -254,9 +281,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -288,6 +316,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -463,22 +492,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="9" width="15.7109375" style="1" customWidth="1"/>
-    <col min="10" max="11" width="15.7109375" customWidth="1"/>
+    <col min="6" max="8" width="15.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="7" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="20.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -506,7 +544,7 @@
       <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -524,69 +562,75 @@
       <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" s="4">
-        <v>45666.63541666666</v>
+        <v>45666.635416666657</v>
       </c>
       <c r="D2" s="4">
-        <v>45666.64583333334</v>
+        <v>45666.645833333343</v>
       </c>
       <c r="E2">
         <v>93188.2</v>
       </c>
       <c r="F2" s="1">
-        <v>93801.34997159497</v>
+        <v>93801.349971594973</v>
       </c>
       <c r="G2" s="1">
-        <v>91348.75008521508</v>
+        <v>91348.750085215084</v>
       </c>
       <c r="H2" s="1">
         <v>93452</v>
       </c>
       <c r="I2" s="1">
-        <v>0.1630922362107786</v>
+        <v>0.16309223621077859</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2">
-        <v>-43.02373191240387</v>
+        <v>18</v>
+      </c>
+      <c r="K2" s="7">
+        <v>-43.023731912403868</v>
       </c>
       <c r="L2" s="1">
-        <v>9956.976268087596</v>
+        <v>9956.9762680875956</v>
       </c>
       <c r="M2" s="1">
         <v>100</v>
       </c>
-      <c r="N2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2">
+      <c r="N2">
+        <v>99.999999999999986</v>
+      </c>
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2">
         <v>613.1499715949758</v>
       </c>
-      <c r="P2">
-        <v>1839.449914784913</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2">
+        <v>1839.4499147849131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="4">
-        <v>45666.64930555555</v>
+        <v>45666.649305555547</v>
       </c>
       <c r="D3" s="4">
-        <v>45666.65972222222</v>
+        <v>45666.659722222219</v>
       </c>
       <c r="E3">
         <v>93739.87</v>
@@ -595,169 +639,178 @@
         <v>94376.30887387348</v>
       </c>
       <c r="G3" s="1">
-        <v>91830.55337837953</v>
+        <v>91830.553378379525</v>
       </c>
       <c r="H3" s="1">
-        <v>94100.49000000001</v>
+        <v>94100.49</v>
       </c>
       <c r="I3" s="1">
-        <v>0.1564482729894796</v>
+        <v>0.15644827298947961</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3">
-        <v>-56.41837620546767</v>
+        <v>18</v>
+      </c>
+      <c r="K3" s="7">
+        <v>-56.418376205467673</v>
       </c>
       <c r="L3" s="1">
-        <v>9900.557891882128</v>
+        <v>9900.5578918821284</v>
       </c>
       <c r="M3" s="1">
-        <v>99.56976268087595</v>
-      </c>
-      <c r="N3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3">
-        <v>636.4388738734851</v>
+        <v>99.569762680875954</v>
+      </c>
+      <c r="N3">
+        <v>99.569762680875954</v>
+      </c>
+      <c r="O3" t="s">
+        <v>20</v>
       </c>
       <c r="P3">
+        <v>636.43887387348514</v>
+      </c>
+      <c r="Q3">
         <v>1909.31662162047</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4">
-        <v>45666.66319444445</v>
+        <v>45666.663194444453</v>
       </c>
       <c r="D4" s="4">
-        <v>45666.82291666666</v>
+        <v>45666.822916666657</v>
       </c>
       <c r="E4">
         <v>94244.02</v>
       </c>
       <c r="F4" s="1">
-        <v>94919.84370097617</v>
+        <v>94919.843700976169</v>
       </c>
       <c r="G4" s="1">
-        <v>92216.54889707149</v>
+        <v>92216.548897071494</v>
       </c>
       <c r="H4" s="1">
-        <v>92106.85000000001</v>
+        <v>92106.85</v>
       </c>
       <c r="I4" s="1">
-        <v>0.1464961627948485</v>
+        <v>0.14649616279484851</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4">
-        <v>313.0872042402661</v>
+        <v>19</v>
+      </c>
+      <c r="K4" s="7">
+        <v>313.08720424026609</v>
       </c>
       <c r="L4" s="1">
-        <v>10213.64509612239</v>
+        <v>10213.645096122391</v>
       </c>
       <c r="M4" s="1">
-        <v>99.00557891882129</v>
-      </c>
-      <c r="N4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4">
-        <v>675.8237009761651</v>
+        <v>99.005578918821286</v>
+      </c>
+      <c r="N4">
+        <v>99.005578918821286</v>
+      </c>
+      <c r="O4" t="s">
+        <v>20</v>
       </c>
       <c r="P4">
-        <v>2027.47110292851</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>675.82370097616513</v>
+      </c>
+      <c r="Q4">
+        <v>2027.4711029285099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4">
         <v>45667.75</v>
       </c>
       <c r="D5" s="4">
-        <v>45670.54166666666</v>
+        <v>45670.541666666657</v>
       </c>
       <c r="E5">
         <v>95486.73</v>
       </c>
       <c r="F5" s="1">
-        <v>96318.69892474354</v>
+        <v>96318.698924743541</v>
       </c>
       <c r="G5" s="1">
         <v>92990.82322576936</v>
       </c>
       <c r="H5" s="1">
-        <v>90583.24000000001</v>
+        <v>90583.24</v>
       </c>
       <c r="I5" s="1">
         <v>0.1227647426767863</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5">
-        <v>601.9756880681938</v>
+        <v>19</v>
+      </c>
+      <c r="K5" s="7">
+        <v>601.97568806819379</v>
       </c>
       <c r="L5" s="1">
-        <v>10815.62078419059</v>
+        <v>10815.620784190591</v>
       </c>
       <c r="M5" s="1">
         <v>102.1364509612239</v>
       </c>
-      <c r="N5" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5">
-        <v>831.9689247435454</v>
+      <c r="N5">
+        <v>102.1364509612239</v>
+      </c>
+      <c r="O5" t="s">
+        <v>20</v>
       </c>
       <c r="P5">
-        <v>2495.906774230636</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>831.96892474354536</v>
+      </c>
+      <c r="Q5">
+        <v>2495.9067742306361</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="4">
-        <v>45670.63541666666</v>
+        <v>45670.635416666657</v>
       </c>
       <c r="D6" s="4">
-        <v>45670.86805555555</v>
+        <v>45670.868055555547</v>
       </c>
       <c r="E6">
-        <v>92680.00999999999</v>
+        <v>92680.01</v>
       </c>
       <c r="F6" s="1">
-        <v>93739.19579047592</v>
+        <v>93739.195790475918</v>
       </c>
       <c r="G6" s="1">
-        <v>89502.45262857222</v>
+        <v>89502.452628572224</v>
       </c>
       <c r="H6" s="1">
-        <v>93228.99000000001</v>
+        <v>93228.99</v>
       </c>
       <c r="I6" s="1">
-        <v>0.1021125932904633</v>
+        <v>0.10211259329046329</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6">
-        <v>-56.05777146459963</v>
+        <v>18</v>
+      </c>
+      <c r="K6" s="7">
+        <v>-56.057771464599632</v>
       </c>
       <c r="L6" s="1">
         <v>10759.56301272599</v>
@@ -765,78 +818,84 @@
       <c r="M6" s="1">
         <v>108.1562078419059</v>
       </c>
-      <c r="N6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6">
+      <c r="N6">
+        <v>108.1562078419059</v>
+      </c>
+      <c r="O6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6">
         <v>1059.185790475924</v>
       </c>
-      <c r="P6">
-        <v>3177.557371427771</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6">
+        <v>3177.5573714277712</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="4">
         <v>45673.625</v>
       </c>
       <c r="D7" s="4">
-        <v>45673.67013888889</v>
+        <v>45673.670138888891</v>
       </c>
       <c r="E7">
         <v>97571.23</v>
       </c>
       <c r="F7" s="1">
-        <v>96887.64624180444</v>
+        <v>96887.646241804439</v>
       </c>
       <c r="G7" s="1">
-        <v>99621.98127458667</v>
+        <v>99621.981274586666</v>
       </c>
       <c r="H7" s="1">
         <v>99815.27</v>
       </c>
       <c r="I7" s="1">
-        <v>0.1573993367122679</v>
+        <v>0.15739933671226791</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7">
-        <v>353.2104075557988</v>
+        <v>19</v>
+      </c>
+      <c r="K7" s="7">
+        <v>353.21040755579878</v>
       </c>
       <c r="L7" s="1">
         <v>11112.77342028179</v>
       </c>
       <c r="M7" s="1">
-        <v>107.5956301272599</v>
-      </c>
-      <c r="N7" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7">
-        <v>683.5837581955566</v>
+        <v>107.59563012725989</v>
+      </c>
+      <c r="N7">
+        <v>107.59563012725989</v>
+      </c>
+      <c r="O7" t="s">
+        <v>20</v>
       </c>
       <c r="P7">
-        <v>2050.75127458667</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>683.58375819555658</v>
+      </c>
+      <c r="Q7">
+        <v>2050.7512745866702</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="4">
-        <v>45674.87152777778</v>
+        <v>45674.871527777781</v>
       </c>
       <c r="D8" s="4">
-        <v>45675.54166666666</v>
+        <v>45675.541666666657</v>
       </c>
       <c r="E8">
         <v>104692.7</v>
@@ -845,19 +904,19 @@
         <v>104197.1529992671</v>
       </c>
       <c r="G8" s="1">
-        <v>106179.3410021986</v>
+        <v>106179.34100219861</v>
       </c>
       <c r="H8" s="1">
         <v>103424.59</v>
       </c>
       <c r="I8" s="1">
-        <v>0.2242526622872638</v>
+        <v>0.22425266228726379</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8">
-        <v>-284.3770435731022</v>
+        <v>18</v>
+      </c>
+      <c r="K8" s="7">
+        <v>-284.37704357310218</v>
       </c>
       <c r="L8" s="1">
         <v>10828.39637670869</v>
@@ -865,28 +924,31 @@
       <c r="M8" s="1">
         <v>111.1277342028179</v>
       </c>
-      <c r="N8" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8">
-        <v>495.547000732884</v>
+      <c r="N8">
+        <v>111.1277342028179</v>
+      </c>
+      <c r="O8" t="s">
+        <v>20</v>
       </c>
       <c r="P8">
+        <v>495.54700073288399</v>
+      </c>
+      <c r="Q8">
         <v>1486.641002198638</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="4">
-        <v>45675.70138888889</v>
+        <v>45675.701388888891</v>
       </c>
       <c r="D9" s="4">
-        <v>45676.54166666666</v>
+        <v>45676.541666666657</v>
       </c>
       <c r="E9">
         <v>103240.85</v>
@@ -895,7 +957,7 @@
         <v>102688.8552242209</v>
       </c>
       <c r="G9" s="1">
-        <v>104896.8343273375</v>
+        <v>104896.83432733751</v>
       </c>
       <c r="H9" s="1">
         <v>105157.8</v>
@@ -904,39 +966,42 @@
         <v>0.1961684575986099</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9">
-        <v>376.0451247936547</v>
+        <v>19</v>
+      </c>
+      <c r="K9" s="7">
+        <v>376.04512479365468</v>
       </c>
       <c r="L9" s="1">
-        <v>11204.44150150234</v>
+        <v>11204.441501502341</v>
       </c>
       <c r="M9" s="1">
         <v>108.2839637670869</v>
       </c>
-      <c r="N9" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9">
-        <v>551.9947757791524</v>
+      <c r="N9">
+        <v>108.2839637670869</v>
+      </c>
+      <c r="O9" t="s">
+        <v>20</v>
       </c>
       <c r="P9">
+        <v>551.99477577915241</v>
+      </c>
+      <c r="Q9">
         <v>1655.984327337472</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="4">
-        <v>45677.65972222222</v>
+        <v>45677.659722222219</v>
       </c>
       <c r="D10" s="4">
-        <v>45677.67361111111</v>
+        <v>45677.673611111109</v>
       </c>
       <c r="E10">
         <v>105535.7</v>
@@ -945,7 +1010,7 @@
         <v>104427.1512541753</v>
       </c>
       <c r="G10" s="1">
-        <v>108861.3462374741</v>
+        <v>108861.34623747411</v>
       </c>
       <c r="H10" s="1">
         <v>103708</v>
@@ -954,9 +1019,9 @@
         <v>0.1010730610061438</v>
       </c>
       <c r="J10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10">
+        <v>18</v>
+      </c>
+      <c r="K10" s="7">
         <v>-184.7312336009287</v>
       </c>
       <c r="L10" s="1">
@@ -965,28 +1030,31 @@
       <c r="M10" s="1">
         <v>112.0444150150234</v>
       </c>
-      <c r="N10" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10">
+      <c r="N10">
+        <v>112.0444150150234</v>
+      </c>
+      <c r="O10" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10">
         <v>1108.548745824693</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>3325.64623747408</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="4">
-        <v>45678.62847222222</v>
+        <v>45678.628472222219</v>
       </c>
       <c r="D11" s="4">
-        <v>45678.67361111111</v>
+        <v>45678.673611111109</v>
       </c>
       <c r="E11">
         <v>103281.22</v>
@@ -1004,45 +1072,48 @@
         <v>0.1152930814464031</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11">
-        <v>348.0444484087726</v>
+        <v>19</v>
+      </c>
+      <c r="K11" s="7">
+        <v>348.04444840877261</v>
       </c>
       <c r="L11" s="1">
-        <v>11367.75471631018</v>
+        <v>11367.754716310181</v>
       </c>
       <c r="M11" s="1">
-        <v>110.1971026790141</v>
-      </c>
-      <c r="N11" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11">
-        <v>955.7997869129904</v>
+        <v>110.19710267901409</v>
+      </c>
+      <c r="N11">
+        <v>110.19710267901409</v>
+      </c>
+      <c r="O11" t="s">
+        <v>20</v>
       </c>
       <c r="P11">
-        <v>2867.399360738986</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>955.79978691299038</v>
+      </c>
+      <c r="Q11">
+        <v>2867.3993607389862</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" s="4">
-        <v>45678.86111111111</v>
+        <v>45678.861111111109</v>
       </c>
       <c r="D12" s="4">
-        <v>45679.54166666666</v>
+        <v>45679.541666666657</v>
       </c>
       <c r="E12">
         <v>106072</v>
       </c>
       <c r="F12" s="1">
-        <v>105391.0783661026</v>
+        <v>105391.07836610261</v>
       </c>
       <c r="G12" s="1">
         <v>108114.7649016923</v>
@@ -1051,48 +1122,51 @@
         <v>105039.74</v>
       </c>
       <c r="I12" s="1">
-        <v>0.1669465934169848</v>
+        <v>0.16694659341698481</v>
       </c>
       <c r="J12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12">
+        <v>18</v>
+      </c>
+      <c r="K12" s="7">
         <v>-172.3322905206158</v>
       </c>
       <c r="L12" s="1">
-        <v>11195.42242578957</v>
+        <v>11195.422425789569</v>
       </c>
       <c r="M12" s="1">
-        <v>113.6775471631018</v>
-      </c>
-      <c r="N12" t="s">
-        <v>19</v>
-      </c>
-      <c r="O12">
+        <v>113.67754716310181</v>
+      </c>
+      <c r="N12">
+        <v>113.67754716310181</v>
+      </c>
+      <c r="O12" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12">
         <v>680.921633897422</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>2042.764901692251</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" s="4">
-        <v>45679.54861111111</v>
+        <v>45679.548611111109</v>
       </c>
       <c r="D13" s="4">
-        <v>45679.56597222222</v>
+        <v>45679.565972222219</v>
       </c>
       <c r="E13">
         <v>104947.17</v>
       </c>
       <c r="F13" s="1">
-        <v>104638.4792248785</v>
+        <v>104638.47922487849</v>
       </c>
       <c r="G13" s="1">
         <v>105873.2423253646</v>
@@ -1101,48 +1175,51 @@
         <v>104283.67</v>
       </c>
       <c r="I13" s="1">
-        <v>0.3626743436496069</v>
+        <v>0.36267434364960688</v>
       </c>
       <c r="J13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13">
-        <v>-240.6344270115142</v>
+        <v>18</v>
+      </c>
+      <c r="K13" s="7">
+        <v>-240.63442701151419</v>
       </c>
       <c r="L13" s="1">
-        <v>10954.78799877805</v>
+        <v>10954.787998778051</v>
       </c>
       <c r="M13" s="1">
         <v>111.9542242578957</v>
       </c>
-      <c r="N13" t="s">
-        <v>19</v>
-      </c>
-      <c r="O13">
-        <v>308.6907751215476</v>
+      <c r="N13">
+        <v>111.9542242578957</v>
+      </c>
+      <c r="O13" t="s">
+        <v>20</v>
       </c>
       <c r="P13">
-        <v>926.0723253646429</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>308.69077512154757</v>
+      </c>
+      <c r="Q13">
+        <v>926.07232536464289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" s="4">
-        <v>45679.57986111111</v>
+        <v>45679.579861111109</v>
       </c>
       <c r="D14" s="4">
-        <v>45679.69444444445</v>
+        <v>45679.694444444453</v>
       </c>
       <c r="E14">
         <v>104073.94</v>
       </c>
       <c r="F14" s="1">
-        <v>103607.8322012325</v>
+        <v>103607.83220123249</v>
       </c>
       <c r="G14" s="1">
         <v>105472.2633963026</v>
@@ -1151,42 +1228,45 @@
         <v>103339.12</v>
       </c>
       <c r="I14" s="1">
-        <v>0.2350269192608282</v>
+        <v>0.23502691926082819</v>
       </c>
       <c r="J14" t="s">
-        <v>17</v>
-      </c>
-      <c r="K14">
-        <v>-172.7024808112434</v>
+        <v>18</v>
+      </c>
+      <c r="K14" s="7">
+        <v>-172.70248081124339</v>
       </c>
       <c r="L14" s="1">
-        <v>10782.08551796681</v>
+        <v>10782.085517966811</v>
       </c>
       <c r="M14" s="1">
         <v>109.5478799877805</v>
       </c>
-      <c r="N14" t="s">
-        <v>19</v>
-      </c>
-      <c r="O14">
-        <v>466.107798767538</v>
+      <c r="N14">
+        <v>109.5478799877805</v>
+      </c>
+      <c r="O14" t="s">
+        <v>20</v>
       </c>
       <c r="P14">
-        <v>1398.323396302614</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>466.10779876753799</v>
+      </c>
+      <c r="Q14">
+        <v>1398.3233963026139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="4">
-        <v>45679.88194444445</v>
+        <v>45679.881944444453</v>
       </c>
       <c r="D15" s="4">
-        <v>45680.54166666666</v>
+        <v>45680.541666666657</v>
       </c>
       <c r="E15">
         <v>103891.76</v>
@@ -1201,13 +1281,13 @@
         <v>101592.48</v>
       </c>
       <c r="I15" s="1">
-        <v>0.2121359156868931</v>
+        <v>0.21213591568689311</v>
       </c>
       <c r="J15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15">
-        <v>-487.7598682205594</v>
+        <v>18</v>
+      </c>
+      <c r="K15" s="7">
+        <v>-487.75986822055938</v>
       </c>
       <c r="L15" s="1">
         <v>10294.32564974625</v>
@@ -1215,28 +1295,31 @@
       <c r="M15" s="1">
         <v>107.8208551796681</v>
       </c>
-      <c r="N15" t="s">
-        <v>19</v>
-      </c>
-      <c r="O15">
-        <v>508.2630860999925</v>
+      <c r="N15">
+        <v>107.8208551796681</v>
+      </c>
+      <c r="O15" t="s">
+        <v>20</v>
       </c>
       <c r="P15">
+        <v>508.26308609999251</v>
+      </c>
+      <c r="Q15">
         <v>1524.789258299978</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" s="4">
-        <v>45680.82986111111</v>
+        <v>45680.829861111109</v>
       </c>
       <c r="D16" s="4">
-        <v>45680.85069444445</v>
+        <v>45680.850694444453</v>
       </c>
       <c r="E16">
         <v>103770.04</v>
@@ -1254,39 +1337,42 @@
         <v>0.1191027928070732</v>
       </c>
       <c r="J16" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16">
+        <v>19</v>
+      </c>
+      <c r="K16" s="7">
         <v>315.7403127036236</v>
       </c>
       <c r="L16" s="1">
-        <v>10610.06596244987</v>
+        <v>10610.065962449869</v>
       </c>
       <c r="M16" s="1">
         <v>102.9432564974625</v>
       </c>
-      <c r="N16" t="s">
-        <v>19</v>
-      </c>
-      <c r="O16">
-        <v>864.3227759084839</v>
+      <c r="N16">
+        <v>102.9432564974625</v>
+      </c>
+      <c r="O16" t="s">
+        <v>20</v>
       </c>
       <c r="P16">
-        <v>2592.968327725452</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>864.32277590848389</v>
+      </c>
+      <c r="Q16">
+        <v>2592.9683277254521</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" s="4">
-        <v>45681.82986111111</v>
+        <v>45681.829861111109</v>
       </c>
       <c r="D17" s="4">
-        <v>45681.84722222222</v>
+        <v>45681.847222222219</v>
       </c>
       <c r="E17">
         <v>105760.94</v>
@@ -1301,42 +1387,45 @@
         <v>105291.54</v>
       </c>
       <c r="I17" s="1">
-        <v>0.2274224285203547</v>
+        <v>0.22742242852035471</v>
       </c>
       <c r="J17" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17">
+        <v>18</v>
+      </c>
+      <c r="K17" s="7">
         <v>-106.7520879474565</v>
       </c>
       <c r="L17" s="1">
-        <v>10503.31387450242</v>
+        <v>10503.313874502421</v>
       </c>
       <c r="M17" s="1">
         <v>106.1006596244987</v>
       </c>
-      <c r="N17" t="s">
-        <v>19</v>
-      </c>
-      <c r="O17">
-        <v>466.535602116317</v>
+      <c r="N17">
+        <v>106.1006596244987</v>
+      </c>
+      <c r="O17" t="s">
+        <v>20</v>
       </c>
       <c r="P17">
-        <v>1399.606806348951</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>466.53560211631702</v>
+      </c>
+      <c r="Q17">
+        <v>1399.6068063489511</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" s="4">
-        <v>45681.85763888889</v>
+        <v>45681.857638888891</v>
       </c>
       <c r="D18" s="4">
-        <v>45682.58680555555</v>
+        <v>45682.586805555547</v>
       </c>
       <c r="E18">
         <v>105052.52</v>
@@ -1345,7 +1434,7 @@
         <v>104590.815085935</v>
       </c>
       <c r="G18" s="1">
-        <v>106437.6347421952</v>
+        <v>106437.63474219519</v>
       </c>
       <c r="H18" s="1">
         <v>104541.68</v>
@@ -1354,36 +1443,39 @@
         <v>0.2274897570837339</v>
       </c>
       <c r="J18" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18">
+        <v>18</v>
+      </c>
+      <c r="K18" s="7">
         <v>-116.2108675086571</v>
       </c>
       <c r="L18" s="1">
-        <v>10387.10300699376</v>
+        <v>10387.103006993761</v>
       </c>
       <c r="M18" s="1">
         <v>105.0331387450242</v>
       </c>
-      <c r="N18" t="s">
-        <v>19</v>
-      </c>
-      <c r="O18">
+      <c r="N18">
+        <v>105.0331387450242</v>
+      </c>
+      <c r="O18" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18">
         <v>461.7049140650488</v>
       </c>
-      <c r="P18">
-        <v>1385.114742195161</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18">
+        <v>1385.1147421951609</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" s="4">
-        <v>45683.88541666666</v>
+        <v>45683.885416666657</v>
       </c>
       <c r="D19" s="4">
         <v>45683.90625</v>
@@ -1395,19 +1487,19 @@
         <v>104635.5126717815</v>
       </c>
       <c r="G19" s="1">
-        <v>105275.6219846556</v>
+        <v>105275.62198465561</v>
       </c>
       <c r="H19" s="1">
         <v>104552.48</v>
       </c>
       <c r="I19" s="1">
-        <v>0.649083073661574</v>
+        <v>0.64908307366157403</v>
       </c>
       <c r="J19" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19">
-        <v>-157.7661318841807</v>
+        <v>18</v>
+      </c>
+      <c r="K19" s="7">
+        <v>-157.76613188418071</v>
       </c>
       <c r="L19" s="1">
         <v>10229.33687510958</v>
@@ -1415,28 +1507,31 @@
       <c r="M19" s="1">
         <v>103.8710300699376</v>
       </c>
-      <c r="N19" t="s">
-        <v>19</v>
-      </c>
-      <c r="O19">
-        <v>160.0273282185371</v>
+      <c r="N19">
+        <v>103.8710300699376</v>
+      </c>
+      <c r="O19" t="s">
+        <v>20</v>
       </c>
       <c r="P19">
+        <v>160.02732821853709</v>
+      </c>
+      <c r="Q19">
         <v>480.0819846555969</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20" s="4">
-        <v>45684.54166666666</v>
+        <v>45684.541666666657</v>
       </c>
       <c r="D20" s="4">
-        <v>45684.54513888889</v>
+        <v>45684.545138888891</v>
       </c>
       <c r="E20">
         <v>100632.01</v>
@@ -1445,98 +1540,104 @@
         <v>101286.0915115136</v>
       </c>
       <c r="G20" s="1">
-        <v>98669.76546545928</v>
+        <v>98669.765465459277</v>
       </c>
       <c r="H20" s="1">
         <v>100622.87</v>
       </c>
       <c r="I20" s="1">
-        <v>0.1563923868057115</v>
+        <v>0.15639238680571149</v>
       </c>
       <c r="J20" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20">
-        <v>1.429426415404112</v>
+        <v>18</v>
+      </c>
+      <c r="K20" s="7">
+        <v>1.4294264154041121</v>
       </c>
       <c r="L20" s="1">
-        <v>10230.76630152499</v>
+        <v>10230.766301524989</v>
       </c>
       <c r="M20" s="1">
         <v>102.2933687510958</v>
       </c>
-      <c r="N20" t="s">
-        <v>19</v>
-      </c>
-      <c r="O20">
-        <v>654.0815115135774</v>
+      <c r="N20">
+        <v>102.2933687510958</v>
+      </c>
+      <c r="O20" t="s">
+        <v>20</v>
       </c>
       <c r="P20">
+        <v>654.08151151357742</v>
+      </c>
+      <c r="Q20">
         <v>1962.244534540718</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C21" s="4">
-        <v>45684.85069444445</v>
+        <v>45684.850694444453</v>
       </c>
       <c r="D21" s="4">
-        <v>45684.86458333334</v>
+        <v>45684.864583333343</v>
       </c>
       <c r="E21">
-        <v>100351.68</v>
+        <v>100351.67999999999</v>
       </c>
       <c r="F21" s="1">
         <v>100958.2739530618</v>
       </c>
       <c r="G21" s="1">
-        <v>98531.89814081455</v>
+        <v>98531.898140814548</v>
       </c>
       <c r="H21" s="1">
         <v>100932.23</v>
       </c>
       <c r="I21" s="1">
-        <v>0.1686592200579081</v>
+        <v>0.16865922005790809</v>
       </c>
       <c r="J21" t="s">
-        <v>17</v>
-      </c>
-      <c r="K21">
-        <v>-97.91511020461905</v>
+        <v>18</v>
+      </c>
+      <c r="K21" s="7">
+        <v>-97.915110204619054</v>
       </c>
       <c r="L21" s="1">
-        <v>10132.85119132037</v>
+        <v>10132.851191320369</v>
       </c>
       <c r="M21" s="1">
         <v>102.3076630152499</v>
       </c>
-      <c r="N21" t="s">
-        <v>19</v>
-      </c>
-      <c r="O21">
-        <v>606.5939530618198</v>
+      <c r="N21">
+        <v>102.3076630152499</v>
+      </c>
+      <c r="O21" t="s">
+        <v>20</v>
       </c>
       <c r="P21">
+        <v>606.59395306181978</v>
+      </c>
+      <c r="Q21">
         <v>1819.781859185445</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C22" s="4">
-        <v>45684.87152777778</v>
+        <v>45684.871527777781</v>
       </c>
       <c r="D22" s="4">
-        <v>45684.87847222222</v>
+        <v>45684.878472222219</v>
       </c>
       <c r="E22">
         <v>101386.5</v>
@@ -1545,7 +1646,7 @@
         <v>102047.4840323447</v>
       </c>
       <c r="G22" s="1">
-        <v>99403.54790296599</v>
+        <v>99403.547902965991</v>
       </c>
       <c r="H22" s="1">
         <v>101604</v>
@@ -1554,36 +1655,39 @@
         <v>0.1532994852443969</v>
       </c>
       <c r="J22" t="s">
-        <v>17</v>
-      </c>
-      <c r="K22">
-        <v>-33.34263804065633</v>
+        <v>18</v>
+      </c>
+      <c r="K22" s="7">
+        <v>-33.342638040656333</v>
       </c>
       <c r="L22" s="1">
-        <v>10099.50855327971</v>
+        <v>10099.508553279709</v>
       </c>
       <c r="M22" s="1">
         <v>101.3285119132037</v>
       </c>
-      <c r="N22" t="s">
-        <v>19</v>
-      </c>
-      <c r="O22">
-        <v>660.9840323446697</v>
+      <c r="N22">
+        <v>101.3285119132037</v>
+      </c>
+      <c r="O22" t="s">
+        <v>20</v>
       </c>
       <c r="P22">
-        <v>1982.952097034009</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>660.98403234466969</v>
+      </c>
+      <c r="Q22">
+        <v>1982.9520970340091</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C23" s="4">
-        <v>45684.88194444445</v>
+        <v>45684.881944444453</v>
       </c>
       <c r="D23" s="4">
         <v>45685.625</v>
@@ -1601,48 +1705,51 @@
         <v>102625.01</v>
       </c>
       <c r="I23" s="1">
-        <v>0.141470392963317</v>
+        <v>0.14147039296331701</v>
       </c>
       <c r="J23" t="s">
-        <v>17</v>
-      </c>
-      <c r="K23">
+        <v>18</v>
+      </c>
+      <c r="K23" s="7">
         <v>-46.66966793466856</v>
       </c>
       <c r="L23" s="1">
         <v>10052.83888534504</v>
       </c>
       <c r="M23" s="1">
-        <v>100.9950855327971</v>
-      </c>
-      <c r="N23" t="s">
-        <v>19</v>
-      </c>
-      <c r="O23">
-        <v>713.8955608823744</v>
+        <v>100.99508553279711</v>
+      </c>
+      <c r="N23">
+        <v>100.99508553279711</v>
+      </c>
+      <c r="O23" t="s">
+        <v>20</v>
       </c>
       <c r="P23">
-        <v>2141.686682647123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>713.89556088237441</v>
+      </c>
+      <c r="Q23">
+        <v>2141.6866826471228</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C24" s="4">
-        <v>45687.73611111111</v>
+        <v>45687.736111111109</v>
       </c>
       <c r="D24" s="4">
-        <v>45688.56597222222</v>
+        <v>45688.565972222219</v>
       </c>
       <c r="E24">
         <v>105018.14</v>
       </c>
       <c r="F24" s="1">
-        <v>104555.7455826141</v>
+        <v>104555.74558261409</v>
       </c>
       <c r="G24" s="1">
         <v>106405.3232521578</v>
@@ -1651,42 +1758,45 @@
         <v>104551.09</v>
       </c>
       <c r="I24" s="1">
-        <v>0.2174083100349117</v>
+        <v>0.21740831003491171</v>
       </c>
       <c r="J24" t="s">
-        <v>17</v>
-      </c>
-      <c r="K24">
+        <v>18</v>
+      </c>
+      <c r="K24" s="7">
         <v>-101.5405512018061</v>
       </c>
       <c r="L24" s="1">
-        <v>9951.298334143235</v>
+        <v>9951.2983341432355</v>
       </c>
       <c r="M24" s="1">
-        <v>100.5283888534504</v>
-      </c>
-      <c r="N24" t="s">
-        <v>19</v>
-      </c>
-      <c r="O24">
-        <v>462.39441738592</v>
+        <v>100.52838885345039</v>
+      </c>
+      <c r="N24">
+        <v>100.52838885345039</v>
+      </c>
+      <c r="O24" t="s">
+        <v>20</v>
       </c>
       <c r="P24">
-        <v>1387.183252157774</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>462.39441738592001</v>
+      </c>
+      <c r="Q24">
+        <v>1387.1832521577739</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C25" s="4">
-        <v>45690.59027777778</v>
+        <v>45690.590277777781</v>
       </c>
       <c r="D25" s="4">
-        <v>45690.72222222222</v>
+        <v>45690.722222222219</v>
       </c>
       <c r="E25">
         <v>99272.12</v>
@@ -1695,19 +1805,19 @@
         <v>99715.13450807023</v>
       </c>
       <c r="G25" s="1">
-        <v>97943.07647578928</v>
+        <v>97943.076475789276</v>
       </c>
       <c r="H25" s="1">
         <v>97727</v>
       </c>
       <c r="I25" s="1">
-        <v>0.2246269174680295</v>
+        <v>0.22462691746802951</v>
       </c>
       <c r="J25" t="s">
-        <v>18</v>
-      </c>
-      <c r="K25">
-        <v>347.0755427182007</v>
+        <v>19</v>
+      </c>
+      <c r="K25" s="7">
+        <v>347.07554271820072</v>
       </c>
       <c r="L25" s="1">
         <v>10298.37387686144</v>
@@ -1715,49 +1825,52 @@
       <c r="M25" s="1">
         <v>99.51298334143236</v>
       </c>
-      <c r="N25" t="s">
-        <v>19</v>
-      </c>
-      <c r="O25">
-        <v>443.014508070235</v>
+      <c r="N25">
+        <v>99.51298334143236</v>
+      </c>
+      <c r="O25" t="s">
+        <v>20</v>
       </c>
       <c r="P25">
-        <v>1329.04352421072</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
+        <v>443.01450807023502</v>
+      </c>
+      <c r="Q25">
+        <v>1329.0435242107201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C26" s="4">
-        <v>45690.82291666666</v>
+        <v>45690.822916666657</v>
       </c>
       <c r="D26" s="4">
-        <v>45691.54166666666</v>
+        <v>45691.541666666657</v>
       </c>
       <c r="E26">
         <v>98512.55</v>
       </c>
       <c r="F26" s="1">
-        <v>99337.82221928821</v>
+        <v>99337.822219288209</v>
       </c>
       <c r="G26" s="1">
-        <v>96036.73334213537</v>
+        <v>96036.733342135369</v>
       </c>
       <c r="H26" s="1">
-        <v>94564.71000000001</v>
+        <v>94564.71</v>
       </c>
       <c r="I26" s="1">
         <v>0.1247875990027113</v>
       </c>
       <c r="J26" t="s">
-        <v>18</v>
-      </c>
-      <c r="K26">
-        <v>492.6414748468634</v>
+        <v>19</v>
+      </c>
+      <c r="K26" s="7">
+        <v>492.64147484686339</v>
       </c>
       <c r="L26" s="1">
         <v>10791.0153517083</v>
@@ -1765,37 +1878,40 @@
       <c r="M26" s="1">
         <v>102.9837387686144</v>
       </c>
-      <c r="N26" t="s">
-        <v>19</v>
-      </c>
-      <c r="O26">
-        <v>825.2722192882065</v>
+      <c r="N26">
+        <v>102.9837387686144</v>
+      </c>
+      <c r="O26" t="s">
+        <v>20</v>
       </c>
       <c r="P26">
-        <v>2475.816657864634</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+        <v>825.27221928820654</v>
+      </c>
+      <c r="Q26">
+        <v>2475.8166578646342</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C27" s="4">
-        <v>45691.61111111111</v>
+        <v>45691.611111111109</v>
       </c>
       <c r="D27" s="4">
-        <v>45691.63541666666</v>
+        <v>45691.635416666657</v>
       </c>
       <c r="E27">
         <v>96150.84</v>
       </c>
       <c r="F27" s="1">
-        <v>97150.404590042</v>
+        <v>97150.404590042002</v>
       </c>
       <c r="G27" s="1">
-        <v>93152.14622987396</v>
+        <v>93152.146229873964</v>
       </c>
       <c r="H27" s="1">
         <v>96570</v>
@@ -1804,9 +1920,9 @@
         <v>0.107957159139209</v>
       </c>
       <c r="J27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K27">
+        <v>18</v>
+      </c>
+      <c r="K27" s="7">
         <v>-45.25132282479121</v>
       </c>
       <c r="L27" s="1">
@@ -1815,99 +1931,105 @@
       <c r="M27" s="1">
         <v>107.910153517083</v>
       </c>
-      <c r="N27" t="s">
-        <v>19</v>
-      </c>
-      <c r="O27">
-        <v>999.5645900420059</v>
+      <c r="N27">
+        <v>107.910153517083</v>
+      </c>
+      <c r="O27" t="s">
+        <v>20</v>
       </c>
       <c r="P27">
-        <v>2998.693770126032</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
+        <v>999.56459004200588</v>
+      </c>
+      <c r="Q27">
+        <v>2998.6937701260322</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C28" s="4">
-        <v>45691.66666666666</v>
+        <v>45691.666666666657</v>
       </c>
       <c r="D28" s="4">
-        <v>45691.78472222222</v>
+        <v>45691.784722222219</v>
       </c>
       <c r="E28">
-        <v>98730.92999999999</v>
+        <v>98730.93</v>
       </c>
       <c r="F28" s="1">
-        <v>99908.6225083747</v>
+        <v>99908.622508374698</v>
       </c>
       <c r="G28" s="1">
-        <v>95197.85247487589</v>
+        <v>95197.852474875894</v>
       </c>
       <c r="H28" s="1">
         <v>99795.94</v>
       </c>
       <c r="I28" s="1">
-        <v>0.09124422506273212</v>
+        <v>9.1244225062732123E-2</v>
       </c>
       <c r="J28" t="s">
-        <v>17</v>
-      </c>
-      <c r="K28">
-        <v>-97.17601213406118</v>
+        <v>18</v>
+      </c>
+      <c r="K28" s="7">
+        <v>-97.176012134061182</v>
       </c>
       <c r="L28" s="1">
-        <v>10648.58801674945</v>
+        <v>10648.588016749451</v>
       </c>
       <c r="M28" s="1">
-        <v>107.4576402888351</v>
-      </c>
-      <c r="N28" t="s">
-        <v>19</v>
-      </c>
-      <c r="O28">
-        <v>1177.692508374705</v>
+        <v>107.45764028883509</v>
+      </c>
+      <c r="N28">
+        <v>107.45764028883509</v>
+      </c>
+      <c r="O28" t="s">
+        <v>20</v>
       </c>
       <c r="P28">
-        <v>3533.077525124099</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
+        <v>1177.6925083747051</v>
+      </c>
+      <c r="Q28">
+        <v>3533.0775251240989</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C29" s="4">
-        <v>45693.57638888889</v>
+        <v>45693.576388888891</v>
       </c>
       <c r="D29" s="4">
-        <v>45693.61111111111</v>
+        <v>45693.611111111109</v>
       </c>
       <c r="E29">
-        <v>98581.99000000001</v>
+        <v>98581.99</v>
       </c>
       <c r="F29" s="1">
-        <v>98923.60589796901</v>
+        <v>98923.605897969013</v>
       </c>
       <c r="G29" s="1">
-        <v>97557.14230609298</v>
+        <v>97557.142306092981</v>
       </c>
       <c r="H29" s="1">
-        <v>98746.92999999999</v>
+        <v>98746.93</v>
       </c>
       <c r="I29" s="1">
-        <v>0.3117123084744582</v>
+        <v>0.31171230847445819</v>
       </c>
       <c r="J29" t="s">
-        <v>17</v>
-      </c>
-      <c r="K29">
-        <v>-51.41382815977332</v>
+        <v>18</v>
+      </c>
+      <c r="K29" s="7">
+        <v>-51.413828159773317</v>
       </c>
       <c r="L29" s="1">
         <v>10597.17418858967</v>
@@ -1915,87 +2037,93 @@
       <c r="M29" s="1">
         <v>106.4858801674945</v>
       </c>
-      <c r="N29" t="s">
-        <v>19</v>
-      </c>
-      <c r="O29">
-        <v>341.6158979690081</v>
+      <c r="N29">
+        <v>106.4858801674945</v>
+      </c>
+      <c r="O29" t="s">
+        <v>20</v>
       </c>
       <c r="P29">
+        <v>341.61589796900807</v>
+      </c>
+      <c r="Q29">
         <v>1024.847693907024</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C30" s="4">
-        <v>45694.86458333334</v>
+        <v>45694.864583333343</v>
       </c>
       <c r="D30" s="4">
-        <v>45695.54166666666</v>
+        <v>45695.541666666657</v>
       </c>
       <c r="E30">
-        <v>96870.89999999999</v>
+        <v>96870.9</v>
       </c>
       <c r="F30" s="1">
-        <v>97360.8412369147</v>
+        <v>97360.841236914697</v>
       </c>
       <c r="G30" s="1">
-        <v>95401.07628925589</v>
+        <v>95401.076289255885</v>
       </c>
       <c r="H30" s="1">
         <v>97900</v>
       </c>
       <c r="I30" s="1">
-        <v>0.2162948000728218</v>
+        <v>0.21629480007282181</v>
       </c>
       <c r="J30" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30">
-        <v>-222.5889787549422</v>
+        <v>18</v>
+      </c>
+      <c r="K30" s="7">
+        <v>-222.58897875494219</v>
       </c>
       <c r="L30" s="1">
         <v>10374.58520983473</v>
       </c>
       <c r="M30" s="1">
-        <v>105.9717418858967</v>
-      </c>
-      <c r="N30" t="s">
-        <v>19</v>
-      </c>
-      <c r="O30">
-        <v>489.941236914703</v>
+        <v>105.97174188589671</v>
+      </c>
+      <c r="N30">
+        <v>105.97174188589671</v>
+      </c>
+      <c r="O30" t="s">
+        <v>20</v>
       </c>
       <c r="P30">
-        <v>1469.823710744109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
+        <v>489.94123691470298</v>
+      </c>
+      <c r="Q30">
+        <v>1469.8237107441089</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" s="4">
-        <v>45696.56944444445</v>
+        <v>45696.569444444453</v>
       </c>
       <c r="D31" s="4">
-        <v>45696.64583333334</v>
+        <v>45696.645833333343</v>
       </c>
       <c r="E31">
         <v>96418.33</v>
       </c>
       <c r="F31" s="1">
-        <v>96632.08010532602</v>
+        <v>96632.080105326022</v>
       </c>
       <c r="G31" s="1">
-        <v>95777.07968402194</v>
+        <v>95777.079684021941</v>
       </c>
       <c r="H31" s="1">
         <v>95688</v>
@@ -2004,10 +2132,10 @@
         <v>0.4853604724082356</v>
       </c>
       <c r="J31" t="s">
-        <v>18</v>
-      </c>
-      <c r="K31">
-        <v>354.4733138139076</v>
+        <v>19</v>
+      </c>
+      <c r="K31" s="7">
+        <v>354.47331381390762</v>
       </c>
       <c r="L31" s="1">
         <v>10729.05852364864</v>
@@ -2015,149 +2143,158 @@
       <c r="M31" s="1">
         <v>103.7458520983473</v>
       </c>
-      <c r="N31" t="s">
-        <v>19</v>
-      </c>
-      <c r="O31">
+      <c r="N31">
+        <v>103.7458520983473</v>
+      </c>
+      <c r="O31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P31">
         <v>213.7501053260203</v>
       </c>
-      <c r="P31">
-        <v>641.2503159780608</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="Q31">
+        <v>641.25031597806083</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C32" s="4">
-        <v>45696.71180555555</v>
+        <v>45696.711805555547</v>
       </c>
       <c r="D32" s="4">
-        <v>45696.77777777778</v>
+        <v>45696.777777777781</v>
       </c>
       <c r="E32">
-        <v>96282.74000000001</v>
+        <v>96282.74</v>
       </c>
       <c r="F32" s="1">
-        <v>96504.35545976873</v>
+        <v>96504.355459768733</v>
       </c>
       <c r="G32" s="1">
-        <v>95617.89362069382</v>
+        <v>95617.893620693823</v>
       </c>
       <c r="H32" s="1">
         <v>96423.03</v>
       </c>
       <c r="I32" s="1">
-        <v>0.4841295158219212</v>
+        <v>0.48412951582192121</v>
       </c>
       <c r="J32" t="s">
-        <v>17</v>
-      </c>
-      <c r="K32">
-        <v>-67.91852977465422</v>
+        <v>18</v>
+      </c>
+      <c r="K32" s="7">
+        <v>-67.918529774654218</v>
       </c>
       <c r="L32" s="1">
-        <v>10661.13999387399</v>
+        <v>10661.139993873991</v>
       </c>
       <c r="M32" s="1">
-        <v>107.2905852364864</v>
-      </c>
-      <c r="N32" t="s">
-        <v>19</v>
-      </c>
-      <c r="O32">
-        <v>221.6154597687273</v>
+        <v>107.29058523648639</v>
+      </c>
+      <c r="N32">
+        <v>107.29058523648639</v>
+      </c>
+      <c r="O32" t="s">
+        <v>20</v>
       </c>
       <c r="P32">
-        <v>664.8463793061819</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
+        <v>221.61545976872731</v>
+      </c>
+      <c r="Q32">
+        <v>664.84637930618192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C33" s="4">
-        <v>45696.80555555555</v>
+        <v>45696.805555555547</v>
       </c>
       <c r="D33" s="4">
-        <v>45697.57291666666</v>
+        <v>45697.572916666657</v>
       </c>
       <c r="E33">
         <v>96622.64</v>
       </c>
       <c r="F33" s="1">
-        <v>96814.10035087884</v>
+        <v>96814.100350878842</v>
       </c>
       <c r="G33" s="1">
-        <v>96048.25894736346</v>
+        <v>96048.258947363458</v>
       </c>
       <c r="H33" s="1">
         <v>95915.44</v>
       </c>
       <c r="I33" s="1">
-        <v>0.556832782606799</v>
+        <v>0.55683278260679903</v>
       </c>
       <c r="J33" t="s">
-        <v>18</v>
-      </c>
-      <c r="K33">
-        <v>393.7921438595267</v>
+        <v>19</v>
+      </c>
+      <c r="K33" s="7">
+        <v>393.79214385952667</v>
       </c>
       <c r="L33" s="1">
-        <v>11054.93213773351</v>
+        <v>11054.932137733511</v>
       </c>
       <c r="M33" s="1">
-        <v>106.6113999387399</v>
-      </c>
-      <c r="N33" t="s">
-        <v>19</v>
-      </c>
-      <c r="O33">
-        <v>191.4603508788423</v>
+        <v>106.61139993873989</v>
+      </c>
+      <c r="N33">
+        <v>106.61139993873989</v>
+      </c>
+      <c r="O33" t="s">
+        <v>20</v>
       </c>
       <c r="P33">
-        <v>574.3810526365414</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
+        <v>191.46035087884229</v>
+      </c>
+      <c r="Q33">
+        <v>574.38105263654143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C34" s="4">
-        <v>45697.65277777778</v>
+        <v>45697.652777777781</v>
       </c>
       <c r="D34" s="4">
-        <v>45697.89930555555</v>
+        <v>45697.899305555547</v>
       </c>
       <c r="E34">
         <v>96612.05</v>
       </c>
       <c r="F34" s="1">
-        <v>96880.50705339119</v>
+        <v>96880.507053391193</v>
       </c>
       <c r="G34" s="1">
-        <v>95806.67883982643</v>
+        <v>95806.678839826433</v>
       </c>
       <c r="H34" s="1">
-        <v>95376.64999999999</v>
+        <v>95376.65</v>
       </c>
       <c r="I34" s="1">
-        <v>0.4117951828080482</v>
+        <v>0.41179518280804822</v>
       </c>
       <c r="J34" t="s">
-        <v>18</v>
-      </c>
-      <c r="K34">
-        <v>508.7317688410664</v>
+        <v>19</v>
+      </c>
+      <c r="K34" s="7">
+        <v>508.73176884106641</v>
       </c>
       <c r="L34" s="1">
         <v>11563.66390657458</v>
@@ -2165,34 +2302,37 @@
       <c r="M34" s="1">
         <v>110.5493213773351</v>
       </c>
-      <c r="N34" t="s">
-        <v>19</v>
-      </c>
-      <c r="O34">
-        <v>268.4570533911901</v>
+      <c r="N34">
+        <v>110.5493213773351</v>
+      </c>
+      <c r="O34" t="s">
+        <v>20</v>
       </c>
       <c r="P34">
-        <v>805.3711601735704</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
+        <v>268.45705339119007</v>
+      </c>
+      <c r="Q34">
+        <v>805.37116017357039</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C35" s="4">
-        <v>45699.88888888889</v>
+        <v>45699.888888888891</v>
       </c>
       <c r="D35" s="4">
-        <v>45699.89930555555</v>
+        <v>45699.899305555547</v>
       </c>
       <c r="E35">
         <v>95686.37</v>
       </c>
       <c r="F35" s="1">
-        <v>96056.14374028651</v>
+        <v>96056.143740286512</v>
       </c>
       <c r="G35" s="1">
         <v>94577.04877914043</v>
@@ -2201,13 +2341,13 @@
         <v>95959.38</v>
       </c>
       <c r="I35" s="1">
-        <v>0.3127226908437182</v>
+        <v>0.31272269084371818</v>
       </c>
       <c r="J35" t="s">
-        <v>17</v>
-      </c>
-      <c r="K35">
-        <v>-85.37642182724643</v>
+        <v>18</v>
+      </c>
+      <c r="K35" s="7">
+        <v>-85.376421827246432</v>
       </c>
       <c r="L35" s="1">
         <v>11478.28748474733</v>
@@ -2215,22 +2355,25 @@
       <c r="M35" s="1">
         <v>115.6366390657458</v>
       </c>
-      <c r="N35" t="s">
-        <v>19</v>
-      </c>
-      <c r="O35">
-        <v>369.7737402865168</v>
+      <c r="N35">
+        <v>115.6366390657458</v>
+      </c>
+      <c r="O35" t="s">
+        <v>20</v>
       </c>
       <c r="P35">
-        <v>1109.321220859565</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
+        <v>369.77374028651678</v>
+      </c>
+      <c r="Q35">
+        <v>1109.3212208595651</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C36" s="4">
         <v>45699.90625</v>
@@ -2242,72 +2385,75 @@
         <v>96317.67</v>
       </c>
       <c r="F36" s="1">
-        <v>96720.53183445179</v>
+        <v>96720.531834451787</v>
       </c>
       <c r="G36" s="1">
-        <v>95109.08449664462</v>
+        <v>95109.084496644617</v>
       </c>
       <c r="H36" s="1">
-        <v>94844.8</v>
+        <v>94844.800000000003</v>
       </c>
       <c r="I36" s="1">
-        <v>0.2849187116562403</v>
+        <v>0.28491871165624028</v>
       </c>
       <c r="J36" t="s">
-        <v>18</v>
-      </c>
-      <c r="K36">
-        <v>419.6482228371254</v>
+        <v>19</v>
+      </c>
+      <c r="K36" s="7">
+        <v>419.64822283712539</v>
       </c>
       <c r="L36" s="1">
         <v>11897.93570758446</v>
       </c>
       <c r="M36" s="1">
-        <v>114.7828748474733</v>
-      </c>
-      <c r="N36" t="s">
-        <v>19</v>
-      </c>
-      <c r="O36">
-        <v>402.861834451789</v>
+        <v>114.78287484747329</v>
+      </c>
+      <c r="N36">
+        <v>114.78287484747329</v>
+      </c>
+      <c r="O36" t="s">
+        <v>20</v>
       </c>
       <c r="P36">
-        <v>1208.585503355382</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16">
+        <v>402.86183445178898</v>
+      </c>
+      <c r="Q36">
+        <v>1208.5855033553819</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C37" s="4">
-        <v>45701.79861111111</v>
+        <v>45701.798611111109</v>
       </c>
       <c r="D37" s="4">
-        <v>45701.89583333334</v>
+        <v>45701.895833333343</v>
       </c>
       <c r="E37">
         <v>96270.05</v>
       </c>
       <c r="F37" s="1">
-        <v>96701.70211287875</v>
+        <v>96701.702112878746</v>
       </c>
       <c r="G37" s="1">
         <v>94975.09366136376</v>
       </c>
       <c r="H37" s="1">
-        <v>96412.78999999999</v>
+        <v>96412.79</v>
       </c>
       <c r="I37" s="1">
-        <v>0.2756371474295727</v>
+        <v>0.27563714742957268</v>
       </c>
       <c r="J37" t="s">
-        <v>17</v>
-      </c>
-      <c r="K37">
-        <v>-39.34444642409465</v>
+        <v>18</v>
+      </c>
+      <c r="K37" s="7">
+        <v>-39.344446424094649</v>
       </c>
       <c r="L37" s="1">
         <v>11858.59126116036</v>
@@ -2315,58 +2461,61 @@
       <c r="M37" s="1">
         <v>118.9793570758446</v>
       </c>
-      <c r="N37" t="s">
-        <v>19</v>
-      </c>
-      <c r="O37">
-        <v>431.6521128787426</v>
+      <c r="N37">
+        <v>118.9793570758446</v>
+      </c>
+      <c r="O37" t="s">
+        <v>20</v>
       </c>
       <c r="P37">
+        <v>431.65211287874263</v>
+      </c>
+      <c r="Q37">
         <v>1294.956338636242</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
-      <c r="A41" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B42" s="1">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
+        <v>11858.59126116036</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="1">
-        <v>11858.59126116036</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16">
+        <v>24</v>
+      </c>
+      <c r="B43" s="5">
+        <v>0.18585912611603631</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>23</v>
-      </c>
-      <c r="B44" s="5">
-        <v>0.1858591261160363</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
+        <v>25</v>
+      </c>
+      <c r="B44">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>24</v>
-      </c>
-      <c r="B45">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16">
-      <c r="A46" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46" s="5">
+        <v>26</v>
+      </c>
+      <c r="B45" s="5">
         <v>0.3611111111111111</v>
       </c>
     </row>

--- a/trading_results.xlsx
+++ b/trading_results.xlsx
@@ -493,26 +493,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="5" width="25.7109375" customWidth="1"/>
-    <col min="6" max="8" width="15.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="7" customWidth="1"/>
+    <col min="6" max="9" width="15.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" customWidth="1"/>
     <col min="11" max="11" width="15.7109375" style="7" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" style="1" customWidth="1"/>
+    <col min="12" max="13" width="18.7109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" customWidth="1"/>
     <col min="17" max="17" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -526,7 +525,7 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -579,7 +578,7 @@
       <c r="D2" s="4">
         <v>45666.645833333343</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="7">
         <v>93188.2</v>
       </c>
       <c r="F2" s="1">
@@ -589,7 +588,7 @@
         <v>91348.750085215084</v>
       </c>
       <c r="H2" s="1">
-        <v>93452</v>
+        <v>93915.9</v>
       </c>
       <c r="I2" s="1">
         <v>0.16309223621077859</v>
@@ -598,10 +597,10 @@
         <v>18</v>
       </c>
       <c r="K2" s="7">
-        <v>-43.023731912403868</v>
+        <v>-100</v>
       </c>
       <c r="L2" s="1">
-        <v>9956.9762680875956</v>
+        <v>9900</v>
       </c>
       <c r="M2" s="1">
         <v>100</v>
@@ -632,7 +631,7 @@
       <c r="D3" s="4">
         <v>45666.659722222219</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="7">
         <v>93739.87</v>
       </c>
       <c r="F3" s="1">
@@ -642,25 +641,25 @@
         <v>91830.553378379525</v>
       </c>
       <c r="H3" s="1">
-        <v>94100.49</v>
+        <v>94588.23</v>
       </c>
       <c r="I3" s="1">
-        <v>0.15644827298947961</v>
+        <v>0.15555303747784549</v>
       </c>
       <c r="J3" t="s">
         <v>18</v>
       </c>
       <c r="K3" s="7">
-        <v>-56.418376205467673</v>
+        <v>-99</v>
       </c>
       <c r="L3" s="1">
-        <v>9900.5578918821284</v>
+        <v>9801</v>
       </c>
       <c r="M3" s="1">
-        <v>99.569762680875954</v>
+        <v>99</v>
       </c>
       <c r="N3">
-        <v>99.569762680875954</v>
+        <v>99</v>
       </c>
       <c r="O3" t="s">
         <v>20</v>
@@ -685,7 +684,7 @@
       <c r="D4" s="4">
         <v>45666.822916666657</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="7">
         <v>94244.02</v>
       </c>
       <c r="F4" s="1">
@@ -698,22 +697,22 @@
         <v>92106.85</v>
       </c>
       <c r="I4" s="1">
-        <v>0.14649616279484851</v>
+        <v>0.14502302872544071</v>
       </c>
       <c r="J4" t="s">
         <v>19</v>
       </c>
       <c r="K4" s="7">
-        <v>313.08720424026609</v>
+        <v>309.93886630114969</v>
       </c>
       <c r="L4" s="1">
-        <v>10213.645096122391</v>
+        <v>10110.93886630115</v>
       </c>
       <c r="M4" s="1">
-        <v>99.005578918821286</v>
+        <v>98.01</v>
       </c>
       <c r="N4">
-        <v>99.005578918821286</v>
+        <v>98.01</v>
       </c>
       <c r="O4" t="s">
         <v>20</v>
@@ -738,7 +737,7 @@
       <c r="D5" s="4">
         <v>45670.541666666657</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="7">
         <v>95486.73</v>
       </c>
       <c r="F5" s="1">
@@ -751,22 +750,22 @@
         <v>90583.24</v>
       </c>
       <c r="I5" s="1">
-        <v>0.1227647426767863</v>
+        <v>0.12153024669061829</v>
       </c>
       <c r="J5" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="7">
-        <v>601.97568806819379</v>
+        <v>595.92234934497867</v>
       </c>
       <c r="L5" s="1">
-        <v>10815.620784190591</v>
+        <v>10706.861215646129</v>
       </c>
       <c r="M5" s="1">
-        <v>102.1364509612239</v>
+        <v>101.1093886630115</v>
       </c>
       <c r="N5">
-        <v>102.1364509612239</v>
+        <v>101.1093886630115</v>
       </c>
       <c r="O5" t="s">
         <v>20</v>
@@ -791,7 +790,7 @@
       <c r="D6" s="4">
         <v>45670.868055555547</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="7">
         <v>92680.01</v>
       </c>
       <c r="F6" s="1">
@@ -801,25 +800,25 @@
         <v>89502.452628572224</v>
       </c>
       <c r="H6" s="1">
-        <v>93228.99</v>
+        <v>93783.12</v>
       </c>
       <c r="I6" s="1">
-        <v>0.10211259329046329</v>
+        <v>0.1010857708998836</v>
       </c>
       <c r="J6" t="s">
         <v>18</v>
       </c>
       <c r="K6" s="7">
-        <v>-56.057771464599632</v>
+        <v>-107.0686121564613</v>
       </c>
       <c r="L6" s="1">
-        <v>10759.56301272599</v>
+        <v>10599.79260348967</v>
       </c>
       <c r="M6" s="1">
-        <v>108.1562078419059</v>
+        <v>107.0686121564613</v>
       </c>
       <c r="N6">
-        <v>108.1562078419059</v>
+        <v>107.0686121564613</v>
       </c>
       <c r="O6" t="s">
         <v>20</v>
@@ -844,7 +843,7 @@
       <c r="D7" s="4">
         <v>45673.670138888891</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="7">
         <v>97571.23</v>
       </c>
       <c r="F7" s="1">
@@ -857,22 +856,22 @@
         <v>99815.27</v>
       </c>
       <c r="I7" s="1">
-        <v>0.15739933671226791</v>
+        <v>0.15506208970601851</v>
       </c>
       <c r="J7" t="s">
         <v>19</v>
       </c>
       <c r="K7" s="7">
-        <v>353.21040755579878</v>
+        <v>347.96553178389507</v>
       </c>
       <c r="L7" s="1">
-        <v>11112.77342028179</v>
+        <v>10947.75813527356</v>
       </c>
       <c r="M7" s="1">
-        <v>107.59563012725989</v>
+        <v>105.99792603489669</v>
       </c>
       <c r="N7">
-        <v>107.59563012725989</v>
+        <v>105.99792603489669</v>
       </c>
       <c r="O7" t="s">
         <v>20</v>
@@ -897,7 +896,7 @@
       <c r="D8" s="4">
         <v>45675.541666666657</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="7">
         <v>104692.7</v>
       </c>
       <c r="F8" s="1">
@@ -910,22 +909,22 @@
         <v>103424.59</v>
       </c>
       <c r="I8" s="1">
-        <v>0.22425266228726379</v>
+        <v>0.2209226999473812</v>
       </c>
       <c r="J8" t="s">
         <v>18</v>
       </c>
       <c r="K8" s="7">
-        <v>-284.37704357310218</v>
+        <v>-109.4775813527356</v>
       </c>
       <c r="L8" s="1">
-        <v>10828.39637670869</v>
+        <v>10838.280553920829</v>
       </c>
       <c r="M8" s="1">
-        <v>111.1277342028179</v>
+        <v>109.4775813527356</v>
       </c>
       <c r="N8">
-        <v>111.1277342028179</v>
+        <v>109.4775813527356</v>
       </c>
       <c r="O8" t="s">
         <v>20</v>
@@ -950,7 +949,7 @@
       <c r="D9" s="4">
         <v>45676.541666666657</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="7">
         <v>103240.85</v>
       </c>
       <c r="F9" s="1">
@@ -963,22 +962,22 @@
         <v>105157.8</v>
       </c>
       <c r="I9" s="1">
-        <v>0.1961684575986099</v>
+        <v>0.19634752047467049</v>
       </c>
       <c r="J9" t="s">
         <v>19</v>
       </c>
       <c r="K9" s="7">
-        <v>376.04512479365468</v>
+        <v>376.38837937391901</v>
       </c>
       <c r="L9" s="1">
-        <v>11204.441501502341</v>
+        <v>11214.66893329475</v>
       </c>
       <c r="M9" s="1">
-        <v>108.2839637670869</v>
+        <v>108.38280553920831</v>
       </c>
       <c r="N9">
-        <v>108.2839637670869</v>
+        <v>108.38280553920831</v>
       </c>
       <c r="O9" t="s">
         <v>20</v>
@@ -1003,7 +1002,7 @@
       <c r="D10" s="4">
         <v>45677.673611111109</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="7">
         <v>105535.7</v>
       </c>
       <c r="F10" s="1">
@@ -1016,22 +1015,22 @@
         <v>103708</v>
       </c>
       <c r="I10" s="1">
-        <v>0.1010730610061438</v>
+        <v>0.10116532065490461</v>
       </c>
       <c r="J10" t="s">
         <v>18</v>
       </c>
       <c r="K10" s="7">
-        <v>-184.7312336009287</v>
+        <v>-112.1466893329475</v>
       </c>
       <c r="L10" s="1">
-        <v>11019.71026790141</v>
+        <v>11102.522243961799</v>
       </c>
       <c r="M10" s="1">
-        <v>112.0444150150234</v>
+        <v>112.1466893329475</v>
       </c>
       <c r="N10">
-        <v>112.0444150150234</v>
+        <v>112.1466893329475</v>
       </c>
       <c r="O10" t="s">
         <v>20</v>
@@ -1056,7 +1055,7 @@
       <c r="D11" s="4">
         <v>45678.673611111109</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="7">
         <v>103281.22</v>
       </c>
       <c r="F11" s="1">
@@ -1069,22 +1068,22 @@
         <v>106300</v>
       </c>
       <c r="I11" s="1">
-        <v>0.1152930814464031</v>
+        <v>0.1161594969572064</v>
       </c>
       <c r="J11" t="s">
         <v>19</v>
       </c>
       <c r="K11" s="7">
-        <v>348.04444840877261</v>
+        <v>350.65996622447528</v>
       </c>
       <c r="L11" s="1">
-        <v>11367.754716310181</v>
+        <v>11453.182210186271</v>
       </c>
       <c r="M11" s="1">
-        <v>110.19710267901409</v>
+        <v>111.02522243961801</v>
       </c>
       <c r="N11">
-        <v>110.19710267901409</v>
+        <v>111.02522243961801</v>
       </c>
       <c r="O11" t="s">
         <v>20</v>
@@ -1109,7 +1108,7 @@
       <c r="D12" s="4">
         <v>45679.541666666657</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="7">
         <v>106072</v>
       </c>
       <c r="F12" s="1">
@@ -1122,22 +1121,22 @@
         <v>105039.74</v>
       </c>
       <c r="I12" s="1">
-        <v>0.16694659341698481</v>
+        <v>0.16820117969568951</v>
       </c>
       <c r="J12" t="s">
         <v>18</v>
       </c>
       <c r="K12" s="7">
-        <v>-172.3322905206158</v>
+        <v>-114.5318221018627</v>
       </c>
       <c r="L12" s="1">
-        <v>11195.422425789569</v>
+        <v>11338.65038808441</v>
       </c>
       <c r="M12" s="1">
-        <v>113.67754716310181</v>
+        <v>114.5318221018627</v>
       </c>
       <c r="N12">
-        <v>113.67754716310181</v>
+        <v>114.5318221018627</v>
       </c>
       <c r="O12" t="s">
         <v>20</v>
@@ -1162,7 +1161,7 @@
       <c r="D13" s="4">
         <v>45679.565972222219</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="7">
         <v>104947.17</v>
       </c>
       <c r="F13" s="1">
@@ -1175,22 +1174,22 @@
         <v>104283.67</v>
       </c>
       <c r="I13" s="1">
-        <v>0.36267434364960688</v>
+        <v>0.36731419601443532</v>
       </c>
       <c r="J13" t="s">
         <v>18</v>
       </c>
       <c r="K13" s="7">
-        <v>-240.63442701151419</v>
+        <v>-113.3865038808441</v>
       </c>
       <c r="L13" s="1">
-        <v>10954.787998778051</v>
+        <v>11225.26388420357</v>
       </c>
       <c r="M13" s="1">
-        <v>111.9542242578957</v>
+        <v>113.3865038808441</v>
       </c>
       <c r="N13">
-        <v>111.9542242578957</v>
+        <v>113.3865038808441</v>
       </c>
       <c r="O13" t="s">
         <v>20</v>
@@ -1215,7 +1214,7 @@
       <c r="D14" s="4">
         <v>45679.694444444453</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="7">
         <v>104073.94</v>
       </c>
       <c r="F14" s="1">
@@ -1228,22 +1227,22 @@
         <v>103339.12</v>
       </c>
       <c r="I14" s="1">
-        <v>0.23502691926082819</v>
+        <v>0.24082978044746139</v>
       </c>
       <c r="J14" t="s">
         <v>18</v>
       </c>
       <c r="K14" s="7">
-        <v>-172.70248081124339</v>
+        <v>-112.25263884203569</v>
       </c>
       <c r="L14" s="1">
-        <v>10782.085517966811</v>
+        <v>11113.011245361529</v>
       </c>
       <c r="M14" s="1">
-        <v>109.5478799877805</v>
+        <v>112.25263884203569</v>
       </c>
       <c r="N14">
-        <v>109.5478799877805</v>
+        <v>112.25263884203569</v>
       </c>
       <c r="O14" t="s">
         <v>20</v>
@@ -1268,7 +1267,7 @@
       <c r="D15" s="4">
         <v>45680.541666666657</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="7">
         <v>103891.76</v>
       </c>
       <c r="F15" s="1">
@@ -1281,22 +1280,22 @@
         <v>101592.48</v>
       </c>
       <c r="I15" s="1">
-        <v>0.21213591568689311</v>
+        <v>0.21864682974783711</v>
       </c>
       <c r="J15" t="s">
         <v>18</v>
       </c>
       <c r="K15" s="7">
-        <v>-487.75986822055938</v>
+        <v>-111.1301124536153</v>
       </c>
       <c r="L15" s="1">
-        <v>10294.32564974625</v>
+        <v>11001.88113290792</v>
       </c>
       <c r="M15" s="1">
-        <v>107.8208551796681</v>
+        <v>111.1301124536153</v>
       </c>
       <c r="N15">
-        <v>107.8208551796681</v>
+        <v>111.1301124536153</v>
       </c>
       <c r="O15" t="s">
         <v>20</v>
@@ -1321,7 +1320,7 @@
       <c r="D16" s="4">
         <v>45680.850694444453</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="7">
         <v>103770.04</v>
       </c>
       <c r="F16" s="1">
@@ -1334,22 +1333,22 @@
         <v>106421.03</v>
       </c>
       <c r="I16" s="1">
-        <v>0.1191027928070732</v>
+        <v>0.12728903413824669</v>
       </c>
       <c r="J16" t="s">
         <v>19</v>
       </c>
       <c r="K16" s="7">
-        <v>315.7403127036236</v>
+        <v>337.44195661015141</v>
       </c>
       <c r="L16" s="1">
-        <v>10610.065962449869</v>
+        <v>11339.32308951807</v>
       </c>
       <c r="M16" s="1">
-        <v>102.9432564974625</v>
+        <v>110.0188113290792</v>
       </c>
       <c r="N16">
-        <v>102.9432564974625</v>
+        <v>110.0188113290792</v>
       </c>
       <c r="O16" t="s">
         <v>20</v>
@@ -1374,7 +1373,7 @@
       <c r="D17" s="4">
         <v>45681.847222222219</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="7">
         <v>105760.94</v>
       </c>
       <c r="F17" s="1">
@@ -1387,22 +1386,22 @@
         <v>105291.54</v>
       </c>
       <c r="I17" s="1">
-        <v>0.22742242852035471</v>
+        <v>0.24305375705691459</v>
       </c>
       <c r="J17" t="s">
         <v>18</v>
       </c>
       <c r="K17" s="7">
-        <v>-106.7520879474565</v>
+        <v>-113.39323089518069</v>
       </c>
       <c r="L17" s="1">
-        <v>10503.313874502421</v>
+        <v>11225.929858622891</v>
       </c>
       <c r="M17" s="1">
-        <v>106.1006596244987</v>
+        <v>113.39323089518069</v>
       </c>
       <c r="N17">
-        <v>106.1006596244987</v>
+        <v>113.39323089518069</v>
       </c>
       <c r="O17" t="s">
         <v>20</v>
@@ -1427,7 +1426,7 @@
       <c r="D18" s="4">
         <v>45682.586805555547</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="7">
         <v>105052.52</v>
       </c>
       <c r="F18" s="1">
@@ -1440,22 +1439,22 @@
         <v>104541.68</v>
       </c>
       <c r="I18" s="1">
-        <v>0.2274897570837339</v>
+        <v>0.24314079223859611</v>
       </c>
       <c r="J18" t="s">
         <v>18</v>
       </c>
       <c r="K18" s="7">
-        <v>-116.2108675086571</v>
+        <v>-112.25929858622889</v>
       </c>
       <c r="L18" s="1">
-        <v>10387.103006993761</v>
+        <v>11113.67056003666</v>
       </c>
       <c r="M18" s="1">
-        <v>105.0331387450242</v>
+        <v>112.25929858622889</v>
       </c>
       <c r="N18">
-        <v>105.0331387450242</v>
+        <v>112.25929858622889</v>
       </c>
       <c r="O18" t="s">
         <v>20</v>
@@ -1480,7 +1479,7 @@
       <c r="D19" s="4">
         <v>45683.90625</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="7">
         <v>104795.54</v>
       </c>
       <c r="F19" s="1">
@@ -1493,22 +1492,22 @@
         <v>104552.48</v>
       </c>
       <c r="I19" s="1">
-        <v>0.64908307366157403</v>
+        <v>0.69448579088064044</v>
       </c>
       <c r="J19" t="s">
         <v>18</v>
       </c>
       <c r="K19" s="7">
-        <v>-157.76613188418071</v>
+        <v>-111.1367056003666</v>
       </c>
       <c r="L19" s="1">
-        <v>10229.33687510958</v>
+        <v>11002.533854436289</v>
       </c>
       <c r="M19" s="1">
-        <v>103.8710300699376</v>
+        <v>111.1367056003666</v>
       </c>
       <c r="N19">
-        <v>103.8710300699376</v>
+        <v>111.1367056003666</v>
       </c>
       <c r="O19" t="s">
         <v>20</v>
@@ -1533,7 +1532,7 @@
       <c r="D20" s="4">
         <v>45684.545138888891</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="7">
         <v>100632.01</v>
       </c>
       <c r="F20" s="1">
@@ -1543,25 +1542,25 @@
         <v>98669.765465459277</v>
       </c>
       <c r="H20" s="1">
-        <v>100622.87</v>
+        <v>101360.94</v>
       </c>
       <c r="I20" s="1">
-        <v>0.15639238680571149</v>
+        <v>0.16821349725932291</v>
       </c>
       <c r="J20" t="s">
         <v>18</v>
       </c>
       <c r="K20" s="7">
-        <v>1.4294264154041121</v>
+        <v>-110.0253385443629</v>
       </c>
       <c r="L20" s="1">
-        <v>10230.766301524989</v>
+        <v>10892.50851589193</v>
       </c>
       <c r="M20" s="1">
-        <v>102.2933687510958</v>
+        <v>110.0253385443629</v>
       </c>
       <c r="N20">
-        <v>102.2933687510958</v>
+        <v>110.0253385443629</v>
       </c>
       <c r="O20" t="s">
         <v>20</v>
@@ -1586,7 +1585,7 @@
       <c r="D21" s="4">
         <v>45684.864583333343</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="7">
         <v>100351.67999999999</v>
       </c>
       <c r="F21" s="1">
@@ -1596,25 +1595,25 @@
         <v>98531.898140814548</v>
       </c>
       <c r="H21" s="1">
-        <v>100932.23</v>
+        <v>101356.8</v>
       </c>
       <c r="I21" s="1">
-        <v>0.16865922005790809</v>
+        <v>0.17956836630024639</v>
       </c>
       <c r="J21" t="s">
         <v>18</v>
       </c>
       <c r="K21" s="7">
-        <v>-97.915110204619054</v>
+        <v>-108.9250851589193</v>
       </c>
       <c r="L21" s="1">
-        <v>10132.851191320369</v>
+        <v>10783.58343073301</v>
       </c>
       <c r="M21" s="1">
-        <v>102.3076630152499</v>
+        <v>108.9250851589193</v>
       </c>
       <c r="N21">
-        <v>102.3076630152499</v>
+        <v>108.9250851589193</v>
       </c>
       <c r="O21" t="s">
         <v>20</v>
@@ -1639,7 +1638,7 @@
       <c r="D22" s="4">
         <v>45684.878472222219</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="7">
         <v>101386.5</v>
       </c>
       <c r="F22" s="1">
@@ -1649,25 +1648,25 @@
         <v>99403.547902965991</v>
       </c>
       <c r="H22" s="1">
-        <v>101604</v>
+        <v>102221.99</v>
       </c>
       <c r="I22" s="1">
-        <v>0.1532994852443969</v>
+        <v>0.16314438629449249</v>
       </c>
       <c r="J22" t="s">
         <v>18</v>
       </c>
       <c r="K22" s="7">
-        <v>-33.342638040656333</v>
+        <v>-107.8358343073301</v>
       </c>
       <c r="L22" s="1">
-        <v>10099.508553279709</v>
+        <v>10675.747596425679</v>
       </c>
       <c r="M22" s="1">
-        <v>101.3285119132037</v>
+        <v>107.8358343073301</v>
       </c>
       <c r="N22">
-        <v>101.3285119132037</v>
+        <v>107.8358343073301</v>
       </c>
       <c r="O22" t="s">
         <v>20</v>
@@ -1692,7 +1691,7 @@
       <c r="D23" s="4">
         <v>45685.625</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="7">
         <v>102295.12</v>
       </c>
       <c r="F23" s="1">
@@ -1702,25 +1701,25 @@
         <v>100153.4333173529</v>
       </c>
       <c r="H23" s="1">
-        <v>102625.01</v>
+        <v>103315.79</v>
       </c>
       <c r="I23" s="1">
-        <v>0.14147039296331701</v>
+        <v>0.14954214847940031</v>
       </c>
       <c r="J23" t="s">
         <v>18</v>
       </c>
       <c r="K23" s="7">
-        <v>-46.66966793466856</v>
+        <v>-106.7574759642568</v>
       </c>
       <c r="L23" s="1">
-        <v>10052.83888534504</v>
+        <v>10568.99012046142</v>
       </c>
       <c r="M23" s="1">
-        <v>100.99508553279711</v>
+        <v>106.7574759642568</v>
       </c>
       <c r="N23">
-        <v>100.99508553279711</v>
+        <v>106.7574759642568</v>
       </c>
       <c r="O23" t="s">
         <v>20</v>
@@ -1745,7 +1744,7 @@
       <c r="D24" s="4">
         <v>45688.565972222219</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="7">
         <v>105018.14</v>
       </c>
       <c r="F24" s="1">
@@ -1758,22 +1757,22 @@
         <v>104551.09</v>
       </c>
       <c r="I24" s="1">
-        <v>0.21740831003491171</v>
+        <v>0.22857088500790479</v>
       </c>
       <c r="J24" t="s">
         <v>18</v>
       </c>
       <c r="K24" s="7">
-        <v>-101.5405512018061</v>
+        <v>-105.6899012046142</v>
       </c>
       <c r="L24" s="1">
-        <v>9951.2983341432355</v>
+        <v>10463.300219256809</v>
       </c>
       <c r="M24" s="1">
-        <v>100.52838885345039</v>
+        <v>105.6899012046142</v>
       </c>
       <c r="N24">
-        <v>100.52838885345039</v>
+        <v>105.6899012046142</v>
       </c>
       <c r="O24" t="s">
         <v>20</v>
@@ -1798,7 +1797,7 @@
       <c r="D25" s="4">
         <v>45690.722222222219</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="7">
         <v>99272.12</v>
       </c>
       <c r="F25" s="1">
@@ -1811,22 +1810,22 @@
         <v>97727</v>
       </c>
       <c r="I25" s="1">
-        <v>0.22462691746802951</v>
+        <v>0.2361841436036666</v>
       </c>
       <c r="J25" t="s">
         <v>19</v>
       </c>
       <c r="K25" s="7">
-        <v>347.07554271820072</v>
+        <v>364.93284396489622</v>
       </c>
       <c r="L25" s="1">
-        <v>10298.37387686144</v>
+        <v>10828.233063221711</v>
       </c>
       <c r="M25" s="1">
-        <v>99.51298334143236</v>
+        <v>104.6330021925681</v>
       </c>
       <c r="N25">
-        <v>99.51298334143236</v>
+        <v>104.6330021925681</v>
       </c>
       <c r="O25" t="s">
         <v>20</v>
@@ -1851,7 +1850,7 @@
       <c r="D26" s="4">
         <v>45691.541666666657</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="7">
         <v>98512.55</v>
       </c>
       <c r="F26" s="1">
@@ -1864,22 +1863,22 @@
         <v>94564.71</v>
       </c>
       <c r="I26" s="1">
-        <v>0.1247875990027113</v>
+        <v>0.13120801609632521</v>
       </c>
       <c r="J26" t="s">
         <v>19</v>
       </c>
       <c r="K26" s="7">
-        <v>492.64147484686339</v>
+        <v>517.98825426571614</v>
       </c>
       <c r="L26" s="1">
-        <v>10791.0153517083</v>
+        <v>11346.22131748742</v>
       </c>
       <c r="M26" s="1">
-        <v>102.9837387686144</v>
+        <v>108.2823306322171</v>
       </c>
       <c r="N26">
-        <v>102.9837387686144</v>
+        <v>108.2823306322171</v>
       </c>
       <c r="O26" t="s">
         <v>20</v>
@@ -1904,7 +1903,7 @@
       <c r="D27" s="4">
         <v>45691.635416666657</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="7">
         <v>96150.84</v>
       </c>
       <c r="F27" s="1">
@@ -1914,25 +1913,25 @@
         <v>93152.146229873964</v>
       </c>
       <c r="H27" s="1">
-        <v>96570</v>
+        <v>97200</v>
       </c>
       <c r="I27" s="1">
-        <v>0.107957159139209</v>
+        <v>0.1135116372720907</v>
       </c>
       <c r="J27" t="s">
         <v>18</v>
       </c>
       <c r="K27" s="7">
-        <v>-45.25132282479121</v>
+        <v>-113.46221317487419</v>
       </c>
       <c r="L27" s="1">
-        <v>10745.76402888351</v>
+        <v>11232.75910431255</v>
       </c>
       <c r="M27" s="1">
-        <v>107.910153517083</v>
+        <v>113.46221317487419</v>
       </c>
       <c r="N27">
-        <v>107.910153517083</v>
+        <v>113.46221317487419</v>
       </c>
       <c r="O27" t="s">
         <v>20</v>
@@ -1957,7 +1956,7 @@
       <c r="D28" s="4">
         <v>45691.784722222219</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="7">
         <v>98730.93</v>
       </c>
       <c r="F28" s="1">
@@ -1967,25 +1966,25 @@
         <v>95197.852474875894</v>
       </c>
       <c r="H28" s="1">
-        <v>99795.94</v>
+        <v>99943.63</v>
       </c>
       <c r="I28" s="1">
-        <v>9.1244225062732123E-2</v>
+        <v>9.5379388290535314E-2</v>
       </c>
       <c r="J28" t="s">
         <v>18</v>
       </c>
       <c r="K28" s="7">
-        <v>-97.176012134061182</v>
+        <v>-112.32759104312549</v>
       </c>
       <c r="L28" s="1">
-        <v>10648.588016749451</v>
+        <v>11120.431513269419</v>
       </c>
       <c r="M28" s="1">
-        <v>107.45764028883509</v>
+        <v>112.32759104312549</v>
       </c>
       <c r="N28">
-        <v>107.45764028883509</v>
+        <v>112.32759104312549</v>
       </c>
       <c r="O28" t="s">
         <v>20</v>
@@ -2010,7 +2009,7 @@
       <c r="D29" s="4">
         <v>45693.611111111109</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="7">
         <v>98581.99</v>
       </c>
       <c r="F29" s="1">
@@ -2020,25 +2019,25 @@
         <v>97557.142306092981</v>
       </c>
       <c r="H29" s="1">
-        <v>98746.93</v>
+        <v>99149</v>
       </c>
       <c r="I29" s="1">
-        <v>0.31171230847445819</v>
+        <v>0.32552441439005519</v>
       </c>
       <c r="J29" t="s">
         <v>18</v>
       </c>
       <c r="K29" s="7">
-        <v>-51.413828159773317</v>
+        <v>-111.20431513269421</v>
       </c>
       <c r="L29" s="1">
-        <v>10597.17418858967</v>
+        <v>11009.22719813673</v>
       </c>
       <c r="M29" s="1">
-        <v>106.4858801674945</v>
+        <v>111.20431513269421</v>
       </c>
       <c r="N29">
-        <v>106.4858801674945</v>
+        <v>111.20431513269421</v>
       </c>
       <c r="O29" t="s">
         <v>20</v>
@@ -2063,7 +2062,7 @@
       <c r="D30" s="4">
         <v>45695.541666666657</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="7">
         <v>96870.9</v>
       </c>
       <c r="F30" s="1">
@@ -2073,25 +2072,25 @@
         <v>95401.076289255885</v>
       </c>
       <c r="H30" s="1">
-        <v>97900</v>
+        <v>98007</v>
       </c>
       <c r="I30" s="1">
-        <v>0.21629480007282181</v>
+        <v>0.22470505376246569</v>
       </c>
       <c r="J30" t="s">
         <v>18</v>
       </c>
       <c r="K30" s="7">
-        <v>-222.58897875494219</v>
+        <v>-110.0922719813673</v>
       </c>
       <c r="L30" s="1">
-        <v>10374.58520983473</v>
+        <v>10899.134926155361</v>
       </c>
       <c r="M30" s="1">
-        <v>105.97174188589671</v>
+        <v>110.0922719813673</v>
       </c>
       <c r="N30">
-        <v>105.97174188589671</v>
+        <v>110.0922719813673</v>
       </c>
       <c r="O30" t="s">
         <v>20</v>
@@ -2116,7 +2115,7 @@
       <c r="D31" s="4">
         <v>45696.645833333343</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="7">
         <v>96418.33</v>
       </c>
       <c r="F31" s="1">
@@ -2129,22 +2128,22 @@
         <v>95688</v>
       </c>
       <c r="I31" s="1">
-        <v>0.4853604724082356</v>
+        <v>0.5099007979215523</v>
       </c>
       <c r="J31" t="s">
         <v>19</v>
       </c>
       <c r="K31" s="7">
-        <v>354.47331381390762</v>
+        <v>372.39584974604821</v>
       </c>
       <c r="L31" s="1">
-        <v>10729.05852364864</v>
+        <v>11271.53077590141</v>
       </c>
       <c r="M31" s="1">
-        <v>103.7458520983473</v>
+        <v>108.99134926155359</v>
       </c>
       <c r="N31">
-        <v>103.7458520983473</v>
+        <v>108.99134926155359</v>
       </c>
       <c r="O31" t="s">
         <v>20</v>
@@ -2169,7 +2168,7 @@
       <c r="D32" s="4">
         <v>45696.777777777781</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="7">
         <v>96282.74</v>
       </c>
       <c r="F32" s="1">
@@ -2179,25 +2178,25 @@
         <v>95617.893620693823</v>
       </c>
       <c r="H32" s="1">
-        <v>96423.03</v>
+        <v>96526.59</v>
       </c>
       <c r="I32" s="1">
-        <v>0.48412951582192121</v>
+        <v>0.50860760290207696</v>
       </c>
       <c r="J32" t="s">
         <v>18</v>
       </c>
       <c r="K32" s="7">
-        <v>-67.918529774654218</v>
+        <v>-112.7153077590141</v>
       </c>
       <c r="L32" s="1">
-        <v>10661.139993873991</v>
+        <v>11158.815468142389</v>
       </c>
       <c r="M32" s="1">
-        <v>107.29058523648639</v>
+        <v>112.7153077590141</v>
       </c>
       <c r="N32">
-        <v>107.29058523648639</v>
+        <v>112.7153077590141</v>
       </c>
       <c r="O32" t="s">
         <v>20</v>
@@ -2222,7 +2221,7 @@
       <c r="D33" s="4">
         <v>45697.572916666657</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="7">
         <v>96622.64</v>
       </c>
       <c r="F33" s="1">
@@ -2235,22 +2234,22 @@
         <v>95915.44</v>
       </c>
       <c r="I33" s="1">
-        <v>0.55683278260679903</v>
+        <v>0.58282643988278204</v>
       </c>
       <c r="J33" t="s">
         <v>19</v>
       </c>
       <c r="K33" s="7">
-        <v>393.79214385952667</v>
+        <v>412.17485828510178</v>
       </c>
       <c r="L33" s="1">
-        <v>11054.932137733511</v>
+        <v>11570.990326427491</v>
       </c>
       <c r="M33" s="1">
-        <v>106.61139993873989</v>
+        <v>111.5881546814239</v>
       </c>
       <c r="N33">
-        <v>106.61139993873989</v>
+        <v>111.5881546814239</v>
       </c>
       <c r="O33" t="s">
         <v>20</v>
@@ -2275,7 +2274,7 @@
       <c r="D34" s="4">
         <v>45697.899305555547</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="7">
         <v>96612.05</v>
       </c>
       <c r="F34" s="1">
@@ -2288,22 +2287,22 @@
         <v>95376.65</v>
       </c>
       <c r="I34" s="1">
-        <v>0.41179518280804822</v>
+        <v>0.43101830182001161</v>
       </c>
       <c r="J34" t="s">
         <v>19</v>
       </c>
       <c r="K34" s="7">
-        <v>508.73176884106641</v>
+        <v>532.48001006844606</v>
       </c>
       <c r="L34" s="1">
-        <v>11563.66390657458</v>
+        <v>12103.470336495941</v>
       </c>
       <c r="M34" s="1">
-        <v>110.5493213773351</v>
+        <v>115.7099032642749</v>
       </c>
       <c r="N34">
-        <v>110.5493213773351</v>
+        <v>115.7099032642749</v>
       </c>
       <c r="O34" t="s">
         <v>20</v>
@@ -2328,7 +2327,7 @@
       <c r="D35" s="4">
         <v>45699.899305555547</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="7">
         <v>95686.37</v>
       </c>
       <c r="F35" s="1">
@@ -2338,25 +2337,25 @@
         <v>94577.04877914043</v>
       </c>
       <c r="H35" s="1">
-        <v>95959.38</v>
+        <v>96155.59</v>
       </c>
       <c r="I35" s="1">
-        <v>0.31272269084371818</v>
+        <v>0.32732098085487749</v>
       </c>
       <c r="J35" t="s">
         <v>18</v>
       </c>
       <c r="K35" s="7">
-        <v>-85.376421827246432</v>
+        <v>-121.0347033649594</v>
       </c>
       <c r="L35" s="1">
-        <v>11478.28748474733</v>
+        <v>11982.435633130979</v>
       </c>
       <c r="M35" s="1">
-        <v>115.6366390657458</v>
+        <v>121.0347033649594</v>
       </c>
       <c r="N35">
-        <v>115.6366390657458</v>
+        <v>121.0347033649594</v>
       </c>
       <c r="O35" t="s">
         <v>20</v>
@@ -2381,7 +2380,7 @@
       <c r="D36" s="4">
         <v>45700.5625</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="7">
         <v>96317.67</v>
       </c>
       <c r="F36" s="1">
@@ -2394,22 +2393,22 @@
         <v>94844.800000000003</v>
       </c>
       <c r="I36" s="1">
-        <v>0.28491871165624028</v>
+        <v>0.29743288165871012</v>
       </c>
       <c r="J36" t="s">
         <v>19</v>
       </c>
       <c r="K36" s="7">
-        <v>419.64822283712539</v>
+        <v>438.07996840866292</v>
       </c>
       <c r="L36" s="1">
-        <v>11897.93570758446</v>
+        <v>12420.515601539641</v>
       </c>
       <c r="M36" s="1">
-        <v>114.78287484747329</v>
+        <v>119.8243563313098</v>
       </c>
       <c r="N36">
-        <v>114.78287484747329</v>
+        <v>119.8243563313098</v>
       </c>
       <c r="O36" t="s">
         <v>20</v>
@@ -2434,7 +2433,7 @@
       <c r="D37" s="4">
         <v>45701.895833333343</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="7">
         <v>96270.05</v>
       </c>
       <c r="F37" s="1">
@@ -2444,25 +2443,25 @@
         <v>94975.09366136376</v>
       </c>
       <c r="H37" s="1">
-        <v>96412.79</v>
+        <v>96774.71</v>
       </c>
       <c r="I37" s="1">
-        <v>0.27563714742957268</v>
+        <v>0.28774365353399178</v>
       </c>
       <c r="J37" t="s">
         <v>18</v>
       </c>
       <c r="K37" s="7">
-        <v>-39.344446424094649</v>
+        <v>-124.2051560153964</v>
       </c>
       <c r="L37" s="1">
-        <v>11858.59126116036</v>
+        <v>12296.31044552425</v>
       </c>
       <c r="M37" s="1">
-        <v>118.9793570758446</v>
+        <v>124.2051560153964</v>
       </c>
       <c r="N37">
-        <v>118.9793570758446</v>
+        <v>124.2051560153964</v>
       </c>
       <c r="O37" t="s">
         <v>20</v>
@@ -2474,49 +2473,49 @@
         <v>1294.956338636242</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>22</v>
-      </c>
-      <c r="B41" s="1">
-        <v>10000</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B42" s="1">
-        <v>11858.59126116036</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="5">
-        <v>0.18585912611603631</v>
+        <v>23</v>
+      </c>
+      <c r="B43" s="1">
+        <v>12296.31044552425</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>25</v>
-      </c>
-      <c r="B44">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="B44" s="5">
+        <v>0.22963104455242481</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="5">
-        <v>0.3611111111111111</v>
+      <c r="B46" s="5">
+        <v>0.33333333333333331</v>
       </c>
     </row>
   </sheetData>

--- a/trading_results.xlsx
+++ b/trading_results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="26">
   <si>
     <t>Position</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Risk Amount ($)</t>
-  </si>
-  <si>
-    <t>Actual Risk ($)</t>
   </si>
   <si>
     <t>Risk-Reward Ratio</t>
@@ -106,12 +103,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,13 +117,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -173,11 +162,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -186,11 +174,8 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -493,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,18 +489,11 @@
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="7" customWidth="1"/>
-    <col min="6" max="9" width="15.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="7" customWidth="1"/>
-    <col min="12" max="13" width="18.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5703125" customWidth="1"/>
-    <col min="16" max="16" width="17.7109375" customWidth="1"/>
-    <col min="17" max="17" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="15.7109375" style="1" customWidth="1"/>
+    <col min="12" max="16" width="18.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -525,7 +503,7 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -543,7 +521,7 @@
       <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -561,16 +539,13 @@
       <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4">
         <v>45666.635416666657</v>
@@ -578,7 +553,7 @@
       <c r="D2" s="4">
         <v>45666.645833333343</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="1">
         <v>93188.2</v>
       </c>
       <c r="F2" s="1">
@@ -593,10 +568,10 @@
       <c r="I2" s="1">
         <v>0.16309223621077859</v>
       </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="7">
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1">
         <v>-100</v>
       </c>
       <c r="L2" s="1">
@@ -605,25 +580,22 @@
       <c r="M2" s="1">
         <v>100</v>
       </c>
-      <c r="N2">
-        <v>99.999999999999986</v>
-      </c>
-      <c r="O2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2">
+      <c r="N2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="1">
         <v>613.1499715949758</v>
       </c>
-      <c r="Q2">
+      <c r="P2" s="1">
         <v>1839.4499147849131</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4">
         <v>45666.649305555547</v>
@@ -631,7 +603,7 @@
       <c r="D3" s="4">
         <v>45666.659722222219</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="1">
         <v>93739.87</v>
       </c>
       <c r="F3" s="1">
@@ -646,10 +618,10 @@
       <c r="I3" s="1">
         <v>0.15555303747784549</v>
       </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="7">
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1">
         <v>-99</v>
       </c>
       <c r="L3" s="1">
@@ -658,25 +630,22 @@
       <c r="M3" s="1">
         <v>99</v>
       </c>
-      <c r="N3">
-        <v>99</v>
-      </c>
-      <c r="O3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P3">
+      <c r="N3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="1">
         <v>636.43887387348514</v>
       </c>
-      <c r="Q3">
+      <c r="P3" s="1">
         <v>1909.31662162047</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="4">
         <v>45666.663194444453</v>
@@ -684,7 +653,7 @@
       <c r="D4" s="4">
         <v>45666.822916666657</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="1">
         <v>94244.02</v>
       </c>
       <c r="F4" s="1">
@@ -699,10 +668,10 @@
       <c r="I4" s="1">
         <v>0.14502302872544071</v>
       </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="7">
+      <c r="J4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="1">
         <v>309.93886630114969</v>
       </c>
       <c r="L4" s="1">
@@ -711,25 +680,22 @@
       <c r="M4" s="1">
         <v>98.01</v>
       </c>
-      <c r="N4">
-        <v>98.01</v>
-      </c>
-      <c r="O4" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4">
+      <c r="N4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="1">
         <v>675.82370097616513</v>
       </c>
-      <c r="Q4">
+      <c r="P4" s="1">
         <v>2027.4711029285099</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4">
         <v>45667.75</v>
@@ -737,7 +703,7 @@
       <c r="D5" s="4">
         <v>45670.541666666657</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="1">
         <v>95486.73</v>
       </c>
       <c r="F5" s="1">
@@ -752,10 +718,10 @@
       <c r="I5" s="1">
         <v>0.12153024669061829</v>
       </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="7">
+      <c r="J5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="1">
         <v>595.92234934497867</v>
       </c>
       <c r="L5" s="1">
@@ -764,25 +730,22 @@
       <c r="M5" s="1">
         <v>101.1093886630115</v>
       </c>
-      <c r="N5">
-        <v>101.1093886630115</v>
-      </c>
-      <c r="O5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5">
+      <c r="N5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="1">
         <v>831.96892474354536</v>
       </c>
-      <c r="Q5">
+      <c r="P5" s="1">
         <v>2495.9067742306361</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="4">
         <v>45670.635416666657</v>
@@ -790,7 +753,7 @@
       <c r="D6" s="4">
         <v>45670.868055555547</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="1">
         <v>92680.01</v>
       </c>
       <c r="F6" s="1">
@@ -805,10 +768,10 @@
       <c r="I6" s="1">
         <v>0.1010857708998836</v>
       </c>
-      <c r="J6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="7">
+      <c r="J6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="1">
         <v>-107.0686121564613</v>
       </c>
       <c r="L6" s="1">
@@ -817,25 +780,22 @@
       <c r="M6" s="1">
         <v>107.0686121564613</v>
       </c>
-      <c r="N6">
-        <v>107.0686121564613</v>
-      </c>
-      <c r="O6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6">
+      <c r="N6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="1">
         <v>1059.185790475924</v>
       </c>
-      <c r="Q6">
+      <c r="P6" s="1">
         <v>3177.5573714277712</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="4">
         <v>45673.625</v>
@@ -843,7 +803,7 @@
       <c r="D7" s="4">
         <v>45673.670138888891</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="1">
         <v>97571.23</v>
       </c>
       <c r="F7" s="1">
@@ -858,10 +818,10 @@
       <c r="I7" s="1">
         <v>0.15506208970601851</v>
       </c>
-      <c r="J7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="7">
+      <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="1">
         <v>347.96553178389507</v>
       </c>
       <c r="L7" s="1">
@@ -870,25 +830,22 @@
       <c r="M7" s="1">
         <v>105.99792603489669</v>
       </c>
-      <c r="N7">
-        <v>105.99792603489669</v>
-      </c>
-      <c r="O7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P7">
+      <c r="N7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="1">
         <v>683.58375819555658</v>
       </c>
-      <c r="Q7">
+      <c r="P7" s="1">
         <v>2050.7512745866702</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="4">
         <v>45674.871527777781</v>
@@ -896,7 +853,7 @@
       <c r="D8" s="4">
         <v>45675.541666666657</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="1">
         <v>104692.7</v>
       </c>
       <c r="F8" s="1">
@@ -911,10 +868,10 @@
       <c r="I8" s="1">
         <v>0.2209226999473812</v>
       </c>
-      <c r="J8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="7">
+      <c r="J8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="1">
         <v>-109.4775813527356</v>
       </c>
       <c r="L8" s="1">
@@ -923,25 +880,22 @@
       <c r="M8" s="1">
         <v>109.4775813527356</v>
       </c>
-      <c r="N8">
-        <v>109.4775813527356</v>
-      </c>
-      <c r="O8" t="s">
-        <v>20</v>
-      </c>
-      <c r="P8">
+      <c r="N8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="1">
         <v>495.54700073288399</v>
       </c>
-      <c r="Q8">
+      <c r="P8" s="1">
         <v>1486.641002198638</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="4">
         <v>45675.701388888891</v>
@@ -949,7 +903,7 @@
       <c r="D9" s="4">
         <v>45676.541666666657</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="1">
         <v>103240.85</v>
       </c>
       <c r="F9" s="1">
@@ -964,10 +918,10 @@
       <c r="I9" s="1">
         <v>0.19634752047467049</v>
       </c>
-      <c r="J9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="7">
+      <c r="J9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="1">
         <v>376.38837937391901</v>
       </c>
       <c r="L9" s="1">
@@ -976,25 +930,22 @@
       <c r="M9" s="1">
         <v>108.38280553920831</v>
       </c>
-      <c r="N9">
-        <v>108.38280553920831</v>
-      </c>
-      <c r="O9" t="s">
-        <v>20</v>
-      </c>
-      <c r="P9">
+      <c r="N9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="1">
         <v>551.99477577915241</v>
       </c>
-      <c r="Q9">
+      <c r="P9" s="1">
         <v>1655.984327337472</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="4">
         <v>45677.659722222219</v>
@@ -1002,7 +953,7 @@
       <c r="D10" s="4">
         <v>45677.673611111109</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="1">
         <v>105535.7</v>
       </c>
       <c r="F10" s="1">
@@ -1017,10 +968,10 @@
       <c r="I10" s="1">
         <v>0.10116532065490461</v>
       </c>
-      <c r="J10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="7">
+      <c r="J10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="1">
         <v>-112.1466893329475</v>
       </c>
       <c r="L10" s="1">
@@ -1029,25 +980,22 @@
       <c r="M10" s="1">
         <v>112.1466893329475</v>
       </c>
-      <c r="N10">
-        <v>112.1466893329475</v>
-      </c>
-      <c r="O10" t="s">
-        <v>20</v>
-      </c>
-      <c r="P10">
+      <c r="N10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="1">
         <v>1108.548745824693</v>
       </c>
-      <c r="Q10">
+      <c r="P10" s="1">
         <v>3325.64623747408</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="4">
         <v>45678.628472222219</v>
@@ -1055,7 +1003,7 @@
       <c r="D11" s="4">
         <v>45678.673611111109</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="1">
         <v>103281.22</v>
       </c>
       <c r="F11" s="1">
@@ -1070,10 +1018,10 @@
       <c r="I11" s="1">
         <v>0.1161594969572064</v>
       </c>
-      <c r="J11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="7">
+      <c r="J11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="1">
         <v>350.65996622447528</v>
       </c>
       <c r="L11" s="1">
@@ -1082,25 +1030,22 @@
       <c r="M11" s="1">
         <v>111.02522243961801</v>
       </c>
-      <c r="N11">
-        <v>111.02522243961801</v>
-      </c>
-      <c r="O11" t="s">
-        <v>20</v>
-      </c>
-      <c r="P11">
+      <c r="N11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="1">
         <v>955.79978691299038</v>
       </c>
-      <c r="Q11">
+      <c r="P11" s="1">
         <v>2867.3993607389862</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="4">
         <v>45678.861111111109</v>
@@ -1108,7 +1053,7 @@
       <c r="D12" s="4">
         <v>45679.541666666657</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="1">
         <v>106072</v>
       </c>
       <c r="F12" s="1">
@@ -1123,10 +1068,10 @@
       <c r="I12" s="1">
         <v>0.16820117969568951</v>
       </c>
-      <c r="J12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="7">
+      <c r="J12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="1">
         <v>-114.5318221018627</v>
       </c>
       <c r="L12" s="1">
@@ -1135,25 +1080,22 @@
       <c r="M12" s="1">
         <v>114.5318221018627</v>
       </c>
-      <c r="N12">
-        <v>114.5318221018627</v>
-      </c>
-      <c r="O12" t="s">
-        <v>20</v>
-      </c>
-      <c r="P12">
+      <c r="N12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" s="1">
         <v>680.921633897422</v>
       </c>
-      <c r="Q12">
+      <c r="P12" s="1">
         <v>2042.764901692251</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="4">
         <v>45679.548611111109</v>
@@ -1161,7 +1103,7 @@
       <c r="D13" s="4">
         <v>45679.565972222219</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="1">
         <v>104947.17</v>
       </c>
       <c r="F13" s="1">
@@ -1176,10 +1118,10 @@
       <c r="I13" s="1">
         <v>0.36731419601443532</v>
       </c>
-      <c r="J13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="7">
+      <c r="J13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="1">
         <v>-113.3865038808441</v>
       </c>
       <c r="L13" s="1">
@@ -1188,25 +1130,22 @@
       <c r="M13" s="1">
         <v>113.3865038808441</v>
       </c>
-      <c r="N13">
-        <v>113.3865038808441</v>
-      </c>
-      <c r="O13" t="s">
-        <v>20</v>
-      </c>
-      <c r="P13">
+      <c r="N13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="1">
         <v>308.69077512154757</v>
       </c>
-      <c r="Q13">
+      <c r="P13" s="1">
         <v>926.07232536464289</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="4">
         <v>45679.579861111109</v>
@@ -1214,7 +1153,7 @@
       <c r="D14" s="4">
         <v>45679.694444444453</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="1">
         <v>104073.94</v>
       </c>
       <c r="F14" s="1">
@@ -1229,10 +1168,10 @@
       <c r="I14" s="1">
         <v>0.24082978044746139</v>
       </c>
-      <c r="J14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="7">
+      <c r="J14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="1">
         <v>-112.25263884203569</v>
       </c>
       <c r="L14" s="1">
@@ -1241,25 +1180,22 @@
       <c r="M14" s="1">
         <v>112.25263884203569</v>
       </c>
-      <c r="N14">
-        <v>112.25263884203569</v>
-      </c>
-      <c r="O14" t="s">
-        <v>20</v>
-      </c>
-      <c r="P14">
+      <c r="N14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="1">
         <v>466.10779876753799</v>
       </c>
-      <c r="Q14">
+      <c r="P14" s="1">
         <v>1398.3233963026139</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="4">
         <v>45679.881944444453</v>
@@ -1267,7 +1203,7 @@
       <c r="D15" s="4">
         <v>45680.541666666657</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="1">
         <v>103891.76</v>
       </c>
       <c r="F15" s="1">
@@ -1282,10 +1218,10 @@
       <c r="I15" s="1">
         <v>0.21864682974783711</v>
       </c>
-      <c r="J15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="7">
+      <c r="J15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="1">
         <v>-111.1301124536153</v>
       </c>
       <c r="L15" s="1">
@@ -1294,25 +1230,22 @@
       <c r="M15" s="1">
         <v>111.1301124536153</v>
       </c>
-      <c r="N15">
-        <v>111.1301124536153</v>
-      </c>
-      <c r="O15" t="s">
-        <v>20</v>
-      </c>
-      <c r="P15">
+      <c r="N15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15" s="1">
         <v>508.26308609999251</v>
       </c>
-      <c r="Q15">
+      <c r="P15" s="1">
         <v>1524.789258299978</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="4">
         <v>45680.829861111109</v>
@@ -1320,7 +1253,7 @@
       <c r="D16" s="4">
         <v>45680.850694444453</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="1">
         <v>103770.04</v>
       </c>
       <c r="F16" s="1">
@@ -1335,10 +1268,10 @@
       <c r="I16" s="1">
         <v>0.12728903413824669</v>
       </c>
-      <c r="J16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="7">
+      <c r="J16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="1">
         <v>337.44195661015141</v>
       </c>
       <c r="L16" s="1">
@@ -1347,25 +1280,22 @@
       <c r="M16" s="1">
         <v>110.0188113290792</v>
       </c>
-      <c r="N16">
-        <v>110.0188113290792</v>
-      </c>
-      <c r="O16" t="s">
-        <v>20</v>
-      </c>
-      <c r="P16">
+      <c r="N16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O16" s="1">
         <v>864.32277590848389</v>
       </c>
-      <c r="Q16">
+      <c r="P16" s="1">
         <v>2592.9683277254521</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="4">
         <v>45681.829861111109</v>
@@ -1373,7 +1303,7 @@
       <c r="D17" s="4">
         <v>45681.847222222219</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="1">
         <v>105760.94</v>
       </c>
       <c r="F17" s="1">
@@ -1388,10 +1318,10 @@
       <c r="I17" s="1">
         <v>0.24305375705691459</v>
       </c>
-      <c r="J17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="7">
+      <c r="J17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="1">
         <v>-113.39323089518069</v>
       </c>
       <c r="L17" s="1">
@@ -1400,25 +1330,22 @@
       <c r="M17" s="1">
         <v>113.39323089518069</v>
       </c>
-      <c r="N17">
-        <v>113.39323089518069</v>
-      </c>
-      <c r="O17" t="s">
-        <v>20</v>
-      </c>
-      <c r="P17">
+      <c r="N17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17" s="1">
         <v>466.53560211631702</v>
       </c>
-      <c r="Q17">
+      <c r="P17" s="1">
         <v>1399.6068063489511</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="4">
         <v>45681.857638888891</v>
@@ -1426,7 +1353,7 @@
       <c r="D18" s="4">
         <v>45682.586805555547</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="1">
         <v>105052.52</v>
       </c>
       <c r="F18" s="1">
@@ -1441,10 +1368,10 @@
       <c r="I18" s="1">
         <v>0.24314079223859611</v>
       </c>
-      <c r="J18" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7">
+      <c r="J18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="1">
         <v>-112.25929858622889</v>
       </c>
       <c r="L18" s="1">
@@ -1453,25 +1380,22 @@
       <c r="M18" s="1">
         <v>112.25929858622889</v>
       </c>
-      <c r="N18">
-        <v>112.25929858622889</v>
-      </c>
-      <c r="O18" t="s">
-        <v>20</v>
-      </c>
-      <c r="P18">
+      <c r="N18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="1">
         <v>461.7049140650488</v>
       </c>
-      <c r="Q18">
+      <c r="P18" s="1">
         <v>1385.1147421951609</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="4">
         <v>45683.885416666657</v>
@@ -1479,7 +1403,7 @@
       <c r="D19" s="4">
         <v>45683.90625</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="1">
         <v>104795.54</v>
       </c>
       <c r="F19" s="1">
@@ -1494,10 +1418,10 @@
       <c r="I19" s="1">
         <v>0.69448579088064044</v>
       </c>
-      <c r="J19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="7">
+      <c r="J19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="1">
         <v>-111.1367056003666</v>
       </c>
       <c r="L19" s="1">
@@ -1506,25 +1430,22 @@
       <c r="M19" s="1">
         <v>111.1367056003666</v>
       </c>
-      <c r="N19">
-        <v>111.1367056003666</v>
-      </c>
-      <c r="O19" t="s">
-        <v>20</v>
-      </c>
-      <c r="P19">
+      <c r="N19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O19" s="1">
         <v>160.02732821853709</v>
       </c>
-      <c r="Q19">
+      <c r="P19" s="1">
         <v>480.0819846555969</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="4">
         <v>45684.541666666657</v>
@@ -1532,7 +1453,7 @@
       <c r="D20" s="4">
         <v>45684.545138888891</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="1">
         <v>100632.01</v>
       </c>
       <c r="F20" s="1">
@@ -1547,10 +1468,10 @@
       <c r="I20" s="1">
         <v>0.16821349725932291</v>
       </c>
-      <c r="J20" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="7">
+      <c r="J20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="1">
         <v>-110.0253385443629</v>
       </c>
       <c r="L20" s="1">
@@ -1559,25 +1480,22 @@
       <c r="M20" s="1">
         <v>110.0253385443629</v>
       </c>
-      <c r="N20">
-        <v>110.0253385443629</v>
-      </c>
-      <c r="O20" t="s">
-        <v>20</v>
-      </c>
-      <c r="P20">
+      <c r="N20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O20" s="1">
         <v>654.08151151357742</v>
       </c>
-      <c r="Q20">
+      <c r="P20" s="1">
         <v>1962.244534540718</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="4">
         <v>45684.850694444453</v>
@@ -1585,7 +1503,7 @@
       <c r="D21" s="4">
         <v>45684.864583333343</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="1">
         <v>100351.67999999999</v>
       </c>
       <c r="F21" s="1">
@@ -1600,10 +1518,10 @@
       <c r="I21" s="1">
         <v>0.17956836630024639</v>
       </c>
-      <c r="J21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="7">
+      <c r="J21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="1">
         <v>-108.9250851589193</v>
       </c>
       <c r="L21" s="1">
@@ -1612,25 +1530,22 @@
       <c r="M21" s="1">
         <v>108.9250851589193</v>
       </c>
-      <c r="N21">
-        <v>108.9250851589193</v>
-      </c>
-      <c r="O21" t="s">
-        <v>20</v>
-      </c>
-      <c r="P21">
+      <c r="N21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O21" s="1">
         <v>606.59395306181978</v>
       </c>
-      <c r="Q21">
+      <c r="P21" s="1">
         <v>1819.781859185445</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="4">
         <v>45684.871527777781</v>
@@ -1638,7 +1553,7 @@
       <c r="D22" s="4">
         <v>45684.878472222219</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="1">
         <v>101386.5</v>
       </c>
       <c r="F22" s="1">
@@ -1653,10 +1568,10 @@
       <c r="I22" s="1">
         <v>0.16314438629449249</v>
       </c>
-      <c r="J22" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="7">
+      <c r="J22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="1">
         <v>-107.8358343073301</v>
       </c>
       <c r="L22" s="1">
@@ -1665,25 +1580,22 @@
       <c r="M22" s="1">
         <v>107.8358343073301</v>
       </c>
-      <c r="N22">
-        <v>107.8358343073301</v>
-      </c>
-      <c r="O22" t="s">
-        <v>20</v>
-      </c>
-      <c r="P22">
+      <c r="N22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O22" s="1">
         <v>660.98403234466969</v>
       </c>
-      <c r="Q22">
+      <c r="P22" s="1">
         <v>1982.9520970340091</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="4">
         <v>45684.881944444453</v>
@@ -1691,7 +1603,7 @@
       <c r="D23" s="4">
         <v>45685.625</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="1">
         <v>102295.12</v>
       </c>
       <c r="F23" s="1">
@@ -1706,10 +1618,10 @@
       <c r="I23" s="1">
         <v>0.14954214847940031</v>
       </c>
-      <c r="J23" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="7">
+      <c r="J23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="1">
         <v>-106.7574759642568</v>
       </c>
       <c r="L23" s="1">
@@ -1718,25 +1630,22 @@
       <c r="M23" s="1">
         <v>106.7574759642568</v>
       </c>
-      <c r="N23">
-        <v>106.7574759642568</v>
-      </c>
-      <c r="O23" t="s">
-        <v>20</v>
-      </c>
-      <c r="P23">
+      <c r="N23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O23" s="1">
         <v>713.89556088237441</v>
       </c>
-      <c r="Q23">
+      <c r="P23" s="1">
         <v>2141.6866826471228</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="4">
         <v>45687.736111111109</v>
@@ -1744,7 +1653,7 @@
       <c r="D24" s="4">
         <v>45688.565972222219</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="1">
         <v>105018.14</v>
       </c>
       <c r="F24" s="1">
@@ -1759,10 +1668,10 @@
       <c r="I24" s="1">
         <v>0.22857088500790479</v>
       </c>
-      <c r="J24" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" s="7">
+      <c r="J24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="1">
         <v>-105.6899012046142</v>
       </c>
       <c r="L24" s="1">
@@ -1771,25 +1680,22 @@
       <c r="M24" s="1">
         <v>105.6899012046142</v>
       </c>
-      <c r="N24">
-        <v>105.6899012046142</v>
-      </c>
-      <c r="O24" t="s">
-        <v>20</v>
-      </c>
-      <c r="P24">
+      <c r="N24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O24" s="1">
         <v>462.39441738592001</v>
       </c>
-      <c r="Q24">
+      <c r="P24" s="1">
         <v>1387.1832521577739</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="4">
         <v>45690.590277777781</v>
@@ -1797,7 +1703,7 @@
       <c r="D25" s="4">
         <v>45690.722222222219</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="1">
         <v>99272.12</v>
       </c>
       <c r="F25" s="1">
@@ -1812,10 +1718,10 @@
       <c r="I25" s="1">
         <v>0.2361841436036666</v>
       </c>
-      <c r="J25" t="s">
-        <v>19</v>
-      </c>
-      <c r="K25" s="7">
+      <c r="J25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="1">
         <v>364.93284396489622</v>
       </c>
       <c r="L25" s="1">
@@ -1824,25 +1730,22 @@
       <c r="M25" s="1">
         <v>104.6330021925681</v>
       </c>
-      <c r="N25">
-        <v>104.6330021925681</v>
-      </c>
-      <c r="O25" t="s">
-        <v>20</v>
-      </c>
-      <c r="P25">
+      <c r="N25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O25" s="1">
         <v>443.01450807023502</v>
       </c>
-      <c r="Q25">
+      <c r="P25" s="1">
         <v>1329.0435242107201</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26" s="4">
         <v>45690.822916666657</v>
@@ -1850,7 +1753,7 @@
       <c r="D26" s="4">
         <v>45691.541666666657</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="1">
         <v>98512.55</v>
       </c>
       <c r="F26" s="1">
@@ -1865,10 +1768,10 @@
       <c r="I26" s="1">
         <v>0.13120801609632521</v>
       </c>
-      <c r="J26" t="s">
-        <v>19</v>
-      </c>
-      <c r="K26" s="7">
+      <c r="J26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="1">
         <v>517.98825426571614</v>
       </c>
       <c r="L26" s="1">
@@ -1877,25 +1780,22 @@
       <c r="M26" s="1">
         <v>108.2823306322171</v>
       </c>
-      <c r="N26">
-        <v>108.2823306322171</v>
-      </c>
-      <c r="O26" t="s">
-        <v>20</v>
-      </c>
-      <c r="P26">
+      <c r="N26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O26" s="1">
         <v>825.27221928820654</v>
       </c>
-      <c r="Q26">
+      <c r="P26" s="1">
         <v>2475.8166578646342</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27" s="4">
         <v>45691.611111111109</v>
@@ -1903,7 +1803,7 @@
       <c r="D27" s="4">
         <v>45691.635416666657</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="1">
         <v>96150.84</v>
       </c>
       <c r="F27" s="1">
@@ -1918,10 +1818,10 @@
       <c r="I27" s="1">
         <v>0.1135116372720907</v>
       </c>
-      <c r="J27" t="s">
-        <v>18</v>
-      </c>
-      <c r="K27" s="7">
+      <c r="J27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="1">
         <v>-113.46221317487419</v>
       </c>
       <c r="L27" s="1">
@@ -1930,25 +1830,22 @@
       <c r="M27" s="1">
         <v>113.46221317487419</v>
       </c>
-      <c r="N27">
-        <v>113.46221317487419</v>
-      </c>
-      <c r="O27" t="s">
-        <v>20</v>
-      </c>
-      <c r="P27">
+      <c r="N27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O27" s="1">
         <v>999.56459004200588</v>
       </c>
-      <c r="Q27">
+      <c r="P27" s="1">
         <v>2998.6937701260322</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" s="4">
         <v>45691.666666666657</v>
@@ -1956,7 +1853,7 @@
       <c r="D28" s="4">
         <v>45691.784722222219</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="1">
         <v>98730.93</v>
       </c>
       <c r="F28" s="1">
@@ -1971,10 +1868,10 @@
       <c r="I28" s="1">
         <v>9.5379388290535314E-2</v>
       </c>
-      <c r="J28" t="s">
-        <v>18</v>
-      </c>
-      <c r="K28" s="7">
+      <c r="J28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="1">
         <v>-112.32759104312549</v>
       </c>
       <c r="L28" s="1">
@@ -1983,25 +1880,22 @@
       <c r="M28" s="1">
         <v>112.32759104312549</v>
       </c>
-      <c r="N28">
-        <v>112.32759104312549</v>
-      </c>
-      <c r="O28" t="s">
-        <v>20</v>
-      </c>
-      <c r="P28">
+      <c r="N28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O28" s="1">
         <v>1177.6925083747051</v>
       </c>
-      <c r="Q28">
+      <c r="P28" s="1">
         <v>3533.0775251240989</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29" s="4">
         <v>45693.576388888891</v>
@@ -2009,7 +1903,7 @@
       <c r="D29" s="4">
         <v>45693.611111111109</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="1">
         <v>98581.99</v>
       </c>
       <c r="F29" s="1">
@@ -2024,10 +1918,10 @@
       <c r="I29" s="1">
         <v>0.32552441439005519</v>
       </c>
-      <c r="J29" t="s">
-        <v>18</v>
-      </c>
-      <c r="K29" s="7">
+      <c r="J29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="1">
         <v>-111.20431513269421</v>
       </c>
       <c r="L29" s="1">
@@ -2036,25 +1930,22 @@
       <c r="M29" s="1">
         <v>111.20431513269421</v>
       </c>
-      <c r="N29">
-        <v>111.20431513269421</v>
-      </c>
-      <c r="O29" t="s">
-        <v>20</v>
-      </c>
-      <c r="P29">
+      <c r="N29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O29" s="1">
         <v>341.61589796900807</v>
       </c>
-      <c r="Q29">
+      <c r="P29" s="1">
         <v>1024.847693907024</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" s="4">
         <v>45694.864583333343</v>
@@ -2062,7 +1953,7 @@
       <c r="D30" s="4">
         <v>45695.541666666657</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="1">
         <v>96870.9</v>
       </c>
       <c r="F30" s="1">
@@ -2077,10 +1968,10 @@
       <c r="I30" s="1">
         <v>0.22470505376246569</v>
       </c>
-      <c r="J30" t="s">
-        <v>18</v>
-      </c>
-      <c r="K30" s="7">
+      <c r="J30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="1">
         <v>-110.0922719813673</v>
       </c>
       <c r="L30" s="1">
@@ -2089,25 +1980,22 @@
       <c r="M30" s="1">
         <v>110.0922719813673</v>
       </c>
-      <c r="N30">
-        <v>110.0922719813673</v>
-      </c>
-      <c r="O30" t="s">
-        <v>20</v>
-      </c>
-      <c r="P30">
+      <c r="N30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O30" s="1">
         <v>489.94123691470298</v>
       </c>
-      <c r="Q30">
+      <c r="P30" s="1">
         <v>1469.8237107441089</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="4">
         <v>45696.569444444453</v>
@@ -2115,7 +2003,7 @@
       <c r="D31" s="4">
         <v>45696.645833333343</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="1">
         <v>96418.33</v>
       </c>
       <c r="F31" s="1">
@@ -2130,10 +2018,10 @@
       <c r="I31" s="1">
         <v>0.5099007979215523</v>
       </c>
-      <c r="J31" t="s">
-        <v>19</v>
-      </c>
-      <c r="K31" s="7">
+      <c r="J31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K31" s="1">
         <v>372.39584974604821</v>
       </c>
       <c r="L31" s="1">
@@ -2142,25 +2030,22 @@
       <c r="M31" s="1">
         <v>108.99134926155359</v>
       </c>
-      <c r="N31">
-        <v>108.99134926155359</v>
-      </c>
-      <c r="O31" t="s">
-        <v>20</v>
-      </c>
-      <c r="P31">
+      <c r="N31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O31" s="1">
         <v>213.7501053260203</v>
       </c>
-      <c r="Q31">
+      <c r="P31" s="1">
         <v>641.25031597806083</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C32" s="4">
         <v>45696.711805555547</v>
@@ -2168,7 +2053,7 @@
       <c r="D32" s="4">
         <v>45696.777777777781</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="1">
         <v>96282.74</v>
       </c>
       <c r="F32" s="1">
@@ -2183,10 +2068,10 @@
       <c r="I32" s="1">
         <v>0.50860760290207696</v>
       </c>
-      <c r="J32" t="s">
-        <v>18</v>
-      </c>
-      <c r="K32" s="7">
+      <c r="J32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="1">
         <v>-112.7153077590141</v>
       </c>
       <c r="L32" s="1">
@@ -2195,25 +2080,22 @@
       <c r="M32" s="1">
         <v>112.7153077590141</v>
       </c>
-      <c r="N32">
-        <v>112.7153077590141</v>
-      </c>
-      <c r="O32" t="s">
-        <v>20</v>
-      </c>
-      <c r="P32">
+      <c r="N32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O32" s="1">
         <v>221.61545976872731</v>
       </c>
-      <c r="Q32">
+      <c r="P32" s="1">
         <v>664.84637930618192</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C33" s="4">
         <v>45696.805555555547</v>
@@ -2221,7 +2103,7 @@
       <c r="D33" s="4">
         <v>45697.572916666657</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="1">
         <v>96622.64</v>
       </c>
       <c r="F33" s="1">
@@ -2236,10 +2118,10 @@
       <c r="I33" s="1">
         <v>0.58282643988278204</v>
       </c>
-      <c r="J33" t="s">
-        <v>19</v>
-      </c>
-      <c r="K33" s="7">
+      <c r="J33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="1">
         <v>412.17485828510178</v>
       </c>
       <c r="L33" s="1">
@@ -2248,25 +2130,22 @@
       <c r="M33" s="1">
         <v>111.5881546814239</v>
       </c>
-      <c r="N33">
-        <v>111.5881546814239</v>
-      </c>
-      <c r="O33" t="s">
-        <v>20</v>
-      </c>
-      <c r="P33">
+      <c r="N33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O33" s="1">
         <v>191.46035087884229</v>
       </c>
-      <c r="Q33">
+      <c r="P33" s="1">
         <v>574.38105263654143</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34" s="4">
         <v>45697.652777777781</v>
@@ -2274,7 +2153,7 @@
       <c r="D34" s="4">
         <v>45697.899305555547</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="1">
         <v>96612.05</v>
       </c>
       <c r="F34" s="1">
@@ -2289,10 +2168,10 @@
       <c r="I34" s="1">
         <v>0.43101830182001161</v>
       </c>
-      <c r="J34" t="s">
-        <v>19</v>
-      </c>
-      <c r="K34" s="7">
+      <c r="J34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" s="1">
         <v>532.48001006844606</v>
       </c>
       <c r="L34" s="1">
@@ -2301,25 +2180,22 @@
       <c r="M34" s="1">
         <v>115.7099032642749</v>
       </c>
-      <c r="N34">
-        <v>115.7099032642749</v>
-      </c>
-      <c r="O34" t="s">
-        <v>20</v>
-      </c>
-      <c r="P34">
+      <c r="N34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O34" s="1">
         <v>268.45705339119007</v>
       </c>
-      <c r="Q34">
+      <c r="P34" s="1">
         <v>805.37116017357039</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35" s="4">
         <v>45699.888888888891</v>
@@ -2327,7 +2203,7 @@
       <c r="D35" s="4">
         <v>45699.899305555547</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="1">
         <v>95686.37</v>
       </c>
       <c r="F35" s="1">
@@ -2342,10 +2218,10 @@
       <c r="I35" s="1">
         <v>0.32732098085487749</v>
       </c>
-      <c r="J35" t="s">
-        <v>18</v>
-      </c>
-      <c r="K35" s="7">
+      <c r="J35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="1">
         <v>-121.0347033649594</v>
       </c>
       <c r="L35" s="1">
@@ -2354,25 +2230,22 @@
       <c r="M35" s="1">
         <v>121.0347033649594</v>
       </c>
-      <c r="N35">
-        <v>121.0347033649594</v>
-      </c>
-      <c r="O35" t="s">
-        <v>20</v>
-      </c>
-      <c r="P35">
+      <c r="N35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O35" s="1">
         <v>369.77374028651678</v>
       </c>
-      <c r="Q35">
+      <c r="P35" s="1">
         <v>1109.3212208595651</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36" s="4">
         <v>45699.90625</v>
@@ -2380,7 +2253,7 @@
       <c r="D36" s="4">
         <v>45700.5625</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="1">
         <v>96317.67</v>
       </c>
       <c r="F36" s="1">
@@ -2395,10 +2268,10 @@
       <c r="I36" s="1">
         <v>0.29743288165871012</v>
       </c>
-      <c r="J36" t="s">
-        <v>19</v>
-      </c>
-      <c r="K36" s="7">
+      <c r="J36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="1">
         <v>438.07996840866292</v>
       </c>
       <c r="L36" s="1">
@@ -2407,25 +2280,22 @@
       <c r="M36" s="1">
         <v>119.8243563313098</v>
       </c>
-      <c r="N36">
-        <v>119.8243563313098</v>
-      </c>
-      <c r="O36" t="s">
-        <v>20</v>
-      </c>
-      <c r="P36">
+      <c r="N36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O36" s="1">
         <v>402.86183445178898</v>
       </c>
-      <c r="Q36">
+      <c r="P36" s="1">
         <v>1208.5855033553819</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="4">
         <v>45701.798611111109</v>
@@ -2433,7 +2303,7 @@
       <c r="D37" s="4">
         <v>45701.895833333343</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="1">
         <v>96270.05</v>
       </c>
       <c r="F37" s="1">
@@ -2448,10 +2318,10 @@
       <c r="I37" s="1">
         <v>0.28774365353399178</v>
       </c>
-      <c r="J37" t="s">
-        <v>18</v>
-      </c>
-      <c r="K37" s="7">
+      <c r="J37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="1">
         <v>-124.2051560153964</v>
       </c>
       <c r="L37" s="1">
@@ -2460,59 +2330,56 @@
       <c r="M37" s="1">
         <v>124.2051560153964</v>
       </c>
-      <c r="N37">
-        <v>124.2051560153964</v>
-      </c>
-      <c r="O37" t="s">
+      <c r="N37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O37" s="1">
+        <v>431.65211287874263</v>
+      </c>
+      <c r="P37" s="1">
+        <v>1294.956338636242</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P37">
-        <v>431.65211287874263</v>
-      </c>
-      <c r="Q37">
-        <v>1294.956338636242</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>22</v>
       </c>
       <c r="B42" s="1">
         <v>10000</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B43" s="1">
         <v>12296.31044552425</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B44" s="5">
         <v>0.22963104455242481</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B45">
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B46" s="5">
         <v>0.33333333333333331</v>

--- a/trading_results.xlsx
+++ b/trading_results.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\Backtesting\strategy\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Trade History" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="26">
   <si>
     <t>Position</t>
   </si>
@@ -102,12 +97,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="$#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,21 +169,13 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -234,7 +222,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,10 +254,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -301,7 +288,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -477,23 +463,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="11" width="15.7109375" style="1" customWidth="1"/>
+    <col min="5" max="8" width="15.7109375" style="1" customWidth="1"/>
+    <col min="9" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="1" customWidth="1"/>
     <col min="12" max="16" width="18.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -540,7 +526,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -548,27 +534,27 @@
         <v>15</v>
       </c>
       <c r="C2" s="4">
-        <v>45666.635416666657</v>
+        <v>45666.63541666666</v>
       </c>
       <c r="D2" s="4">
-        <v>45666.645833333343</v>
+        <v>45666.64583333334</v>
       </c>
       <c r="E2" s="1">
         <v>93188.2</v>
       </c>
       <c r="F2" s="1">
-        <v>93801.349971594973</v>
+        <v>93801.34997159497</v>
       </c>
       <c r="G2" s="1">
-        <v>91348.750085215084</v>
+        <v>91348.75008521508</v>
       </c>
       <c r="H2" s="1">
-        <v>93915.9</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.16309223621077859</v>
-      </c>
-      <c r="J2" s="1" t="s">
+        <v>93915.89999999999</v>
+      </c>
+      <c r="I2">
+        <v>0.1630922362107786</v>
+      </c>
+      <c r="J2" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="1">
@@ -587,10 +573,10 @@
         <v>613.1499715949758</v>
       </c>
       <c r="P2" s="1">
-        <v>1839.4499147849131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1839.449914784913</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -598,10 +584,10 @@
         <v>15</v>
       </c>
       <c r="C3" s="4">
-        <v>45666.649305555547</v>
+        <v>45666.64930555555</v>
       </c>
       <c r="D3" s="4">
-        <v>45666.659722222219</v>
+        <v>45666.65972222222</v>
       </c>
       <c r="E3" s="1">
         <v>93739.87</v>
@@ -610,15 +596,15 @@
         <v>94376.30887387348</v>
       </c>
       <c r="G3" s="1">
-        <v>91830.553378379525</v>
+        <v>91830.55337837953</v>
       </c>
       <c r="H3" s="1">
         <v>94588.23</v>
       </c>
-      <c r="I3" s="1">
-        <v>0.15555303747784549</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="I3">
+        <v>0.1555530374778455</v>
+      </c>
+      <c r="J3" t="s">
         <v>17</v>
       </c>
       <c r="K3" s="1">
@@ -634,13 +620,13 @@
         <v>19</v>
       </c>
       <c r="O3" s="1">
-        <v>636.43887387348514</v>
+        <v>636.4388738734851</v>
       </c>
       <c r="P3" s="1">
         <v>1909.31662162047</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -648,49 +634,49 @@
         <v>15</v>
       </c>
       <c r="C4" s="4">
-        <v>45666.663194444453</v>
+        <v>45666.66319444445</v>
       </c>
       <c r="D4" s="4">
-        <v>45666.822916666657</v>
+        <v>45666.82291666666</v>
       </c>
       <c r="E4" s="1">
         <v>94244.02</v>
       </c>
       <c r="F4" s="1">
-        <v>94919.843700976169</v>
+        <v>94919.84370097617</v>
       </c>
       <c r="G4" s="1">
-        <v>92216.548897071494</v>
+        <v>92216.54889707149</v>
       </c>
       <c r="H4" s="1">
-        <v>92106.85</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.14502302872544071</v>
-      </c>
-      <c r="J4" s="1" t="s">
+        <v>92106.85000000001</v>
+      </c>
+      <c r="I4">
+        <v>0.1450230287254407</v>
+      </c>
+      <c r="J4" t="s">
         <v>18</v>
       </c>
       <c r="K4" s="1">
-        <v>309.93886630114969</v>
+        <v>294.03</v>
       </c>
       <c r="L4" s="1">
-        <v>10110.93886630115</v>
+        <v>10095.03</v>
       </c>
       <c r="M4" s="1">
-        <v>98.01</v>
+        <v>98.01000000000001</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O4" s="1">
-        <v>675.82370097616513</v>
+        <v>675.8237009761651</v>
       </c>
       <c r="P4" s="1">
-        <v>2027.4711029285099</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2027.47110292851</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -701,46 +687,46 @@
         <v>45667.75</v>
       </c>
       <c r="D5" s="4">
-        <v>45670.541666666657</v>
+        <v>45670.54166666666</v>
       </c>
       <c r="E5" s="1">
         <v>95486.73</v>
       </c>
       <c r="F5" s="1">
-        <v>96318.698924743541</v>
+        <v>96318.69892474354</v>
       </c>
       <c r="G5" s="1">
         <v>92990.82322576936</v>
       </c>
       <c r="H5" s="1">
-        <v>90583.24</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.12153024669061829</v>
-      </c>
-      <c r="J5" s="1" t="s">
+        <v>90583.24000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.1213390272132075</v>
+      </c>
+      <c r="J5" t="s">
         <v>18</v>
       </c>
       <c r="K5" s="1">
-        <v>595.92234934497867</v>
+        <v>302.8509</v>
       </c>
       <c r="L5" s="1">
-        <v>10706.861215646129</v>
+        <v>10397.8809</v>
       </c>
       <c r="M5" s="1">
-        <v>101.1093886630115</v>
+        <v>100.9503</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O5" s="1">
-        <v>831.96892474354536</v>
+        <v>831.9689247435454</v>
       </c>
       <c r="P5" s="1">
-        <v>2495.9067742306361</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2495.906774230636</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -748,37 +734,37 @@
         <v>15</v>
       </c>
       <c r="C6" s="4">
-        <v>45670.635416666657</v>
+        <v>45670.63541666666</v>
       </c>
       <c r="D6" s="4">
-        <v>45670.868055555547</v>
+        <v>45670.86805555555</v>
       </c>
       <c r="E6" s="1">
-        <v>92680.01</v>
+        <v>92680.00999999999</v>
       </c>
       <c r="F6" s="1">
-        <v>93739.195790475918</v>
+        <v>93739.19579047592</v>
       </c>
       <c r="G6" s="1">
-        <v>89502.452628572224</v>
+        <v>89502.45262857222</v>
       </c>
       <c r="H6" s="1">
         <v>93783.12</v>
       </c>
-      <c r="I6" s="1">
-        <v>0.1010857708998836</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="I6">
+        <v>0.09816862153454611</v>
+      </c>
+      <c r="J6" t="s">
         <v>17</v>
       </c>
       <c r="K6" s="1">
-        <v>-107.0686121564613</v>
+        <v>-103.978809</v>
       </c>
       <c r="L6" s="1">
-        <v>10599.79260348967</v>
+        <v>10293.902091</v>
       </c>
       <c r="M6" s="1">
-        <v>107.0686121564613</v>
+        <v>103.978809</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>19</v>
@@ -787,10 +773,10 @@
         <v>1059.185790475924</v>
       </c>
       <c r="P6" s="1">
-        <v>3177.5573714277712</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3177.557371427771</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -801,46 +787,46 @@
         <v>45673.625</v>
       </c>
       <c r="D7" s="4">
-        <v>45673.670138888891</v>
+        <v>45673.67013888889</v>
       </c>
       <c r="E7" s="1">
         <v>97571.23</v>
       </c>
       <c r="F7" s="1">
-        <v>96887.646241804439</v>
+        <v>96887.64624180444</v>
       </c>
       <c r="G7" s="1">
-        <v>99621.981274586666</v>
+        <v>99621.98127458667</v>
       </c>
       <c r="H7" s="1">
         <v>99815.27</v>
       </c>
-      <c r="I7" s="1">
-        <v>0.15506208970601851</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="I7">
+        <v>0.150587283088361</v>
+      </c>
+      <c r="J7" t="s">
         <v>18</v>
       </c>
       <c r="K7" s="1">
-        <v>347.96553178389507</v>
+        <v>308.81706273</v>
       </c>
       <c r="L7" s="1">
-        <v>10947.75813527356</v>
+        <v>10602.71915373</v>
       </c>
       <c r="M7" s="1">
-        <v>105.99792603489669</v>
+        <v>102.93902091</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O7" s="1">
-        <v>683.58375819555658</v>
+        <v>683.5837581955566</v>
       </c>
       <c r="P7" s="1">
-        <v>2050.7512745866702</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2050.75127458667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -848,10 +834,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="4">
-        <v>45674.871527777781</v>
+        <v>45674.87152777778</v>
       </c>
       <c r="D8" s="4">
-        <v>45675.541666666657</v>
+        <v>45675.54166666666</v>
       </c>
       <c r="E8" s="1">
         <v>104692.7</v>
@@ -860,37 +846,37 @@
         <v>104197.1529992671</v>
       </c>
       <c r="G8" s="1">
-        <v>106179.34100219861</v>
+        <v>106179.3410021986</v>
       </c>
       <c r="H8" s="1">
         <v>103424.59</v>
       </c>
-      <c r="I8" s="1">
-        <v>0.2209226999473812</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="I8">
+        <v>0.2139599097169233</v>
+      </c>
+      <c r="J8" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="1">
-        <v>-109.4775813527356</v>
+        <v>-106.0271915373</v>
       </c>
       <c r="L8" s="1">
-        <v>10838.280553920829</v>
+        <v>10496.6919621927</v>
       </c>
       <c r="M8" s="1">
-        <v>109.4775813527356</v>
+        <v>106.0271915373</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O8" s="1">
-        <v>495.54700073288399</v>
+        <v>495.547000732884</v>
       </c>
       <c r="P8" s="1">
         <v>1486.641002198638</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -898,10 +884,10 @@
         <v>16</v>
       </c>
       <c r="C9" s="4">
-        <v>45675.701388888891</v>
+        <v>45675.70138888889</v>
       </c>
       <c r="D9" s="4">
-        <v>45676.541666666657</v>
+        <v>45676.54166666666</v>
       </c>
       <c r="E9" s="1">
         <v>103240.85</v>
@@ -910,37 +896,37 @@
         <v>102688.8552242209</v>
       </c>
       <c r="G9" s="1">
-        <v>104896.83432733751</v>
+        <v>104896.8343273375</v>
       </c>
       <c r="H9" s="1">
         <v>105157.8</v>
       </c>
-      <c r="I9" s="1">
-        <v>0.19634752047467049</v>
-      </c>
-      <c r="J9" s="1" t="s">
+      <c r="I9">
+        <v>0.1901592627824493</v>
+      </c>
+      <c r="J9" t="s">
         <v>18</v>
       </c>
       <c r="K9" s="1">
-        <v>376.38837937391901</v>
+        <v>314.900758865781</v>
       </c>
       <c r="L9" s="1">
-        <v>11214.66893329475</v>
+        <v>10811.59272105848</v>
       </c>
       <c r="M9" s="1">
-        <v>108.38280553920831</v>
+        <v>104.966919621927</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O9" s="1">
-        <v>551.99477577915241</v>
+        <v>551.9947757791524</v>
       </c>
       <c r="P9" s="1">
         <v>1655.984327337472</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -948,10 +934,10 @@
         <v>16</v>
       </c>
       <c r="C10" s="4">
-        <v>45677.659722222219</v>
+        <v>45677.65972222222</v>
       </c>
       <c r="D10" s="4">
-        <v>45677.673611111109</v>
+        <v>45677.67361111111</v>
       </c>
       <c r="E10" s="1">
         <v>105535.7</v>
@@ -960,25 +946,25 @@
         <v>104427.1512541753</v>
       </c>
       <c r="G10" s="1">
-        <v>108861.34623747411</v>
+        <v>108861.3462374741</v>
       </c>
       <c r="H10" s="1">
         <v>103708</v>
       </c>
-      <c r="I10" s="1">
-        <v>0.10116532065490461</v>
-      </c>
-      <c r="J10" s="1" t="s">
+      <c r="I10">
+        <v>0.09752924949651455</v>
+      </c>
+      <c r="J10" t="s">
         <v>17</v>
       </c>
       <c r="K10" s="1">
-        <v>-112.1466893329475</v>
+        <v>-108.1159272105848</v>
       </c>
       <c r="L10" s="1">
-        <v>11102.522243961799</v>
+        <v>10703.4767938479</v>
       </c>
       <c r="M10" s="1">
-        <v>112.1466893329475</v>
+        <v>108.1159272105848</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>19</v>
@@ -990,7 +976,7 @@
         <v>3325.64623747408</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -998,10 +984,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="4">
-        <v>45678.628472222219</v>
+        <v>45678.62847222222</v>
       </c>
       <c r="D11" s="4">
-        <v>45678.673611111109</v>
+        <v>45678.67361111111</v>
       </c>
       <c r="E11" s="1">
         <v>103281.22</v>
@@ -1015,32 +1001,32 @@
       <c r="H11" s="1">
         <v>106300</v>
       </c>
-      <c r="I11" s="1">
-        <v>0.1161594969572064</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="I11">
+        <v>0.1119845070108001</v>
+      </c>
+      <c r="J11" t="s">
         <v>18</v>
       </c>
       <c r="K11" s="1">
-        <v>350.65996622447528</v>
+        <v>321.1043038154369</v>
       </c>
       <c r="L11" s="1">
-        <v>11453.182210186271</v>
+        <v>11024.58109766333</v>
       </c>
       <c r="M11" s="1">
-        <v>111.02522243961801</v>
+        <v>107.034767938479</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O11" s="1">
-        <v>955.79978691299038</v>
+        <v>955.7997869129904</v>
       </c>
       <c r="P11" s="1">
-        <v>2867.3993607389862</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2867.399360738986</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1048,16 +1034,16 @@
         <v>16</v>
       </c>
       <c r="C12" s="4">
-        <v>45678.861111111109</v>
+        <v>45678.86111111111</v>
       </c>
       <c r="D12" s="4">
-        <v>45679.541666666657</v>
+        <v>45679.54166666666</v>
       </c>
       <c r="E12" s="1">
         <v>106072</v>
       </c>
       <c r="F12" s="1">
-        <v>105391.07836610261</v>
+        <v>105391.0783661026</v>
       </c>
       <c r="G12" s="1">
         <v>108114.7649016923</v>
@@ -1065,20 +1051,20 @@
       <c r="H12" s="1">
         <v>105039.74</v>
       </c>
-      <c r="I12" s="1">
-        <v>0.16820117969568951</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="I12">
+        <v>0.1619067532714659</v>
+      </c>
+      <c r="J12" t="s">
         <v>17</v>
       </c>
       <c r="K12" s="1">
-        <v>-114.5318221018627</v>
+        <v>-110.2458109766333</v>
       </c>
       <c r="L12" s="1">
-        <v>11338.65038808441</v>
+        <v>10914.3352866867</v>
       </c>
       <c r="M12" s="1">
-        <v>114.5318221018627</v>
+        <v>110.2458109766333</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>19</v>
@@ -1090,7 +1076,7 @@
         <v>2042.764901692251</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1098,16 +1084,16 @@
         <v>16</v>
       </c>
       <c r="C13" s="4">
-        <v>45679.548611111109</v>
+        <v>45679.54861111111</v>
       </c>
       <c r="D13" s="4">
-        <v>45679.565972222219</v>
+        <v>45679.56597222222</v>
       </c>
       <c r="E13" s="1">
         <v>104947.17</v>
       </c>
       <c r="F13" s="1">
-        <v>104638.47922487849</v>
+        <v>104638.4792248785</v>
       </c>
       <c r="G13" s="1">
         <v>105873.2423253646</v>
@@ -1115,32 +1101,32 @@
       <c r="H13" s="1">
         <v>104283.67</v>
       </c>
-      <c r="I13" s="1">
-        <v>0.36731419601443532</v>
-      </c>
-      <c r="J13" s="1" t="s">
+      <c r="I13">
+        <v>0.3535685600708073</v>
+      </c>
+      <c r="J13" t="s">
         <v>17</v>
       </c>
       <c r="K13" s="1">
-        <v>-113.3865038808441</v>
+        <v>-109.143352866867</v>
       </c>
       <c r="L13" s="1">
-        <v>11225.26388420357</v>
+        <v>10805.19193381983</v>
       </c>
       <c r="M13" s="1">
-        <v>113.3865038808441</v>
+        <v>109.143352866867</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O13" s="1">
-        <v>308.69077512154757</v>
+        <v>308.6907751215476</v>
       </c>
       <c r="P13" s="1">
-        <v>926.07232536464289</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>926.0723253646429</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1148,16 +1134,16 @@
         <v>16</v>
       </c>
       <c r="C14" s="4">
-        <v>45679.579861111109</v>
+        <v>45679.57986111111</v>
       </c>
       <c r="D14" s="4">
-        <v>45679.694444444453</v>
+        <v>45679.69444444445</v>
       </c>
       <c r="E14" s="1">
         <v>104073.94</v>
       </c>
       <c r="F14" s="1">
-        <v>103607.83220123249</v>
+        <v>103607.8322012325</v>
       </c>
       <c r="G14" s="1">
         <v>105472.2633963026</v>
@@ -1165,32 +1151,32 @@
       <c r="H14" s="1">
         <v>103339.12</v>
       </c>
-      <c r="I14" s="1">
-        <v>0.24082978044746139</v>
-      </c>
-      <c r="J14" s="1" t="s">
+      <c r="I14">
+        <v>0.2318174457151425</v>
+      </c>
+      <c r="J14" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="1">
-        <v>-112.25263884203569</v>
+        <v>-108.0519193381983</v>
       </c>
       <c r="L14" s="1">
-        <v>11113.011245361529</v>
+        <v>10697.14001448163</v>
       </c>
       <c r="M14" s="1">
-        <v>112.25263884203569</v>
+        <v>108.0519193381983</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O14" s="1">
-        <v>466.10779876753799</v>
+        <v>466.107798767538</v>
       </c>
       <c r="P14" s="1">
-        <v>1398.3233963026139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1398.323396302614</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1198,10 +1184,10 @@
         <v>16</v>
       </c>
       <c r="C15" s="4">
-        <v>45679.881944444453</v>
+        <v>45679.88194444445</v>
       </c>
       <c r="D15" s="4">
-        <v>45680.541666666657</v>
+        <v>45680.54166666666</v>
       </c>
       <c r="E15" s="1">
         <v>103891.76</v>
@@ -1215,32 +1201,32 @@
       <c r="H15" s="1">
         <v>101592.48</v>
       </c>
-      <c r="I15" s="1">
-        <v>0.21864682974783711</v>
-      </c>
-      <c r="J15" s="1" t="s">
+      <c r="I15">
+        <v>0.2104646256442307</v>
+      </c>
+      <c r="J15" t="s">
         <v>17</v>
       </c>
       <c r="K15" s="1">
-        <v>-111.1301124536153</v>
+        <v>-106.9714001448163</v>
       </c>
       <c r="L15" s="1">
-        <v>11001.88113290792</v>
+        <v>10590.16861433682</v>
       </c>
       <c r="M15" s="1">
-        <v>111.1301124536153</v>
+        <v>106.9714001448163</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O15" s="1">
-        <v>508.26308609999251</v>
+        <v>508.2630860999925</v>
       </c>
       <c r="P15" s="1">
         <v>1524.789258299978</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1248,10 +1234,10 @@
         <v>16</v>
       </c>
       <c r="C16" s="4">
-        <v>45680.829861111109</v>
+        <v>45680.82986111111</v>
       </c>
       <c r="D16" s="4">
-        <v>45680.850694444453</v>
+        <v>45680.85069444445</v>
       </c>
       <c r="E16" s="1">
         <v>103770.04</v>
@@ -1265,32 +1251,32 @@
       <c r="H16" s="1">
         <v>106421.03</v>
       </c>
-      <c r="I16" s="1">
-        <v>0.12728903413824669</v>
-      </c>
-      <c r="J16" s="1" t="s">
+      <c r="I16">
+        <v>0.1225256224817813</v>
+      </c>
+      <c r="J16" t="s">
         <v>18</v>
       </c>
       <c r="K16" s="1">
-        <v>337.44195661015141</v>
+        <v>317.7050584301045</v>
       </c>
       <c r="L16" s="1">
-        <v>11339.32308951807</v>
+        <v>10907.87367276692</v>
       </c>
       <c r="M16" s="1">
-        <v>110.0188113290792</v>
+        <v>105.9016861433682</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O16" s="1">
-        <v>864.32277590848389</v>
+        <v>864.3227759084839</v>
       </c>
       <c r="P16" s="1">
-        <v>2592.9683277254521</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2592.968327725452</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1298,10 +1284,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="4">
-        <v>45681.829861111109</v>
+        <v>45681.82986111111</v>
       </c>
       <c r="D17" s="4">
-        <v>45681.847222222219</v>
+        <v>45681.84722222222</v>
       </c>
       <c r="E17" s="1">
         <v>105760.94</v>
@@ -1315,32 +1301,32 @@
       <c r="H17" s="1">
         <v>105291.54</v>
       </c>
-      <c r="I17" s="1">
-        <v>0.24305375705691459</v>
-      </c>
-      <c r="J17" s="1" t="s">
+      <c r="I17">
+        <v>0.233805815103632</v>
+      </c>
+      <c r="J17" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="1">
-        <v>-113.39323089518069</v>
+        <v>-109.0787367276692</v>
       </c>
       <c r="L17" s="1">
-        <v>11225.929858622891</v>
+        <v>10798.79493603925</v>
       </c>
       <c r="M17" s="1">
-        <v>113.39323089518069</v>
+        <v>109.0787367276692</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O17" s="1">
-        <v>466.53560211631702</v>
+        <v>466.535602116317</v>
       </c>
       <c r="P17" s="1">
-        <v>1399.6068063489511</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1399.606806348951</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1348,10 +1334,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="4">
-        <v>45681.857638888891</v>
+        <v>45681.85763888889</v>
       </c>
       <c r="D18" s="4">
-        <v>45682.586805555547</v>
+        <v>45682.58680555555</v>
       </c>
       <c r="E18" s="1">
         <v>105052.52</v>
@@ -1360,25 +1346,25 @@
         <v>104590.815085935</v>
       </c>
       <c r="G18" s="1">
-        <v>106437.63474219519</v>
+        <v>106437.6347421952</v>
       </c>
       <c r="H18" s="1">
         <v>104541.68</v>
       </c>
-      <c r="I18" s="1">
-        <v>0.24314079223859611</v>
-      </c>
-      <c r="J18" s="1" t="s">
+      <c r="I18">
+        <v>0.2338895386874273</v>
+      </c>
+      <c r="J18" t="s">
         <v>17</v>
       </c>
       <c r="K18" s="1">
-        <v>-112.25929858622889</v>
+        <v>-107.9879493603925</v>
       </c>
       <c r="L18" s="1">
-        <v>11113.67056003666</v>
+        <v>10690.80698667886</v>
       </c>
       <c r="M18" s="1">
-        <v>112.25929858622889</v>
+        <v>107.9879493603925</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>19</v>
@@ -1387,10 +1373,10 @@
         <v>461.7049140650488</v>
       </c>
       <c r="P18" s="1">
-        <v>1385.1147421951609</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1385.114742195161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -1398,7 +1384,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="4">
-        <v>45683.885416666657</v>
+        <v>45683.88541666666</v>
       </c>
       <c r="D19" s="4">
         <v>45683.90625</v>
@@ -1410,37 +1396,37 @@
         <v>104635.5126717815</v>
       </c>
       <c r="G19" s="1">
-        <v>105275.62198465561</v>
+        <v>105275.6219846556</v>
       </c>
       <c r="H19" s="1">
         <v>104552.48</v>
       </c>
-      <c r="I19" s="1">
-        <v>0.69448579088064044</v>
-      </c>
-      <c r="J19" s="1" t="s">
+      <c r="I19">
+        <v>0.6680613308796381</v>
+      </c>
+      <c r="J19" t="s">
         <v>17</v>
       </c>
       <c r="K19" s="1">
-        <v>-111.1367056003666</v>
+        <v>-106.9080698667886</v>
       </c>
       <c r="L19" s="1">
-        <v>11002.533854436289</v>
+        <v>10583.89891681207</v>
       </c>
       <c r="M19" s="1">
-        <v>111.1367056003666</v>
+        <v>106.9080698667886</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O19" s="1">
-        <v>160.02732821853709</v>
+        <v>160.0273282185371</v>
       </c>
       <c r="P19" s="1">
         <v>480.0819846555969</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1448,10 +1434,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="4">
-        <v>45684.541666666657</v>
+        <v>45684.54166666666</v>
       </c>
       <c r="D20" s="4">
-        <v>45684.545138888891</v>
+        <v>45684.54513888889</v>
       </c>
       <c r="E20" s="1">
         <v>100632.01</v>
@@ -1460,37 +1446,37 @@
         <v>101286.0915115136</v>
       </c>
       <c r="G20" s="1">
-        <v>98669.765465459277</v>
+        <v>98669.76546545928</v>
       </c>
       <c r="H20" s="1">
         <v>101360.94</v>
       </c>
-      <c r="I20" s="1">
-        <v>0.16821349725932291</v>
-      </c>
-      <c r="J20" s="1" t="s">
+      <c r="I20">
+        <v>0.1618131491336668</v>
+      </c>
+      <c r="J20" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="1">
-        <v>-110.0253385443629</v>
+        <v>-105.8389891681207</v>
       </c>
       <c r="L20" s="1">
-        <v>10892.50851589193</v>
+        <v>10478.05992764395</v>
       </c>
       <c r="M20" s="1">
-        <v>110.0253385443629</v>
+        <v>105.8389891681207</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O20" s="1">
-        <v>654.08151151357742</v>
+        <v>654.0815115135774</v>
       </c>
       <c r="P20" s="1">
         <v>1962.244534540718</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1498,49 +1484,49 @@
         <v>15</v>
       </c>
       <c r="C21" s="4">
-        <v>45684.850694444453</v>
+        <v>45684.85069444445</v>
       </c>
       <c r="D21" s="4">
-        <v>45684.864583333343</v>
+        <v>45684.86458333334</v>
       </c>
       <c r="E21" s="1">
-        <v>100351.67999999999</v>
+        <v>100351.68</v>
       </c>
       <c r="F21" s="1">
         <v>100958.2739530618</v>
       </c>
       <c r="G21" s="1">
-        <v>98531.898140814548</v>
+        <v>98531.89814081455</v>
       </c>
       <c r="H21" s="1">
         <v>101356.8</v>
       </c>
-      <c r="I21" s="1">
-        <v>0.17956836630024639</v>
-      </c>
-      <c r="J21" s="1" t="s">
+      <c r="I21">
+        <v>0.1727359772506024</v>
+      </c>
+      <c r="J21" t="s">
         <v>17</v>
       </c>
       <c r="K21" s="1">
-        <v>-108.9250851589193</v>
+        <v>-104.7805992764395</v>
       </c>
       <c r="L21" s="1">
-        <v>10783.58343073301</v>
+        <v>10373.27932836751</v>
       </c>
       <c r="M21" s="1">
-        <v>108.9250851589193</v>
+        <v>104.7805992764395</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O21" s="1">
-        <v>606.59395306181978</v>
+        <v>606.5939530618198</v>
       </c>
       <c r="P21" s="1">
         <v>1819.781859185445</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -1548,10 +1534,10 @@
         <v>15</v>
       </c>
       <c r="C22" s="4">
-        <v>45684.871527777781</v>
+        <v>45684.87152777778</v>
       </c>
       <c r="D22" s="4">
-        <v>45684.878472222219</v>
+        <v>45684.87847222222</v>
       </c>
       <c r="E22" s="1">
         <v>101386.5</v>
@@ -1560,37 +1546,37 @@
         <v>102047.4840323447</v>
       </c>
       <c r="G22" s="1">
-        <v>99403.547902965991</v>
+        <v>99403.54790296599</v>
       </c>
       <c r="H22" s="1">
         <v>102221.99</v>
       </c>
-      <c r="I22" s="1">
-        <v>0.16314438629449249</v>
-      </c>
-      <c r="J22" s="1" t="s">
+      <c r="I22">
+        <v>0.1569369125540142</v>
+      </c>
+      <c r="J22" t="s">
         <v>17</v>
       </c>
       <c r="K22" s="1">
-        <v>-107.8358343073301</v>
+        <v>-103.7327932836751</v>
       </c>
       <c r="L22" s="1">
-        <v>10675.747596425679</v>
+        <v>10269.54653508384</v>
       </c>
       <c r="M22" s="1">
-        <v>107.8358343073301</v>
+        <v>103.7327932836751</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O22" s="1">
-        <v>660.98403234466969</v>
+        <v>660.9840323446697</v>
       </c>
       <c r="P22" s="1">
-        <v>1982.9520970340091</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1982.952097034009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -1598,7 +1584,7 @@
         <v>15</v>
       </c>
       <c r="C23" s="4">
-        <v>45684.881944444453</v>
+        <v>45684.88194444445</v>
       </c>
       <c r="D23" s="4">
         <v>45685.625</v>
@@ -1615,32 +1601,32 @@
       <c r="H23" s="1">
         <v>103315.79</v>
       </c>
-      <c r="I23" s="1">
-        <v>0.14954214847940031</v>
-      </c>
-      <c r="J23" s="1" t="s">
+      <c r="I23">
+        <v>0.143852225700783</v>
+      </c>
+      <c r="J23" t="s">
         <v>17</v>
       </c>
       <c r="K23" s="1">
-        <v>-106.7574759642568</v>
+        <v>-102.6954653508384</v>
       </c>
       <c r="L23" s="1">
-        <v>10568.99012046142</v>
+        <v>10166.851069733</v>
       </c>
       <c r="M23" s="1">
-        <v>106.7574759642568</v>
+        <v>102.6954653508384</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O23" s="1">
-        <v>713.89556088237441</v>
+        <v>713.8955608823744</v>
       </c>
       <c r="P23" s="1">
-        <v>2141.6866826471228</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2141.686682647123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -1648,16 +1634,16 @@
         <v>16</v>
       </c>
       <c r="C24" s="4">
-        <v>45687.736111111109</v>
+        <v>45687.73611111111</v>
       </c>
       <c r="D24" s="4">
-        <v>45688.565972222219</v>
+        <v>45688.56597222222</v>
       </c>
       <c r="E24" s="1">
         <v>105018.14</v>
       </c>
       <c r="F24" s="1">
-        <v>104555.74558261409</v>
+        <v>104555.7455826141</v>
       </c>
       <c r="G24" s="1">
         <v>106405.3232521578</v>
@@ -1665,32 +1651,32 @@
       <c r="H24" s="1">
         <v>104551.09</v>
       </c>
-      <c r="I24" s="1">
-        <v>0.22857088500790479</v>
-      </c>
-      <c r="J24" s="1" t="s">
+      <c r="I24">
+        <v>0.2198740012305906</v>
+      </c>
+      <c r="J24" t="s">
         <v>17</v>
       </c>
       <c r="K24" s="1">
-        <v>-105.6899012046142</v>
+        <v>-101.66851069733</v>
       </c>
       <c r="L24" s="1">
-        <v>10463.300219256809</v>
+        <v>10065.18255903567</v>
       </c>
       <c r="M24" s="1">
-        <v>105.6899012046142</v>
+        <v>101.66851069733</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O24" s="1">
-        <v>462.39441738592001</v>
+        <v>462.39441738592</v>
       </c>
       <c r="P24" s="1">
-        <v>1387.1832521577739</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1387.183252157774</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -1698,10 +1684,10 @@
         <v>15</v>
       </c>
       <c r="C25" s="4">
-        <v>45690.590277777781</v>
+        <v>45690.59027777778</v>
       </c>
       <c r="D25" s="4">
-        <v>45690.722222222219</v>
+        <v>45690.72222222222</v>
       </c>
       <c r="E25" s="1">
         <v>99272.12</v>
@@ -1710,37 +1696,37 @@
         <v>99715.13450807023</v>
       </c>
       <c r="G25" s="1">
-        <v>97943.076475789276</v>
+        <v>97943.07647578928</v>
       </c>
       <c r="H25" s="1">
         <v>97727</v>
       </c>
-      <c r="I25" s="1">
-        <v>0.2361841436036666</v>
-      </c>
-      <c r="J25" s="1" t="s">
+      <c r="I25">
+        <v>0.2271975832773392</v>
+      </c>
+      <c r="J25" t="s">
         <v>18</v>
       </c>
       <c r="K25" s="1">
-        <v>364.93284396489622</v>
+        <v>301.9554767710701</v>
       </c>
       <c r="L25" s="1">
-        <v>10828.233063221711</v>
+        <v>10367.13803580674</v>
       </c>
       <c r="M25" s="1">
-        <v>104.6330021925681</v>
+        <v>100.6518255903567</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O25" s="1">
-        <v>443.01450807023502</v>
+        <v>443.014508070235</v>
       </c>
       <c r="P25" s="1">
-        <v>1329.0435242107201</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1329.04352421072</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -1748,49 +1734,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="4">
-        <v>45690.822916666657</v>
+        <v>45690.82291666666</v>
       </c>
       <c r="D26" s="4">
-        <v>45691.541666666657</v>
+        <v>45691.54166666666</v>
       </c>
       <c r="E26" s="1">
         <v>98512.55</v>
       </c>
       <c r="F26" s="1">
-        <v>99337.822219288209</v>
+        <v>99337.82221928821</v>
       </c>
       <c r="G26" s="1">
-        <v>96036.733342135369</v>
+        <v>96036.73334213537</v>
       </c>
       <c r="H26" s="1">
-        <v>94564.71</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0.13120801609632521</v>
-      </c>
-      <c r="J26" s="1" t="s">
+        <v>94564.71000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.125620829024735</v>
+      </c>
+      <c r="J26" t="s">
         <v>18</v>
       </c>
       <c r="K26" s="1">
-        <v>517.98825426571614</v>
+        <v>311.0141410742022</v>
       </c>
       <c r="L26" s="1">
-        <v>11346.22131748742</v>
+        <v>10678.15217688094</v>
       </c>
       <c r="M26" s="1">
-        <v>108.2823306322171</v>
+        <v>103.6713803580674</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O26" s="1">
-        <v>825.27221928820654</v>
+        <v>825.2722192882065</v>
       </c>
       <c r="P26" s="1">
-        <v>2475.8166578646342</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2475.816657864634</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -1798,49 +1784,49 @@
         <v>15</v>
       </c>
       <c r="C27" s="4">
-        <v>45691.611111111109</v>
+        <v>45691.61111111111</v>
       </c>
       <c r="D27" s="4">
-        <v>45691.635416666657</v>
+        <v>45691.63541666666</v>
       </c>
       <c r="E27" s="1">
         <v>96150.84</v>
       </c>
       <c r="F27" s="1">
-        <v>97150.404590042002</v>
+        <v>97150.404590042</v>
       </c>
       <c r="G27" s="1">
-        <v>93152.146229873964</v>
+        <v>93152.14622987396</v>
       </c>
       <c r="H27" s="1">
         <v>97200</v>
       </c>
-      <c r="I27" s="1">
-        <v>0.1135116372720907</v>
-      </c>
-      <c r="J27" s="1" t="s">
+      <c r="I27">
+        <v>0.106828035759372</v>
+      </c>
+      <c r="J27" t="s">
         <v>17</v>
       </c>
       <c r="K27" s="1">
-        <v>-113.46221317487419</v>
+        <v>-106.7815217688094</v>
       </c>
       <c r="L27" s="1">
-        <v>11232.75910431255</v>
+        <v>10571.37065511213</v>
       </c>
       <c r="M27" s="1">
-        <v>113.46221317487419</v>
+        <v>106.7815217688094</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O27" s="1">
-        <v>999.56459004200588</v>
+        <v>999.5645900420059</v>
       </c>
       <c r="P27" s="1">
-        <v>2998.6937701260322</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2998.693770126032</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -1848,49 +1834,49 @@
         <v>15</v>
       </c>
       <c r="C28" s="4">
-        <v>45691.666666666657</v>
+        <v>45691.66666666666</v>
       </c>
       <c r="D28" s="4">
-        <v>45691.784722222219</v>
+        <v>45691.78472222222</v>
       </c>
       <c r="E28" s="1">
-        <v>98730.93</v>
+        <v>98730.92999999999</v>
       </c>
       <c r="F28" s="1">
-        <v>99908.622508374698</v>
+        <v>99908.6225083747</v>
       </c>
       <c r="G28" s="1">
-        <v>95197.852474875894</v>
+        <v>95197.85247487589</v>
       </c>
       <c r="H28" s="1">
         <v>99943.63</v>
       </c>
-      <c r="I28" s="1">
-        <v>9.5379388290535314E-2</v>
-      </c>
-      <c r="J28" s="1" t="s">
+      <c r="I28">
+        <v>0.08976341939800007</v>
+      </c>
+      <c r="J28" t="s">
         <v>17</v>
       </c>
       <c r="K28" s="1">
-        <v>-112.32759104312549</v>
+        <v>-105.7137065511213</v>
       </c>
       <c r="L28" s="1">
-        <v>11120.431513269419</v>
+        <v>10465.65694856101</v>
       </c>
       <c r="M28" s="1">
-        <v>112.32759104312549</v>
+        <v>105.7137065511213</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O28" s="1">
-        <v>1177.6925083747051</v>
+        <v>1177.692508374705</v>
       </c>
       <c r="P28" s="1">
-        <v>3533.0775251240989</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3533.077525124099</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -1898,49 +1884,49 @@
         <v>15</v>
       </c>
       <c r="C29" s="4">
-        <v>45693.576388888891</v>
+        <v>45693.57638888889</v>
       </c>
       <c r="D29" s="4">
-        <v>45693.611111111109</v>
+        <v>45693.61111111111</v>
       </c>
       <c r="E29" s="1">
-        <v>98581.99</v>
+        <v>98581.99000000001</v>
       </c>
       <c r="F29" s="1">
-        <v>98923.605897969013</v>
+        <v>98923.60589796901</v>
       </c>
       <c r="G29" s="1">
-        <v>97557.142306092981</v>
+        <v>97557.14230609298</v>
       </c>
       <c r="H29" s="1">
         <v>99149</v>
       </c>
-      <c r="I29" s="1">
-        <v>0.32552441439005519</v>
-      </c>
-      <c r="J29" s="1" t="s">
+      <c r="I29">
+        <v>0.3063574327419174</v>
+      </c>
+      <c r="J29" t="s">
         <v>17</v>
       </c>
       <c r="K29" s="1">
-        <v>-111.20431513269421</v>
+        <v>-104.6565694856101</v>
       </c>
       <c r="L29" s="1">
-        <v>11009.22719813673</v>
+        <v>10361.0003790754</v>
       </c>
       <c r="M29" s="1">
-        <v>111.20431513269421</v>
+        <v>104.6565694856101</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O29" s="1">
-        <v>341.61589796900807</v>
+        <v>341.6158979690081</v>
       </c>
       <c r="P29" s="1">
         <v>1024.847693907024</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -1948,49 +1934,49 @@
         <v>15</v>
       </c>
       <c r="C30" s="4">
-        <v>45694.864583333343</v>
+        <v>45694.86458333334</v>
       </c>
       <c r="D30" s="4">
-        <v>45695.541666666657</v>
+        <v>45695.54166666666</v>
       </c>
       <c r="E30" s="1">
-        <v>96870.9</v>
+        <v>96870.89999999999</v>
       </c>
       <c r="F30" s="1">
-        <v>97360.841236914697</v>
+        <v>97360.8412369147</v>
       </c>
       <c r="G30" s="1">
-        <v>95401.076289255885</v>
+        <v>95401.07628925589</v>
       </c>
       <c r="H30" s="1">
         <v>98007</v>
       </c>
-      <c r="I30" s="1">
-        <v>0.22470505376246569</v>
-      </c>
-      <c r="J30" s="1" t="s">
+      <c r="I30">
+        <v>0.2114743483182089</v>
+      </c>
+      <c r="J30" t="s">
         <v>17</v>
       </c>
       <c r="K30" s="1">
-        <v>-110.0922719813673</v>
+        <v>-103.610003790754</v>
       </c>
       <c r="L30" s="1">
-        <v>10899.134926155361</v>
+        <v>10257.39037528465</v>
       </c>
       <c r="M30" s="1">
-        <v>110.0922719813673</v>
+        <v>103.610003790754</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O30" s="1">
-        <v>489.94123691470298</v>
+        <v>489.941236914703</v>
       </c>
       <c r="P30" s="1">
-        <v>1469.8237107441089</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1469.823710744109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -1998,37 +1984,37 @@
         <v>15</v>
       </c>
       <c r="C31" s="4">
-        <v>45696.569444444453</v>
+        <v>45696.56944444445</v>
       </c>
       <c r="D31" s="4">
-        <v>45696.645833333343</v>
+        <v>45696.64583333334</v>
       </c>
       <c r="E31" s="1">
         <v>96418.33</v>
       </c>
       <c r="F31" s="1">
-        <v>96632.080105326022</v>
+        <v>96632.08010532602</v>
       </c>
       <c r="G31" s="1">
-        <v>95777.079684021941</v>
+        <v>95777.07968402194</v>
       </c>
       <c r="H31" s="1">
         <v>95688</v>
       </c>
-      <c r="I31" s="1">
-        <v>0.5099007979215523</v>
-      </c>
-      <c r="J31" s="1" t="s">
+      <c r="I31">
+        <v>0.4798776758327048</v>
+      </c>
+      <c r="J31" t="s">
         <v>18</v>
       </c>
       <c r="K31" s="1">
-        <v>372.39584974604821</v>
+        <v>307.7217112585394</v>
       </c>
       <c r="L31" s="1">
-        <v>11271.53077590141</v>
+        <v>10565.11208654318</v>
       </c>
       <c r="M31" s="1">
-        <v>108.99134926155359</v>
+        <v>102.5739037528465</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>19</v>
@@ -2037,10 +2023,10 @@
         <v>213.7501053260203</v>
       </c>
       <c r="P31" s="1">
-        <v>641.25031597806083</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+        <v>641.2503159780608</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -2048,49 +2034,49 @@
         <v>15</v>
       </c>
       <c r="C32" s="4">
-        <v>45696.711805555547</v>
+        <v>45696.71180555555</v>
       </c>
       <c r="D32" s="4">
-        <v>45696.777777777781</v>
+        <v>45696.77777777778</v>
       </c>
       <c r="E32" s="1">
-        <v>96282.74</v>
+        <v>96282.74000000001</v>
       </c>
       <c r="F32" s="1">
-        <v>96504.355459768733</v>
+        <v>96504.35545976873</v>
       </c>
       <c r="G32" s="1">
-        <v>95617.893620693823</v>
+        <v>95617.89362069382</v>
       </c>
       <c r="H32" s="1">
         <v>96526.59</v>
       </c>
-      <c r="I32" s="1">
-        <v>0.50860760290207696</v>
-      </c>
-      <c r="J32" s="1" t="s">
+      <c r="I32">
+        <v>0.4767317269999434</v>
+      </c>
+      <c r="J32" t="s">
         <v>17</v>
       </c>
       <c r="K32" s="1">
-        <v>-112.7153077590141</v>
+        <v>-105.6511208654318</v>
       </c>
       <c r="L32" s="1">
-        <v>11158.815468142389</v>
+        <v>10459.46096567775</v>
       </c>
       <c r="M32" s="1">
-        <v>112.7153077590141</v>
+        <v>105.6511208654318</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O32" s="1">
-        <v>221.61545976872731</v>
+        <v>221.6154597687273</v>
       </c>
       <c r="P32" s="1">
-        <v>664.84637930618192</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+        <v>664.8463793061819</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -2098,49 +2084,49 @@
         <v>15</v>
       </c>
       <c r="C33" s="4">
-        <v>45696.805555555547</v>
+        <v>45696.80555555555</v>
       </c>
       <c r="D33" s="4">
-        <v>45697.572916666657</v>
+        <v>45697.57291666666</v>
       </c>
       <c r="E33" s="1">
         <v>96622.64</v>
       </c>
       <c r="F33" s="1">
-        <v>96814.100350878842</v>
+        <v>96814.10035087884</v>
       </c>
       <c r="G33" s="1">
-        <v>96048.258947363458</v>
+        <v>96048.25894736346</v>
       </c>
       <c r="H33" s="1">
         <v>95915.44</v>
       </c>
-      <c r="I33" s="1">
-        <v>0.58282643988278204</v>
-      </c>
-      <c r="J33" s="1" t="s">
+      <c r="I33">
+        <v>0.5462990597095785</v>
+      </c>
+      <c r="J33" t="s">
         <v>18</v>
       </c>
       <c r="K33" s="1">
-        <v>412.17485828510178</v>
+        <v>313.7838289703326</v>
       </c>
       <c r="L33" s="1">
-        <v>11570.990326427491</v>
+        <v>10773.24479464808</v>
       </c>
       <c r="M33" s="1">
-        <v>111.5881546814239</v>
+        <v>104.5946096567775</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O33" s="1">
-        <v>191.46035087884229</v>
+        <v>191.4603508788423</v>
       </c>
       <c r="P33" s="1">
-        <v>574.38105263654143</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+        <v>574.3810526365414</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -2148,49 +2134,49 @@
         <v>15</v>
       </c>
       <c r="C34" s="4">
-        <v>45697.652777777781</v>
+        <v>45697.65277777778</v>
       </c>
       <c r="D34" s="4">
-        <v>45697.899305555547</v>
+        <v>45697.89930555555</v>
       </c>
       <c r="E34" s="1">
         <v>96612.05</v>
       </c>
       <c r="F34" s="1">
-        <v>96880.507053391193</v>
+        <v>96880.50705339119</v>
       </c>
       <c r="G34" s="1">
-        <v>95806.678839826433</v>
+        <v>95806.67883982643</v>
       </c>
       <c r="H34" s="1">
-        <v>95376.65</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0.43101830182001161</v>
-      </c>
-      <c r="J34" s="1" t="s">
+        <v>95376.64999999999</v>
+      </c>
+      <c r="I34">
+        <v>0.4013023557607753</v>
+      </c>
+      <c r="J34" t="s">
         <v>18</v>
       </c>
       <c r="K34" s="1">
-        <v>532.48001006844606</v>
+        <v>323.1973438394425</v>
       </c>
       <c r="L34" s="1">
-        <v>12103.470336495941</v>
+        <v>11096.44213848753</v>
       </c>
       <c r="M34" s="1">
-        <v>115.7099032642749</v>
+        <v>107.7324479464808</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O34" s="1">
-        <v>268.45705339119007</v>
+        <v>268.4570533911901</v>
       </c>
       <c r="P34" s="1">
-        <v>805.37116017357039</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+        <v>805.3711601735704</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -2198,16 +2184,16 @@
         <v>15</v>
       </c>
       <c r="C35" s="4">
-        <v>45699.888888888891</v>
+        <v>45699.88888888889</v>
       </c>
       <c r="D35" s="4">
-        <v>45699.899305555547</v>
+        <v>45699.89930555555</v>
       </c>
       <c r="E35" s="1">
         <v>95686.37</v>
       </c>
       <c r="F35" s="1">
-        <v>96056.143740286512</v>
+        <v>96056.14374028651</v>
       </c>
       <c r="G35" s="1">
         <v>94577.04877914043</v>
@@ -2215,32 +2201,32 @@
       <c r="H35" s="1">
         <v>96155.59</v>
       </c>
-      <c r="I35" s="1">
-        <v>0.32732098085487749</v>
-      </c>
-      <c r="J35" s="1" t="s">
+      <c r="I35">
+        <v>0.3000873488174017</v>
+      </c>
+      <c r="J35" t="s">
         <v>17</v>
       </c>
       <c r="K35" s="1">
-        <v>-121.0347033649594</v>
+        <v>-110.9644213848753</v>
       </c>
       <c r="L35" s="1">
-        <v>11982.435633130979</v>
+        <v>10985.47771710265</v>
       </c>
       <c r="M35" s="1">
-        <v>121.0347033649594</v>
+        <v>110.9644213848753</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O35" s="1">
-        <v>369.77374028651678</v>
+        <v>369.7737402865168</v>
       </c>
       <c r="P35" s="1">
-        <v>1109.3212208595651</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1109.321220859565</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -2257,40 +2243,40 @@
         <v>96317.67</v>
       </c>
       <c r="F36" s="1">
-        <v>96720.531834451787</v>
+        <v>96720.53183445179</v>
       </c>
       <c r="G36" s="1">
-        <v>95109.084496644617</v>
+        <v>95109.08449664462</v>
       </c>
       <c r="H36" s="1">
-        <v>94844.800000000003</v>
-      </c>
-      <c r="I36" s="1">
-        <v>0.29743288165871012</v>
-      </c>
-      <c r="J36" s="1" t="s">
+        <v>94844.8</v>
+      </c>
+      <c r="I36">
+        <v>0.2726859875433869</v>
+      </c>
+      <c r="J36" t="s">
         <v>18</v>
       </c>
       <c r="K36" s="1">
-        <v>438.07996840866292</v>
+        <v>329.5643315130796</v>
       </c>
       <c r="L36" s="1">
-        <v>12420.515601539641</v>
+        <v>11315.04204861573</v>
       </c>
       <c r="M36" s="1">
-        <v>119.8243563313098</v>
+        <v>109.8547771710265</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O36" s="1">
-        <v>402.86183445178898</v>
+        <v>402.861834451789</v>
       </c>
       <c r="P36" s="1">
-        <v>1208.5855033553819</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1208.585503355382</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -2298,54 +2284,54 @@
         <v>15</v>
       </c>
       <c r="C37" s="4">
-        <v>45701.798611111109</v>
+        <v>45701.79861111111</v>
       </c>
       <c r="D37" s="4">
-        <v>45701.895833333343</v>
+        <v>45701.89583333334</v>
       </c>
       <c r="E37" s="1">
         <v>96270.05</v>
       </c>
       <c r="F37" s="1">
-        <v>96701.702112878746</v>
+        <v>96701.70211287875</v>
       </c>
       <c r="G37" s="1">
         <v>94975.09366136376</v>
       </c>
       <c r="H37" s="1">
-        <v>96774.71</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0.28774365353399178</v>
-      </c>
-      <c r="J37" s="1" t="s">
+        <v>96774.71000000001</v>
+      </c>
+      <c r="I37">
+        <v>0.2621333641379463</v>
+      </c>
+      <c r="J37" t="s">
         <v>17</v>
       </c>
       <c r="K37" s="1">
-        <v>-124.2051560153964</v>
+        <v>-113.1504204861573</v>
       </c>
       <c r="L37" s="1">
-        <v>12296.31044552425</v>
+        <v>11201.89162812958</v>
       </c>
       <c r="M37" s="1">
-        <v>124.2051560153964</v>
+        <v>113.1504204861573</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O37" s="1">
-        <v>431.65211287874263</v>
+        <v>431.6521128787426</v>
       </c>
       <c r="P37" s="1">
         <v>1294.956338636242</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16">
       <c r="A41" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -2353,23 +2339,23 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
         <v>22</v>
       </c>
       <c r="B43" s="1">
-        <v>12296.31044552425</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+        <v>11201.89162812958</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
         <v>23</v>
       </c>
       <c r="B44" s="5">
-        <v>0.22963104455242481</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.1201891628129574</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -2377,12 +2363,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
         <v>25</v>
       </c>
       <c r="B46" s="5">
-        <v>0.33333333333333331</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/trading_results.xlsx
+++ b/trading_results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="22">
   <si>
     <t>Position</t>
   </si>
@@ -28,37 +28,28 @@
     <t>Entry Price</t>
   </si>
   <si>
-    <t>Stop Loss</t>
-  </si>
-  <si>
-    <t>Take Profit</t>
-  </si>
-  <si>
     <t>Exit Price</t>
   </si>
   <si>
     <t>Position Size</t>
   </si>
   <si>
-    <t>Outcome</t>
-  </si>
-  <si>
     <t>PnL ($)</t>
   </si>
   <si>
-    <t>Balance After Trade</t>
+    <t>R-Multiple</t>
+  </si>
+  <si>
+    <t>Excess Beyond 3R</t>
+  </si>
+  <si>
+    <t>Price Movement %</t>
   </si>
   <si>
     <t>Risk Amount ($)</t>
   </si>
   <si>
-    <t>Risk-Reward Ratio</t>
-  </si>
-  <si>
-    <t>Price Risk (Points)</t>
-  </si>
-  <si>
-    <t>Potential Reward (Points)</t>
+    <t>Exit Type</t>
   </si>
   <si>
     <t>SHORT</t>
@@ -71,9 +62,6 @@
   </si>
   <si>
     <t>TAKE_PROFIT</t>
-  </si>
-  <si>
-    <t>1:3</t>
   </si>
   <si>
     <t>Summary Statistics</t>
@@ -479,7 +467,7 @@
     <col min="12" max="16" width="18.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:13">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -516,22 +504,13 @@
       <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="3">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4">
         <v>45666.63541666666</v>
@@ -546,42 +525,33 @@
         <v>93801.34997159497</v>
       </c>
       <c r="G2" s="1">
-        <v>91348.75008521508</v>
+        <v>0.1630922362107786</v>
       </c>
       <c r="H2" s="1">
-        <v>93915.89999999999</v>
+        <v>-100</v>
       </c>
       <c r="I2">
-        <v>0.1630922362107786</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>-100</v>
+        <v>-1</v>
       </c>
       <c r="L2" s="1">
-        <v>9900</v>
-      </c>
-      <c r="M2" s="1">
         <v>100</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="1">
-        <v>613.1499715949758</v>
-      </c>
-      <c r="P2" s="1">
-        <v>1839.449914784913</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="M2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4">
         <v>45666.64930555555</v>
@@ -596,42 +566,33 @@
         <v>94376.30887387348</v>
       </c>
       <c r="G3" s="1">
-        <v>91830.55337837953</v>
+        <v>0.1555530374778455</v>
       </c>
       <c r="H3" s="1">
-        <v>94588.23</v>
+        <v>-99</v>
       </c>
       <c r="I3">
-        <v>0.1555530374778455</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>-99</v>
+        <v>-1</v>
       </c>
       <c r="L3" s="1">
-        <v>9801</v>
-      </c>
-      <c r="M3" s="1">
         <v>99</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="1">
-        <v>636.4388738734851</v>
-      </c>
-      <c r="P3" s="1">
-        <v>1909.31662162047</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="M3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4">
         <v>45666.66319444445</v>
@@ -643,45 +604,36 @@
         <v>94244.02</v>
       </c>
       <c r="F4" s="1">
-        <v>94919.84370097617</v>
+        <v>92106.85000000001</v>
       </c>
       <c r="G4" s="1">
-        <v>92216.54889707149</v>
+        <v>0.1450230287254407</v>
       </c>
       <c r="H4" s="1">
-        <v>92106.85000000001</v>
+        <v>309.9388663011497</v>
       </c>
       <c r="I4">
-        <v>0.1450230287254407</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
+        <v>3.162318807276296</v>
+      </c>
+      <c r="J4">
+        <v>0.1623188072762956</v>
       </c>
       <c r="K4" s="1">
-        <v>294.03</v>
+        <v>2.267698258202481</v>
       </c>
       <c r="L4" s="1">
-        <v>10095.03</v>
-      </c>
-      <c r="M4" s="1">
         <v>98.01000000000001</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" s="1">
-        <v>675.8237009761651</v>
-      </c>
-      <c r="P4" s="1">
-        <v>2027.47110292851</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="M4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4">
         <v>45667.75</v>
@@ -693,45 +645,36 @@
         <v>95486.73</v>
       </c>
       <c r="F5" s="1">
-        <v>96318.69892474354</v>
+        <v>90583.24000000001</v>
       </c>
       <c r="G5" s="1">
-        <v>92990.82322576936</v>
+        <v>0.1215302466906183</v>
       </c>
       <c r="H5" s="1">
-        <v>90583.24000000001</v>
+        <v>595.9223493449787</v>
       </c>
       <c r="I5">
-        <v>0.1213390272132075</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
+        <v>5.893837923707899</v>
+      </c>
+      <c r="J5">
+        <v>2.893837923707899</v>
       </c>
       <c r="K5" s="1">
-        <v>302.8509</v>
+        <v>5.135258061512831</v>
       </c>
       <c r="L5" s="1">
-        <v>10397.8809</v>
-      </c>
-      <c r="M5" s="1">
-        <v>100.9503</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" s="1">
-        <v>831.9689247435454</v>
-      </c>
-      <c r="P5" s="1">
-        <v>2495.906774230636</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>101.1093886630115</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4">
         <v>45670.63541666666</v>
@@ -746,42 +689,33 @@
         <v>93739.19579047592</v>
       </c>
       <c r="G6" s="1">
-        <v>89502.45262857222</v>
+        <v>0.1010857708998836</v>
       </c>
       <c r="H6" s="1">
-        <v>93783.12</v>
+        <v>-107.0686121564613</v>
       </c>
       <c r="I6">
-        <v>0.09816862153454611</v>
-      </c>
-      <c r="J6" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>-103.978809</v>
+        <v>-1</v>
       </c>
       <c r="L6" s="1">
-        <v>10293.902091</v>
-      </c>
-      <c r="M6" s="1">
-        <v>103.978809</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6" s="1">
-        <v>1059.185790475924</v>
-      </c>
-      <c r="P6" s="1">
-        <v>3177.557371427771</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>107.0686121564613</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" s="4">
         <v>45673.625</v>
@@ -793,45 +727,36 @@
         <v>97571.23</v>
       </c>
       <c r="F7" s="1">
-        <v>96887.64624180444</v>
+        <v>99815.27</v>
       </c>
       <c r="G7" s="1">
-        <v>99621.98127458667</v>
+        <v>0.1550620897060185</v>
       </c>
       <c r="H7" s="1">
-        <v>99815.27</v>
+        <v>347.9655317838951</v>
       </c>
       <c r="I7">
-        <v>0.150587283088361</v>
-      </c>
-      <c r="J7" t="s">
-        <v>18</v>
+        <v>3.282757925559201</v>
+      </c>
+      <c r="J7">
+        <v>0.2827579255592014</v>
       </c>
       <c r="K7" s="1">
-        <v>308.81706273</v>
+        <v>2.299899263338187</v>
       </c>
       <c r="L7" s="1">
-        <v>10602.71915373</v>
-      </c>
-      <c r="M7" s="1">
-        <v>102.93902091</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" s="1">
-        <v>683.5837581955566</v>
-      </c>
-      <c r="P7" s="1">
-        <v>2050.75127458667</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>105.9979260348967</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C8" s="4">
         <v>45674.87152777778</v>
@@ -846,42 +771,33 @@
         <v>104197.1529992671</v>
       </c>
       <c r="G8" s="1">
-        <v>106179.3410021986</v>
+        <v>0.2209226999473812</v>
       </c>
       <c r="H8" s="1">
-        <v>103424.59</v>
+        <v>-109.4775813527356</v>
       </c>
       <c r="I8">
-        <v>0.2139599097169233</v>
-      </c>
-      <c r="J8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>-106.0271915373</v>
+        <v>-1</v>
       </c>
       <c r="L8" s="1">
-        <v>10496.6919621927</v>
-      </c>
-      <c r="M8" s="1">
-        <v>106.0271915373</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" s="1">
-        <v>495.547000732884</v>
-      </c>
-      <c r="P8" s="1">
-        <v>1486.641002198638</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>109.4775813527356</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9" s="4">
         <v>45675.70138888889</v>
@@ -893,45 +809,36 @@
         <v>103240.85</v>
       </c>
       <c r="F9" s="1">
-        <v>102688.8552242209</v>
+        <v>105157.8</v>
       </c>
       <c r="G9" s="1">
-        <v>104896.8343273375</v>
+        <v>0.1963475204746705</v>
       </c>
       <c r="H9" s="1">
-        <v>105157.8</v>
+        <v>376.388379373919</v>
       </c>
       <c r="I9">
-        <v>0.1901592627824493</v>
-      </c>
-      <c r="J9" t="s">
-        <v>18</v>
+        <v>3.472768374110391</v>
+      </c>
+      <c r="J9">
+        <v>0.472768374110391</v>
       </c>
       <c r="K9" s="1">
-        <v>314.900758865781</v>
+        <v>1.856774716597158</v>
       </c>
       <c r="L9" s="1">
-        <v>10811.59272105848</v>
-      </c>
-      <c r="M9" s="1">
-        <v>104.966919621927</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" s="1">
-        <v>551.9947757791524</v>
-      </c>
-      <c r="P9" s="1">
-        <v>1655.984327337472</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>108.3828055392083</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C10" s="4">
         <v>45677.65972222222</v>
@@ -946,42 +853,33 @@
         <v>104427.1512541753</v>
       </c>
       <c r="G10" s="1">
-        <v>108861.3462374741</v>
+        <v>0.1011653206549046</v>
       </c>
       <c r="H10" s="1">
-        <v>103708</v>
+        <v>-112.1466893329475</v>
       </c>
       <c r="I10">
-        <v>0.09752924949651455</v>
-      </c>
-      <c r="J10" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>-108.1159272105848</v>
+        <v>-1</v>
       </c>
       <c r="L10" s="1">
-        <v>10703.4767938479</v>
-      </c>
-      <c r="M10" s="1">
-        <v>108.1159272105848</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10" s="1">
-        <v>1108.548745824693</v>
-      </c>
-      <c r="P10" s="1">
-        <v>3325.64623747408</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>112.1466893329475</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C11" s="4">
         <v>45678.62847222222</v>
@@ -993,45 +891,36 @@
         <v>103281.22</v>
       </c>
       <c r="F11" s="1">
-        <v>102325.420213087</v>
+        <v>106300</v>
       </c>
       <c r="G11" s="1">
-        <v>106148.619360739</v>
+        <v>0.1161594969572064</v>
       </c>
       <c r="H11" s="1">
-        <v>106300</v>
+        <v>350.6599662244753</v>
       </c>
       <c r="I11">
-        <v>0.1119845070108001</v>
-      </c>
-      <c r="J11" t="s">
-        <v>18</v>
+        <v>3.158381118445268</v>
+      </c>
+      <c r="J11">
+        <v>0.1583811184452677</v>
       </c>
       <c r="K11" s="1">
-        <v>321.1043038154369</v>
+        <v>2.922874071394586</v>
       </c>
       <c r="L11" s="1">
-        <v>11024.58109766333</v>
-      </c>
-      <c r="M11" s="1">
-        <v>107.034767938479</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11" s="1">
-        <v>955.7997869129904</v>
-      </c>
-      <c r="P11" s="1">
-        <v>2867.399360738986</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>111.025222439618</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C12" s="4">
         <v>45678.86111111111</v>
@@ -1046,42 +935,33 @@
         <v>105391.0783661026</v>
       </c>
       <c r="G12" s="1">
-        <v>108114.7649016923</v>
+        <v>0.1682011796956895</v>
       </c>
       <c r="H12" s="1">
-        <v>105039.74</v>
+        <v>-114.5318221018627</v>
       </c>
       <c r="I12">
-        <v>0.1619067532714659</v>
-      </c>
-      <c r="J12" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>-110.2458109766333</v>
+        <v>-1</v>
       </c>
       <c r="L12" s="1">
-        <v>10914.3352866867</v>
-      </c>
-      <c r="M12" s="1">
-        <v>110.2458109766333</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O12" s="1">
-        <v>680.921633897422</v>
-      </c>
-      <c r="P12" s="1">
-        <v>2042.764901692251</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>114.5318221018627</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C13" s="4">
         <v>45679.54861111111</v>
@@ -1096,42 +976,33 @@
         <v>104638.4792248785</v>
       </c>
       <c r="G13" s="1">
-        <v>105873.2423253646</v>
+        <v>0.3673141960144353</v>
       </c>
       <c r="H13" s="1">
-        <v>104283.67</v>
+        <v>-113.3865038808441</v>
       </c>
       <c r="I13">
-        <v>0.3535685600708073</v>
-      </c>
-      <c r="J13" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>-109.143352866867</v>
+        <v>-1</v>
       </c>
       <c r="L13" s="1">
-        <v>10805.19193381983</v>
-      </c>
-      <c r="M13" s="1">
-        <v>109.143352866867</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O13" s="1">
-        <v>308.6907751215476</v>
-      </c>
-      <c r="P13" s="1">
-        <v>926.0723253646429</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>113.3865038808441</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C14" s="4">
         <v>45679.57986111111</v>
@@ -1146,42 +1017,33 @@
         <v>103607.8322012325</v>
       </c>
       <c r="G14" s="1">
-        <v>105472.2633963026</v>
+        <v>0.2408297804474614</v>
       </c>
       <c r="H14" s="1">
-        <v>103339.12</v>
+        <v>-112.2526388420357</v>
       </c>
       <c r="I14">
-        <v>0.2318174457151425</v>
-      </c>
-      <c r="J14" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>-108.0519193381983</v>
+        <v>-1</v>
       </c>
       <c r="L14" s="1">
-        <v>10697.14001448163</v>
-      </c>
-      <c r="M14" s="1">
-        <v>108.0519193381983</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O14" s="1">
-        <v>466.107798767538</v>
-      </c>
-      <c r="P14" s="1">
-        <v>1398.323396302614</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>112.2526388420357</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C15" s="4">
         <v>45679.88194444445</v>
@@ -1196,42 +1058,33 @@
         <v>103383.4969139</v>
       </c>
       <c r="G15" s="1">
-        <v>105416.5492583</v>
+        <v>0.2186468297478371</v>
       </c>
       <c r="H15" s="1">
-        <v>101592.48</v>
+        <v>-111.1301124536153</v>
       </c>
       <c r="I15">
-        <v>0.2104646256442307</v>
-      </c>
-      <c r="J15" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>-106.9714001448163</v>
+        <v>-1</v>
       </c>
       <c r="L15" s="1">
-        <v>10590.16861433682</v>
-      </c>
-      <c r="M15" s="1">
-        <v>106.9714001448163</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O15" s="1">
-        <v>508.2630860999925</v>
-      </c>
-      <c r="P15" s="1">
-        <v>1524.789258299978</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>111.1301124536153</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" s="4">
         <v>45680.82986111111</v>
@@ -1243,45 +1096,36 @@
         <v>103770.04</v>
       </c>
       <c r="F16" s="1">
-        <v>102905.7172240915</v>
+        <v>106421.03</v>
       </c>
       <c r="G16" s="1">
-        <v>106363.0083277254</v>
+        <v>0.1272890341382467</v>
       </c>
       <c r="H16" s="1">
-        <v>106421.03</v>
+        <v>337.4419566101514</v>
       </c>
       <c r="I16">
-        <v>0.1225256224817813</v>
-      </c>
-      <c r="J16" t="s">
-        <v>18</v>
+        <v>3.06712963477512</v>
+      </c>
+      <c r="J16">
+        <v>0.06712963477511957</v>
       </c>
       <c r="K16" s="1">
-        <v>317.7050584301045</v>
+        <v>2.554677631424259</v>
       </c>
       <c r="L16" s="1">
-        <v>10907.87367276692</v>
-      </c>
-      <c r="M16" s="1">
-        <v>105.9016861433682</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O16" s="1">
-        <v>864.3227759084839</v>
-      </c>
-      <c r="P16" s="1">
-        <v>2592.968327725452</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>110.0188113290792</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C17" s="4">
         <v>45681.82986111111</v>
@@ -1296,42 +1140,33 @@
         <v>105294.4043978837</v>
       </c>
       <c r="G17" s="1">
-        <v>107160.546806349</v>
+        <v>0.2430537570569146</v>
       </c>
       <c r="H17" s="1">
-        <v>105291.54</v>
+        <v>-113.3932308951807</v>
       </c>
       <c r="I17">
-        <v>0.233805815103632</v>
-      </c>
-      <c r="J17" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>-109.0787367276692</v>
+        <v>-1</v>
       </c>
       <c r="L17" s="1">
-        <v>10798.79493603925</v>
-      </c>
-      <c r="M17" s="1">
-        <v>109.0787367276692</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O17" s="1">
-        <v>466.535602116317</v>
-      </c>
-      <c r="P17" s="1">
-        <v>1399.606806348951</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>113.3932308951807</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C18" s="4">
         <v>45681.85763888889</v>
@@ -1346,42 +1181,33 @@
         <v>104590.815085935</v>
       </c>
       <c r="G18" s="1">
-        <v>106437.6347421952</v>
+        <v>0.2431407922385961</v>
       </c>
       <c r="H18" s="1">
-        <v>104541.68</v>
+        <v>-112.2592985862289</v>
       </c>
       <c r="I18">
-        <v>0.2338895386874273</v>
-      </c>
-      <c r="J18" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>-107.9879493603925</v>
+        <v>-1</v>
       </c>
       <c r="L18" s="1">
-        <v>10690.80698667886</v>
-      </c>
-      <c r="M18" s="1">
-        <v>107.9879493603925</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O18" s="1">
-        <v>461.7049140650488</v>
-      </c>
-      <c r="P18" s="1">
-        <v>1385.114742195161</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>112.2592985862289</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="3">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C19" s="4">
         <v>45683.88541666666</v>
@@ -1396,42 +1222,33 @@
         <v>104635.5126717815</v>
       </c>
       <c r="G19" s="1">
-        <v>105275.6219846556</v>
+        <v>0.6944857908806404</v>
       </c>
       <c r="H19" s="1">
-        <v>104552.48</v>
+        <v>-111.1367056003666</v>
       </c>
       <c r="I19">
-        <v>0.6680613308796381</v>
-      </c>
-      <c r="J19" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>-106.9080698667886</v>
+        <v>-1</v>
       </c>
       <c r="L19" s="1">
-        <v>10583.89891681207</v>
-      </c>
-      <c r="M19" s="1">
-        <v>106.9080698667886</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O19" s="1">
-        <v>160.0273282185371</v>
-      </c>
-      <c r="P19" s="1">
-        <v>480.0819846555969</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>111.1367056003666</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="3">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C20" s="4">
         <v>45684.54166666666</v>
@@ -1446,42 +1263,33 @@
         <v>101286.0915115136</v>
       </c>
       <c r="G20" s="1">
-        <v>98669.76546545928</v>
+        <v>0.1682134972593229</v>
       </c>
       <c r="H20" s="1">
-        <v>101360.94</v>
+        <v>-110.0253385443629</v>
       </c>
       <c r="I20">
-        <v>0.1618131491336668</v>
-      </c>
-      <c r="J20" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>-105.8389891681207</v>
+        <v>-1</v>
       </c>
       <c r="L20" s="1">
-        <v>10478.05992764395</v>
-      </c>
-      <c r="M20" s="1">
-        <v>105.8389891681207</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O20" s="1">
-        <v>654.0815115135774</v>
-      </c>
-      <c r="P20" s="1">
-        <v>1962.244534540718</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>110.0253385443629</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="3">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C21" s="4">
         <v>45684.85069444445</v>
@@ -1496,42 +1304,33 @@
         <v>100958.2739530618</v>
       </c>
       <c r="G21" s="1">
-        <v>98531.89814081455</v>
+        <v>0.1795683663002464</v>
       </c>
       <c r="H21" s="1">
-        <v>101356.8</v>
+        <v>-108.9250851589193</v>
       </c>
       <c r="I21">
-        <v>0.1727359772506024</v>
-      </c>
-      <c r="J21" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>-104.7805992764395</v>
+        <v>-1</v>
       </c>
       <c r="L21" s="1">
-        <v>10373.27932836751</v>
-      </c>
-      <c r="M21" s="1">
-        <v>104.7805992764395</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O21" s="1">
-        <v>606.5939530618198</v>
-      </c>
-      <c r="P21" s="1">
-        <v>1819.781859185445</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>108.9250851589193</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="3">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C22" s="4">
         <v>45684.87152777778</v>
@@ -1546,42 +1345,33 @@
         <v>102047.4840323447</v>
       </c>
       <c r="G22" s="1">
-        <v>99403.54790296599</v>
+        <v>0.1631443862944925</v>
       </c>
       <c r="H22" s="1">
-        <v>102221.99</v>
+        <v>-107.8358343073301</v>
       </c>
       <c r="I22">
-        <v>0.1569369125540142</v>
-      </c>
-      <c r="J22" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>-103.7327932836751</v>
+        <v>-1</v>
       </c>
       <c r="L22" s="1">
-        <v>10269.54653508384</v>
-      </c>
-      <c r="M22" s="1">
-        <v>103.7327932836751</v>
-      </c>
-      <c r="N22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O22" s="1">
-        <v>660.9840323446697</v>
-      </c>
-      <c r="P22" s="1">
-        <v>1982.952097034009</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>107.8358343073301</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="3">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C23" s="4">
         <v>45684.88194444445</v>
@@ -1596,42 +1386,33 @@
         <v>103009.0155608824</v>
       </c>
       <c r="G23" s="1">
-        <v>100153.4333173529</v>
+        <v>0.1495421484794003</v>
       </c>
       <c r="H23" s="1">
-        <v>103315.79</v>
+        <v>-106.7574759642568</v>
       </c>
       <c r="I23">
-        <v>0.143852225700783</v>
-      </c>
-      <c r="J23" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>-102.6954653508384</v>
+        <v>-1</v>
       </c>
       <c r="L23" s="1">
-        <v>10166.851069733</v>
-      </c>
-      <c r="M23" s="1">
-        <v>102.6954653508384</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O23" s="1">
-        <v>713.8955608823744</v>
-      </c>
-      <c r="P23" s="1">
-        <v>2141.686682647123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>106.7574759642568</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="3">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C24" s="4">
         <v>45687.73611111111</v>
@@ -1646,42 +1427,33 @@
         <v>104555.7455826141</v>
       </c>
       <c r="G24" s="1">
-        <v>106405.3232521578</v>
+        <v>0.2285708850079048</v>
       </c>
       <c r="H24" s="1">
-        <v>104551.09</v>
+        <v>-105.6899012046142</v>
       </c>
       <c r="I24">
-        <v>0.2198740012305906</v>
-      </c>
-      <c r="J24" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>-101.66851069733</v>
+        <v>-1</v>
       </c>
       <c r="L24" s="1">
-        <v>10065.18255903567</v>
-      </c>
-      <c r="M24" s="1">
-        <v>101.66851069733</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O24" s="1">
-        <v>462.39441738592</v>
-      </c>
-      <c r="P24" s="1">
-        <v>1387.183252157774</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>105.6899012046142</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="3">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C25" s="4">
         <v>45690.59027777778</v>
@@ -1693,45 +1465,36 @@
         <v>99272.12</v>
       </c>
       <c r="F25" s="1">
-        <v>99715.13450807023</v>
+        <v>97727</v>
       </c>
       <c r="G25" s="1">
-        <v>97943.07647578928</v>
+        <v>0.2361841436036666</v>
       </c>
       <c r="H25" s="1">
-        <v>97727</v>
+        <v>364.9328439648962</v>
       </c>
       <c r="I25">
-        <v>0.2271975832773392</v>
-      </c>
-      <c r="J25" t="s">
-        <v>18</v>
+        <v>3.487741308361472</v>
+      </c>
+      <c r="J25">
+        <v>0.4877413083614721</v>
       </c>
       <c r="K25" s="1">
-        <v>301.9554767710701</v>
+        <v>1.556449081574963</v>
       </c>
       <c r="L25" s="1">
-        <v>10367.13803580674</v>
-      </c>
-      <c r="M25" s="1">
-        <v>100.6518255903567</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O25" s="1">
-        <v>443.014508070235</v>
-      </c>
-      <c r="P25" s="1">
-        <v>1329.04352421072</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
+        <v>104.6330021925681</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="3">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C26" s="4">
         <v>45690.82291666666</v>
@@ -1743,45 +1506,36 @@
         <v>98512.55</v>
       </c>
       <c r="F26" s="1">
-        <v>99337.82221928821</v>
+        <v>94564.71000000001</v>
       </c>
       <c r="G26" s="1">
-        <v>96036.73334213537</v>
+        <v>0.1312080160963252</v>
       </c>
       <c r="H26" s="1">
-        <v>94564.71000000001</v>
+        <v>517.9882542657161</v>
       </c>
       <c r="I26">
-        <v>0.125620829024735</v>
-      </c>
-      <c r="J26" t="s">
-        <v>18</v>
+        <v>4.783682169024168</v>
+      </c>
+      <c r="J26">
+        <v>1.783682169024168</v>
       </c>
       <c r="K26" s="1">
-        <v>311.0141410742022</v>
+        <v>4.00744879713295</v>
       </c>
       <c r="L26" s="1">
-        <v>10678.15217688094</v>
-      </c>
-      <c r="M26" s="1">
-        <v>103.6713803580674</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O26" s="1">
-        <v>825.2722192882065</v>
-      </c>
-      <c r="P26" s="1">
-        <v>2475.816657864634</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+        <v>108.2823306322171</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="3">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C27" s="4">
         <v>45691.61111111111</v>
@@ -1796,42 +1550,33 @@
         <v>97150.404590042</v>
       </c>
       <c r="G27" s="1">
-        <v>93152.14622987396</v>
+        <v>0.1135116372720907</v>
       </c>
       <c r="H27" s="1">
-        <v>97200</v>
+        <v>-113.4622131748742</v>
       </c>
       <c r="I27">
-        <v>0.106828035759372</v>
-      </c>
-      <c r="J27" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
       </c>
       <c r="K27" s="1">
-        <v>-106.7815217688094</v>
+        <v>-1</v>
       </c>
       <c r="L27" s="1">
-        <v>10571.37065511213</v>
-      </c>
-      <c r="M27" s="1">
-        <v>106.7815217688094</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O27" s="1">
-        <v>999.5645900420059</v>
-      </c>
-      <c r="P27" s="1">
-        <v>2998.693770126032</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
+        <v>113.4622131748742</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="3">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C28" s="4">
         <v>45691.66666666666</v>
@@ -1846,42 +1591,33 @@
         <v>99908.6225083747</v>
       </c>
       <c r="G28" s="1">
-        <v>95197.85247487589</v>
+        <v>0.09537938829053531</v>
       </c>
       <c r="H28" s="1">
-        <v>99943.63</v>
+        <v>-112.3275910431255</v>
       </c>
       <c r="I28">
-        <v>0.08976341939800007</v>
-      </c>
-      <c r="J28" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
       </c>
       <c r="K28" s="1">
-        <v>-105.7137065511213</v>
+        <v>-1</v>
       </c>
       <c r="L28" s="1">
-        <v>10465.65694856101</v>
-      </c>
-      <c r="M28" s="1">
-        <v>105.7137065511213</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O28" s="1">
-        <v>1177.692508374705</v>
-      </c>
-      <c r="P28" s="1">
-        <v>3533.077525124099</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
+        <v>112.3275910431255</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="3">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C29" s="4">
         <v>45693.57638888889</v>
@@ -1896,42 +1632,33 @@
         <v>98923.60589796901</v>
       </c>
       <c r="G29" s="1">
-        <v>97557.14230609298</v>
+        <v>0.3255244143900552</v>
       </c>
       <c r="H29" s="1">
-        <v>99149</v>
+        <v>-111.2043151326942</v>
       </c>
       <c r="I29">
-        <v>0.3063574327419174</v>
-      </c>
-      <c r="J29" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
       </c>
       <c r="K29" s="1">
-        <v>-104.6565694856101</v>
+        <v>-1</v>
       </c>
       <c r="L29" s="1">
-        <v>10361.0003790754</v>
-      </c>
-      <c r="M29" s="1">
-        <v>104.6565694856101</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O29" s="1">
-        <v>341.6158979690081</v>
-      </c>
-      <c r="P29" s="1">
-        <v>1024.847693907024</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
+        <v>111.2043151326942</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="3">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C30" s="4">
         <v>45694.86458333334</v>
@@ -1946,42 +1673,33 @@
         <v>97360.8412369147</v>
       </c>
       <c r="G30" s="1">
-        <v>95401.07628925589</v>
+        <v>0.2247050537624657</v>
       </c>
       <c r="H30" s="1">
-        <v>98007</v>
+        <v>-110.0922719813673</v>
       </c>
       <c r="I30">
-        <v>0.2114743483182089</v>
-      </c>
-      <c r="J30" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
       </c>
       <c r="K30" s="1">
-        <v>-103.610003790754</v>
+        <v>-1</v>
       </c>
       <c r="L30" s="1">
-        <v>10257.39037528465</v>
-      </c>
-      <c r="M30" s="1">
-        <v>103.610003790754</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O30" s="1">
-        <v>489.941236914703</v>
-      </c>
-      <c r="P30" s="1">
-        <v>1469.823710744109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
+        <v>110.0922719813673</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="3">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C31" s="4">
         <v>45696.56944444445</v>
@@ -1993,45 +1711,36 @@
         <v>96418.33</v>
       </c>
       <c r="F31" s="1">
-        <v>96632.08010532602</v>
+        <v>95688</v>
       </c>
       <c r="G31" s="1">
-        <v>95777.07968402194</v>
+        <v>0.5099007979215523</v>
       </c>
       <c r="H31" s="1">
-        <v>95688</v>
+        <v>372.3958497460482</v>
       </c>
       <c r="I31">
-        <v>0.4798776758327048</v>
-      </c>
-      <c r="J31" t="s">
-        <v>18</v>
+        <v>3.416746854398377</v>
+      </c>
+      <c r="J31">
+        <v>0.4167468543983772</v>
       </c>
       <c r="K31" s="1">
-        <v>307.7217112585394</v>
+        <v>0.7574597070909668</v>
       </c>
       <c r="L31" s="1">
-        <v>10565.11208654318</v>
-      </c>
-      <c r="M31" s="1">
-        <v>102.5739037528465</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O31" s="1">
-        <v>213.7501053260203</v>
-      </c>
-      <c r="P31" s="1">
-        <v>641.2503159780608</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
+        <v>108.9913492615536</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="3">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C32" s="4">
         <v>45696.71180555555</v>
@@ -2046,42 +1755,33 @@
         <v>96504.35545976873</v>
       </c>
       <c r="G32" s="1">
-        <v>95617.89362069382</v>
+        <v>0.508607602902077</v>
       </c>
       <c r="H32" s="1">
-        <v>96526.59</v>
+        <v>-112.7153077590141</v>
       </c>
       <c r="I32">
-        <v>0.4767317269999434</v>
-      </c>
-      <c r="J32" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
       </c>
       <c r="K32" s="1">
-        <v>-105.6511208654318</v>
+        <v>-1</v>
       </c>
       <c r="L32" s="1">
-        <v>10459.46096567775</v>
-      </c>
-      <c r="M32" s="1">
-        <v>105.6511208654318</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O32" s="1">
-        <v>221.6154597687273</v>
-      </c>
-      <c r="P32" s="1">
-        <v>664.8463793061819</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
+        <v>112.7153077590141</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="3">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C33" s="4">
         <v>45696.80555555555</v>
@@ -2093,45 +1793,36 @@
         <v>96622.64</v>
       </c>
       <c r="F33" s="1">
-        <v>96814.10035087884</v>
+        <v>95915.44</v>
       </c>
       <c r="G33" s="1">
-        <v>96048.25894736346</v>
+        <v>0.582826439882782</v>
       </c>
       <c r="H33" s="1">
-        <v>95915.44</v>
+        <v>412.1748582851018</v>
       </c>
       <c r="I33">
-        <v>0.5462990597095785</v>
-      </c>
-      <c r="J33" t="s">
-        <v>18</v>
+        <v>3.69371515697012</v>
+      </c>
+      <c r="J33">
+        <v>0.6937151569701197</v>
       </c>
       <c r="K33" s="1">
-        <v>313.7838289703326</v>
+        <v>0.7319195583974906</v>
       </c>
       <c r="L33" s="1">
-        <v>10773.24479464808</v>
-      </c>
-      <c r="M33" s="1">
-        <v>104.5946096567775</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O33" s="1">
-        <v>191.4603508788423</v>
-      </c>
-      <c r="P33" s="1">
-        <v>574.3810526365414</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
+        <v>111.5881546814239</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="3">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C34" s="4">
         <v>45697.65277777778</v>
@@ -2143,45 +1834,36 @@
         <v>96612.05</v>
       </c>
       <c r="F34" s="1">
-        <v>96880.50705339119</v>
+        <v>95376.64999999999</v>
       </c>
       <c r="G34" s="1">
-        <v>95806.67883982643</v>
+        <v>0.4310183018200116</v>
       </c>
       <c r="H34" s="1">
-        <v>95376.64999999999</v>
+        <v>532.4800100684461</v>
       </c>
       <c r="I34">
-        <v>0.4013023557607753</v>
-      </c>
-      <c r="J34" t="s">
-        <v>18</v>
+        <v>4.601853385464263</v>
+      </c>
+      <c r="J34">
+        <v>1.601853385464263</v>
       </c>
       <c r="K34" s="1">
-        <v>323.1973438394425</v>
+        <v>1.278722478200192</v>
       </c>
       <c r="L34" s="1">
-        <v>11096.44213848753</v>
-      </c>
-      <c r="M34" s="1">
-        <v>107.7324479464808</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O34" s="1">
-        <v>268.4570533911901</v>
-      </c>
-      <c r="P34" s="1">
-        <v>805.3711601735704</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
+        <v>115.7099032642749</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="3">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C35" s="4">
         <v>45699.88888888889</v>
@@ -2196,42 +1878,33 @@
         <v>96056.14374028651</v>
       </c>
       <c r="G35" s="1">
-        <v>94577.04877914043</v>
+        <v>0.3273209808548775</v>
       </c>
       <c r="H35" s="1">
-        <v>96155.59</v>
+        <v>-121.0347033649594</v>
       </c>
       <c r="I35">
-        <v>0.3000873488174017</v>
-      </c>
-      <c r="J35" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
       </c>
       <c r="K35" s="1">
-        <v>-110.9644213848753</v>
+        <v>-1</v>
       </c>
       <c r="L35" s="1">
-        <v>10985.47771710265</v>
-      </c>
-      <c r="M35" s="1">
-        <v>110.9644213848753</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O35" s="1">
-        <v>369.7737402865168</v>
-      </c>
-      <c r="P35" s="1">
-        <v>1109.321220859565</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
+        <v>121.0347033649594</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="3">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C36" s="4">
         <v>45699.90625</v>
@@ -2243,45 +1916,36 @@
         <v>96317.67</v>
       </c>
       <c r="F36" s="1">
-        <v>96720.53183445179</v>
+        <v>94844.8</v>
       </c>
       <c r="G36" s="1">
-        <v>95109.08449664462</v>
+        <v>0.2974328816587101</v>
       </c>
       <c r="H36" s="1">
-        <v>94844.8</v>
+        <v>438.0799684086629</v>
       </c>
       <c r="I36">
-        <v>0.2726859875433869</v>
-      </c>
-      <c r="J36" t="s">
-        <v>18</v>
+        <v>3.656017706428469</v>
+      </c>
+      <c r="J36">
+        <v>0.6560177064284689</v>
       </c>
       <c r="K36" s="1">
-        <v>329.5643315130796</v>
+        <v>1.529179433015765</v>
       </c>
       <c r="L36" s="1">
-        <v>11315.04204861573</v>
-      </c>
-      <c r="M36" s="1">
-        <v>109.8547771710265</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O36" s="1">
-        <v>402.861834451789</v>
-      </c>
-      <c r="P36" s="1">
-        <v>1208.585503355382</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16">
+        <v>119.8243563313098</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="3">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C37" s="4">
         <v>45701.79861111111</v>
@@ -2296,76 +1960,67 @@
         <v>96701.70211287875</v>
       </c>
       <c r="G37" s="1">
-        <v>94975.09366136376</v>
+        <v>0.2877436535339918</v>
       </c>
       <c r="H37" s="1">
-        <v>96774.71000000001</v>
+        <v>-124.2051560153964</v>
       </c>
       <c r="I37">
-        <v>0.2621333641379463</v>
-      </c>
-      <c r="J37" t="s">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="L37" s="1">
+        <v>124.2051560153964</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" t="s">
         <v>17</v>
-      </c>
-      <c r="K37" s="1">
-        <v>-113.1504204861573</v>
-      </c>
-      <c r="L37" s="1">
-        <v>11201.89162812958</v>
-      </c>
-      <c r="M37" s="1">
-        <v>113.1504204861573</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O37" s="1">
-        <v>431.6521128787426</v>
-      </c>
-      <c r="P37" s="1">
-        <v>1294.956338636242</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
-      <c r="A41" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
-      <c r="A42" t="s">
-        <v>21</v>
       </c>
       <c r="B42" s="1">
         <v>10000</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B43" s="1">
-        <v>11201.89162812958</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16">
+        <v>12296.31044552425</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B44" s="5">
-        <v>0.1201891628129574</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
+        <v>0.2296310445524248</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B45">
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B46" s="5">
         <v>0.3333333333333333</v>

--- a/trading_results.xlsx
+++ b/trading_results.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\Backtesting\strategy\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Trade History" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="24">
   <si>
     <t>Position</t>
   </si>
@@ -91,13 +96,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="$#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="0.00%"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,13 +168,21 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -217,7 +229,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,9 +261,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -283,6 +296,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -458,12 +472,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
@@ -474,7 +490,7 @@
     <col min="12" max="14" width="18.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -515,7 +531,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -523,175 +539,175 @@
         <v>13</v>
       </c>
       <c r="C2" s="5">
-        <v>45666.63541666666</v>
+        <v>45521.548611111109</v>
       </c>
       <c r="D2" s="5">
-        <v>45666.64583333334</v>
+        <v>45521.625</v>
       </c>
       <c r="E2" s="2">
-        <v>93188.2</v>
+        <v>2612.29</v>
       </c>
       <c r="F2" s="2">
-        <v>93801.34997159497</v>
+        <v>2618.4081982733792</v>
       </c>
       <c r="G2" s="2">
-        <v>91348.75008521508</v>
+        <v>2593.9354051798618</v>
       </c>
       <c r="H2" s="2">
-        <v>93801.34997159497</v>
+        <v>2618.4081982733792</v>
       </c>
       <c r="I2" s="1">
-        <v>0.1630922362107786</v>
+        <v>32.689362302986531</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="2">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L2" s="2">
-        <v>9900</v>
+        <v>19800</v>
       </c>
       <c r="M2" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5">
-        <v>45666.64930555555</v>
+        <v>45522.71875</v>
       </c>
       <c r="D3" s="5">
-        <v>45666.65972222222</v>
+        <v>45522.725694444453</v>
       </c>
       <c r="E3" s="2">
-        <v>93739.87</v>
+        <v>2659.97</v>
       </c>
       <c r="F3" s="2">
-        <v>94376.30887387348</v>
+        <v>2650.868089520297</v>
       </c>
       <c r="G3" s="2">
-        <v>91830.55337837953</v>
+        <v>2687.2757314391069</v>
       </c>
       <c r="H3" s="2">
-        <v>94376.30887387348</v>
+        <v>2650.868089520297</v>
       </c>
       <c r="I3" s="1">
-        <v>0.1555530374778455</v>
+        <v>21.753674730326971</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K3" s="2">
-        <v>-99</v>
+        <v>-198</v>
       </c>
       <c r="L3" s="2">
-        <v>9801</v>
+        <v>19602</v>
       </c>
       <c r="M3" s="2">
-        <v>99</v>
+        <v>198</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5">
-        <v>45666.66319444445</v>
+        <v>45522.888888888891</v>
       </c>
       <c r="D4" s="5">
-        <v>45666.82291666666</v>
+        <v>45522.909722222219</v>
       </c>
       <c r="E4" s="2">
-        <v>94244.02</v>
+        <v>2654.64</v>
       </c>
       <c r="F4" s="2">
-        <v>94919.84370097617</v>
+        <v>2648.1197434979281</v>
       </c>
       <c r="G4" s="2">
-        <v>92216.54889707149</v>
+        <v>2674.2007695062171</v>
       </c>
       <c r="H4" s="2">
-        <v>92106.85000000001</v>
+        <v>2648.1197434979281</v>
       </c>
       <c r="I4" s="1">
-        <v>0.1450230287254407</v>
+        <v>30.063234465960299</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" s="2">
-        <v>309.9388663011497</v>
+        <v>-196.02</v>
       </c>
       <c r="L4" s="2">
-        <v>10110.93886630115</v>
+        <v>19405.98</v>
       </c>
       <c r="M4" s="2">
-        <v>98.01000000000001</v>
+        <v>196.02</v>
       </c>
       <c r="N4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5">
-        <v>45667.75</v>
+        <v>45522.913194444453</v>
       </c>
       <c r="D5" s="5">
-        <v>45670.54166666666</v>
+        <v>45523.541666666657</v>
       </c>
       <c r="E5" s="2">
-        <v>95486.73</v>
+        <v>2643.49</v>
       </c>
       <c r="F5" s="2">
-        <v>96318.69892474354</v>
+        <v>2635.2988157173422</v>
       </c>
       <c r="G5" s="2">
-        <v>92990.82322576936</v>
+        <v>2668.063552847972</v>
       </c>
       <c r="H5" s="2">
-        <v>90583.24000000001</v>
+        <v>2635.2988157173422</v>
       </c>
       <c r="I5" s="1">
-        <v>0.1215302466906183</v>
+        <v>23.691299487775531</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5" s="2">
-        <v>595.9223493449787</v>
+        <v>-194.0598</v>
       </c>
       <c r="L5" s="2">
-        <v>10706.86121564613</v>
+        <v>19211.9202</v>
       </c>
       <c r="M5" s="2">
-        <v>101.1093886630115</v>
+        <v>194.0598</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -699,43 +715,43 @@
         <v>13</v>
       </c>
       <c r="C6" s="5">
-        <v>45670.63541666666</v>
+        <v>45523.857638888891</v>
       </c>
       <c r="D6" s="5">
-        <v>45670.86805555555</v>
+        <v>45524.541666666657</v>
       </c>
       <c r="E6" s="2">
-        <v>92680.00999999999</v>
+        <v>2618.81</v>
       </c>
       <c r="F6" s="2">
-        <v>93739.19579047592</v>
+        <v>2630.231271786874</v>
       </c>
       <c r="G6" s="2">
-        <v>89502.45262857222</v>
+        <v>2584.5461846393782</v>
       </c>
       <c r="H6" s="2">
-        <v>93739.19579047592</v>
+        <v>2630.231271786874</v>
       </c>
       <c r="I6" s="1">
-        <v>0.1010857708998836</v>
+        <v>16.821174172634059</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K6" s="2">
-        <v>-107.0686121564613</v>
+        <v>-192.119202</v>
       </c>
       <c r="L6" s="2">
-        <v>10599.79260348967</v>
+        <v>19019.800997999999</v>
       </c>
       <c r="M6" s="2">
-        <v>107.0686121564613</v>
+        <v>192.119202</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -743,131 +759,131 @@
         <v>14</v>
       </c>
       <c r="C7" s="5">
-        <v>45673.625</v>
+        <v>45524.552083333343</v>
       </c>
       <c r="D7" s="5">
-        <v>45673.67013888889</v>
+        <v>45524.565972222219</v>
       </c>
       <c r="E7" s="2">
-        <v>97571.23</v>
+        <v>2635.06</v>
       </c>
       <c r="F7" s="2">
-        <v>96887.64624180444</v>
+        <v>2626.4142031493689</v>
       </c>
       <c r="G7" s="2">
-        <v>99621.98127458667</v>
+        <v>2660.9973905518918</v>
       </c>
       <c r="H7" s="2">
-        <v>99815.27</v>
+        <v>2626.4142031493689</v>
       </c>
       <c r="I7" s="1">
-        <v>0.1550620897060185</v>
+        <v>21.99889880203775</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K7" s="2">
-        <v>347.9655317838951</v>
+        <v>-190.19800997999999</v>
       </c>
       <c r="L7" s="2">
-        <v>10947.75813527356</v>
+        <v>18829.60298802</v>
       </c>
       <c r="M7" s="2">
-        <v>105.9979260348967</v>
+        <v>190.19800997999999</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="5">
-        <v>45674.87152777778</v>
+        <v>45525.604166666657</v>
       </c>
       <c r="D8" s="5">
-        <v>45675.54166666666</v>
+        <v>45525.722222222219</v>
       </c>
       <c r="E8" s="2">
-        <v>104692.7</v>
+        <v>2602.21</v>
       </c>
       <c r="F8" s="2">
-        <v>104197.1529992671</v>
+        <v>2628.4791306655661</v>
       </c>
       <c r="G8" s="2">
-        <v>106179.3410021986</v>
+        <v>2523.4026080033032</v>
       </c>
       <c r="H8" s="2">
-        <v>104197.1529992671</v>
+        <v>2628.4791306655661</v>
       </c>
       <c r="I8" s="1">
-        <v>0.2209226999473812</v>
+        <v>7.167958174079363</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K8" s="2">
-        <v>-109.4775813527356</v>
+        <v>-188.2960298802</v>
       </c>
       <c r="L8" s="2">
-        <v>10838.28055392083</v>
+        <v>18641.306958139801</v>
       </c>
       <c r="M8" s="2">
-        <v>109.4775813527356</v>
+        <v>188.2960298802</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="5">
-        <v>45675.70138888889</v>
+        <v>45526.767361111109</v>
       </c>
       <c r="D9" s="5">
-        <v>45676.54166666666</v>
+        <v>45526.871527777781</v>
       </c>
       <c r="E9" s="2">
-        <v>103240.85</v>
+        <v>2615.62</v>
       </c>
       <c r="F9" s="2">
-        <v>102688.8552242209</v>
+        <v>2624.8708757804402</v>
       </c>
       <c r="G9" s="2">
-        <v>104896.8343273375</v>
+        <v>2587.867372658679</v>
       </c>
       <c r="H9" s="2">
-        <v>105157.8</v>
+        <v>2624.8708757804402</v>
       </c>
       <c r="I9" s="1">
-        <v>0.1963475204746705</v>
+        <v>20.150856416810019</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K9" s="2">
-        <v>376.388379373919</v>
+        <v>-186.41306958139799</v>
       </c>
       <c r="L9" s="2">
-        <v>11214.66893329475</v>
+        <v>18454.893888558399</v>
       </c>
       <c r="M9" s="2">
-        <v>108.3828055392083</v>
+        <v>186.41306958139799</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -875,439 +891,439 @@
         <v>14</v>
       </c>
       <c r="C10" s="5">
-        <v>45677.65972222222</v>
+        <v>45528.878472222219</v>
       </c>
       <c r="D10" s="5">
-        <v>45677.67361111111</v>
+        <v>45528.892361111109</v>
       </c>
       <c r="E10" s="2">
-        <v>105535.7</v>
+        <v>2781.54</v>
       </c>
       <c r="F10" s="2">
-        <v>104427.1512541753</v>
+        <v>2770.7219379393209</v>
       </c>
       <c r="G10" s="2">
-        <v>108861.3462374741</v>
+        <v>2813.9941861820371</v>
       </c>
       <c r="H10" s="2">
-        <v>104427.1512541753</v>
+        <v>2770.7219379393209</v>
       </c>
       <c r="I10" s="1">
-        <v>0.1011653206549046</v>
+        <v>17.059334458467699</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K10" s="2">
-        <v>-112.1466893329475</v>
+        <v>-184.54893888558399</v>
       </c>
       <c r="L10" s="2">
-        <v>11102.5222439618</v>
+        <v>18270.344949672821</v>
       </c>
       <c r="M10" s="2">
-        <v>112.1466893329475</v>
+        <v>184.54893888558399</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="5">
-        <v>45678.62847222222</v>
+        <v>45532.788194444453</v>
       </c>
       <c r="D11" s="5">
-        <v>45678.67361111111</v>
+        <v>45533.541666666657</v>
       </c>
       <c r="E11" s="2">
-        <v>103281.22</v>
+        <v>2533</v>
       </c>
       <c r="F11" s="2">
-        <v>102325.420213087</v>
+        <v>2554.8179582315202</v>
       </c>
       <c r="G11" s="2">
-        <v>106148.619360739</v>
+        <v>2467.54612530544</v>
       </c>
       <c r="H11" s="2">
-        <v>106300</v>
+        <v>2554.8179582315202</v>
       </c>
       <c r="I11" s="1">
-        <v>0.1161594969572064</v>
+        <v>8.3739939162950012</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K11" s="2">
-        <v>350.6599662244753</v>
+        <v>-182.70344949672821</v>
       </c>
       <c r="L11" s="2">
-        <v>11453.18221018627</v>
+        <v>18087.641500176091</v>
       </c>
       <c r="M11" s="2">
-        <v>111.025222439618</v>
+        <v>182.70344949672821</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="5">
-        <v>45678.86111111111</v>
+        <v>45535.864583333343</v>
       </c>
       <c r="D12" s="5">
-        <v>45679.54166666666</v>
+        <v>45535.899305555547</v>
       </c>
       <c r="E12" s="2">
-        <v>106072</v>
+        <v>2506.92</v>
       </c>
       <c r="F12" s="2">
-        <v>105391.0783661026</v>
+        <v>2513.2172106892599</v>
       </c>
       <c r="G12" s="2">
-        <v>108114.7649016923</v>
+        <v>2488.0283679322192</v>
       </c>
       <c r="H12" s="2">
-        <v>105391.0783661026</v>
+        <v>2513.2172106892599</v>
       </c>
       <c r="I12" s="1">
-        <v>0.1682011796956895</v>
+        <v>28.723259221775859</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K12" s="2">
-        <v>-114.5318221018627</v>
+        <v>-180.8764150017609</v>
       </c>
       <c r="L12" s="2">
-        <v>11338.65038808441</v>
+        <v>17906.765085174331</v>
       </c>
       <c r="M12" s="2">
-        <v>114.5318221018627</v>
+        <v>180.8764150017609</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="5">
-        <v>45679.54861111111</v>
+        <v>45535.90625</v>
       </c>
       <c r="D13" s="5">
-        <v>45679.56597222222</v>
+        <v>45536.541666666657</v>
       </c>
       <c r="E13" s="2">
-        <v>104947.17</v>
+        <v>2526.0100000000002</v>
       </c>
       <c r="F13" s="2">
-        <v>104638.4792248785</v>
+        <v>2533.4289835709328</v>
       </c>
       <c r="G13" s="2">
-        <v>105873.2423253646</v>
+        <v>2503.753049287202</v>
       </c>
       <c r="H13" s="2">
-        <v>104638.4792248785</v>
+        <v>2467.09</v>
       </c>
       <c r="I13" s="1">
-        <v>0.3673141960144353</v>
+        <v>24.1364129115107</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K13" s="2">
-        <v>-113.3865038808441</v>
+        <v>1422.1174487462119</v>
       </c>
       <c r="L13" s="2">
-        <v>11225.26388420357</v>
+        <v>19328.88253392054</v>
       </c>
       <c r="M13" s="2">
-        <v>113.3865038808441</v>
+        <v>179.06765085174331</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="5">
-        <v>45679.57986111111</v>
+        <v>45536.65625</v>
       </c>
       <c r="D14" s="5">
-        <v>45679.69444444445</v>
+        <v>45536.784722222219</v>
       </c>
       <c r="E14" s="2">
-        <v>104073.94</v>
+        <v>2483.0700000000002</v>
       </c>
       <c r="F14" s="2">
-        <v>103607.8322012325</v>
+        <v>2499.1263622649858</v>
       </c>
       <c r="G14" s="2">
-        <v>105472.2633963026</v>
+        <v>2434.900913205041</v>
       </c>
       <c r="H14" s="2">
-        <v>103607.8322012325</v>
+        <v>2499.1263622649858</v>
       </c>
       <c r="I14" s="1">
-        <v>0.2408297804474614</v>
+        <v>12.038145511994831</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K14" s="2">
-        <v>-112.2526388420357</v>
+        <v>-193.2888253392054</v>
       </c>
       <c r="L14" s="2">
-        <v>11113.01124536153</v>
+        <v>19135.593708581338</v>
       </c>
       <c r="M14" s="2">
-        <v>112.2526388420357</v>
+        <v>193.2888253392054</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="5">
-        <v>45679.88194444445</v>
+        <v>45536.788194444453</v>
       </c>
       <c r="D15" s="5">
-        <v>45680.54166666666</v>
+        <v>45536.795138888891</v>
       </c>
       <c r="E15" s="2">
-        <v>103891.76</v>
+        <v>2494.13</v>
       </c>
       <c r="F15" s="2">
-        <v>103383.4969139</v>
+        <v>2507.245855985062</v>
       </c>
       <c r="G15" s="2">
-        <v>105416.5492583</v>
+        <v>2454.782432044813</v>
       </c>
       <c r="H15" s="2">
-        <v>103383.4969139</v>
+        <v>2507.245855985062</v>
       </c>
       <c r="I15" s="1">
-        <v>0.2186468297478371</v>
+        <v>14.589664395808301</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K15" s="2">
-        <v>-111.1301124536153</v>
+        <v>-191.35593708581339</v>
       </c>
       <c r="L15" s="2">
-        <v>11001.88113290792</v>
+        <v>18944.237771495529</v>
       </c>
       <c r="M15" s="2">
-        <v>111.1301124536153</v>
+        <v>191.35593708581339</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="5">
-        <v>45680.82986111111</v>
+        <v>45538.725694444453</v>
       </c>
       <c r="D16" s="5">
-        <v>45680.85069444445</v>
+        <v>45539.541666666657</v>
       </c>
       <c r="E16" s="2">
-        <v>103770.04</v>
+        <v>2458.25</v>
       </c>
       <c r="F16" s="2">
-        <v>102905.7172240915</v>
+        <v>2470.970245656637</v>
       </c>
       <c r="G16" s="2">
-        <v>106363.0083277254</v>
+        <v>2420.08926303009</v>
       </c>
       <c r="H16" s="2">
-        <v>106421.03</v>
+        <v>2399</v>
       </c>
       <c r="I16" s="1">
-        <v>0.1272890341382467</v>
+        <v>14.892981065669741</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K16" s="2">
-        <v>337.4419566101514</v>
+        <v>882.40912814093213</v>
       </c>
       <c r="L16" s="2">
-        <v>11339.32308951807</v>
+        <v>19826.64689963646</v>
       </c>
       <c r="M16" s="2">
-        <v>110.0188113290792</v>
+        <v>189.44237771495531</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="5">
-        <v>45681.82986111111</v>
+        <v>45540.75</v>
       </c>
       <c r="D17" s="5">
-        <v>45681.84722222222</v>
+        <v>45540.822916666657</v>
       </c>
       <c r="E17" s="2">
-        <v>105760.94</v>
+        <v>2391.7600000000002</v>
       </c>
       <c r="F17" s="2">
-        <v>105294.4043978837</v>
+        <v>2405.9382969659418</v>
       </c>
       <c r="G17" s="2">
-        <v>107160.546806349</v>
+        <v>2349.2251091021749</v>
       </c>
       <c r="H17" s="2">
-        <v>105294.4043978837</v>
+        <v>2348.04</v>
       </c>
       <c r="I17" s="1">
-        <v>0.2430537570569146</v>
+        <v>13.9837999918206</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K17" s="2">
-        <v>-113.3932308951807</v>
+        <v>611.37173564240027</v>
       </c>
       <c r="L17" s="2">
-        <v>11225.92985862289</v>
+        <v>20438.018635278859</v>
       </c>
       <c r="M17" s="2">
-        <v>113.3932308951807</v>
+        <v>198.26646899636461</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="5">
-        <v>45681.85763888889</v>
+        <v>45543.881944444453</v>
       </c>
       <c r="D18" s="5">
-        <v>45682.58680555555</v>
+        <v>45544.541666666657</v>
       </c>
       <c r="E18" s="2">
-        <v>105052.52</v>
+        <v>2285.9899999999998</v>
       </c>
       <c r="F18" s="2">
-        <v>104590.815085935</v>
+        <v>2294.1692782331861</v>
       </c>
       <c r="G18" s="2">
-        <v>106437.6347421952</v>
+        <v>2261.4521653004408</v>
       </c>
       <c r="H18" s="2">
-        <v>104590.815085935</v>
+        <v>2294.1692782331861</v>
       </c>
       <c r="I18" s="1">
-        <v>0.2431407922385961</v>
+        <v>24.98755764580099</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K18" s="2">
-        <v>-112.2592985862289</v>
+        <v>-204.38018635278851</v>
       </c>
       <c r="L18" s="2">
-        <v>11113.67056003666</v>
+        <v>20233.638448926071</v>
       </c>
       <c r="M18" s="2">
-        <v>112.2592985862289</v>
+        <v>204.38018635278851</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="5">
-        <v>45683.88541666666</v>
+        <v>45546.65625</v>
       </c>
       <c r="D19" s="5">
-        <v>45683.90625</v>
+        <v>45546.701388888891</v>
       </c>
       <c r="E19" s="2">
-        <v>104795.54</v>
+        <v>2329.2199999999998</v>
       </c>
       <c r="F19" s="2">
-        <v>104635.5126717815</v>
+        <v>2349.462528121524</v>
       </c>
       <c r="G19" s="2">
-        <v>105275.6219846556</v>
+        <v>2268.4924156354291</v>
       </c>
       <c r="H19" s="2">
-        <v>104635.5126717815</v>
+        <v>2349.462528121524</v>
       </c>
       <c r="I19" s="1">
-        <v>0.6944857908806404</v>
+        <v>9.995608417810125</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K19" s="2">
-        <v>-111.1367056003666</v>
+        <v>-202.33638448926069</v>
       </c>
       <c r="L19" s="2">
-        <v>11002.53385443629</v>
+        <v>20031.302064436812</v>
       </c>
       <c r="M19" s="2">
-        <v>111.1367056003666</v>
+        <v>202.33638448926069</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -1315,43 +1331,43 @@
         <v>13</v>
       </c>
       <c r="C20" s="5">
-        <v>45684.54166666666</v>
+        <v>45551.746527777781</v>
       </c>
       <c r="D20" s="5">
-        <v>45684.54513888889</v>
+        <v>45552.548611111109</v>
       </c>
       <c r="E20" s="2">
-        <v>100632.01</v>
+        <v>2306.02</v>
       </c>
       <c r="F20" s="2">
-        <v>101286.0915115136</v>
+        <v>2321.4434245360239</v>
       </c>
       <c r="G20" s="2">
-        <v>98669.76546545928</v>
+        <v>2259.749726391929</v>
       </c>
       <c r="H20" s="2">
-        <v>101286.0915115136</v>
+        <v>2321.4434245360239</v>
       </c>
       <c r="I20" s="1">
-        <v>0.1682134972593229</v>
+        <v>12.98758392965868</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K20" s="2">
-        <v>-110.0253385443629</v>
+        <v>-200.31302064436809</v>
       </c>
       <c r="L20" s="2">
-        <v>10892.50851589193</v>
+        <v>19830.98904379244</v>
       </c>
       <c r="M20" s="2">
-        <v>110.0253385443629</v>
+        <v>200.31302064436809</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -1359,43 +1375,43 @@
         <v>13</v>
       </c>
       <c r="C21" s="5">
-        <v>45684.85069444445</v>
+        <v>45553.541666666657</v>
       </c>
       <c r="D21" s="5">
-        <v>45684.86458333334</v>
+        <v>45553.576388888891</v>
       </c>
       <c r="E21" s="2">
-        <v>100351.68</v>
+        <v>2314.38</v>
       </c>
       <c r="F21" s="2">
-        <v>100958.2739530618</v>
+        <v>2322.6953610399901</v>
       </c>
       <c r="G21" s="2">
-        <v>98531.89814081455</v>
+        <v>2289.433916880032</v>
       </c>
       <c r="H21" s="2">
-        <v>100958.2739530618</v>
+        <v>2289.3200000000002</v>
       </c>
       <c r="I21" s="1">
-        <v>0.1795683663002464</v>
+        <v>23.848620581142509</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K21" s="2">
-        <v>-108.9250851589193</v>
+        <v>597.64643176342986</v>
       </c>
       <c r="L21" s="2">
-        <v>10783.58343073301</v>
+        <v>20428.635475555871</v>
       </c>
       <c r="M21" s="2">
-        <v>108.9250851589193</v>
+        <v>198.30989043792439</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -1403,87 +1419,87 @@
         <v>13</v>
       </c>
       <c r="C22" s="5">
-        <v>45684.87152777778</v>
+        <v>45553.888888888891</v>
       </c>
       <c r="D22" s="5">
-        <v>45684.87847222222</v>
+        <v>45554.541666666657</v>
       </c>
       <c r="E22" s="2">
-        <v>101386.5</v>
+        <v>2334.0700000000002</v>
       </c>
       <c r="F22" s="2">
-        <v>102047.4840323447</v>
+        <v>2349.9612779889658</v>
       </c>
       <c r="G22" s="2">
-        <v>99403.54790296599</v>
+        <v>2286.396166033102</v>
       </c>
       <c r="H22" s="2">
-        <v>102047.4840323447</v>
+        <v>2349.9612779889658</v>
       </c>
       <c r="I22" s="1">
-        <v>0.1631443862944925</v>
+        <v>12.855250213192591</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K22" s="2">
-        <v>-107.8358343073301</v>
+        <v>-204.2863547555587</v>
       </c>
       <c r="L22" s="2">
-        <v>10675.74759642568</v>
+        <v>20224.349120800311</v>
       </c>
       <c r="M22" s="2">
-        <v>107.8358343073301</v>
+        <v>204.2863547555587</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C23" s="5">
-        <v>45684.88194444445</v>
+        <v>45554.833333333343</v>
       </c>
       <c r="D23" s="5">
-        <v>45685.625</v>
+        <v>45555.541666666657</v>
       </c>
       <c r="E23" s="2">
-        <v>102295.12</v>
+        <v>2460.11</v>
       </c>
       <c r="F23" s="2">
-        <v>103009.0155608824</v>
+        <v>2448.0924533294269</v>
       </c>
       <c r="G23" s="2">
-        <v>100153.4333173529</v>
+        <v>2496.1626400117188</v>
       </c>
       <c r="H23" s="2">
-        <v>103009.0155608824</v>
+        <v>2556</v>
       </c>
       <c r="I23" s="1">
-        <v>0.1495421484794003</v>
+        <v>16.829016499951251</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K23" s="2">
-        <v>-106.7574759642568</v>
+        <v>1613.7343921803231</v>
       </c>
       <c r="L23" s="2">
-        <v>10568.99012046142</v>
+        <v>21838.08351298064</v>
       </c>
       <c r="M23" s="2">
-        <v>106.7574759642568</v>
+        <v>202.24349120800309</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -1491,439 +1507,439 @@
         <v>14</v>
       </c>
       <c r="C24" s="5">
-        <v>45687.73611111111</v>
+        <v>45555.565972222219</v>
       </c>
       <c r="D24" s="5">
-        <v>45688.56597222222</v>
+        <v>45555.590277777781</v>
       </c>
       <c r="E24" s="2">
-        <v>105018.14</v>
+        <v>2533.4699999999998</v>
       </c>
       <c r="F24" s="2">
-        <v>104555.7455826141</v>
+        <v>2520.8398455269948</v>
       </c>
       <c r="G24" s="2">
-        <v>106405.3232521578</v>
+        <v>2571.3604634190128</v>
       </c>
       <c r="H24" s="2">
-        <v>104555.7455826141</v>
+        <v>2520.8398455269948</v>
       </c>
       <c r="I24" s="1">
-        <v>0.2285708850079048</v>
+        <v>17.290432638537421</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K24" s="2">
-        <v>-105.6899012046142</v>
+        <v>-218.3808351298064</v>
       </c>
       <c r="L24" s="2">
-        <v>10463.30021925681</v>
+        <v>21619.70267785083</v>
       </c>
       <c r="M24" s="2">
-        <v>105.6899012046142</v>
+        <v>218.3808351298064</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C25" s="5">
-        <v>45690.59027777778</v>
+        <v>45555.732638888891</v>
       </c>
       <c r="D25" s="5">
-        <v>45690.72222222222</v>
+        <v>45557.541666666657</v>
       </c>
       <c r="E25" s="2">
-        <v>99272.12</v>
+        <v>2536.21</v>
       </c>
       <c r="F25" s="2">
-        <v>99715.13450807023</v>
+        <v>2521.418677651096</v>
       </c>
       <c r="G25" s="2">
-        <v>97943.07647578928</v>
+        <v>2580.5839670467112</v>
       </c>
       <c r="H25" s="2">
-        <v>97727</v>
+        <v>2583.17</v>
       </c>
       <c r="I25" s="1">
-        <v>0.2361841436036666</v>
+        <v>14.616477261381171</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K25" s="2">
-        <v>364.9328439648962</v>
+        <v>686.38977219446042</v>
       </c>
       <c r="L25" s="2">
-        <v>10828.23306322171</v>
+        <v>22306.092450045289</v>
       </c>
       <c r="M25" s="2">
-        <v>104.6330021925681</v>
+        <v>216.1970267785083</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C26" s="5">
-        <v>45690.82291666666</v>
+        <v>45557.572916666657</v>
       </c>
       <c r="D26" s="5">
-        <v>45691.54166666666</v>
+        <v>45557.586805555547</v>
       </c>
       <c r="E26" s="2">
-        <v>98512.55</v>
+        <v>2570.11</v>
       </c>
       <c r="F26" s="2">
-        <v>99337.82221928821</v>
+        <v>2561.357643315172</v>
       </c>
       <c r="G26" s="2">
-        <v>96036.73334213537</v>
+        <v>2596.3670700544858</v>
       </c>
       <c r="H26" s="2">
-        <v>94564.71000000001</v>
+        <v>2561.357643315172</v>
       </c>
       <c r="I26" s="1">
-        <v>0.1312080160963252</v>
+        <v>25.485812853937901</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K26" s="2">
-        <v>517.9882542657161</v>
+        <v>-223.0609245004529</v>
       </c>
       <c r="L26" s="2">
-        <v>11346.22131748742</v>
+        <v>22083.03152554484</v>
       </c>
       <c r="M26" s="2">
-        <v>108.2823306322171</v>
+        <v>223.0609245004529</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C27" s="5">
-        <v>45691.61111111111</v>
+        <v>45557.798611111109</v>
       </c>
       <c r="D27" s="5">
-        <v>45691.63541666666</v>
+        <v>45557.805555555547</v>
       </c>
       <c r="E27" s="2">
-        <v>96150.84</v>
+        <v>2571</v>
       </c>
       <c r="F27" s="2">
-        <v>97150.404590042</v>
+        <v>2563.456707049284</v>
       </c>
       <c r="G27" s="2">
-        <v>93152.14622987396</v>
+        <v>2593.6298788521472</v>
       </c>
       <c r="H27" s="2">
-        <v>97150.404590042</v>
+        <v>2563.456707049284</v>
       </c>
       <c r="I27" s="1">
-        <v>0.1135116372720907</v>
+        <v>29.27505489953165</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K27" s="2">
-        <v>-113.4622131748742</v>
+        <v>-220.8303152554484</v>
       </c>
       <c r="L27" s="2">
-        <v>11232.75910431255</v>
+        <v>21862.20121028939</v>
       </c>
       <c r="M27" s="2">
-        <v>113.4622131748742</v>
+        <v>220.8303152554484</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C28" s="5">
-        <v>45691.66666666666</v>
+        <v>45557.809027777781</v>
       </c>
       <c r="D28" s="5">
-        <v>45691.78472222222</v>
+        <v>45557.913194444453</v>
       </c>
       <c r="E28" s="2">
-        <v>98730.92999999999</v>
+        <v>2565.48</v>
       </c>
       <c r="F28" s="2">
-        <v>99908.6225083747</v>
+        <v>2557.75705006825</v>
       </c>
       <c r="G28" s="2">
-        <v>95197.85247487589</v>
+        <v>2588.64884979525</v>
       </c>
       <c r="H28" s="2">
-        <v>99908.6225083747</v>
+        <v>2557.75705006825</v>
       </c>
       <c r="I28" s="1">
-        <v>0.09537938829053531</v>
+        <v>28.308096522044199</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K28" s="2">
-        <v>-112.3275910431255</v>
+        <v>-218.6220121028939</v>
       </c>
       <c r="L28" s="2">
-        <v>11120.43151326942</v>
+        <v>21643.5791981865</v>
       </c>
       <c r="M28" s="2">
-        <v>112.3275910431255</v>
+        <v>218.6220121028939</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C29" s="5">
-        <v>45693.57638888889</v>
+        <v>45558.885416666657</v>
       </c>
       <c r="D29" s="5">
-        <v>45693.61111111111</v>
+        <v>45559.541666666657</v>
       </c>
       <c r="E29" s="2">
-        <v>98581.99000000001</v>
+        <v>2648.37</v>
       </c>
       <c r="F29" s="2">
-        <v>98923.60589796901</v>
+        <v>2636.8884587472548</v>
       </c>
       <c r="G29" s="2">
-        <v>97557.14230609298</v>
+        <v>2682.8146237582341</v>
       </c>
       <c r="H29" s="2">
-        <v>98923.60589796901</v>
+        <v>2636.8884587472548</v>
       </c>
       <c r="I29" s="1">
-        <v>0.3255244143900552</v>
+        <v>18.850761166766471</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K29" s="2">
-        <v>-111.2043151326942</v>
+        <v>-216.43579198186501</v>
       </c>
       <c r="L29" s="2">
-        <v>11009.22719813673</v>
+        <v>21427.143406204628</v>
       </c>
       <c r="M29" s="2">
-        <v>111.2043151326942</v>
+        <v>216.43579198186501</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C30" s="5">
-        <v>45694.86458333334</v>
+        <v>45559.597222222219</v>
       </c>
       <c r="D30" s="5">
-        <v>45695.54166666666</v>
+        <v>45560.71875</v>
       </c>
       <c r="E30" s="2">
-        <v>96870.89999999999</v>
+        <v>2606.96</v>
       </c>
       <c r="F30" s="2">
-        <v>97360.8412369147</v>
+        <v>2588.7880300396951</v>
       </c>
       <c r="G30" s="2">
-        <v>95401.07628925589</v>
+        <v>2661.4759098809168</v>
       </c>
       <c r="H30" s="2">
-        <v>97360.8412369147</v>
+        <v>2588.7880300396951</v>
       </c>
       <c r="I30" s="1">
-        <v>0.2247050537624657</v>
+        <v>11.79131566528546</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K30" s="2">
-        <v>-110.0922719813673</v>
+        <v>-214.2714340620463</v>
       </c>
       <c r="L30" s="2">
-        <v>10899.13492615536</v>
+        <v>21212.87197214258</v>
       </c>
       <c r="M30" s="2">
-        <v>110.0922719813673</v>
+        <v>214.2714340620463</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C31" s="5">
-        <v>45696.56944444445</v>
+        <v>45561.736111111109</v>
       </c>
       <c r="D31" s="5">
-        <v>45696.64583333334</v>
+        <v>45562.597222222219</v>
       </c>
       <c r="E31" s="2">
-        <v>96418.33</v>
+        <v>2635.5</v>
       </c>
       <c r="F31" s="2">
-        <v>96632.08010532602</v>
+        <v>2618.8392329275498</v>
       </c>
       <c r="G31" s="2">
-        <v>95777.07968402194</v>
+        <v>2685.4823012173511</v>
       </c>
       <c r="H31" s="2">
-        <v>95688</v>
+        <v>2692.95</v>
       </c>
       <c r="I31" s="1">
-        <v>0.5099007979215523</v>
+        <v>12.732230082743079</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K31" s="2">
-        <v>372.3958497460482</v>
+        <v>731.46661825358785</v>
       </c>
       <c r="L31" s="2">
-        <v>11271.53077590141</v>
+        <v>21944.338590396172</v>
       </c>
       <c r="M31" s="2">
-        <v>108.9913492615536</v>
+        <v>212.12871972142591</v>
       </c>
       <c r="N31" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C32" s="5">
-        <v>45696.71180555555</v>
+        <v>45563.545138888891</v>
       </c>
       <c r="D32" s="5">
-        <v>45696.77777777778</v>
+        <v>45563.725694444453</v>
       </c>
       <c r="E32" s="2">
-        <v>96282.74000000001</v>
+        <v>2654.79</v>
       </c>
       <c r="F32" s="2">
-        <v>96504.35545976873</v>
+        <v>2647.349644867199</v>
       </c>
       <c r="G32" s="2">
-        <v>95617.89362069382</v>
+        <v>2677.1110653984051</v>
       </c>
       <c r="H32" s="2">
-        <v>96504.35545976873</v>
+        <v>2683.74</v>
       </c>
       <c r="I32" s="1">
-        <v>0.508607602902077</v>
+        <v>29.493670931986511</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K32" s="2">
-        <v>-112.7153077590141</v>
+        <v>853.84177348100411</v>
       </c>
       <c r="L32" s="2">
-        <v>11158.81546814239</v>
+        <v>22798.180363877171</v>
       </c>
       <c r="M32" s="2">
-        <v>112.7153077590141</v>
+        <v>219.44338590396171</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C33" s="5">
-        <v>45696.80555555555</v>
+        <v>45564.541666666657</v>
       </c>
       <c r="D33" s="5">
-        <v>45697.57291666666</v>
+        <v>45564.635416666657</v>
       </c>
       <c r="E33" s="2">
-        <v>96622.64</v>
+        <v>2643.8</v>
       </c>
       <c r="F33" s="2">
-        <v>96814.10035087884</v>
+        <v>2636.887955474564</v>
       </c>
       <c r="G33" s="2">
-        <v>96048.25894736346</v>
+        <v>2664.5361335763068</v>
       </c>
       <c r="H33" s="2">
-        <v>95915.44</v>
+        <v>2668.78</v>
       </c>
       <c r="I33" s="1">
-        <v>0.582826439882782</v>
+        <v>32.98326606546285</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K33" s="2">
-        <v>412.1748582851018</v>
+        <v>823.92198631526264</v>
       </c>
       <c r="L33" s="2">
-        <v>11570.99032642749</v>
+        <v>23622.102350192439</v>
       </c>
       <c r="M33" s="2">
-        <v>111.5881546814239</v>
+        <v>227.98180363877171</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -1931,43 +1947,43 @@
         <v>13</v>
       </c>
       <c r="C34" s="5">
-        <v>45697.65277777778</v>
+        <v>45567.670138888891</v>
       </c>
       <c r="D34" s="5">
-        <v>45697.89930555555</v>
+        <v>45567.756944444453</v>
       </c>
       <c r="E34" s="2">
-        <v>96612.05</v>
+        <v>2472.89</v>
       </c>
       <c r="F34" s="2">
-        <v>96880.50705339119</v>
+        <v>2490.46885184238</v>
       </c>
       <c r="G34" s="2">
-        <v>95806.67883982643</v>
+        <v>2420.1534444728591</v>
       </c>
       <c r="H34" s="2">
-        <v>95376.64999999999</v>
+        <v>2412.5500000000002</v>
       </c>
       <c r="I34" s="1">
-        <v>0.4310183018200116</v>
+        <v>13.4377959163652</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K34" s="2">
-        <v>532.4800100684461</v>
+        <v>810.83660559347186</v>
       </c>
       <c r="L34" s="2">
-        <v>12103.47033649594</v>
+        <v>24432.93895578591</v>
       </c>
       <c r="M34" s="2">
-        <v>115.7099032642749</v>
+        <v>236.22102350192429</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -1975,43 +1991,43 @@
         <v>13</v>
       </c>
       <c r="C35" s="5">
-        <v>45699.88888888889</v>
+        <v>45568.725694444453</v>
       </c>
       <c r="D35" s="5">
-        <v>45699.89930555555</v>
+        <v>45569.541666666657</v>
       </c>
       <c r="E35" s="2">
-        <v>95686.37</v>
+        <v>2343.7199999999998</v>
       </c>
       <c r="F35" s="2">
-        <v>96056.14374028651</v>
+        <v>2361.4200792944562</v>
       </c>
       <c r="G35" s="2">
-        <v>94577.04877914043</v>
+        <v>2290.6197621166311</v>
       </c>
       <c r="H35" s="2">
-        <v>96056.14374028651</v>
+        <v>2361.4200792944562</v>
       </c>
       <c r="I35" s="1">
-        <v>0.3273209808548775</v>
+        <v>13.80385847392122</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K35" s="2">
-        <v>-121.0347033649594</v>
+        <v>-244.32938955785909</v>
       </c>
       <c r="L35" s="2">
-        <v>11982.43563313098</v>
+        <v>24188.60956622805</v>
       </c>
       <c r="M35" s="2">
-        <v>121.0347033649594</v>
+        <v>244.32938955785909</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -2019,43 +2035,43 @@
         <v>13</v>
       </c>
       <c r="C36" s="5">
-        <v>45699.90625</v>
+        <v>45573.569444444453</v>
       </c>
       <c r="D36" s="5">
-        <v>45700.5625</v>
+        <v>45573.583333333343</v>
       </c>
       <c r="E36" s="2">
-        <v>96317.67</v>
+        <v>2440.81</v>
       </c>
       <c r="F36" s="2">
-        <v>96720.53183445179</v>
+        <v>2451.6568641348149</v>
       </c>
       <c r="G36" s="2">
-        <v>95109.08449664462</v>
+        <v>2408.2694075955542</v>
       </c>
       <c r="H36" s="2">
-        <v>94844.8</v>
+        <v>2451.6568641348149</v>
       </c>
       <c r="I36" s="1">
-        <v>0.2974328816587101</v>
+        <v>22.300094539387992</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K36" s="2">
-        <v>438.0799684086629</v>
+        <v>-241.8860956622805</v>
       </c>
       <c r="L36" s="2">
-        <v>12420.51560153964</v>
+        <v>23946.723470565761</v>
       </c>
       <c r="M36" s="2">
-        <v>119.8243563313098</v>
+        <v>241.8860956622805</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -2063,85 +2079,4969 @@
         <v>13</v>
       </c>
       <c r="C37" s="5">
-        <v>45701.79861111111</v>
+        <v>45573.690972222219</v>
       </c>
       <c r="D37" s="5">
-        <v>45701.89583333334</v>
+        <v>45573.90625</v>
       </c>
       <c r="E37" s="2">
-        <v>96270.05</v>
+        <v>2442.1999999999998</v>
       </c>
       <c r="F37" s="2">
-        <v>96701.70211287875</v>
+        <v>2458.080882383445</v>
       </c>
       <c r="G37" s="2">
-        <v>94975.09366136376</v>
+        <v>2394.5573528496629</v>
       </c>
       <c r="H37" s="2">
-        <v>96701.70211287875</v>
+        <v>2458.080882383445</v>
       </c>
       <c r="I37" s="1">
-        <v>0.2877436535339918</v>
+        <v>15.078962800913409</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K37" s="2">
-        <v>-124.2051560153964</v>
+        <v>-239.46723470565769</v>
       </c>
       <c r="L37" s="2">
-        <v>12296.31044552425</v>
+        <v>23707.25623586011</v>
       </c>
       <c r="M37" s="2">
-        <v>124.2051560153964</v>
+        <v>239.46723470565769</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
-      <c r="A41" s="3" t="s">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="5">
+        <v>45574.600694444453</v>
+      </c>
+      <c r="D38" s="5">
+        <v>45574.631944444453</v>
+      </c>
+      <c r="E38" s="2">
+        <v>2440.9</v>
+      </c>
+      <c r="F38" s="2">
+        <v>2452.0316092045618</v>
+      </c>
+      <c r="G38" s="2">
+        <v>2407.505172386313</v>
+      </c>
+      <c r="H38" s="2">
+        <v>2452.0316092045618</v>
+      </c>
+      <c r="I38" s="1">
+        <v>21.297240857273231</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K38" s="2">
+        <v>-237.07256235860109</v>
+      </c>
+      <c r="L38" s="2">
+        <v>23470.183673501509</v>
+      </c>
+      <c r="M38" s="2">
+        <v>237.07256235860109</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="5">
+        <v>45575.666666666657</v>
+      </c>
+      <c r="D39" s="5">
+        <v>45575.743055555547</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2414.04</v>
+      </c>
+      <c r="F39" s="2">
+        <v>2428.3537040440278</v>
+      </c>
+      <c r="G39" s="2">
+        <v>2371.0988878679168</v>
+      </c>
+      <c r="H39" s="2">
+        <v>2370.15</v>
+      </c>
+      <c r="I39" s="1">
+        <v>16.397002202441101</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" s="2">
+        <v>719.66442666513763</v>
+      </c>
+      <c r="L39" s="2">
+        <v>24189.848100166641</v>
+      </c>
+      <c r="M39" s="2">
+        <v>234.70183673501509</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="5">
+        <v>45579.895833333343</v>
+      </c>
+      <c r="D40" s="5">
+        <v>45580.541666666657</v>
+      </c>
+      <c r="E40" s="2">
+        <v>2616.96</v>
+      </c>
+      <c r="F40" s="2">
+        <v>2610.854811630566</v>
+      </c>
+      <c r="G40" s="2">
+        <v>2635.2755651082998</v>
+      </c>
+      <c r="H40" s="2">
+        <v>2610.854811630566</v>
+      </c>
+      <c r="I40" s="1">
+        <v>39.621788283022248</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K40" s="2">
+        <v>-241.89848100166651</v>
+      </c>
+      <c r="L40" s="2">
+        <v>23947.949619164981</v>
+      </c>
+      <c r="M40" s="2">
+        <v>241.89848100166651</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="5">
+        <v>45580.631944444453</v>
+      </c>
+      <c r="D41" s="5">
+        <v>45583.774305555547</v>
+      </c>
+      <c r="E41" s="2">
+        <v>2561.4</v>
+      </c>
+      <c r="F41" s="2">
+        <v>2524.6140141718602</v>
+      </c>
+      <c r="G41" s="2">
+        <v>2671.7579574844208</v>
+      </c>
+      <c r="H41" s="2">
+        <v>2671.84</v>
+      </c>
+      <c r="I41" s="1">
+        <v>6.510074170921194</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K41" s="2">
+        <v>718.97259143653707</v>
+      </c>
+      <c r="L41" s="2">
+        <v>24666.922210601511</v>
+      </c>
+      <c r="M41" s="2">
+        <v>239.47949619164979</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="5">
+        <v>45583.850694444453</v>
+      </c>
+      <c r="D42" s="5">
+        <v>45584.565972222219</v>
+      </c>
+      <c r="E42" s="2">
+        <v>2644.79</v>
+      </c>
+      <c r="F42" s="2">
+        <v>2635.7033007335172</v>
+      </c>
+      <c r="G42" s="2">
+        <v>2672.0500977994502</v>
+      </c>
+      <c r="H42" s="2">
+        <v>2635.7033007335172</v>
+      </c>
+      <c r="I42" s="1">
+        <v>27.146185305798181</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K42" s="2">
+        <v>-246.66922210601521</v>
+      </c>
+      <c r="L42" s="2">
+        <v>24420.2529884955</v>
+      </c>
+      <c r="M42" s="2">
+        <v>246.66922210601521</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="5">
+        <v>45588.826388888891</v>
+      </c>
+      <c r="D43" s="5">
+        <v>45589.541666666657</v>
+      </c>
+      <c r="E43" s="2">
+        <v>2512.88</v>
+      </c>
+      <c r="F43" s="2">
+        <v>2529.794702078842</v>
+      </c>
+      <c r="G43" s="2">
+        <v>2462.1358937634759</v>
+      </c>
+      <c r="H43" s="2">
+        <v>2529.794702078842</v>
+      </c>
+      <c r="I43" s="1">
+        <v>14.43729418033486</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K43" s="2">
+        <v>-244.202529884955</v>
+      </c>
+      <c r="L43" s="2">
+        <v>24176.050458610549</v>
+      </c>
+      <c r="M43" s="2">
+        <v>244.202529884955</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="5">
+        <v>45589.809027777781</v>
+      </c>
+      <c r="D44" s="5">
+        <v>45589.881944444453</v>
+      </c>
+      <c r="E44" s="2">
+        <v>2535.92</v>
+      </c>
+      <c r="F44" s="2">
+        <v>2544.2912019113119</v>
+      </c>
+      <c r="G44" s="2">
+        <v>2510.8063942660629</v>
+      </c>
+      <c r="H44" s="2">
+        <v>2544.2912019113119</v>
+      </c>
+      <c r="I44" s="1">
+        <v>28.880023101510339</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K44" s="2">
+        <v>-241.7605045861055</v>
+      </c>
+      <c r="L44" s="2">
+        <v>23934.28995402444</v>
+      </c>
+      <c r="M44" s="2">
+        <v>241.7605045861055</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="5">
+        <v>45589.885416666657</v>
+      </c>
+      <c r="D45" s="5">
+        <v>45590.569444444453</v>
+      </c>
+      <c r="E45" s="2">
+        <v>2552.5500000000002</v>
+      </c>
+      <c r="F45" s="2">
+        <v>2561.0755296428242</v>
+      </c>
+      <c r="G45" s="2">
+        <v>2526.9734110715299</v>
+      </c>
+      <c r="H45" s="2">
+        <v>2525.1</v>
+      </c>
+      <c r="I45" s="1">
+        <v>28.07366926953479</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" s="2">
+        <v>770.6222214487376</v>
+      </c>
+      <c r="L45" s="2">
+        <v>24704.912175473179</v>
+      </c>
+      <c r="M45" s="2">
+        <v>239.34289954024439</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="5">
+        <v>45591.715277777781</v>
+      </c>
+      <c r="D46" s="5">
+        <v>45591.753472222219</v>
+      </c>
+      <c r="E46" s="2">
+        <v>2475.2199999999998</v>
+      </c>
+      <c r="F46" s="2">
+        <v>2484.5339584833559</v>
+      </c>
+      <c r="G46" s="2">
+        <v>2447.2781245499318</v>
+      </c>
+      <c r="H46" s="2">
+        <v>2484.5339584833559</v>
+      </c>
+      <c r="I46" s="1">
+        <v>26.524610582729519</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K46" s="2">
+        <v>-247.0491217547318</v>
+      </c>
+      <c r="L46" s="2">
+        <v>24457.863053718451</v>
+      </c>
+      <c r="M46" s="2">
+        <v>247.0491217547318</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="5">
+        <v>45591.847222222219</v>
+      </c>
+      <c r="D47" s="5">
+        <v>45592.541666666657</v>
+      </c>
+      <c r="E47" s="2">
+        <v>2505.17</v>
+      </c>
+      <c r="F47" s="2">
+        <v>2512.521421767407</v>
+      </c>
+      <c r="G47" s="2">
+        <v>2483.1157346977789</v>
+      </c>
+      <c r="H47" s="2">
+        <v>2475.73</v>
+      </c>
+      <c r="I47" s="1">
+        <v>33.269568564483983</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" s="2">
+        <v>979.45609853841006</v>
+      </c>
+      <c r="L47" s="2">
+        <v>25437.31915225686</v>
+      </c>
+      <c r="M47" s="2">
+        <v>244.57863053718449</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="5">
+        <v>45592.548611111109</v>
+      </c>
+      <c r="D48" s="5">
+        <v>45592.555555555547</v>
+      </c>
+      <c r="E48" s="2">
+        <v>2480.81</v>
+      </c>
+      <c r="F48" s="2">
+        <v>2486.5158172926931</v>
+      </c>
+      <c r="G48" s="2">
+        <v>2463.6925481219209</v>
+      </c>
+      <c r="H48" s="2">
+        <v>2486.5158172926931</v>
+      </c>
+      <c r="I48" s="1">
+        <v>44.581376948108392</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K48" s="2">
+        <v>-254.37319152256859</v>
+      </c>
+      <c r="L48" s="2">
+        <v>25182.945960734291</v>
+      </c>
+      <c r="M48" s="2">
+        <v>254.37319152256859</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="5">
+        <v>45594.541666666657</v>
+      </c>
+      <c r="D49" s="5">
+        <v>45594.583333333343</v>
+      </c>
+      <c r="E49" s="2">
+        <v>2619.19</v>
+      </c>
+      <c r="F49" s="2">
+        <v>2611.173169454275</v>
+      </c>
+      <c r="G49" s="2">
+        <v>2643.240491637177</v>
+      </c>
+      <c r="H49" s="2">
+        <v>2645.41</v>
+      </c>
+      <c r="I49" s="1">
+        <v>31.412596059126649</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" s="2">
+        <v>823.63826867029434</v>
+      </c>
+      <c r="L49" s="2">
+        <v>26006.58422940458</v>
+      </c>
+      <c r="M49" s="2">
+        <v>251.8294596073429</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="5">
+        <v>45594.815972222219</v>
+      </c>
+      <c r="D50" s="5">
+        <v>45594.847222222219</v>
+      </c>
+      <c r="E50" s="2">
+        <v>2629.52</v>
+      </c>
+      <c r="F50" s="2">
+        <v>2610.280303575677</v>
+      </c>
+      <c r="G50" s="2">
+        <v>2687.2390892729691</v>
+      </c>
+      <c r="H50" s="2">
+        <v>2610.280303575677</v>
+      </c>
+      <c r="I50" s="1">
+        <v>13.51714894863246</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K50" s="2">
+        <v>-260.06584229404581</v>
+      </c>
+      <c r="L50" s="2">
+        <v>25746.518387110529</v>
+      </c>
+      <c r="M50" s="2">
+        <v>260.06584229404581</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="5">
+        <v>45594.850694444453</v>
+      </c>
+      <c r="D51" s="5">
+        <v>45595.541666666657</v>
+      </c>
+      <c r="E51" s="2">
+        <v>2613.11</v>
+      </c>
+      <c r="F51" s="2">
+        <v>2594.6129331635411</v>
+      </c>
+      <c r="G51" s="2">
+        <v>2668.601200509378</v>
+      </c>
+      <c r="H51" s="2">
+        <v>2690.88</v>
+      </c>
+      <c r="I51" s="1">
+        <v>13.91924385349667</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K51" s="2">
+        <v>1082.4995944864361</v>
+      </c>
+      <c r="L51" s="2">
+        <v>26829.017981596971</v>
+      </c>
+      <c r="M51" s="2">
+        <v>257.46518387110541</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="5">
+        <v>45595.809027777781</v>
+      </c>
+      <c r="D52" s="5">
+        <v>45595.840277777781</v>
+      </c>
+      <c r="E52" s="2">
+        <v>2661</v>
+      </c>
+      <c r="F52" s="2">
+        <v>2649.8470452248521</v>
+      </c>
+      <c r="G52" s="2">
+        <v>2694.4588643254451</v>
+      </c>
+      <c r="H52" s="2">
+        <v>2649.8470452248521</v>
+      </c>
+      <c r="I52" s="1">
+        <v>24.055524766745101</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K52" s="2">
+        <v>-268.29017981596968</v>
+      </c>
+      <c r="L52" s="2">
+        <v>26560.727801780999</v>
+      </c>
+      <c r="M52" s="2">
+        <v>268.29017981596968</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="5">
+        <v>45595.899305555547</v>
+      </c>
+      <c r="D53" s="5">
+        <v>45596.545138888891</v>
+      </c>
+      <c r="E53" s="2">
+        <v>2650.55</v>
+      </c>
+      <c r="F53" s="2">
+        <v>2634.871530526922</v>
+      </c>
+      <c r="G53" s="2">
+        <v>2697.5854084192329</v>
+      </c>
+      <c r="H53" s="2">
+        <v>2634.871530526922</v>
+      </c>
+      <c r="I53" s="1">
+        <v>16.940893272388461</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K53" s="2">
+        <v>-265.60727801781002</v>
+      </c>
+      <c r="L53" s="2">
+        <v>26295.120523763191</v>
+      </c>
+      <c r="M53" s="2">
+        <v>265.60727801781002</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="5">
+        <v>45597.854166666657</v>
+      </c>
+      <c r="D54" s="5">
+        <v>45597.899305555547</v>
+      </c>
+      <c r="E54" s="2">
+        <v>2523.4</v>
+      </c>
+      <c r="F54" s="2">
+        <v>2535.2534122852489</v>
+      </c>
+      <c r="G54" s="2">
+        <v>2487.8397631442522</v>
+      </c>
+      <c r="H54" s="2">
+        <v>2485.0500000000002</v>
+      </c>
+      <c r="I54" s="1">
+        <v>22.183587216050451</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K54" s="2">
+        <v>850.74056973553274</v>
+      </c>
+      <c r="L54" s="2">
+        <v>27145.861093498719</v>
+      </c>
+      <c r="M54" s="2">
+        <v>262.95120523763188</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="5">
+        <v>45598.701388888891</v>
+      </c>
+      <c r="D55" s="5">
+        <v>45599.541666666657</v>
+      </c>
+      <c r="E55" s="2">
+        <v>2495.64</v>
+      </c>
+      <c r="F55" s="2">
+        <v>2503.7964604473409</v>
+      </c>
+      <c r="G55" s="2">
+        <v>2471.1706186579768</v>
+      </c>
+      <c r="H55" s="2">
+        <v>2454.6999999999998</v>
+      </c>
+      <c r="I55" s="1">
+        <v>33.281423074083733</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K55" s="2">
+        <v>1362.5414606529901</v>
+      </c>
+      <c r="L55" s="2">
+        <v>28508.402554151711</v>
+      </c>
+      <c r="M55" s="2">
+        <v>271.45861093498718</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="5">
+        <v>45599.666666666657</v>
+      </c>
+      <c r="D56" s="5">
+        <v>45599.854166666657</v>
+      </c>
+      <c r="E56" s="2">
+        <v>2444.19</v>
+      </c>
+      <c r="F56" s="2">
+        <v>2460.4660322513591</v>
+      </c>
+      <c r="G56" s="2">
+        <v>2395.3619032459219</v>
+      </c>
+      <c r="H56" s="2">
+        <v>2460.4660322513591</v>
+      </c>
+      <c r="I56" s="1">
+        <v>17.515572661617941</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K56" s="2">
+        <v>-285.08402554151712</v>
+      </c>
+      <c r="L56" s="2">
+        <v>28223.318528610191</v>
+      </c>
+      <c r="M56" s="2">
+        <v>285.08402554151712</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="5">
+        <v>45601.690972222219</v>
+      </c>
+      <c r="D57" s="5">
+        <v>45601.829861111109</v>
+      </c>
+      <c r="E57" s="2">
+        <v>2462.42</v>
+      </c>
+      <c r="F57" s="2">
+        <v>2480.3514599723699</v>
+      </c>
+      <c r="G57" s="2">
+        <v>2408.6256200828889</v>
+      </c>
+      <c r="H57" s="2">
+        <v>2401.3000000000002</v>
+      </c>
+      <c r="I57" s="1">
+        <v>15.73955415348119</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K57" s="2">
+        <v>962.00154986076871</v>
+      </c>
+      <c r="L57" s="2">
+        <v>29185.320078470959</v>
+      </c>
+      <c r="M57" s="2">
+        <v>282.2331852861019</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="5">
+        <v>45603.614583333343</v>
+      </c>
+      <c r="D58" s="5">
+        <v>45603.659722222219</v>
+      </c>
+      <c r="E58" s="2">
+        <v>2783.99</v>
+      </c>
+      <c r="F58" s="2">
+        <v>2764.6637380128059</v>
+      </c>
+      <c r="G58" s="2">
+        <v>2841.968785961581</v>
+      </c>
+      <c r="H58" s="2">
+        <v>2844.31</v>
+      </c>
+      <c r="I58" s="1">
+        <v>15.10137868244254</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K58" s="2">
+        <v>910.9151621249365</v>
+      </c>
+      <c r="L58" s="2">
+        <v>30096.235240595899</v>
+      </c>
+      <c r="M58" s="2">
+        <v>291.8532007847096</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="5">
+        <v>45604.628472222219</v>
+      </c>
+      <c r="D59" s="5">
+        <v>45604.822916666657</v>
+      </c>
+      <c r="E59" s="2">
+        <v>2909.81</v>
+      </c>
+      <c r="F59" s="2">
+        <v>2888.827016259183</v>
+      </c>
+      <c r="G59" s="2">
+        <v>2972.7589512224522</v>
+      </c>
+      <c r="H59" s="2">
+        <v>2981.69</v>
+      </c>
+      <c r="I59" s="1">
+        <v>14.34316282772064</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K59" s="2">
+        <v>1030.9865440565609</v>
+      </c>
+      <c r="L59" s="2">
+        <v>31127.221784652462</v>
+      </c>
+      <c r="M59" s="2">
+        <v>300.96235240595888</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="5">
+        <v>45604.864583333343</v>
+      </c>
+      <c r="D60" s="5">
+        <v>45605.541666666657</v>
+      </c>
+      <c r="E60" s="2">
+        <v>2928.53</v>
+      </c>
+      <c r="F60" s="2">
+        <v>2908.679490966188</v>
+      </c>
+      <c r="G60" s="2">
+        <v>2988.0815271014371</v>
+      </c>
+      <c r="H60" s="2">
+        <v>3037.51</v>
+      </c>
+      <c r="I60" s="1">
+        <v>15.680817923425661</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K60" s="2">
+        <v>1708.8955372949281</v>
+      </c>
+      <c r="L60" s="2">
+        <v>32836.117321947393</v>
+      </c>
+      <c r="M60" s="2">
+        <v>311.2722178465246</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="5">
+        <v>45605.614583333343</v>
+      </c>
+      <c r="D61" s="5">
+        <v>45605.677083333343</v>
+      </c>
+      <c r="E61" s="2">
+        <v>3031</v>
+      </c>
+      <c r="F61" s="2">
+        <v>3020.3533282426129</v>
+      </c>
+      <c r="G61" s="2">
+        <v>3062.940015272161</v>
+      </c>
+      <c r="H61" s="2">
+        <v>3020.3533282426129</v>
+      </c>
+      <c r="I61" s="1">
+        <v>30.84167340762076</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K61" s="2">
+        <v>-328.36117321947393</v>
+      </c>
+      <c r="L61" s="2">
+        <v>32507.756148727909</v>
+      </c>
+      <c r="M61" s="2">
+        <v>328.36117321947393</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="5">
+        <v>45608.677083333343</v>
+      </c>
+      <c r="D62" s="5">
+        <v>45609.541666666657</v>
+      </c>
+      <c r="E62" s="2">
+        <v>3228.47</v>
+      </c>
+      <c r="F62" s="2">
+        <v>3190.9440543854762</v>
+      </c>
+      <c r="G62" s="2">
+        <v>3341.047836843572</v>
+      </c>
+      <c r="H62" s="2">
+        <v>3190.9440543854762</v>
+      </c>
+      <c r="I62" s="1">
+        <v>8.6627413690399031</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K62" s="2">
+        <v>-325.07756148727913</v>
+      </c>
+      <c r="L62" s="2">
+        <v>32182.678587240629</v>
+      </c>
+      <c r="M62" s="2">
+        <v>325.07756148727913</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="5">
+        <v>45612.84375</v>
+      </c>
+      <c r="D63" s="5">
+        <v>45612.850694444453</v>
+      </c>
+      <c r="E63" s="2">
+        <v>3160.48</v>
+      </c>
+      <c r="F63" s="2">
+        <v>3148.2774552240789</v>
+      </c>
+      <c r="G63" s="2">
+        <v>3197.087634327761</v>
+      </c>
+      <c r="H63" s="2">
+        <v>3148.2774552240789</v>
+      </c>
+      <c r="I63" s="1">
+        <v>26.373743492215649</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K63" s="2">
+        <v>-321.82678587240628</v>
+      </c>
+      <c r="L63" s="2">
+        <v>31860.85180136823</v>
+      </c>
+      <c r="M63" s="2">
+        <v>321.82678587240628</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="5">
+        <v>45617.645833333343</v>
+      </c>
+      <c r="D64" s="5">
+        <v>45617.788194444453</v>
+      </c>
+      <c r="E64" s="2">
+        <v>3246.59</v>
+      </c>
+      <c r="F64" s="2">
+        <v>3201.6535579713409</v>
+      </c>
+      <c r="G64" s="2">
+        <v>3381.399326085977</v>
+      </c>
+      <c r="H64" s="2">
+        <v>3383.58</v>
+      </c>
+      <c r="I64" s="1">
+        <v>7.0902034880840263</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K64" s="2">
+        <v>971.2869758326292</v>
+      </c>
+      <c r="L64" s="2">
+        <v>32832.138777200853</v>
+      </c>
+      <c r="M64" s="2">
+        <v>318.60851801368233</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="5">
+        <v>45618.770833333343</v>
+      </c>
+      <c r="D65" s="5">
+        <v>45618.802083333343</v>
+      </c>
+      <c r="E65" s="2">
+        <v>3287.07</v>
+      </c>
+      <c r="F65" s="2">
+        <v>3266.3943300801789</v>
+      </c>
+      <c r="G65" s="2">
+        <v>3349.0970097594632</v>
+      </c>
+      <c r="H65" s="2">
+        <v>3266.3943300801789</v>
+      </c>
+      <c r="I65" s="1">
+        <v>15.87960095345019</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K65" s="2">
+        <v>-328.32138777200862</v>
+      </c>
+      <c r="L65" s="2">
+        <v>32503.817389428841</v>
+      </c>
+      <c r="M65" s="2">
+        <v>328.32138777200862</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="5">
+        <v>45619.826388888891</v>
+      </c>
+      <c r="D66" s="5">
+        <v>45619.850694444453</v>
+      </c>
+      <c r="E66" s="2">
+        <v>3405.4</v>
+      </c>
+      <c r="F66" s="2">
+        <v>3385.17720624711</v>
+      </c>
+      <c r="G66" s="2">
+        <v>3466.0683812586708</v>
+      </c>
+      <c r="H66" s="2">
+        <v>3385.17720624711</v>
+      </c>
+      <c r="I66" s="1">
+        <v>16.072862032122991</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K66" s="2">
+        <v>-325.03817389428838</v>
+      </c>
+      <c r="L66" s="2">
+        <v>32178.77921553456</v>
+      </c>
+      <c r="M66" s="2">
+        <v>325.03817389428838</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="5">
+        <v>45621.618055555547</v>
+      </c>
+      <c r="D67" s="5">
+        <v>45621.631944444453</v>
+      </c>
+      <c r="E67" s="2">
+        <v>3430.48</v>
+      </c>
+      <c r="F67" s="2">
+        <v>3387.027544291549</v>
+      </c>
+      <c r="G67" s="2">
+        <v>3560.837367125353</v>
+      </c>
+      <c r="H67" s="2">
+        <v>3387.027544291549</v>
+      </c>
+      <c r="I67" s="1">
+        <v>7.4055145309718728</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K67" s="2">
+        <v>-321.78779215534558</v>
+      </c>
+      <c r="L67" s="2">
+        <v>31856.991423379211</v>
+      </c>
+      <c r="M67" s="2">
+        <v>321.78779215534558</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="5">
+        <v>45621.90625</v>
+      </c>
+      <c r="D68" s="5">
+        <v>45622.541666666657</v>
+      </c>
+      <c r="E68" s="2">
+        <v>3427.92</v>
+      </c>
+      <c r="F68" s="2">
+        <v>3394.2943605595451</v>
+      </c>
+      <c r="G68" s="2">
+        <v>3528.7969183213659</v>
+      </c>
+      <c r="H68" s="2">
+        <v>3394.2943605595451</v>
+      </c>
+      <c r="I68" s="1">
+        <v>9.4740180271640213</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K68" s="2">
+        <v>-318.56991423379208</v>
+      </c>
+      <c r="L68" s="2">
+        <v>31538.421509145421</v>
+      </c>
+      <c r="M68" s="2">
+        <v>318.56991423379208</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="5">
+        <v>45624.579861111109</v>
+      </c>
+      <c r="D69" s="5">
+        <v>45624.597222222219</v>
+      </c>
+      <c r="E69" s="2">
+        <v>3588.12</v>
+      </c>
+      <c r="F69" s="2">
+        <v>3563.5749370380449</v>
+      </c>
+      <c r="G69" s="2">
+        <v>3661.7551888858638</v>
+      </c>
+      <c r="H69" s="2">
+        <v>3563.5749370380449</v>
+      </c>
+      <c r="I69" s="1">
+        <v>12.84919152907891</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K69" s="2">
+        <v>-315.38421509145422</v>
+      </c>
+      <c r="L69" s="2">
+        <v>31223.037294053971</v>
+      </c>
+      <c r="M69" s="2">
+        <v>315.38421509145422</v>
+      </c>
+      <c r="N69" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="5">
+        <v>45624.600694444453</v>
+      </c>
+      <c r="D70" s="5">
+        <v>45625.631944444453</v>
+      </c>
+      <c r="E70" s="2">
+        <v>3557.82</v>
+      </c>
+      <c r="F70" s="2">
+        <v>3528.9547454225162</v>
+      </c>
+      <c r="G70" s="2">
+        <v>3644.415763732452</v>
+      </c>
+      <c r="H70" s="2">
+        <v>3647.98</v>
+      </c>
+      <c r="I70" s="1">
+        <v>10.816823808098061</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K70" s="2">
+        <v>975.24483453811922</v>
+      </c>
+      <c r="L70" s="2">
+        <v>32198.282128592091</v>
+      </c>
+      <c r="M70" s="2">
+        <v>312.23037294053972</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="5">
+        <v>45625.680555555547</v>
+      </c>
+      <c r="D71" s="5">
+        <v>45625.791666666657</v>
+      </c>
+      <c r="E71" s="2">
+        <v>3592.75</v>
+      </c>
+      <c r="F71" s="2">
+        <v>3568.7263952057051</v>
+      </c>
+      <c r="G71" s="2">
+        <v>3664.820814382887</v>
+      </c>
+      <c r="H71" s="2">
+        <v>3568.7263952057051</v>
+      </c>
+      <c r="I71" s="1">
+        <v>13.402768820205489</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K71" s="2">
+        <v>-321.98282128592092</v>
+      </c>
+      <c r="L71" s="2">
+        <v>31876.29930730617</v>
+      </c>
+      <c r="M71" s="2">
+        <v>321.98282128592092</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="5">
+        <v>45627.8125</v>
+      </c>
+      <c r="D72" s="5">
+        <v>45627.836805555547</v>
+      </c>
+      <c r="E72" s="2">
+        <v>3705.91</v>
+      </c>
+      <c r="F72" s="2">
+        <v>3692.7159793232649</v>
+      </c>
+      <c r="G72" s="2">
+        <v>3745.4920620302041</v>
+      </c>
+      <c r="H72" s="2">
+        <v>3692.7159793232649</v>
+      </c>
+      <c r="I72" s="1">
+        <v>24.159655413845019</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K72" s="2">
+        <v>-318.76299307306169</v>
+      </c>
+      <c r="L72" s="2">
+        <v>31557.536314233101</v>
+      </c>
+      <c r="M72" s="2">
+        <v>318.76299307306169</v>
+      </c>
+      <c r="N72" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="5">
+        <v>45627.840277777781</v>
+      </c>
+      <c r="D73" s="5">
+        <v>45628.541666666657</v>
+      </c>
+      <c r="E73" s="2">
+        <v>3692.39</v>
+      </c>
+      <c r="F73" s="2">
+        <v>3677.4655321194618</v>
+      </c>
+      <c r="G73" s="2">
+        <v>3737.163403641614</v>
+      </c>
+      <c r="H73" s="2">
+        <v>3677.4655321194618</v>
+      </c>
+      <c r="I73" s="1">
+        <v>21.1448318069585</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K73" s="2">
+        <v>-315.57536314233113</v>
+      </c>
+      <c r="L73" s="2">
+        <v>31241.960951090769</v>
+      </c>
+      <c r="M73" s="2">
+        <v>315.57536314233113</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="5">
+        <v>45631.791666666657</v>
+      </c>
+      <c r="D74" s="5">
+        <v>45631.819444444453</v>
+      </c>
+      <c r="E74" s="2">
+        <v>3871.22</v>
+      </c>
+      <c r="F74" s="2">
+        <v>3846.3744997022391</v>
+      </c>
+      <c r="G74" s="2">
+        <v>3945.756500893282</v>
+      </c>
+      <c r="H74" s="2">
+        <v>3846.3744997022391</v>
+      </c>
+      <c r="I74" s="1">
+        <v>12.57449460734205</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K74" s="2">
+        <v>-312.41960951090772</v>
+      </c>
+      <c r="L74" s="2">
+        <v>30929.541341579861</v>
+      </c>
+      <c r="M74" s="2">
+        <v>312.41960951090772</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="5">
+        <v>45631.822916666657</v>
+      </c>
+      <c r="D75" s="5">
+        <v>45631.833333333343</v>
+      </c>
+      <c r="E75" s="2">
+        <v>3843</v>
+      </c>
+      <c r="F75" s="2">
+        <v>3813.1560626612591</v>
+      </c>
+      <c r="G75" s="2">
+        <v>3932.5318120162242</v>
+      </c>
+      <c r="H75" s="2">
+        <v>3813.1560626612591</v>
+      </c>
+      <c r="I75" s="1">
+        <v>10.363760314370181</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K75" s="2">
+        <v>-309.29541341579858</v>
+      </c>
+      <c r="L75" s="2">
+        <v>30620.245928164069</v>
+      </c>
+      <c r="M75" s="2">
+        <v>309.29541341579858</v>
+      </c>
+      <c r="N75" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="5">
+        <v>45631.850694444453</v>
+      </c>
+      <c r="D76" s="5">
+        <v>45632.600694444453</v>
+      </c>
+      <c r="E76" s="2">
+        <v>3806</v>
+      </c>
+      <c r="F76" s="2">
+        <v>3770.9772678929999</v>
+      </c>
+      <c r="G76" s="2">
+        <v>3911.068196320999</v>
+      </c>
+      <c r="H76" s="2">
+        <v>3918.01</v>
+      </c>
+      <c r="I76" s="1">
+        <v>8.7429632373095956</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K76" s="2">
+        <v>979.29931221104971</v>
+      </c>
+      <c r="L76" s="2">
+        <v>31599.545240375119</v>
+      </c>
+      <c r="M76" s="2">
+        <v>306.20245928164059</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="5">
+        <v>45632.913194444453</v>
+      </c>
+      <c r="D77" s="5">
+        <v>45633.541666666657</v>
+      </c>
+      <c r="E77" s="2">
+        <v>4022.8</v>
+      </c>
+      <c r="F77" s="2">
+        <v>4001.8954713735998</v>
+      </c>
+      <c r="G77" s="2">
+        <v>4085.5135858792</v>
+      </c>
+      <c r="H77" s="2">
+        <v>4001.8954713735998</v>
+      </c>
+      <c r="I77" s="1">
+        <v>15.11612426432262</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K77" s="2">
+        <v>-315.99545240375107</v>
+      </c>
+      <c r="L77" s="2">
+        <v>31283.549787971369</v>
+      </c>
+      <c r="M77" s="2">
+        <v>315.99545240375107</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="5">
+        <v>45633.586805555547</v>
+      </c>
+      <c r="D78" s="5">
+        <v>45633.78125</v>
+      </c>
+      <c r="E78" s="2">
+        <v>3983.01</v>
+      </c>
+      <c r="F78" s="2">
+        <v>3972.704261256134</v>
+      </c>
+      <c r="G78" s="2">
+        <v>4013.9272162316001</v>
+      </c>
+      <c r="H78" s="2">
+        <v>4014.55</v>
+      </c>
+      <c r="I78" s="1">
+        <v>30.355465595893811</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K78" s="2">
+        <v>957.41138489448963</v>
+      </c>
+      <c r="L78" s="2">
+        <v>32240.96117286586</v>
+      </c>
+      <c r="M78" s="2">
+        <v>312.83549787971373</v>
+      </c>
+      <c r="N78" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="5">
+        <v>45633.899305555547</v>
+      </c>
+      <c r="D79" s="5">
+        <v>45634.541666666657</v>
+      </c>
+      <c r="E79" s="2">
+        <v>4001.62</v>
+      </c>
+      <c r="F79" s="2">
+        <v>3990.3008372728541</v>
+      </c>
+      <c r="G79" s="2">
+        <v>4035.5774881814382</v>
+      </c>
+      <c r="H79" s="2">
+        <v>3990.3008372728541</v>
+      </c>
+      <c r="I79" s="1">
+        <v>28.483521219766349</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K79" s="2">
+        <v>-322.40961172865849</v>
+      </c>
+      <c r="L79" s="2">
+        <v>31918.551561137199</v>
+      </c>
+      <c r="M79" s="2">
+        <v>322.40961172865849</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="5">
+        <v>45634.625</v>
+      </c>
+      <c r="D80" s="5">
+        <v>45634.628472222219</v>
+      </c>
+      <c r="E80" s="2">
+        <v>3972.57</v>
+      </c>
+      <c r="F80" s="2">
+        <v>3960.6258573891791</v>
+      </c>
+      <c r="G80" s="2">
+        <v>4008.4024278324632</v>
+      </c>
+      <c r="H80" s="2">
+        <v>3960.6258573891791</v>
+      </c>
+      <c r="I80" s="1">
+        <v>26.723183573025992</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K80" s="2">
+        <v>-319.18551561137201</v>
+      </c>
+      <c r="L80" s="2">
+        <v>31599.366045525829</v>
+      </c>
+      <c r="M80" s="2">
+        <v>319.18551561137201</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="5">
+        <v>45634.767361111109</v>
+      </c>
+      <c r="D81" s="5">
+        <v>45635.541666666657</v>
+      </c>
+      <c r="E81" s="2">
+        <v>3969.99</v>
+      </c>
+      <c r="F81" s="2">
+        <v>3956.0986029435799</v>
+      </c>
+      <c r="G81" s="2">
+        <v>4011.6641911692591</v>
+      </c>
+      <c r="H81" s="2">
+        <v>3956.0986029435799</v>
+      </c>
+      <c r="I81" s="1">
+        <v>22.747435637456029</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K81" s="2">
+        <v>-315.99366045525829</v>
+      </c>
+      <c r="L81" s="2">
+        <v>31283.372385070568</v>
+      </c>
+      <c r="M81" s="2">
+        <v>315.99366045525829</v>
+      </c>
+      <c r="N81" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" s="5">
+        <v>45636.805555555547</v>
+      </c>
+      <c r="D82" s="5">
+        <v>45636.847222222219</v>
+      </c>
+      <c r="E82" s="2">
+        <v>3614.6</v>
+      </c>
+      <c r="F82" s="2">
+        <v>3652.669154596193</v>
+      </c>
+      <c r="G82" s="2">
+        <v>3500.3925362114219</v>
+      </c>
+      <c r="H82" s="2">
+        <v>3652.669154596193</v>
+      </c>
+      <c r="I82" s="1">
+        <v>8.2175117143786647</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K82" s="2">
+        <v>-312.83372385070572</v>
+      </c>
+      <c r="L82" s="2">
+        <v>30970.538661219871</v>
+      </c>
+      <c r="M82" s="2">
+        <v>312.83372385070572</v>
+      </c>
+      <c r="N82" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" s="5">
+        <v>45636.854166666657</v>
+      </c>
+      <c r="D83" s="5">
+        <v>45637.541666666657</v>
+      </c>
+      <c r="E83" s="2">
+        <v>3651.02</v>
+      </c>
+      <c r="F83" s="2">
+        <v>3681.4981773425702</v>
+      </c>
+      <c r="G83" s="2">
+        <v>3559.5854679722888</v>
+      </c>
+      <c r="H83" s="2">
+        <v>3681.4981773425702</v>
+      </c>
+      <c r="I83" s="1">
+        <v>10.16154552587432</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K83" s="2">
+        <v>-309.70538661219871</v>
+      </c>
+      <c r="L83" s="2">
+        <v>30660.83327460767</v>
+      </c>
+      <c r="M83" s="2">
+        <v>309.70538661219871</v>
+      </c>
+      <c r="N83" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" s="5">
+        <v>45638.690972222219</v>
+      </c>
+      <c r="D84" s="5">
+        <v>45638.805555555547</v>
+      </c>
+      <c r="E84" s="2">
+        <v>3937.79</v>
+      </c>
+      <c r="F84" s="2">
+        <v>3905.455732878509</v>
+      </c>
+      <c r="G84" s="2">
+        <v>4034.7928013644751</v>
+      </c>
+      <c r="H84" s="2">
+        <v>3905.455732878509</v>
+      </c>
+      <c r="I84" s="1">
+        <v>9.4824580867733808</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K84" s="2">
+        <v>-306.60833274607671</v>
+      </c>
+      <c r="L84" s="2">
+        <v>30354.22494186159</v>
+      </c>
+      <c r="M84" s="2">
+        <v>306.60833274607671</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" s="5">
+        <v>45638.815972222219</v>
+      </c>
+      <c r="D85" s="5">
+        <v>45639.621527777781</v>
+      </c>
+      <c r="E85" s="2">
+        <v>3865.12</v>
+      </c>
+      <c r="F85" s="2">
+        <v>3837.4862279699282</v>
+      </c>
+      <c r="G85" s="2">
+        <v>3948.0213160902149</v>
+      </c>
+      <c r="H85" s="2">
+        <v>3951.4</v>
+      </c>
+      <c r="I85" s="1">
+        <v>10.984466727462859</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K85" s="2">
+        <v>947.73978924549738</v>
+      </c>
+      <c r="L85" s="2">
+        <v>31301.964731107091</v>
+      </c>
+      <c r="M85" s="2">
+        <v>303.54224941861588</v>
+      </c>
+      <c r="N85" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="5">
+        <v>45639.659722222219</v>
+      </c>
+      <c r="D86" s="5">
+        <v>45640.552083333343</v>
+      </c>
+      <c r="E86" s="2">
+        <v>3892.99</v>
+      </c>
+      <c r="F86" s="2">
+        <v>3863.597315349793</v>
+      </c>
+      <c r="G86" s="2">
+        <v>3981.1680539506201</v>
+      </c>
+      <c r="H86" s="2">
+        <v>3863.597315349793</v>
+      </c>
+      <c r="I86" s="1">
+        <v>10.649576622082011</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K86" s="2">
+        <v>-313.01964731107091</v>
+      </c>
+      <c r="L86" s="2">
+        <v>30988.945083796021</v>
+      </c>
+      <c r="M86" s="2">
+        <v>313.01964731107091</v>
+      </c>
+      <c r="N86" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" s="5">
+        <v>45640.555555555547</v>
+      </c>
+      <c r="D87" s="5">
+        <v>45640.770833333343</v>
+      </c>
+      <c r="E87" s="2">
+        <v>3855.1</v>
+      </c>
+      <c r="F87" s="2">
+        <v>3839.186976101149</v>
+      </c>
+      <c r="G87" s="2">
+        <v>3902.8390716965541</v>
+      </c>
+      <c r="H87" s="2">
+        <v>3839.186976101149</v>
+      </c>
+      <c r="I87" s="1">
+        <v>19.473951199201551</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K87" s="2">
+        <v>-309.88945083796023</v>
+      </c>
+      <c r="L87" s="2">
+        <v>30679.055632958061</v>
+      </c>
+      <c r="M87" s="2">
+        <v>309.88945083796023</v>
+      </c>
+      <c r="N87" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="5">
+        <v>45641.871527777781</v>
+      </c>
+      <c r="D88" s="5">
+        <v>45641.875</v>
+      </c>
+      <c r="E88" s="2">
+        <v>3892</v>
+      </c>
+      <c r="F88" s="2">
+        <v>3882.2213950233208</v>
+      </c>
+      <c r="G88" s="2">
+        <v>3921.3358149300361</v>
+      </c>
+      <c r="H88" s="2">
+        <v>3882.2213950233208</v>
+      </c>
+      <c r="I88" s="1">
+        <v>31.373652689852459</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K88" s="2">
+        <v>-306.79055632958062</v>
+      </c>
+      <c r="L88" s="2">
+        <v>30372.265076628479</v>
+      </c>
+      <c r="M88" s="2">
+        <v>306.79055632958062</v>
+      </c>
+      <c r="N88" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" s="5">
+        <v>45641.878472222219</v>
+      </c>
+      <c r="D89" s="5">
+        <v>45641.885416666657</v>
+      </c>
+      <c r="E89" s="2">
+        <v>3881</v>
+      </c>
+      <c r="F89" s="2">
+        <v>3868.9768150966388</v>
+      </c>
+      <c r="G89" s="2">
+        <v>3917.0695547100818</v>
+      </c>
+      <c r="H89" s="2">
+        <v>3868.9768150966388</v>
+      </c>
+      <c r="I89" s="1">
+        <v>25.261413943770229</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K89" s="2">
+        <v>-303.72265076628491</v>
+      </c>
+      <c r="L89" s="2">
+        <v>30068.542425862201</v>
+      </c>
+      <c r="M89" s="2">
+        <v>303.72265076628491</v>
+      </c>
+      <c r="N89" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" s="5">
+        <v>45641.888888888891</v>
+      </c>
+      <c r="D90" s="5">
+        <v>45642.545138888891</v>
+      </c>
+      <c r="E90" s="2">
+        <v>3858.01</v>
+      </c>
+      <c r="F90" s="2">
+        <v>3843.9024426994602</v>
+      </c>
+      <c r="G90" s="2">
+        <v>3900.3326719016218</v>
+      </c>
+      <c r="H90" s="2">
+        <v>3904.96</v>
+      </c>
+      <c r="I90" s="1">
+        <v>21.313783658855058</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K90" s="2">
+        <v>1000.682142783241</v>
+      </c>
+      <c r="L90" s="2">
+        <v>31069.224568645441</v>
+      </c>
+      <c r="M90" s="2">
+        <v>300.68542425862199</v>
+      </c>
+      <c r="N90" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" s="5">
+        <v>45643.642361111109</v>
+      </c>
+      <c r="D91" s="5">
+        <v>45644.541666666657</v>
+      </c>
+      <c r="E91" s="2">
+        <v>3933.96</v>
+      </c>
+      <c r="F91" s="2">
+        <v>3901.3438358389262</v>
+      </c>
+      <c r="G91" s="2">
+        <v>4031.8084924832219</v>
+      </c>
+      <c r="H91" s="2">
+        <v>3901.3438358389262</v>
+      </c>
+      <c r="I91" s="1">
+        <v>9.5257138194456896</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K91" s="2">
+        <v>-310.69224568645438</v>
+      </c>
+      <c r="L91" s="2">
+        <v>30758.532322958981</v>
+      </c>
+      <c r="M91" s="2">
+        <v>310.69224568645438</v>
+      </c>
+      <c r="N91" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" s="5">
+        <v>45646.576388888891</v>
+      </c>
+      <c r="D92" s="5">
+        <v>45646.611111111109</v>
+      </c>
+      <c r="E92" s="2">
+        <v>3300.54</v>
+      </c>
+      <c r="F92" s="2">
+        <v>3355.3572896437399</v>
+      </c>
+      <c r="G92" s="2">
+        <v>3136.0881310687778</v>
+      </c>
+      <c r="H92" s="2">
+        <v>3355.3572896437399</v>
+      </c>
+      <c r="I92" s="1">
+        <v>5.611100534677985</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K92" s="2">
+        <v>-307.58532322958979</v>
+      </c>
+      <c r="L92" s="2">
+        <v>30450.946999729389</v>
+      </c>
+      <c r="M92" s="2">
+        <v>307.58532322958979</v>
+      </c>
+      <c r="N92" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" s="5">
+        <v>45646.638888888891</v>
+      </c>
+      <c r="D93" s="5">
+        <v>45646.725694444453</v>
+      </c>
+      <c r="E93" s="2">
+        <v>3381.49</v>
+      </c>
+      <c r="F93" s="2">
+        <v>3429.6206563391329</v>
+      </c>
+      <c r="G93" s="2">
+        <v>3237.0980309825991</v>
+      </c>
+      <c r="H93" s="2">
+        <v>3429.6206563391329</v>
+      </c>
+      <c r="I93" s="1">
+        <v>6.3267258990130699</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K93" s="2">
+        <v>-304.50946999729388</v>
+      </c>
+      <c r="L93" s="2">
+        <v>30146.437529732098</v>
+      </c>
+      <c r="M93" s="2">
+        <v>304.50946999729388</v>
+      </c>
+      <c r="N93" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" s="5">
+        <v>45647.84375</v>
+      </c>
+      <c r="D94" s="5">
+        <v>45648.621527777781</v>
+      </c>
+      <c r="E94" s="2">
+        <v>3384.91</v>
+      </c>
+      <c r="F94" s="2">
+        <v>3415.753477819459</v>
+      </c>
+      <c r="G94" s="2">
+        <v>3292.3795665416242</v>
+      </c>
+      <c r="H94" s="2">
+        <v>3275</v>
+      </c>
+      <c r="I94" s="1">
+        <v>9.7740072329694101</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K94" s="2">
+        <v>1074.261134975666</v>
+      </c>
+      <c r="L94" s="2">
+        <v>31220.698664707761</v>
+      </c>
+      <c r="M94" s="2">
+        <v>301.464375297321</v>
+      </c>
+      <c r="N94" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" s="5">
+        <v>45648.881944444453</v>
+      </c>
+      <c r="D95" s="5">
+        <v>45649.541666666657</v>
+      </c>
+      <c r="E95" s="2">
+        <v>3299.28</v>
+      </c>
+      <c r="F95" s="2">
+        <v>3326.8719971516639</v>
+      </c>
+      <c r="G95" s="2">
+        <v>3216.5040085450091</v>
+      </c>
+      <c r="H95" s="2">
+        <v>3326.8719971516639</v>
+      </c>
+      <c r="I95" s="1">
+        <v>11.31512825733431</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K95" s="2">
+        <v>-312.20698664707771</v>
+      </c>
+      <c r="L95" s="2">
+        <v>30908.491678060691</v>
+      </c>
+      <c r="M95" s="2">
+        <v>312.20698664707771</v>
+      </c>
+      <c r="N95" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>94</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" s="5">
+        <v>45649.704861111109</v>
+      </c>
+      <c r="D96" s="5">
+        <v>45649.871527777781</v>
+      </c>
+      <c r="E96" s="2">
+        <v>3374.67</v>
+      </c>
+      <c r="F96" s="2">
+        <v>3413.438357274903</v>
+      </c>
+      <c r="G96" s="2">
+        <v>3258.364928175291</v>
+      </c>
+      <c r="H96" s="2">
+        <v>3413.438357274903</v>
+      </c>
+      <c r="I96" s="1">
+        <v>7.9726080367273227</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K96" s="2">
+        <v>-309.08491678060687</v>
+      </c>
+      <c r="L96" s="2">
+        <v>30599.406761280079</v>
+      </c>
+      <c r="M96" s="2">
+        <v>309.08491678060687</v>
+      </c>
+      <c r="N96" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>95</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" s="5">
+        <v>45653.75</v>
+      </c>
+      <c r="D97" s="5">
+        <v>45654.590277777781</v>
+      </c>
+      <c r="E97" s="2">
+        <v>3351.4</v>
+      </c>
+      <c r="F97" s="2">
+        <v>3373.1223219669641</v>
+      </c>
+      <c r="G97" s="2">
+        <v>3286.2330340991089</v>
+      </c>
+      <c r="H97" s="2">
+        <v>3373.1223219669641</v>
+      </c>
+      <c r="I97" s="1">
+        <v>14.08661873616329</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K97" s="2">
+        <v>-305.99406761280079</v>
+      </c>
+      <c r="L97" s="2">
+        <v>30293.41269366728</v>
+      </c>
+      <c r="M97" s="2">
+        <v>305.99406761280079</v>
+      </c>
+      <c r="N97" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>96</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" s="5">
+        <v>45654.71875</v>
+      </c>
+      <c r="D98" s="5">
+        <v>45654.722222222219</v>
+      </c>
+      <c r="E98" s="2">
+        <v>3397.79</v>
+      </c>
+      <c r="F98" s="2">
+        <v>3411.6033023017808</v>
+      </c>
+      <c r="G98" s="2">
+        <v>3356.3500930946561</v>
+      </c>
+      <c r="H98" s="2">
+        <v>3411.6033023017808</v>
+      </c>
+      <c r="I98" s="1">
+        <v>21.930608649432681</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K98" s="2">
+        <v>-302.93412693667278</v>
+      </c>
+      <c r="L98" s="2">
+        <v>29990.478566730599</v>
+      </c>
+      <c r="M98" s="2">
+        <v>302.93412693667278</v>
+      </c>
+      <c r="N98" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <v>97</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" s="5">
+        <v>45655.586805555547</v>
+      </c>
+      <c r="D99" s="5">
+        <v>45655.600694444453</v>
+      </c>
+      <c r="E99" s="2">
+        <v>3406.59</v>
+      </c>
+      <c r="F99" s="2">
+        <v>3415.4720500578878</v>
+      </c>
+      <c r="G99" s="2">
+        <v>3379.9438498263371</v>
+      </c>
+      <c r="H99" s="2">
+        <v>3379.23</v>
+      </c>
+      <c r="I99" s="1">
+        <v>33.765266319454753</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K99" s="2">
+        <v>923.81768650028619</v>
+      </c>
+      <c r="L99" s="2">
+        <v>30914.296253230888</v>
+      </c>
+      <c r="M99" s="2">
+        <v>299.90478566730599</v>
+      </c>
+      <c r="N99" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>98</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100" s="5">
+        <v>45656.732638888891</v>
+      </c>
+      <c r="D100" s="5">
+        <v>45656.739583333343</v>
+      </c>
+      <c r="E100" s="2">
+        <v>3381.86</v>
+      </c>
+      <c r="F100" s="2">
+        <v>3405.1600153868681</v>
+      </c>
+      <c r="G100" s="2">
+        <v>3311.9599538393968</v>
+      </c>
+      <c r="H100" s="2">
+        <v>3405.1600153868681</v>
+      </c>
+      <c r="I100" s="1">
+        <v>13.267929544224691</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K100" s="2">
+        <v>-309.1429625323089</v>
+      </c>
+      <c r="L100" s="2">
+        <v>30605.153290698581</v>
+      </c>
+      <c r="M100" s="2">
+        <v>309.1429625323089</v>
+      </c>
+      <c r="N100" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>99</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101" s="5">
+        <v>45656.767361111109</v>
+      </c>
+      <c r="D101" s="5">
+        <v>45656.902777777781</v>
+      </c>
+      <c r="E101" s="2">
+        <v>3396.4</v>
+      </c>
+      <c r="F101" s="2">
+        <v>3421.1021542556641</v>
+      </c>
+      <c r="G101" s="2">
+        <v>3322.293537233008</v>
+      </c>
+      <c r="H101" s="2">
+        <v>3308.87</v>
+      </c>
+      <c r="I101" s="1">
+        <v>12.38966973242062</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K101" s="2">
+        <v>1084.4677916787789</v>
+      </c>
+      <c r="L101" s="2">
+        <v>31689.621082377362</v>
+      </c>
+      <c r="M101" s="2">
+        <v>306.05153290698581</v>
+      </c>
+      <c r="N101" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>100</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C102" s="5">
+        <v>45658.777777777781</v>
+      </c>
+      <c r="D102" s="5">
+        <v>45658.822916666657</v>
+      </c>
+      <c r="E102" s="2">
+        <v>3348.34</v>
+      </c>
+      <c r="F102" s="2">
+        <v>3358.780692428692</v>
+      </c>
+      <c r="G102" s="2">
+        <v>3317.0179227139238</v>
+      </c>
+      <c r="H102" s="2">
+        <v>3358.780692428692</v>
+      </c>
+      <c r="I102" s="1">
+        <v>30.35203009648275</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K102" s="2">
+        <v>-316.89621082377357</v>
+      </c>
+      <c r="L102" s="2">
+        <v>31372.72487155359</v>
+      </c>
+      <c r="M102" s="2">
+        <v>316.89621082377357</v>
+      </c>
+      <c r="N102" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <v>101</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" s="5">
+        <v>45658.871527777781</v>
+      </c>
+      <c r="D103" s="5">
+        <v>45658.888888888891</v>
+      </c>
+      <c r="E103" s="2">
+        <v>3360.4</v>
+      </c>
+      <c r="F103" s="2">
+        <v>3370.592751213826</v>
+      </c>
+      <c r="G103" s="2">
+        <v>3329.8217463585238</v>
+      </c>
+      <c r="H103" s="2">
+        <v>3370.592751213826</v>
+      </c>
+      <c r="I103" s="1">
+        <v>30.779447288971081</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K103" s="2">
+        <v>-313.72724871553589</v>
+      </c>
+      <c r="L103" s="2">
+        <v>31058.997622838051</v>
+      </c>
+      <c r="M103" s="2">
+        <v>313.72724871553589</v>
+      </c>
+      <c r="N103" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <v>102</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" s="5">
+        <v>45659.732638888891</v>
+      </c>
+      <c r="D104" s="5">
+        <v>45660.59375</v>
+      </c>
+      <c r="E104" s="2">
+        <v>3442.93</v>
+      </c>
+      <c r="F104" s="2">
+        <v>3422.6574854327091</v>
+      </c>
+      <c r="G104" s="2">
+        <v>3503.747543701872</v>
+      </c>
+      <c r="H104" s="2">
+        <v>3507.01</v>
+      </c>
+      <c r="I104" s="1">
+        <v>15.32074253529017</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K104" s="2">
+        <v>981.75318166139971</v>
+      </c>
+      <c r="L104" s="2">
+        <v>32040.75080449945</v>
+      </c>
+      <c r="M104" s="2">
+        <v>310.58997622838058</v>
+      </c>
+      <c r="N104" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <v>103</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" s="5">
+        <v>45663.552083333343</v>
+      </c>
+      <c r="D105" s="5">
+        <v>45663.614583333343</v>
+      </c>
+      <c r="E105" s="2">
+        <v>3632.64</v>
+      </c>
+      <c r="F105" s="2">
+        <v>3620.8751939854969</v>
+      </c>
+      <c r="G105" s="2">
+        <v>3667.9344180435091</v>
+      </c>
+      <c r="H105" s="2">
+        <v>3679.03</v>
+      </c>
+      <c r="I105" s="1">
+        <v>27.234406385452989</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K105" s="2">
+        <v>1263.4041122211729</v>
+      </c>
+      <c r="L105" s="2">
+        <v>33304.154916720618</v>
+      </c>
+      <c r="M105" s="2">
+        <v>320.40750804499447</v>
+      </c>
+      <c r="N105" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
+        <v>104</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" s="5">
+        <v>45663.736111111109</v>
+      </c>
+      <c r="D106" s="5">
+        <v>45664.541666666657</v>
+      </c>
+      <c r="E106" s="2">
+        <v>3663.24</v>
+      </c>
+      <c r="F106" s="2">
+        <v>3637.618777807143</v>
+      </c>
+      <c r="G106" s="2">
+        <v>3740.10366657857</v>
+      </c>
+      <c r="H106" s="2">
+        <v>3637.618777807143</v>
+      </c>
+      <c r="I106" s="1">
+        <v>12.998659730606409</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K106" s="2">
+        <v>-333.04154916720631</v>
+      </c>
+      <c r="L106" s="2">
+        <v>32971.113367553422</v>
+      </c>
+      <c r="M106" s="2">
+        <v>333.04154916720631</v>
+      </c>
+      <c r="N106" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
+        <v>105</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" s="5">
+        <v>45665.767361111109</v>
+      </c>
+      <c r="D107" s="5">
+        <v>45666.579861111109</v>
+      </c>
+      <c r="E107" s="2">
+        <v>3325.72</v>
+      </c>
+      <c r="F107" s="2">
+        <v>3361.412198834495</v>
+      </c>
+      <c r="G107" s="2">
+        <v>3218.6434034965141</v>
+      </c>
+      <c r="H107" s="2">
+        <v>3213</v>
+      </c>
+      <c r="I107" s="1">
+        <v>9.2376245914241686</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K107" s="2">
+        <v>1041.26504394533</v>
+      </c>
+      <c r="L107" s="2">
+        <v>34012.37841149875</v>
+      </c>
+      <c r="M107" s="2">
+        <v>329.7111336755342</v>
+      </c>
+      <c r="N107" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
+        <v>106</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" s="5">
+        <v>45666.649305555547</v>
+      </c>
+      <c r="D108" s="5">
+        <v>45666.659722222219</v>
+      </c>
+      <c r="E108" s="2">
+        <v>3299.7</v>
+      </c>
+      <c r="F108" s="2">
+        <v>3327.5323299180859</v>
+      </c>
+      <c r="G108" s="2">
+        <v>3216.203010245742</v>
+      </c>
+      <c r="H108" s="2">
+        <v>3327.5323299180859</v>
+      </c>
+      <c r="I108" s="1">
+        <v>12.220456753567269</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K108" s="2">
+        <v>-340.12378411498747</v>
+      </c>
+      <c r="L108" s="2">
+        <v>33672.254627383772</v>
+      </c>
+      <c r="M108" s="2">
+        <v>340.12378411498747</v>
+      </c>
+      <c r="N108" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109" s="4">
+        <v>107</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" s="5">
+        <v>45666.663194444453</v>
+      </c>
+      <c r="D109" s="5">
+        <v>45666.815972222219</v>
+      </c>
+      <c r="E109" s="2">
+        <v>3320.58</v>
+      </c>
+      <c r="F109" s="2">
+        <v>3349.0414195853409</v>
+      </c>
+      <c r="G109" s="2">
+        <v>3235.195741243977</v>
+      </c>
+      <c r="H109" s="2">
+        <v>3234.8</v>
+      </c>
+      <c r="I109" s="1">
+        <v>11.83084158062397</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K109" s="2">
+        <v>1014.849590785921</v>
+      </c>
+      <c r="L109" s="2">
+        <v>34687.104218169683</v>
+      </c>
+      <c r="M109" s="2">
+        <v>336.72254627383768</v>
+      </c>
+      <c r="N109" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
+        <v>108</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" s="5">
+        <v>45667.725694444453</v>
+      </c>
+      <c r="D110" s="5">
+        <v>45667.746527777781</v>
+      </c>
+      <c r="E110" s="2">
+        <v>3281.12</v>
+      </c>
+      <c r="F110" s="2">
+        <v>3308.1294196438398</v>
+      </c>
+      <c r="G110" s="2">
+        <v>3200.0917410684801</v>
+      </c>
+      <c r="H110" s="2">
+        <v>3308.1294196438398</v>
+      </c>
+      <c r="I110" s="1">
+        <v>12.84259516700901</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K110" s="2">
+        <v>-346.87104218169691</v>
+      </c>
+      <c r="L110" s="2">
+        <v>34340.233175987989</v>
+      </c>
+      <c r="M110" s="2">
+        <v>346.87104218169691</v>
+      </c>
+      <c r="N110" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
+        <v>109</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" s="5">
+        <v>45668.628472222219</v>
+      </c>
+      <c r="D111" s="5">
+        <v>45668.854166666657</v>
+      </c>
+      <c r="E111" s="2">
+        <v>3280.32</v>
+      </c>
+      <c r="F111" s="2">
+        <v>3290.592741399591</v>
+      </c>
+      <c r="G111" s="2">
+        <v>3249.5017758012259</v>
+      </c>
+      <c r="H111" s="2">
+        <v>3290.592741399591</v>
+      </c>
+      <c r="I111" s="1">
+        <v>33.428499599293247</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K111" s="2">
+        <v>-343.40233175987993</v>
+      </c>
+      <c r="L111" s="2">
+        <v>33996.830844228112</v>
+      </c>
+      <c r="M111" s="2">
+        <v>343.40233175987993</v>
+      </c>
+      <c r="N111" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
+        <v>110</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" s="5">
+        <v>45668.857638888891</v>
+      </c>
+      <c r="D112" s="5">
+        <v>45668.868055555547</v>
+      </c>
+      <c r="E112" s="2">
+        <v>3289.89</v>
+      </c>
+      <c r="F112" s="2">
+        <v>3299.8696742147599</v>
+      </c>
+      <c r="G112" s="2">
+        <v>3259.9509773557188</v>
+      </c>
+      <c r="H112" s="2">
+        <v>3299.8696742147599</v>
+      </c>
+      <c r="I112" s="1">
+        <v>34.066072812221527</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K112" s="2">
+        <v>-339.96830844228111</v>
+      </c>
+      <c r="L112" s="2">
+        <v>33656.862535785833</v>
+      </c>
+      <c r="M112" s="2">
+        <v>339.96830844228111</v>
+      </c>
+      <c r="N112" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
+        <v>111</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" s="5">
+        <v>45668.871527777781</v>
+      </c>
+      <c r="D113" s="5">
+        <v>45668.878472222219</v>
+      </c>
+      <c r="E113" s="2">
+        <v>3299.54</v>
+      </c>
+      <c r="F113" s="2">
+        <v>3309.536178551848</v>
+      </c>
+      <c r="G113" s="2">
+        <v>3269.5514643444581</v>
+      </c>
+      <c r="H113" s="2">
+        <v>3309.536178551848</v>
+      </c>
+      <c r="I113" s="1">
+        <v>33.669729248248572</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K113" s="2">
+        <v>-336.56862535785831</v>
+      </c>
+      <c r="L113" s="2">
+        <v>33320.293910427972</v>
+      </c>
+      <c r="M113" s="2">
+        <v>336.56862535785831</v>
+      </c>
+      <c r="N113" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
+        <v>112</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" s="5">
+        <v>45669.579861111109</v>
+      </c>
+      <c r="D114" s="5">
+        <v>45669.586805555547</v>
+      </c>
+      <c r="E114" s="2">
+        <v>3267.09</v>
+      </c>
+      <c r="F114" s="2">
+        <v>3276.476283723372</v>
+      </c>
+      <c r="G114" s="2">
+        <v>3238.931148829884</v>
+      </c>
+      <c r="H114" s="2">
+        <v>3276.476283723372</v>
+      </c>
+      <c r="I114" s="1">
+        <v>35.498920437977681</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K114" s="2">
+        <v>-333.20293910427972</v>
+      </c>
+      <c r="L114" s="2">
+        <v>32987.090971323691</v>
+      </c>
+      <c r="M114" s="2">
+        <v>333.20293910427972</v>
+      </c>
+      <c r="N114" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A115" s="4">
+        <v>113</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115" s="5">
+        <v>45669.590277777781</v>
+      </c>
+      <c r="D115" s="5">
+        <v>45669.635416666657</v>
+      </c>
+      <c r="E115" s="2">
+        <v>3273.93</v>
+      </c>
+      <c r="F115" s="2">
+        <v>3284.116066086096</v>
+      </c>
+      <c r="G115" s="2">
+        <v>3243.37180174171</v>
+      </c>
+      <c r="H115" s="2">
+        <v>3284.116066086096</v>
+      </c>
+      <c r="I115" s="1">
+        <v>32.384524793481503</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K115" s="2">
+        <v>-329.87090971323693</v>
+      </c>
+      <c r="L115" s="2">
+        <v>32657.220061610449</v>
+      </c>
+      <c r="M115" s="2">
+        <v>329.87090971323693</v>
+      </c>
+      <c r="N115" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
+        <v>114</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" s="5">
+        <v>45670.868055555547</v>
+      </c>
+      <c r="D116" s="5">
+        <v>45671.541666666657</v>
+      </c>
+      <c r="E116" s="2">
+        <v>3093.81</v>
+      </c>
+      <c r="F116" s="2">
+        <v>3122.3613001571011</v>
+      </c>
+      <c r="G116" s="2">
+        <v>3008.1560995286982</v>
+      </c>
+      <c r="H116" s="2">
+        <v>3122.3613001571011</v>
+      </c>
+      <c r="I116" s="1">
+        <v>11.438085089616679</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K116" s="2">
+        <v>-326.57220061610451</v>
+      </c>
+      <c r="L116" s="2">
+        <v>32330.647860994352</v>
+      </c>
+      <c r="M116" s="2">
+        <v>326.57220061610451</v>
+      </c>
+      <c r="N116" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
+        <v>115</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" s="5">
+        <v>45678.597222222219</v>
+      </c>
+      <c r="D117" s="5">
+        <v>45678.628472222219</v>
+      </c>
+      <c r="E117" s="2">
+        <v>3325.21</v>
+      </c>
+      <c r="F117" s="2">
+        <v>3344.310886655323</v>
+      </c>
+      <c r="G117" s="2">
+        <v>3267.9073400340312</v>
+      </c>
+      <c r="H117" s="2">
+        <v>3265.11</v>
+      </c>
+      <c r="I117" s="1">
+        <v>16.926255018630041</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K117" s="2">
+        <v>1017.267926619664</v>
+      </c>
+      <c r="L117" s="2">
+        <v>33347.915787614009</v>
+      </c>
+      <c r="M117" s="2">
+        <v>323.3064786099435</v>
+      </c>
+      <c r="N117" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
+        <v>116</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" s="5">
+        <v>45680.572916666657</v>
+      </c>
+      <c r="D118" s="5">
+        <v>45680.604166666657</v>
+      </c>
+      <c r="E118" s="2">
+        <v>3235.81</v>
+      </c>
+      <c r="F118" s="2">
+        <v>3253.5450793405698</v>
+      </c>
+      <c r="G118" s="2">
+        <v>3182.6047619782912</v>
+      </c>
+      <c r="H118" s="2">
+        <v>3253.5450793405698</v>
+      </c>
+      <c r="I118" s="1">
+        <v>18.803364308232322</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K118" s="2">
+        <v>-333.47915787614011</v>
+      </c>
+      <c r="L118" s="2">
+        <v>33014.436629737873</v>
+      </c>
+      <c r="M118" s="2">
+        <v>333.47915787614011</v>
+      </c>
+      <c r="N118" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A119" s="4">
+        <v>117</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" s="5">
+        <v>45680.611111111109</v>
+      </c>
+      <c r="D119" s="5">
+        <v>45680.677083333343</v>
+      </c>
+      <c r="E119" s="2">
+        <v>3269.3</v>
+      </c>
+      <c r="F119" s="2">
+        <v>3291.1918814026981</v>
+      </c>
+      <c r="G119" s="2">
+        <v>3203.6243557919079</v>
+      </c>
+      <c r="H119" s="2">
+        <v>3291.1918814026981</v>
+      </c>
+      <c r="I119" s="1">
+        <v>15.080675809649669</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K119" s="2">
+        <v>-330.14436629737872</v>
+      </c>
+      <c r="L119" s="2">
+        <v>32684.292263440489</v>
+      </c>
+      <c r="M119" s="2">
+        <v>330.14436629737872</v>
+      </c>
+      <c r="N119" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
+        <v>118</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" s="5">
+        <v>45680.850694444453</v>
+      </c>
+      <c r="D120" s="5">
+        <v>45681.541666666657</v>
+      </c>
+      <c r="E120" s="2">
+        <v>3283.05</v>
+      </c>
+      <c r="F120" s="2">
+        <v>3316.5438855973948</v>
+      </c>
+      <c r="G120" s="2">
+        <v>3182.5683432078158</v>
+      </c>
+      <c r="H120" s="2">
+        <v>3316.5438855973948</v>
+      </c>
+      <c r="I120" s="1">
+        <v>9.7582862306017066</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K120" s="2">
+        <v>-326.84292263440489</v>
+      </c>
+      <c r="L120" s="2">
+        <v>32357.449340806081</v>
+      </c>
+      <c r="M120" s="2">
+        <v>326.84292263440489</v>
+      </c>
+      <c r="N120" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
+        <v>119</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" s="5">
+        <v>45681.788194444453</v>
+      </c>
+      <c r="D121" s="5">
+        <v>45681.84375</v>
+      </c>
+      <c r="E121" s="2">
+        <v>3381.49</v>
+      </c>
+      <c r="F121" s="2">
+        <v>3364.6049949632729</v>
+      </c>
+      <c r="G121" s="2">
+        <v>3432.1450151101808</v>
+      </c>
+      <c r="H121" s="2">
+        <v>3364.6049949632729</v>
+      </c>
+      <c r="I121" s="1">
+        <v>19.163422972291009</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K121" s="2">
+        <v>-323.57449340806079</v>
+      </c>
+      <c r="L121" s="2">
+        <v>32033.874847398019</v>
+      </c>
+      <c r="M121" s="2">
+        <v>323.57449340806079</v>
+      </c>
+      <c r="N121" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A122" s="4">
+        <v>120</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" s="5">
+        <v>45681.850694444453</v>
+      </c>
+      <c r="D122" s="5">
+        <v>45682.541666666657</v>
+      </c>
+      <c r="E122" s="2">
+        <v>3341.02</v>
+      </c>
+      <c r="F122" s="2">
+        <v>3322.7239360749809</v>
+      </c>
+      <c r="G122" s="2">
+        <v>3395.9081917750582</v>
+      </c>
+      <c r="H122" s="2">
+        <v>3322.7239360749809</v>
+      </c>
+      <c r="I122" s="1">
+        <v>17.508615502590722</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K122" s="2">
+        <v>-320.33874847398022</v>
+      </c>
+      <c r="L122" s="2">
+        <v>31713.53609892404</v>
+      </c>
+      <c r="M122" s="2">
+        <v>320.33874847398022</v>
+      </c>
+      <c r="N122" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A123" s="4">
+        <v>121</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C123" s="5">
+        <v>45683.871527777781</v>
+      </c>
+      <c r="D123" s="5">
+        <v>45683.875</v>
+      </c>
+      <c r="E123" s="2">
+        <v>3329.67</v>
+      </c>
+      <c r="F123" s="2">
+        <v>3322.0282279362391</v>
+      </c>
+      <c r="G123" s="2">
+        <v>3352.5953161912848</v>
+      </c>
+      <c r="H123" s="2">
+        <v>3322.0282279362391</v>
+      </c>
+      <c r="I123" s="1">
+        <v>41.500238209557359</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K123" s="2">
+        <v>-317.13536098924038</v>
+      </c>
+      <c r="L123" s="2">
+        <v>31396.4007379348</v>
+      </c>
+      <c r="M123" s="2">
+        <v>317.13536098924038</v>
+      </c>
+      <c r="N123" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
+        <v>122</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" s="5">
+        <v>45684.552083333343</v>
+      </c>
+      <c r="D124" s="5">
+        <v>45684.649305555547</v>
+      </c>
+      <c r="E124" s="2">
+        <v>3120.7</v>
+      </c>
+      <c r="F124" s="2">
+        <v>3147.866856596404</v>
+      </c>
+      <c r="G124" s="2">
+        <v>3039.1994302107878</v>
+      </c>
+      <c r="H124" s="2">
+        <v>3147.866856596404</v>
+      </c>
+      <c r="I124" s="1">
+        <v>11.55687652950286</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K124" s="2">
+        <v>-313.964007379348</v>
+      </c>
+      <c r="L124" s="2">
+        <v>31082.436730555452</v>
+      </c>
+      <c r="M124" s="2">
+        <v>313.964007379348</v>
+      </c>
+      <c r="N124" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
+        <v>123</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" s="5">
+        <v>45684.652777777781</v>
+      </c>
+      <c r="D125" s="5">
+        <v>45684.777777777781</v>
+      </c>
+      <c r="E125" s="2">
+        <v>3144.97</v>
+      </c>
+      <c r="F125" s="2">
+        <v>3172.9627190161909</v>
+      </c>
+      <c r="G125" s="2">
+        <v>3060.991842951425</v>
+      </c>
+      <c r="H125" s="2">
+        <v>3057.58</v>
+      </c>
+      <c r="I125" s="1">
+        <v>11.103757628037741</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K125" s="2">
+        <v>970.35737911421688</v>
+      </c>
+      <c r="L125" s="2">
+        <v>32052.79410966967</v>
+      </c>
+      <c r="M125" s="2">
+        <v>310.82436730555452</v>
+      </c>
+      <c r="N125" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
+        <v>124</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" s="5">
+        <v>45684.850694444453</v>
+      </c>
+      <c r="D126" s="5">
+        <v>45684.857638888891</v>
+      </c>
+      <c r="E126" s="2">
+        <v>3100.11</v>
+      </c>
+      <c r="F126" s="2">
+        <v>3121.88780544771</v>
+      </c>
+      <c r="G126" s="2">
+        <v>3034.7765836568719</v>
+      </c>
+      <c r="H126" s="2">
+        <v>3121.88780544771</v>
+      </c>
+      <c r="I126" s="1">
+        <v>14.7181010440338</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K126" s="2">
+        <v>-320.52794109669668</v>
+      </c>
+      <c r="L126" s="2">
+        <v>31732.266168572969</v>
+      </c>
+      <c r="M126" s="2">
+        <v>320.52794109669668</v>
+      </c>
+      <c r="N126" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
+        <v>125</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" s="5">
+        <v>45684.861111111109</v>
+      </c>
+      <c r="D127" s="5">
+        <v>45684.871527777781</v>
+      </c>
+      <c r="E127" s="2">
+        <v>3121.73</v>
+      </c>
+      <c r="F127" s="2">
+        <v>3144.2717779040149</v>
+      </c>
+      <c r="G127" s="2">
+        <v>3054.1046662879548</v>
+      </c>
+      <c r="H127" s="2">
+        <v>3144.2717779040149</v>
+      </c>
+      <c r="I127" s="1">
+        <v>14.07709112550574</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K127" s="2">
+        <v>-317.32266168572971</v>
+      </c>
+      <c r="L127" s="2">
+        <v>31414.943506887241</v>
+      </c>
+      <c r="M127" s="2">
+        <v>317.32266168572971</v>
+      </c>
+      <c r="N127" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
+        <v>126</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" s="5">
+        <v>45684.875</v>
+      </c>
+      <c r="D128" s="5">
+        <v>45684.881944444453</v>
+      </c>
+      <c r="E128" s="2">
+        <v>3147.24</v>
+      </c>
+      <c r="F128" s="2">
+        <v>3170.7711073176952</v>
+      </c>
+      <c r="G128" s="2">
+        <v>3076.646678046915</v>
+      </c>
+      <c r="H128" s="2">
+        <v>3170.7711073176952</v>
+      </c>
+      <c r="I128" s="1">
+        <v>13.35038894802193</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K128" s="2">
+        <v>-314.14943506887238</v>
+      </c>
+      <c r="L128" s="2">
+        <v>31100.794071818371</v>
+      </c>
+      <c r="M128" s="2">
+        <v>314.14943506887238</v>
+      </c>
+      <c r="N128" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A129" s="4">
+        <v>127</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" s="5">
+        <v>45686.722222222219</v>
+      </c>
+      <c r="D129" s="5">
+        <v>45686.729166666657</v>
+      </c>
+      <c r="E129" s="2">
+        <v>3112.44</v>
+      </c>
+      <c r="F129" s="2">
+        <v>3130.67872241648</v>
+      </c>
+      <c r="G129" s="2">
+        <v>3057.723832750562</v>
+      </c>
+      <c r="H129" s="2">
+        <v>3130.67872241648</v>
+      </c>
+      <c r="I129" s="1">
+        <v>17.052068320156788</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K129" s="2">
+        <v>-311.0079407181837</v>
+      </c>
+      <c r="L129" s="2">
+        <v>30789.78613110018</v>
+      </c>
+      <c r="M129" s="2">
+        <v>311.0079407181837</v>
+      </c>
+      <c r="N129" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A130" s="4">
+        <v>128</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" s="5">
+        <v>45686.732638888891</v>
+      </c>
+      <c r="D130" s="5">
+        <v>45686.802083333343</v>
+      </c>
+      <c r="E130" s="2">
+        <v>3124.45</v>
+      </c>
+      <c r="F130" s="2">
+        <v>3143.8722934216489</v>
+      </c>
+      <c r="G130" s="2">
+        <v>3066.1831197350521</v>
+      </c>
+      <c r="H130" s="2">
+        <v>3064.43</v>
+      </c>
+      <c r="I130" s="1">
+        <v>15.85280659841143</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K130" s="2">
+        <v>951.4854520366539</v>
+      </c>
+      <c r="L130" s="2">
+        <v>31741.27158313684</v>
+      </c>
+      <c r="M130" s="2">
+        <v>307.89786131100192</v>
+      </c>
+      <c r="N130" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
+        <v>129</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" s="5">
+        <v>45686.854166666657</v>
+      </c>
+      <c r="D131" s="5">
+        <v>45687.541666666657</v>
+      </c>
+      <c r="E131" s="2">
+        <v>3160.81</v>
+      </c>
+      <c r="F131" s="2">
+        <v>3208.3056809980421</v>
+      </c>
+      <c r="G131" s="2">
+        <v>3018.3229570058738</v>
+      </c>
+      <c r="H131" s="2">
+        <v>3208.3056809980421</v>
+      </c>
+      <c r="I131" s="1">
+        <v>6.6829806239529939</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K131" s="2">
+        <v>-317.41271583136842</v>
+      </c>
+      <c r="L131" s="2">
+        <v>31423.858867305469</v>
+      </c>
+      <c r="M131" s="2">
+        <v>317.41271583136842</v>
+      </c>
+      <c r="N131" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
+        <v>130</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C132" s="5">
+        <v>45688.746527777781</v>
+      </c>
+      <c r="D132" s="5">
+        <v>45688.763888888891</v>
+      </c>
+      <c r="E132" s="2">
+        <v>3375.88</v>
+      </c>
+      <c r="F132" s="2">
+        <v>3356.7514454718771</v>
+      </c>
+      <c r="G132" s="2">
+        <v>3433.2656635843691</v>
+      </c>
+      <c r="H132" s="2">
+        <v>3356.7514454718771</v>
+      </c>
+      <c r="I132" s="1">
+        <v>16.427722659914409</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K132" s="2">
+        <v>-314.23858867305472</v>
+      </c>
+      <c r="L132" s="2">
+        <v>31109.62027863241</v>
+      </c>
+      <c r="M132" s="2">
+        <v>314.23858867305472</v>
+      </c>
+      <c r="N132" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
+        <v>131</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133" s="5">
+        <v>45688.777777777781</v>
+      </c>
+      <c r="D133" s="5">
+        <v>45688.888888888891</v>
+      </c>
+      <c r="E133" s="2">
+        <v>3311.12</v>
+      </c>
+      <c r="F133" s="2">
+        <v>3284.046998635507</v>
+      </c>
+      <c r="G133" s="2">
+        <v>3392.3390040934778</v>
+      </c>
+      <c r="H133" s="2">
+        <v>3284.046998635507</v>
+      </c>
+      <c r="I133" s="1">
+        <v>11.491012710335889</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K133" s="2">
+        <v>-311.09620278632423</v>
+      </c>
+      <c r="L133" s="2">
+        <v>30798.52407584609</v>
+      </c>
+      <c r="M133" s="2">
+        <v>311.09620278632423</v>
+      </c>
+      <c r="N133" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
+        <v>132</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C134" s="5">
+        <v>45690.586805555547</v>
+      </c>
+      <c r="D134" s="5">
+        <v>45690.690972222219</v>
+      </c>
+      <c r="E134" s="2">
+        <v>3092.44</v>
+      </c>
+      <c r="F134" s="2">
+        <v>3111.2265745609602</v>
+      </c>
+      <c r="G134" s="2">
+        <v>3036.0802763171209</v>
+      </c>
+      <c r="H134" s="2">
+        <v>3033</v>
+      </c>
+      <c r="I134" s="1">
+        <v>16.393900855054419</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K134" s="2">
+        <v>974.45346682443551</v>
+      </c>
+      <c r="L134" s="2">
+        <v>31772.97754267052</v>
+      </c>
+      <c r="M134" s="2">
+        <v>307.98524075846092</v>
+      </c>
+      <c r="N134" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A135" s="4">
+        <v>133</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135" s="5">
+        <v>45691.611111111109</v>
+      </c>
+      <c r="D135" s="5">
+        <v>45691.638888888891</v>
+      </c>
+      <c r="E135" s="2">
+        <v>2625.55</v>
+      </c>
+      <c r="F135" s="2">
+        <v>2679.1089392180561</v>
+      </c>
+      <c r="G135" s="2">
+        <v>2464.8731823458338</v>
+      </c>
+      <c r="H135" s="2">
+        <v>2679.1089392180561</v>
+      </c>
+      <c r="I135" s="1">
+        <v>5.9323388413860547</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K135" s="2">
+        <v>-317.72977542670532</v>
+      </c>
+      <c r="L135" s="2">
+        <v>31455.247767243822</v>
+      </c>
+      <c r="M135" s="2">
+        <v>317.72977542670532</v>
+      </c>
+      <c r="N135" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
+        <v>134</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136" s="5">
+        <v>45691.642361111109</v>
+      </c>
+      <c r="D136" s="5">
+        <v>45691.791666666657</v>
+      </c>
+      <c r="E136" s="2">
+        <v>2676.79</v>
+      </c>
+      <c r="F136" s="2">
+        <v>2736.7515076166701</v>
+      </c>
+      <c r="G136" s="2">
+        <v>2496.90547714999</v>
+      </c>
+      <c r="H136" s="2">
+        <v>2736.7515076166701</v>
+      </c>
+      <c r="I136" s="1">
+        <v>5.24590675210088</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K136" s="2">
+        <v>-314.55247767243821</v>
+      </c>
+      <c r="L136" s="2">
+        <v>31140.69528957138</v>
+      </c>
+      <c r="M136" s="2">
+        <v>314.55247767243821</v>
+      </c>
+      <c r="N136" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A137" s="4">
+        <v>135</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137" s="5">
+        <v>45691.795138888891</v>
+      </c>
+      <c r="D137" s="5">
+        <v>45691.826388888891</v>
+      </c>
+      <c r="E137" s="2">
+        <v>2738.39</v>
+      </c>
+      <c r="F137" s="2">
+        <v>2769.366527878426</v>
+      </c>
+      <c r="G137" s="2">
+        <v>2645.46041636472</v>
+      </c>
+      <c r="H137" s="2">
+        <v>2769.366527878426</v>
+      </c>
+      <c r="I137" s="1">
+        <v>10.0529973571567</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K137" s="2">
+        <v>-311.4069528957138</v>
+      </c>
+      <c r="L137" s="2">
+        <v>30829.288336675669</v>
+      </c>
+      <c r="M137" s="2">
+        <v>311.4069528957138</v>
+      </c>
+      <c r="N137" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
+        <v>136</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C138" s="5">
+        <v>45691.829861111109</v>
+      </c>
+      <c r="D138" s="5">
+        <v>45691.909722222219</v>
+      </c>
+      <c r="E138" s="2">
+        <v>2764.23</v>
+      </c>
+      <c r="F138" s="2">
+        <v>2793.3912584718341</v>
+      </c>
+      <c r="G138" s="2">
+        <v>2676.7462245844981</v>
+      </c>
+      <c r="H138" s="2">
+        <v>2793.3912584718341</v>
+      </c>
+      <c r="I138" s="1">
+        <v>10.57200201646052</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K138" s="2">
+        <v>-308.29288336675671</v>
+      </c>
+      <c r="L138" s="2">
+        <v>30520.995453308911</v>
+      </c>
+      <c r="M138" s="2">
+        <v>308.29288336675671</v>
+      </c>
+      <c r="N138" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
+        <v>137</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139" s="5">
+        <v>45693.84375</v>
+      </c>
+      <c r="D139" s="5">
+        <v>45694.652777777781</v>
+      </c>
+      <c r="E139" s="2">
+        <v>2778.16</v>
+      </c>
+      <c r="F139" s="2">
+        <v>2803.755233022915</v>
+      </c>
+      <c r="G139" s="2">
+        <v>2701.3743009312552</v>
+      </c>
+      <c r="H139" s="2">
+        <v>2700</v>
+      </c>
+      <c r="I139" s="1">
+        <v>11.92448430767703</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K139" s="2">
+        <v>932.01769348803521</v>
+      </c>
+      <c r="L139" s="2">
+        <v>31453.01314679694</v>
+      </c>
+      <c r="M139" s="2">
+        <v>305.2099545330891</v>
+      </c>
+      <c r="N139" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
+        <v>138</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C140" s="5">
+        <v>45696.565972222219</v>
+      </c>
+      <c r="D140" s="5">
+        <v>45696.770833333343</v>
+      </c>
+      <c r="E140" s="2">
+        <v>2626.08</v>
+      </c>
+      <c r="F140" s="2">
+        <v>2640.2829948441172</v>
+      </c>
+      <c r="G140" s="2">
+        <v>2583.4710154676491</v>
+      </c>
+      <c r="H140" s="2">
+        <v>2640.2829948441172</v>
+      </c>
+      <c r="I140" s="1">
+        <v>22.1453387063824</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K140" s="2">
+        <v>-314.53013146796951</v>
+      </c>
+      <c r="L140" s="2">
+        <v>31138.483015328969</v>
+      </c>
+      <c r="M140" s="2">
+        <v>314.53013146796951</v>
+      </c>
+      <c r="N140" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
+        <v>139</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141" s="5">
+        <v>45697.652777777781</v>
+      </c>
+      <c r="D141" s="5">
+        <v>45697.895833333343</v>
+      </c>
+      <c r="E141" s="2">
+        <v>2653.61</v>
+      </c>
+      <c r="F141" s="2">
+        <v>2668.9385684269669</v>
+      </c>
+      <c r="G141" s="2">
+        <v>2607.6242947190999</v>
+      </c>
+      <c r="H141" s="2">
+        <v>2605.56</v>
+      </c>
+      <c r="I141" s="1">
+        <v>20.31401899250336</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K141" s="2">
+        <v>976.08861258979016</v>
+      </c>
+      <c r="L141" s="2">
+        <v>32114.571627918762</v>
+      </c>
+      <c r="M141" s="2">
+        <v>311.38483015328973</v>
+      </c>
+      <c r="N141" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
+        <v>140</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C142" s="5">
+        <v>45698.576388888891</v>
+      </c>
+      <c r="D142" s="5">
+        <v>45698.579861111109</v>
+      </c>
+      <c r="E142" s="2">
+        <v>2669.27</v>
+      </c>
+      <c r="F142" s="2">
+        <v>2684.5187826260681</v>
+      </c>
+      <c r="G142" s="2">
+        <v>2623.5236521217971</v>
+      </c>
+      <c r="H142" s="2">
+        <v>2684.5187826260681</v>
+      </c>
+      <c r="I142" s="1">
+        <v>21.060416700425161</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K142" s="2">
+        <v>-321.14571627918758</v>
+      </c>
+      <c r="L142" s="2">
+        <v>31793.42591163957</v>
+      </c>
+      <c r="M142" s="2">
+        <v>321.14571627918758</v>
+      </c>
+      <c r="N142" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
+        <v>141</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C143" s="5">
+        <v>45699.90625</v>
+      </c>
+      <c r="D143" s="5">
+        <v>45700.552083333343</v>
+      </c>
+      <c r="E143" s="2">
+        <v>2626.2</v>
+      </c>
+      <c r="F143" s="2">
+        <v>2644.1910702390469</v>
+      </c>
+      <c r="G143" s="2">
+        <v>2572.2267892828572</v>
+      </c>
+      <c r="H143" s="2">
+        <v>2644.1910702390469</v>
+      </c>
+      <c r="I143" s="1">
+        <v>17.67178132773649</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K143" s="2">
+        <v>-317.93425911639582</v>
+      </c>
+      <c r="L143" s="2">
+        <v>31475.491652523178</v>
+      </c>
+      <c r="M143" s="2">
+        <v>317.93425911639582</v>
+      </c>
+      <c r="N143" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
+        <v>142</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144" s="5">
+        <v>45700.701388888891</v>
+      </c>
+      <c r="D144" s="5">
+        <v>45700.708333333343</v>
+      </c>
+      <c r="E144" s="2">
+        <v>2632.4</v>
+      </c>
+      <c r="F144" s="2">
+        <v>2656.8407714030482</v>
+      </c>
+      <c r="G144" s="2">
+        <v>2559.0776857908559</v>
+      </c>
+      <c r="H144" s="2">
+        <v>2656.8407714030482</v>
+      </c>
+      <c r="I144" s="1">
+        <v>12.878272593555611</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K144" s="2">
+        <v>-314.75491652523181</v>
+      </c>
+      <c r="L144" s="2">
+        <v>31160.736735997951</v>
+      </c>
+      <c r="M144" s="2">
+        <v>314.75491652523181</v>
+      </c>
+      <c r="N144" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
+        <v>143</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" s="5">
+        <v>45700.711805555547</v>
+      </c>
+      <c r="D145" s="5">
+        <v>45700.725694444453</v>
+      </c>
+      <c r="E145" s="2">
+        <v>2653.64</v>
+      </c>
+      <c r="F145" s="2">
+        <v>2680.296980602222</v>
+      </c>
+      <c r="G145" s="2">
+        <v>2573.669058193334</v>
+      </c>
+      <c r="H145" s="2">
+        <v>2680.296980602222</v>
+      </c>
+      <c r="I145" s="1">
+        <v>11.689522230961501</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K145" s="2">
+        <v>-311.60736735997949</v>
+      </c>
+      <c r="L145" s="2">
+        <v>30849.129368637969</v>
+      </c>
+      <c r="M145" s="2">
+        <v>311.60736735997949</v>
+      </c>
+      <c r="N145" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
+        <v>144</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" s="5">
+        <v>45700.729166666657</v>
+      </c>
+      <c r="D146" s="5">
+        <v>45700.840277777781</v>
+      </c>
+      <c r="E146" s="2">
+        <v>2668.05</v>
+      </c>
+      <c r="F146" s="2">
+        <v>2695.5265944969751</v>
+      </c>
+      <c r="G146" s="2">
+        <v>2585.6202165090772</v>
+      </c>
+      <c r="H146" s="2">
+        <v>2695.5265944969751</v>
+      </c>
+      <c r="I146" s="1">
+        <v>11.227420986263359</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K146" s="2">
+        <v>-308.49129368637972</v>
+      </c>
+      <c r="L146" s="2">
+        <v>30540.638074951588</v>
+      </c>
+      <c r="M146" s="2">
+        <v>308.49129368637972</v>
+      </c>
+      <c r="N146" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
+        <v>145</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147" s="5">
+        <v>45700.847222222219</v>
+      </c>
+      <c r="D147" s="5">
+        <v>45701.586805555547</v>
+      </c>
+      <c r="E147" s="2">
+        <v>2689.19</v>
+      </c>
+      <c r="F147" s="2">
+        <v>2706.772376962359</v>
+      </c>
+      <c r="G147" s="2">
+        <v>2636.442869112921</v>
+      </c>
+      <c r="H147" s="2">
+        <v>2628</v>
+      </c>
+      <c r="I147" s="1">
+        <v>17.370028034510611</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K147" s="2">
+        <v>1062.872015431705</v>
+      </c>
+      <c r="L147" s="2">
+        <v>31603.51009038329</v>
+      </c>
+      <c r="M147" s="2">
+        <v>305.4063807495159</v>
+      </c>
+      <c r="N147" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
+        <v>146</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148" s="5">
+        <v>45701.798611111109</v>
+      </c>
+      <c r="D148" s="5">
+        <v>45702.541666666657</v>
+      </c>
+      <c r="E148" s="2">
+        <v>2657.8</v>
+      </c>
+      <c r="F148" s="2">
+        <v>2676.6047675615828</v>
+      </c>
+      <c r="G148" s="2">
+        <v>2601.385697315251</v>
+      </c>
+      <c r="H148" s="2">
+        <v>2676.6047675615828</v>
+      </c>
+      <c r="I148" s="1">
+        <v>16.806115782546161</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K148" s="2">
+        <v>-316.03510090383293</v>
+      </c>
+      <c r="L148" s="2">
+        <v>31287.474989479459</v>
+      </c>
+      <c r="M148" s="2">
+        <v>316.03510090383293</v>
+      </c>
+      <c r="N148" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="1" t="s">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="2">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="1" t="s">
+      <c r="B153" s="2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="2">
-        <v>12296.31044552425</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44" s="1" t="s">
+      <c r="B154" s="2">
+        <v>31287.474989479459</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="6">
-        <v>0.2296310445524248</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="A45" s="1" t="s">
+      <c r="B155" s="6">
+        <v>0.56437374947397312</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="1" t="s">
+      <c r="B156" s="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B46" s="6">
-        <v>0.3333333333333333</v>
+      <c r="B157" s="6">
+        <v>0.2857142857142857</v>
       </c>
     </row>
   </sheetData>

--- a/trading_results.xlsx
+++ b/trading_results.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\Backtesting\strategy\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Trade History" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="24">
   <si>
     <t>Position</t>
   </si>
@@ -60,10 +55,10 @@
     <t>Risk-Reward Ratio</t>
   </si>
   <si>
-    <t>SHORT</t>
+    <t>LONG</t>
   </si>
   <si>
-    <t>LONG</t>
+    <t>SHORT</t>
   </si>
   <si>
     <t>STOP_LOSS</t>
@@ -96,12 +91,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="$#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,21 +164,13 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -229,7 +217,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,10 +249,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -296,7 +283,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -472,14 +458,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N157"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
@@ -490,7 +474,7 @@
     <col min="12" max="14" width="18.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -531,7 +515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -539,25 +523,25 @@
         <v>13</v>
       </c>
       <c r="C2" s="5">
-        <v>45521.548611111109</v>
+        <v>45517.80208333334</v>
       </c>
       <c r="D2" s="5">
-        <v>45521.625</v>
+        <v>45518.56944444445</v>
       </c>
       <c r="E2" s="2">
-        <v>2612.29</v>
+        <v>60524.11</v>
       </c>
       <c r="F2" s="2">
-        <v>2618.4081982733792</v>
+        <v>60181.22211444034</v>
       </c>
       <c r="G2" s="2">
-        <v>2593.9354051798618</v>
+        <v>61552.77365667897</v>
       </c>
       <c r="H2" s="2">
-        <v>2618.4081982733792</v>
+        <v>60181.22211444034</v>
       </c>
       <c r="I2" s="1">
-        <v>32.689362302986531</v>
+        <v>0.5832810327304605</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>15</v>
@@ -575,7 +559,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -583,25 +567,25 @@
         <v>14</v>
       </c>
       <c r="C3" s="5">
-        <v>45522.71875</v>
+        <v>45520.6875</v>
       </c>
       <c r="D3" s="5">
-        <v>45522.725694444453</v>
+        <v>45520.72916666666</v>
       </c>
       <c r="E3" s="2">
-        <v>2659.97</v>
+        <v>58587.37</v>
       </c>
       <c r="F3" s="2">
-        <v>2650.868089520297</v>
+        <v>58979.50523835034</v>
       </c>
       <c r="G3" s="2">
-        <v>2687.2757314391069</v>
+        <v>57410.964284949</v>
       </c>
       <c r="H3" s="2">
-        <v>2650.868089520297</v>
+        <v>58979.50523835034</v>
       </c>
       <c r="I3" s="1">
-        <v>21.753674730326971</v>
+        <v>0.5049278428354539</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>15</v>
@@ -619,33 +603,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="5">
-        <v>45522.888888888891</v>
+        <v>45521.78125</v>
       </c>
       <c r="D4" s="5">
-        <v>45522.909722222219</v>
+        <v>45521.88888888889</v>
       </c>
       <c r="E4" s="2">
-        <v>2654.64</v>
+        <v>59341.67</v>
       </c>
       <c r="F4" s="2">
-        <v>2648.1197434979281</v>
+        <v>59218.44786879732</v>
       </c>
       <c r="G4" s="2">
-        <v>2674.2007695062171</v>
+        <v>59711.33639360803</v>
       </c>
       <c r="H4" s="2">
-        <v>2648.1197434979281</v>
+        <v>59218.44786879732</v>
       </c>
       <c r="I4" s="1">
-        <v>30.063234465960299</v>
+        <v>1.590785665584516</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
@@ -663,33 +647,33 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="5">
-        <v>45522.913194444453</v>
+        <v>45522.58680555555</v>
       </c>
       <c r="D5" s="5">
-        <v>45523.541666666657</v>
+        <v>45522.60763888889</v>
       </c>
       <c r="E5" s="2">
-        <v>2643.49</v>
+        <v>59846.1</v>
       </c>
       <c r="F5" s="2">
-        <v>2635.2988157173422</v>
+        <v>59677.83771575627</v>
       </c>
       <c r="G5" s="2">
-        <v>2668.063552847972</v>
+        <v>60350.88685273118</v>
       </c>
       <c r="H5" s="2">
-        <v>2635.2988157173422</v>
+        <v>59677.83771575627</v>
       </c>
       <c r="I5" s="1">
-        <v>23.691299487775531</v>
+        <v>1.153317280056092</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
@@ -707,42 +691,42 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="5">
-        <v>45523.857638888891</v>
+        <v>45523.55555555555</v>
       </c>
       <c r="D6" s="5">
-        <v>45524.541666666657</v>
+        <v>45523.57638888889</v>
       </c>
       <c r="E6" s="2">
-        <v>2618.81</v>
+        <v>58828</v>
       </c>
       <c r="F6" s="2">
-        <v>2630.231271786874</v>
+        <v>59055.92441028624</v>
       </c>
       <c r="G6" s="2">
-        <v>2584.5461846393782</v>
+        <v>58144.22676914127</v>
       </c>
       <c r="H6" s="2">
-        <v>2630.231271786874</v>
+        <v>58029.77</v>
       </c>
       <c r="I6" s="1">
-        <v>16.821174172634059</v>
+        <v>0.842907531311471</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K6" s="2">
-        <v>-192.119202</v>
+        <v>672.8340787187582</v>
       </c>
       <c r="L6" s="2">
-        <v>19019.800997999999</v>
+        <v>19884.75427871876</v>
       </c>
       <c r="M6" s="2">
         <v>192.119202</v>
@@ -751,7 +735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -759,43 +743,43 @@
         <v>14</v>
       </c>
       <c r="C7" s="5">
-        <v>45524.552083333343</v>
+        <v>45523.73263888889</v>
       </c>
       <c r="D7" s="5">
-        <v>45524.565972222219</v>
+        <v>45524.54166666666</v>
       </c>
       <c r="E7" s="2">
-        <v>2635.06</v>
+        <v>59148.01</v>
       </c>
       <c r="F7" s="2">
-        <v>2626.4142031493689</v>
+        <v>59443.64723597572</v>
       </c>
       <c r="G7" s="2">
-        <v>2660.9973905518918</v>
+        <v>58261.09829207284</v>
       </c>
       <c r="H7" s="2">
-        <v>2626.4142031493689</v>
+        <v>59443.64723597572</v>
       </c>
       <c r="I7" s="1">
-        <v>21.99889880203775</v>
+        <v>0.6726065548912007</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K7" s="2">
-        <v>-190.19800997999999</v>
+        <v>-198.8475427871876</v>
       </c>
       <c r="L7" s="2">
-        <v>18829.60298802</v>
+        <v>19685.90673593157</v>
       </c>
       <c r="M7" s="2">
-        <v>190.19800997999999</v>
+        <v>198.8475427871876</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -803,43 +787,43 @@
         <v>13</v>
       </c>
       <c r="C8" s="5">
-        <v>45525.604166666657</v>
+        <v>45526.54861111111</v>
       </c>
       <c r="D8" s="5">
-        <v>45525.722222222219</v>
+        <v>45526.57291666666</v>
       </c>
       <c r="E8" s="2">
-        <v>2602.21</v>
+        <v>60778.74</v>
       </c>
       <c r="F8" s="2">
-        <v>2628.4791306655661</v>
+        <v>60514.32122278472</v>
       </c>
       <c r="G8" s="2">
-        <v>2523.4026080033032</v>
+        <v>61571.99633164583</v>
       </c>
       <c r="H8" s="2">
-        <v>2628.4791306655661</v>
+        <v>60514.32122278472</v>
       </c>
       <c r="I8" s="1">
-        <v>7.167958174079363</v>
+        <v>0.7444973062523481</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K8" s="2">
-        <v>-188.2960298802</v>
+        <v>-196.8590673593157</v>
       </c>
       <c r="L8" s="2">
-        <v>18641.306958139801</v>
+        <v>19489.04766857225</v>
       </c>
       <c r="M8" s="2">
-        <v>188.2960298802</v>
+        <v>196.8590673593157</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -847,439 +831,439 @@
         <v>13</v>
       </c>
       <c r="C9" s="5">
-        <v>45526.767361111109</v>
+        <v>45526.65277777778</v>
       </c>
       <c r="D9" s="5">
-        <v>45526.871527777781</v>
+        <v>45527.58333333334</v>
       </c>
       <c r="E9" s="2">
-        <v>2615.62</v>
+        <v>60161.45</v>
       </c>
       <c r="F9" s="2">
-        <v>2624.8708757804402</v>
+        <v>59814.309386348</v>
       </c>
       <c r="G9" s="2">
-        <v>2587.867372658679</v>
+        <v>61202.871840956</v>
       </c>
       <c r="H9" s="2">
-        <v>2624.8708757804402</v>
+        <v>61633.11</v>
       </c>
       <c r="I9" s="1">
-        <v>20.150856416810019</v>
+        <v>0.561416524086388</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K9" s="2">
-        <v>-186.41306958139799</v>
+        <v>826.2142418369757</v>
       </c>
       <c r="L9" s="2">
-        <v>18454.893888558399</v>
+        <v>20315.26191040923</v>
       </c>
       <c r="M9" s="2">
-        <v>186.41306958139799</v>
+        <v>194.8904766857225</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="4">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="5">
-        <v>45528.878472222219</v>
+        <v>45528.87847222222</v>
       </c>
       <c r="D10" s="5">
-        <v>45528.892361111109</v>
+        <v>45528.89930555555</v>
       </c>
       <c r="E10" s="2">
-        <v>2781.54</v>
+        <v>63983</v>
       </c>
       <c r="F10" s="2">
-        <v>2770.7219379393209</v>
+        <v>63859.32374797756</v>
       </c>
       <c r="G10" s="2">
-        <v>2813.9941861820371</v>
+        <v>64354.02875606733</v>
       </c>
       <c r="H10" s="2">
-        <v>2770.7219379393209</v>
+        <v>63859.32374797756</v>
       </c>
       <c r="I10" s="1">
-        <v>17.059334458467699</v>
+        <v>1.642616232154462</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K10" s="2">
-        <v>-184.54893888558399</v>
+        <v>-203.1526191040923</v>
       </c>
       <c r="L10" s="2">
-        <v>18270.344949672821</v>
+        <v>20112.10929130514</v>
       </c>
       <c r="M10" s="2">
-        <v>184.54893888558399</v>
+        <v>203.1526191040923</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="4">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="5">
-        <v>45532.788194444453</v>
+        <v>45532.79166666666</v>
       </c>
       <c r="D11" s="5">
-        <v>45533.541666666657</v>
+        <v>45533.54166666666</v>
       </c>
       <c r="E11" s="2">
-        <v>2533</v>
+        <v>59798.25</v>
       </c>
       <c r="F11" s="2">
-        <v>2554.8179582315202</v>
+        <v>60221.51103373255</v>
       </c>
       <c r="G11" s="2">
-        <v>2467.54612530544</v>
+        <v>58528.46689880236</v>
       </c>
       <c r="H11" s="2">
-        <v>2554.8179582315202</v>
+        <v>60221.51103373255</v>
       </c>
       <c r="I11" s="1">
-        <v>8.3739939162950012</v>
+        <v>0.4751703485186345</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K11" s="2">
-        <v>-182.70344949672821</v>
+        <v>-201.1210929130514</v>
       </c>
       <c r="L11" s="2">
-        <v>18087.641500176091</v>
+        <v>19910.98819839209</v>
       </c>
       <c r="M11" s="2">
-        <v>182.70344949672821</v>
+        <v>201.1210929130514</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="5">
-        <v>45535.864583333343</v>
+        <v>45534.78125</v>
       </c>
       <c r="D12" s="5">
-        <v>45535.899305555547</v>
+        <v>45536.54166666666</v>
       </c>
       <c r="E12" s="2">
-        <v>2506.92</v>
+        <v>59262.04</v>
       </c>
       <c r="F12" s="2">
-        <v>2513.2172106892599</v>
+        <v>59610.28850773632</v>
       </c>
       <c r="G12" s="2">
-        <v>2488.0283679322192</v>
+        <v>58217.29447679104</v>
       </c>
       <c r="H12" s="2">
-        <v>2513.2172106892599</v>
+        <v>58006</v>
       </c>
       <c r="I12" s="1">
-        <v>28.723259221775859</v>
+        <v>0.5717465475391986</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K12" s="2">
-        <v>-180.8764150017609</v>
+        <v>718.1365335711355</v>
       </c>
       <c r="L12" s="2">
-        <v>17906.765085174331</v>
+        <v>20629.12473196322</v>
       </c>
       <c r="M12" s="2">
-        <v>180.8764150017609</v>
+        <v>199.1098819839209</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="4">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="5">
-        <v>45535.90625</v>
+        <v>45538.80555555555</v>
       </c>
       <c r="D13" s="5">
-        <v>45536.541666666657</v>
+        <v>45539.54166666666</v>
       </c>
       <c r="E13" s="2">
-        <v>2526.0100000000002</v>
+        <v>58158.93</v>
       </c>
       <c r="F13" s="2">
-        <v>2533.4289835709328</v>
+        <v>58377.6638430217</v>
       </c>
       <c r="G13" s="2">
-        <v>2503.753049287202</v>
+        <v>57502.72847093491</v>
       </c>
       <c r="H13" s="2">
-        <v>2467.09</v>
+        <v>56509.48</v>
       </c>
       <c r="I13" s="1">
-        <v>24.1364129115107</v>
+        <v>0.9431153609785379</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K13" s="2">
-        <v>1422.1174487462119</v>
+        <v>1555.621632166047</v>
       </c>
       <c r="L13" s="2">
-        <v>19328.88253392054</v>
+        <v>22184.74636412927</v>
       </c>
       <c r="M13" s="2">
-        <v>179.06765085174331</v>
+        <v>206.2912473196322</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="4">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" s="5">
-        <v>45536.65625</v>
+        <v>45539.61805555555</v>
       </c>
       <c r="D14" s="5">
-        <v>45536.784722222219</v>
+        <v>45539.65625</v>
       </c>
       <c r="E14" s="2">
-        <v>2483.0700000000002</v>
+        <v>57413</v>
       </c>
       <c r="F14" s="2">
-        <v>2499.1263622649858</v>
+        <v>57850.48564092215</v>
       </c>
       <c r="G14" s="2">
-        <v>2434.900913205041</v>
+        <v>56100.54307723356</v>
       </c>
       <c r="H14" s="2">
-        <v>2499.1263622649858</v>
+        <v>57850.48564092215</v>
       </c>
       <c r="I14" s="1">
-        <v>12.038145511994831</v>
+        <v>0.5070965601834961</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K14" s="2">
-        <v>-193.2888253392054</v>
+        <v>-221.8474636412927</v>
       </c>
       <c r="L14" s="2">
-        <v>19135.593708581338</v>
+        <v>21962.89890048797</v>
       </c>
       <c r="M14" s="2">
-        <v>193.2888253392054</v>
+        <v>221.8474636412927</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="4">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" s="5">
-        <v>45536.788194444453</v>
+        <v>45541.54166666666</v>
       </c>
       <c r="D15" s="5">
-        <v>45536.795138888891</v>
+        <v>45541.58680555555</v>
       </c>
       <c r="E15" s="2">
-        <v>2494.13</v>
+        <v>56719</v>
       </c>
       <c r="F15" s="2">
-        <v>2507.245855985062</v>
+        <v>57130.89508012497</v>
       </c>
       <c r="G15" s="2">
-        <v>2454.782432044813</v>
+        <v>55483.31475962509</v>
       </c>
       <c r="H15" s="2">
-        <v>2507.245855985062</v>
+        <v>55381.44</v>
       </c>
       <c r="I15" s="1">
-        <v>14.589664395808301</v>
+        <v>0.5332158590926642</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K15" s="2">
-        <v>-191.35593708581339</v>
+        <v>713.2082044879827</v>
       </c>
       <c r="L15" s="2">
-        <v>18944.237771495529</v>
+        <v>22676.10710497596</v>
       </c>
       <c r="M15" s="2">
-        <v>191.35593708581339</v>
+        <v>219.6289890048797</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" s="4">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" s="5">
-        <v>45538.725694444453</v>
+        <v>45542.66666666666</v>
       </c>
       <c r="D16" s="5">
-        <v>45539.541666666657</v>
+        <v>45542.71527777778</v>
       </c>
       <c r="E16" s="2">
-        <v>2458.25</v>
+        <v>54801.99</v>
       </c>
       <c r="F16" s="2">
-        <v>2470.970245656637</v>
+        <v>54953.08013237577</v>
       </c>
       <c r="G16" s="2">
-        <v>2420.08926303009</v>
+        <v>54348.71960287269</v>
       </c>
       <c r="H16" s="2">
-        <v>2399</v>
+        <v>54329.54</v>
       </c>
       <c r="I16" s="1">
-        <v>14.892981065669741</v>
+        <v>1.500833095345956</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K16" s="2">
-        <v>882.40912814093213</v>
+        <v>709.0685958961924</v>
       </c>
       <c r="L16" s="2">
-        <v>19826.64689963646</v>
+        <v>23385.17570087215</v>
       </c>
       <c r="M16" s="2">
-        <v>189.44237771495531</v>
+        <v>226.7610710497596</v>
       </c>
       <c r="N16" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="4">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17" s="5">
-        <v>45540.75</v>
+        <v>45543.71875</v>
       </c>
       <c r="D17" s="5">
-        <v>45540.822916666657</v>
+        <v>45543.74652777778</v>
       </c>
       <c r="E17" s="2">
-        <v>2391.7600000000002</v>
+        <v>54238.99</v>
       </c>
       <c r="F17" s="2">
-        <v>2405.9382969659418</v>
+        <v>54421.92821057305</v>
       </c>
       <c r="G17" s="2">
-        <v>2349.2251091021749</v>
+        <v>53690.17536828086</v>
       </c>
       <c r="H17" s="2">
-        <v>2348.04</v>
+        <v>54421.92821057305</v>
       </c>
       <c r="I17" s="1">
-        <v>13.9837999918206</v>
+        <v>1.278310071341516</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K17" s="2">
-        <v>611.37173564240027</v>
+        <v>-233.8517570087215</v>
       </c>
       <c r="L17" s="2">
-        <v>20438.018635278859</v>
+        <v>23151.32394386343</v>
       </c>
       <c r="M17" s="2">
-        <v>198.26646899636461</v>
+        <v>233.8517570087215</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="4">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18" s="5">
-        <v>45543.881944444453</v>
+        <v>45543.88194444445</v>
       </c>
       <c r="D18" s="5">
-        <v>45544.541666666657</v>
+        <v>45544.54166666666</v>
       </c>
       <c r="E18" s="2">
-        <v>2285.9899999999998</v>
+        <v>54545.62</v>
       </c>
       <c r="F18" s="2">
-        <v>2294.1692782331861</v>
+        <v>54692.73058638185</v>
       </c>
       <c r="G18" s="2">
-        <v>2261.4521653004408</v>
+        <v>54104.28824085445</v>
       </c>
       <c r="H18" s="2">
-        <v>2294.1692782331861</v>
+        <v>54692.73058638185</v>
       </c>
       <c r="I18" s="1">
-        <v>24.98755764580099</v>
+        <v>1.573736092912443</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K18" s="2">
-        <v>-204.38018635278851</v>
+        <v>-231.5132394386343</v>
       </c>
       <c r="L18" s="2">
-        <v>20233.638448926071</v>
+        <v>22919.81070442479</v>
       </c>
       <c r="M18" s="2">
-        <v>204.38018635278851</v>
+        <v>231.5132394386343</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -1287,43 +1271,43 @@
         <v>13</v>
       </c>
       <c r="C19" s="5">
-        <v>45546.65625</v>
+        <v>45547.88888888889</v>
       </c>
       <c r="D19" s="5">
-        <v>45546.701388888891</v>
+        <v>45547.90277777778</v>
       </c>
       <c r="E19" s="2">
-        <v>2329.2199999999998</v>
+        <v>58013.79</v>
       </c>
       <c r="F19" s="2">
-        <v>2349.462528121524</v>
+        <v>57835.96790091225</v>
       </c>
       <c r="G19" s="2">
-        <v>2268.4924156354291</v>
+        <v>58547.25629726327</v>
       </c>
       <c r="H19" s="2">
-        <v>2349.462528121524</v>
+        <v>57835.96790091225</v>
       </c>
       <c r="I19" s="1">
-        <v>9.995608417810125</v>
+        <v>1.288918015365132</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K19" s="2">
-        <v>-202.33638448926069</v>
+        <v>-229.1981070442479</v>
       </c>
       <c r="L19" s="2">
-        <v>20031.302064436812</v>
+        <v>22690.61259738054</v>
       </c>
       <c r="M19" s="2">
-        <v>202.33638448926069</v>
+        <v>229.1981070442479</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -1331,43 +1315,43 @@
         <v>13</v>
       </c>
       <c r="C20" s="5">
-        <v>45551.746527777781</v>
+        <v>45549.55902777778</v>
       </c>
       <c r="D20" s="5">
-        <v>45552.548611111109</v>
+        <v>45549.60416666666</v>
       </c>
       <c r="E20" s="2">
-        <v>2306.02</v>
+        <v>59690.02</v>
       </c>
       <c r="F20" s="2">
-        <v>2321.4434245360239</v>
+        <v>59589.25460101347</v>
       </c>
       <c r="G20" s="2">
-        <v>2259.749726391929</v>
+        <v>59992.31619695958</v>
       </c>
       <c r="H20" s="2">
-        <v>2321.4434245360239</v>
+        <v>60010</v>
       </c>
       <c r="I20" s="1">
-        <v>12.98758392965868</v>
+        <v>2.251825807826564</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K20" s="2">
-        <v>-200.31302064436809</v>
+        <v>720.5392219883511</v>
       </c>
       <c r="L20" s="2">
-        <v>19830.98904379244</v>
+        <v>23411.15181936889</v>
       </c>
       <c r="M20" s="2">
-        <v>200.31302064436809</v>
+        <v>226.9061259738054</v>
       </c>
       <c r="N20" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -1375,43 +1359,43 @@
         <v>13</v>
       </c>
       <c r="C21" s="5">
-        <v>45553.541666666657</v>
+        <v>45552.80902777778</v>
       </c>
       <c r="D21" s="5">
-        <v>45553.576388888891</v>
+        <v>45552.82291666666</v>
       </c>
       <c r="E21" s="2">
-        <v>2314.38</v>
+        <v>60420</v>
       </c>
       <c r="F21" s="2">
-        <v>2322.6953610399901</v>
+        <v>60111.34650655308</v>
       </c>
       <c r="G21" s="2">
-        <v>2289.433916880032</v>
+        <v>61345.96048034077</v>
       </c>
       <c r="H21" s="2">
-        <v>2289.3200000000002</v>
+        <v>60111.34650655308</v>
       </c>
       <c r="I21" s="1">
-        <v>23.848620581142509</v>
+        <v>0.7584930129227485</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K21" s="2">
-        <v>597.64643176342986</v>
+        <v>-234.1115181936889</v>
       </c>
       <c r="L21" s="2">
-        <v>20428.635475555871</v>
+        <v>23177.04030117521</v>
       </c>
       <c r="M21" s="2">
-        <v>198.30989043792439</v>
+        <v>234.1115181936889</v>
       </c>
       <c r="N21" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -1419,527 +1403,527 @@
         <v>13</v>
       </c>
       <c r="C22" s="5">
-        <v>45553.888888888891</v>
+        <v>45553.57291666666</v>
       </c>
       <c r="D22" s="5">
-        <v>45554.541666666657</v>
+        <v>45553.66666666666</v>
       </c>
       <c r="E22" s="2">
-        <v>2334.0700000000002</v>
+        <v>59558.11</v>
       </c>
       <c r="F22" s="2">
-        <v>2349.9612779889658</v>
+        <v>59307.73839521509</v>
       </c>
       <c r="G22" s="2">
-        <v>2286.396166033102</v>
+        <v>60309.22481435473</v>
       </c>
       <c r="H22" s="2">
-        <v>2349.9612779889658</v>
+        <v>59307.73839521509</v>
       </c>
       <c r="I22" s="1">
-        <v>12.855250213192591</v>
+        <v>0.9257056254876169</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K22" s="2">
-        <v>-204.2863547555587</v>
+        <v>-231.7704030117521</v>
       </c>
       <c r="L22" s="2">
-        <v>20224.349120800311</v>
+        <v>22945.26989816345</v>
       </c>
       <c r="M22" s="2">
-        <v>204.2863547555587</v>
+        <v>231.7704030117521</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="4">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23" s="5">
-        <v>45554.833333333343</v>
+        <v>45553.83333333334</v>
       </c>
       <c r="D23" s="5">
-        <v>45555.541666666657</v>
+        <v>45554.54166666666</v>
       </c>
       <c r="E23" s="2">
-        <v>2460.11</v>
+        <v>59903.22</v>
       </c>
       <c r="F23" s="2">
-        <v>2448.0924533294269</v>
+        <v>59259.42098844067</v>
       </c>
       <c r="G23" s="2">
-        <v>2496.1626400117188</v>
+        <v>61834.617034678</v>
       </c>
       <c r="H23" s="2">
-        <v>2556</v>
+        <v>62968.69</v>
       </c>
       <c r="I23" s="1">
-        <v>16.829016499951251</v>
+        <v>0.3564042424139189</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K23" s="2">
-        <v>1613.7343921803231</v>
+        <v>1092.546512992596</v>
       </c>
       <c r="L23" s="2">
-        <v>21838.08351298064</v>
+        <v>24037.81641115605</v>
       </c>
       <c r="M23" s="2">
-        <v>202.24349120800309</v>
+        <v>229.4526989816345</v>
       </c>
       <c r="N23" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="4">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" s="5">
-        <v>45555.565972222219</v>
+        <v>45554.80902777778</v>
       </c>
       <c r="D24" s="5">
-        <v>45555.590277777781</v>
+        <v>45554.87152777778</v>
       </c>
       <c r="E24" s="2">
-        <v>2533.4699999999998</v>
+        <v>63316.93</v>
       </c>
       <c r="F24" s="2">
-        <v>2520.8398455269948</v>
+        <v>63021.77837137112</v>
       </c>
       <c r="G24" s="2">
-        <v>2571.3604634190128</v>
+        <v>64202.38488588665</v>
       </c>
       <c r="H24" s="2">
-        <v>2520.8398455269948</v>
+        <v>63021.77837137112</v>
       </c>
       <c r="I24" s="1">
-        <v>17.290432638537421</v>
+        <v>0.8144226248326315</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K24" s="2">
-        <v>-218.3808351298064</v>
+        <v>-240.3781641115605</v>
       </c>
       <c r="L24" s="2">
-        <v>21619.70267785083</v>
+        <v>23797.43824704449</v>
       </c>
       <c r="M24" s="2">
-        <v>218.3808351298064</v>
+        <v>240.3781641115605</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="4">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25" s="5">
-        <v>45555.732638888891</v>
+        <v>45554.87847222222</v>
       </c>
       <c r="D25" s="5">
-        <v>45557.541666666657</v>
+        <v>45555.56944444445</v>
       </c>
       <c r="E25" s="2">
-        <v>2536.21</v>
+        <v>62967.98</v>
       </c>
       <c r="F25" s="2">
-        <v>2521.418677651096</v>
+        <v>62755.42615931496</v>
       </c>
       <c r="G25" s="2">
-        <v>2580.5839670467112</v>
+        <v>63605.64152205514</v>
       </c>
       <c r="H25" s="2">
-        <v>2583.17</v>
+        <v>62755.42615931496</v>
       </c>
       <c r="I25" s="1">
-        <v>14.616477261381171</v>
+        <v>1.119595777255635</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K25" s="2">
-        <v>686.38977219446042</v>
+        <v>-237.9743824704449</v>
       </c>
       <c r="L25" s="2">
-        <v>22306.092450045289</v>
+        <v>23559.46386457405</v>
       </c>
       <c r="M25" s="2">
-        <v>216.1970267785083</v>
+        <v>237.9743824704449</v>
       </c>
       <c r="N25" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="4">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26" s="5">
-        <v>45557.572916666657</v>
+        <v>45555.57291666666</v>
       </c>
       <c r="D26" s="5">
-        <v>45557.586805555547</v>
+        <v>45555.75347222222</v>
       </c>
       <c r="E26" s="2">
-        <v>2570.11</v>
+        <v>62827.98</v>
       </c>
       <c r="F26" s="2">
-        <v>2561.357643315172</v>
+        <v>62553.16864608096</v>
       </c>
       <c r="G26" s="2">
-        <v>2596.3670700544858</v>
+        <v>63652.41406175715</v>
       </c>
       <c r="H26" s="2">
-        <v>2561.357643315172</v>
+        <v>62553.16864608096</v>
       </c>
       <c r="I26" s="1">
-        <v>25.485812853937901</v>
+        <v>0.8572958696427897</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K26" s="2">
-        <v>-223.0609245004529</v>
+        <v>-235.5946386457404</v>
       </c>
       <c r="L26" s="2">
-        <v>22083.03152554484</v>
+        <v>23323.86922592831</v>
       </c>
       <c r="M26" s="2">
-        <v>223.0609245004529</v>
+        <v>235.5946386457404</v>
       </c>
       <c r="N26" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" s="4">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="5">
-        <v>45557.798611111109</v>
+        <v>45556.87152777778</v>
       </c>
       <c r="D27" s="5">
-        <v>45557.805555555547</v>
+        <v>45556.90277777778</v>
       </c>
       <c r="E27" s="2">
-        <v>2571</v>
+        <v>63139.99</v>
       </c>
       <c r="F27" s="2">
-        <v>2563.456707049284</v>
+        <v>63077.75326250216</v>
       </c>
       <c r="G27" s="2">
-        <v>2593.6298788521472</v>
+        <v>63326.7002124935</v>
       </c>
       <c r="H27" s="2">
-        <v>2563.456707049284</v>
+        <v>63077.75326250216</v>
       </c>
       <c r="I27" s="1">
-        <v>29.27505489953165</v>
+        <v>3.747604736951342</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K27" s="2">
-        <v>-220.8303152554484</v>
+        <v>-233.2386922592831</v>
       </c>
       <c r="L27" s="2">
-        <v>21862.20121028939</v>
+        <v>23090.63053366902</v>
       </c>
       <c r="M27" s="2">
-        <v>220.8303152554484</v>
+        <v>233.2386922592831</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="4">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28" s="5">
-        <v>45557.809027777781</v>
+        <v>45559.60416666666</v>
       </c>
       <c r="D28" s="5">
-        <v>45557.913194444453</v>
+        <v>45559.74305555555</v>
       </c>
       <c r="E28" s="2">
-        <v>2565.48</v>
+        <v>62891.77</v>
       </c>
       <c r="F28" s="2">
-        <v>2557.75705006825</v>
+        <v>62555.63489974022</v>
       </c>
       <c r="G28" s="2">
-        <v>2588.64884979525</v>
+        <v>63900.17530077934</v>
       </c>
       <c r="H28" s="2">
-        <v>2557.75705006825</v>
+        <v>63987.48</v>
       </c>
       <c r="I28" s="1">
-        <v>28.308096522044199</v>
+        <v>0.6869449371941089</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K28" s="2">
-        <v>-218.6220121028939</v>
+        <v>752.6924371329615</v>
       </c>
       <c r="L28" s="2">
-        <v>21643.5791981865</v>
+        <v>23843.32297080199</v>
       </c>
       <c r="M28" s="2">
-        <v>218.6220121028939</v>
+        <v>230.9063053366903</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" s="4">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29" s="5">
-        <v>45558.885416666657</v>
+        <v>45560.55208333334</v>
       </c>
       <c r="D29" s="5">
-        <v>45559.541666666657</v>
+        <v>45560.56944444445</v>
       </c>
       <c r="E29" s="2">
-        <v>2648.37</v>
+        <v>63542.86</v>
       </c>
       <c r="F29" s="2">
-        <v>2636.8884587472548</v>
+        <v>63380.86679431597</v>
       </c>
       <c r="G29" s="2">
-        <v>2682.8146237582341</v>
+        <v>64028.83961705207</v>
       </c>
       <c r="H29" s="2">
-        <v>2636.8884587472548</v>
+        <v>63380.86679431597</v>
       </c>
       <c r="I29" s="1">
-        <v>18.850761166766471</v>
+        <v>1.471871790555789</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K29" s="2">
-        <v>-216.43579198186501</v>
+        <v>-238.4332297080199</v>
       </c>
       <c r="L29" s="2">
-        <v>21427.143406204628</v>
+        <v>23604.88974109397</v>
       </c>
       <c r="M29" s="2">
-        <v>216.43579198186501</v>
+        <v>238.4332297080199</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" s="4">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30" s="5">
-        <v>45559.597222222219</v>
+        <v>45560.66319444445</v>
       </c>
       <c r="D30" s="5">
-        <v>45560.71875</v>
+        <v>45560.72569444445</v>
       </c>
       <c r="E30" s="2">
-        <v>2606.96</v>
+        <v>63495.66</v>
       </c>
       <c r="F30" s="2">
-        <v>2588.7880300396951</v>
+        <v>63238.51340088991</v>
       </c>
       <c r="G30" s="2">
-        <v>2661.4759098809168</v>
+        <v>64267.09979733027</v>
       </c>
       <c r="H30" s="2">
-        <v>2588.7880300396951</v>
+        <v>63238.51340088991</v>
       </c>
       <c r="I30" s="1">
-        <v>11.79131566528546</v>
+        <v>0.9179545762138586</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K30" s="2">
-        <v>-214.2714340620463</v>
+        <v>-236.0488974109397</v>
       </c>
       <c r="L30" s="2">
-        <v>21212.87197214258</v>
+        <v>23368.84084368303</v>
       </c>
       <c r="M30" s="2">
-        <v>214.2714340620463</v>
+        <v>236.0488974109397</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" s="4">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31" s="5">
-        <v>45561.736111111109</v>
+        <v>45560.73611111111</v>
       </c>
       <c r="D31" s="5">
-        <v>45562.597222222219</v>
+        <v>45561.54166666666</v>
       </c>
       <c r="E31" s="2">
-        <v>2635.5</v>
+        <v>63106.11</v>
       </c>
       <c r="F31" s="2">
-        <v>2618.8392329275498</v>
+        <v>62878.17283728504</v>
       </c>
       <c r="G31" s="2">
-        <v>2685.4823012173511</v>
+        <v>63789.92148814488</v>
       </c>
       <c r="H31" s="2">
-        <v>2692.95</v>
+        <v>64491.99</v>
       </c>
       <c r="I31" s="1">
-        <v>12.732230082743079</v>
+        <v>1.025231715852596</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K31" s="2">
-        <v>731.46661825358785</v>
+        <v>1420.848130365793</v>
       </c>
       <c r="L31" s="2">
-        <v>21944.338590396172</v>
+        <v>24789.68897404882</v>
       </c>
       <c r="M31" s="2">
-        <v>212.12871972142591</v>
+        <v>233.6884084368303</v>
       </c>
       <c r="N31" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="A32" s="4">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32" s="5">
-        <v>45563.545138888891</v>
+        <v>45561.83333333334</v>
       </c>
       <c r="D32" s="5">
-        <v>45563.725694444453</v>
+        <v>45562.54166666666</v>
       </c>
       <c r="E32" s="2">
-        <v>2654.79</v>
+        <v>64789.21</v>
       </c>
       <c r="F32" s="2">
-        <v>2647.349644867199</v>
+        <v>64523.86379052822</v>
       </c>
       <c r="G32" s="2">
-        <v>2677.1110653984051</v>
+        <v>65585.24862841534</v>
       </c>
       <c r="H32" s="2">
-        <v>2683.74</v>
+        <v>65788.95</v>
       </c>
       <c r="I32" s="1">
-        <v>29.493670931986511</v>
+        <v>0.9342394234082674</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K32" s="2">
-        <v>853.84177348100411</v>
+        <v>933.9965211581793</v>
       </c>
       <c r="L32" s="2">
-        <v>22798.180363877171</v>
+        <v>25723.685495207</v>
       </c>
       <c r="M32" s="2">
-        <v>219.44338590396171</v>
+        <v>247.8968897404882</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14">
       <c r="A33" s="4">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33" s="5">
-        <v>45564.541666666657</v>
+        <v>45562.72916666666</v>
       </c>
       <c r="D33" s="5">
-        <v>45564.635416666657</v>
+        <v>45562.76736111111</v>
       </c>
       <c r="E33" s="2">
-        <v>2643.8</v>
+        <v>65839.7</v>
       </c>
       <c r="F33" s="2">
-        <v>2636.887955474564</v>
+        <v>65591.29186216071</v>
       </c>
       <c r="G33" s="2">
-        <v>2664.5361335763068</v>
+        <v>66584.92441351785</v>
       </c>
       <c r="H33" s="2">
-        <v>2668.78</v>
+        <v>65591.29186216071</v>
       </c>
       <c r="I33" s="1">
-        <v>32.98326606546285</v>
+        <v>1.035541175058019</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K33" s="2">
-        <v>823.92198631526264</v>
+        <v>-257.23685495207</v>
       </c>
       <c r="L33" s="2">
-        <v>23622.102350192439</v>
+        <v>25466.44864025493</v>
       </c>
       <c r="M33" s="2">
-        <v>227.98180363877171</v>
+        <v>257.23685495207</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -1947,43 +1931,43 @@
         <v>13</v>
       </c>
       <c r="C34" s="5">
-        <v>45567.670138888891</v>
+        <v>45563.69791666666</v>
       </c>
       <c r="D34" s="5">
-        <v>45567.756944444453</v>
+        <v>45563.75694444445</v>
       </c>
       <c r="E34" s="2">
-        <v>2472.89</v>
+        <v>65528.78</v>
       </c>
       <c r="F34" s="2">
-        <v>2490.46885184238</v>
+        <v>65445.61162234694</v>
       </c>
       <c r="G34" s="2">
-        <v>2420.1534444728591</v>
+        <v>65778.28513295919</v>
       </c>
       <c r="H34" s="2">
-        <v>2412.5500000000002</v>
+        <v>65793.87</v>
       </c>
       <c r="I34" s="1">
-        <v>13.4377959163652</v>
+        <v>3.062035037702475</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K34" s="2">
-        <v>810.83660559347186</v>
+        <v>811.7148681445385</v>
       </c>
       <c r="L34" s="2">
-        <v>24432.93895578591</v>
+        <v>26278.16350839947</v>
       </c>
       <c r="M34" s="2">
-        <v>236.22102350192429</v>
+        <v>254.6644864025493</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -1991,175 +1975,175 @@
         <v>13</v>
       </c>
       <c r="C35" s="5">
-        <v>45568.725694444453</v>
+        <v>45564.54166666666</v>
       </c>
       <c r="D35" s="5">
-        <v>45569.541666666657</v>
+        <v>45564.56944444445</v>
       </c>
       <c r="E35" s="2">
-        <v>2343.7199999999998</v>
+        <v>65594</v>
       </c>
       <c r="F35" s="2">
-        <v>2361.4200792944562</v>
+        <v>65525.27729571024</v>
       </c>
       <c r="G35" s="2">
-        <v>2290.6197621166311</v>
+        <v>65800.16811286927</v>
       </c>
       <c r="H35" s="2">
-        <v>2361.4200792944562</v>
+        <v>65846.14999999999</v>
       </c>
       <c r="I35" s="1">
-        <v>13.80385847392122</v>
+        <v>3.823796484725352</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K35" s="2">
-        <v>-244.32938955785909</v>
+        <v>964.1702836234753</v>
       </c>
       <c r="L35" s="2">
-        <v>24188.60956622805</v>
+        <v>27242.33379202295</v>
       </c>
       <c r="M35" s="2">
-        <v>244.32938955785909</v>
+        <v>262.7816350839947</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14">
       <c r="A36" s="4">
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C36" s="5">
-        <v>45573.569444444453</v>
+        <v>45567.57986111111</v>
       </c>
       <c r="D36" s="5">
-        <v>45573.583333333343</v>
+        <v>45567.64236111111</v>
       </c>
       <c r="E36" s="2">
-        <v>2440.81</v>
+        <v>61350</v>
       </c>
       <c r="F36" s="2">
-        <v>2451.6568641348149</v>
+        <v>61750.24230766267</v>
       </c>
       <c r="G36" s="2">
-        <v>2408.2694075955542</v>
+        <v>60149.27307701199</v>
       </c>
       <c r="H36" s="2">
-        <v>2451.6568641348149</v>
+        <v>61750.24230766267</v>
       </c>
       <c r="I36" s="1">
-        <v>22.300094539387992</v>
+        <v>0.680646030428722</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K36" s="2">
-        <v>-241.8860956622805</v>
+        <v>-272.4233379202295</v>
       </c>
       <c r="L36" s="2">
-        <v>23946.723470565761</v>
+        <v>26969.91045410272</v>
       </c>
       <c r="M36" s="2">
-        <v>241.8860956622805</v>
+        <v>272.4233379202295</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14">
       <c r="A37" s="4">
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C37" s="5">
-        <v>45573.690972222219</v>
+        <v>45567.64930555555</v>
       </c>
       <c r="D37" s="5">
-        <v>45573.90625</v>
+        <v>45567.67013888889</v>
       </c>
       <c r="E37" s="2">
-        <v>2442.1999999999998</v>
+        <v>61808</v>
       </c>
       <c r="F37" s="2">
-        <v>2458.080882383445</v>
+        <v>62232.87979387655</v>
       </c>
       <c r="G37" s="2">
-        <v>2394.5573528496629</v>
+        <v>60533.36061837036</v>
       </c>
       <c r="H37" s="2">
-        <v>2458.080882383445</v>
+        <v>62232.87979387655</v>
       </c>
       <c r="I37" s="1">
-        <v>15.078962800913409</v>
+        <v>0.6347656641430905</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K37" s="2">
-        <v>-239.46723470565769</v>
+        <v>-269.6991045410272</v>
       </c>
       <c r="L37" s="2">
-        <v>23707.25623586011</v>
+        <v>26700.21134956169</v>
       </c>
       <c r="M37" s="2">
-        <v>239.46723470565769</v>
+        <v>269.6991045410272</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14">
       <c r="A38" s="4">
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C38" s="5">
-        <v>45574.600694444453</v>
+        <v>45568.83680555555</v>
       </c>
       <c r="D38" s="5">
-        <v>45574.631944444453</v>
+        <v>45569.54166666666</v>
       </c>
       <c r="E38" s="2">
-        <v>2440.9</v>
+        <v>60998.01</v>
       </c>
       <c r="F38" s="2">
-        <v>2452.0316092045618</v>
+        <v>61258.38697675495</v>
       </c>
       <c r="G38" s="2">
-        <v>2407.505172386313</v>
+        <v>60216.87906973514</v>
       </c>
       <c r="H38" s="2">
-        <v>2452.0316092045618</v>
+        <v>61258.38697675495</v>
       </c>
       <c r="I38" s="1">
-        <v>21.297240857273231</v>
+        <v>1.025444403046814</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K38" s="2">
-        <v>-237.07256235860109</v>
+        <v>-267.0021134956169</v>
       </c>
       <c r="L38" s="2">
-        <v>23470.183673501509</v>
+        <v>26433.20923606607</v>
       </c>
       <c r="M38" s="2">
-        <v>237.07256235860109</v>
+        <v>267.0021134956169</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14">
       <c r="A39" s="4">
         <v>37</v>
       </c>
@@ -2167,43 +2151,43 @@
         <v>13</v>
       </c>
       <c r="C39" s="5">
-        <v>45575.666666666657</v>
+        <v>45572.78472222222</v>
       </c>
       <c r="D39" s="5">
-        <v>45575.743055555547</v>
+        <v>45573.54166666666</v>
       </c>
       <c r="E39" s="2">
-        <v>2414.04</v>
+        <v>62854</v>
       </c>
       <c r="F39" s="2">
-        <v>2428.3537040440278</v>
+        <v>62536.10475295419</v>
       </c>
       <c r="G39" s="2">
-        <v>2371.0988878679168</v>
+        <v>63807.68574113742</v>
       </c>
       <c r="H39" s="2">
-        <v>2370.15</v>
+        <v>62536.10475295419</v>
       </c>
       <c r="I39" s="1">
-        <v>16.397002202441101</v>
+        <v>0.8315069030351673</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K39" s="2">
-        <v>719.66442666513763</v>
+        <v>-264.3320923606607</v>
       </c>
       <c r="L39" s="2">
-        <v>24189.848100166641</v>
+        <v>26168.87714370541</v>
       </c>
       <c r="M39" s="2">
-        <v>234.70183673501509</v>
+        <v>264.3320923606607</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14">
       <c r="A40" s="4">
         <v>38</v>
       </c>
@@ -2211,43 +2195,43 @@
         <v>14</v>
       </c>
       <c r="C40" s="5">
-        <v>45579.895833333343</v>
+        <v>45574.63541666666</v>
       </c>
       <c r="D40" s="5">
-        <v>45580.541666666657</v>
+        <v>45574.76041666666</v>
       </c>
       <c r="E40" s="2">
-        <v>2616.96</v>
+        <v>62154.01</v>
       </c>
       <c r="F40" s="2">
-        <v>2610.854811630566</v>
+        <v>62423.34065553886</v>
       </c>
       <c r="G40" s="2">
-        <v>2635.2755651082998</v>
+        <v>61346.01803338341</v>
       </c>
       <c r="H40" s="2">
-        <v>2610.854811630566</v>
+        <v>61256.68</v>
       </c>
       <c r="I40" s="1">
-        <v>39.621788283022248</v>
+        <v>0.9716263858396695</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K40" s="2">
-        <v>-241.89848100166651</v>
+        <v>871.8695048055124</v>
       </c>
       <c r="L40" s="2">
-        <v>23947.949619164981</v>
+        <v>27040.74664851092</v>
       </c>
       <c r="M40" s="2">
-        <v>241.89848100166651</v>
+        <v>261.6887714370541</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14">
       <c r="A41" s="4">
         <v>39</v>
       </c>
@@ -2255,87 +2239,87 @@
         <v>14</v>
       </c>
       <c r="C41" s="5">
-        <v>45580.631944444453</v>
+        <v>45575.66666666666</v>
       </c>
       <c r="D41" s="5">
-        <v>45583.774305555547</v>
+        <v>45575.71180555555</v>
       </c>
       <c r="E41" s="2">
-        <v>2561.4</v>
+        <v>60939.99</v>
       </c>
       <c r="F41" s="2">
-        <v>2524.6140141718602</v>
+        <v>61207.32723240598</v>
       </c>
       <c r="G41" s="2">
-        <v>2671.7579574844208</v>
+        <v>60137.97830278204</v>
       </c>
       <c r="H41" s="2">
-        <v>2671.84</v>
+        <v>60035.94</v>
       </c>
       <c r="I41" s="1">
-        <v>6.510074170921194</v>
+        <v>1.0114844986293</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K41" s="2">
-        <v>718.97259143653707</v>
+        <v>914.4325609858141</v>
       </c>
       <c r="L41" s="2">
-        <v>24666.922210601511</v>
+        <v>27955.17920949673</v>
       </c>
       <c r="M41" s="2">
-        <v>239.47949619164979</v>
+        <v>270.4074664851092</v>
       </c>
       <c r="N41" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14">
       <c r="A42" s="4">
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C42" s="5">
-        <v>45583.850694444453</v>
+        <v>45579.56597222222</v>
       </c>
       <c r="D42" s="5">
-        <v>45584.565972222219</v>
+        <v>45579.58333333334</v>
       </c>
       <c r="E42" s="2">
-        <v>2644.79</v>
+        <v>64698.16</v>
       </c>
       <c r="F42" s="2">
-        <v>2635.7033007335172</v>
+        <v>64481.86097841314</v>
       </c>
       <c r="G42" s="2">
-        <v>2672.0500977994502</v>
+        <v>65347.05706476059</v>
       </c>
       <c r="H42" s="2">
-        <v>2635.7033007335172</v>
+        <v>65446</v>
       </c>
       <c r="I42" s="1">
-        <v>27.146185305798181</v>
+        <v>1.292432069475186</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K42" s="2">
-        <v>-246.66922210601521</v>
+        <v>966.5323988363185</v>
       </c>
       <c r="L42" s="2">
-        <v>24420.2529884955</v>
+        <v>28921.71160833305</v>
       </c>
       <c r="M42" s="2">
-        <v>246.66922210601521</v>
+        <v>279.5517920949674</v>
       </c>
       <c r="N42" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14">
       <c r="A43" s="4">
         <v>41</v>
       </c>
@@ -2343,43 +2327,43 @@
         <v>13</v>
       </c>
       <c r="C43" s="5">
-        <v>45588.826388888891</v>
+        <v>45581.87847222222</v>
       </c>
       <c r="D43" s="5">
-        <v>45589.541666666657</v>
+        <v>45582.54166666666</v>
       </c>
       <c r="E43" s="2">
-        <v>2512.88</v>
+        <v>67627.53</v>
       </c>
       <c r="F43" s="2">
-        <v>2529.794702078842</v>
+        <v>67439.7503641635</v>
       </c>
       <c r="G43" s="2">
-        <v>2462.1358937634759</v>
+        <v>68190.86890750952</v>
       </c>
       <c r="H43" s="2">
-        <v>2529.794702078842</v>
+        <v>67439.7503641635</v>
       </c>
       <c r="I43" s="1">
-        <v>14.43729418033486</v>
+        <v>1.54019425373234</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K43" s="2">
-        <v>-244.202529884955</v>
+        <v>-289.2171160833306</v>
       </c>
       <c r="L43" s="2">
-        <v>24176.050458610549</v>
+        <v>28632.49449224972</v>
       </c>
       <c r="M43" s="2">
-        <v>244.202529884955</v>
+        <v>289.2171160833306</v>
       </c>
       <c r="N43" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14">
       <c r="A44" s="4">
         <v>42</v>
       </c>
@@ -2387,43 +2371,43 @@
         <v>13</v>
       </c>
       <c r="C44" s="5">
-        <v>45589.809027777781</v>
+        <v>45582.75694444445</v>
       </c>
       <c r="D44" s="5">
-        <v>45589.881944444453</v>
+        <v>45583.54166666666</v>
       </c>
       <c r="E44" s="2">
-        <v>2535.92</v>
+        <v>66860.00999999999</v>
       </c>
       <c r="F44" s="2">
-        <v>2544.2912019113119</v>
+        <v>66574.9741201671</v>
       </c>
       <c r="G44" s="2">
-        <v>2510.8063942660629</v>
+        <v>67715.1176394987</v>
       </c>
       <c r="H44" s="2">
-        <v>2544.2912019113119</v>
+        <v>67866.91</v>
       </c>
       <c r="I44" s="1">
-        <v>28.880023101510339</v>
+        <v>1.004522466050088</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K44" s="2">
-        <v>-241.7605045861055</v>
+        <v>1011.453671065842</v>
       </c>
       <c r="L44" s="2">
-        <v>23934.28995402444</v>
+        <v>29643.94816331557</v>
       </c>
       <c r="M44" s="2">
-        <v>241.7605045861055</v>
+        <v>286.3249449224973</v>
       </c>
       <c r="N44" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14">
       <c r="A45" s="4">
         <v>43</v>
       </c>
@@ -2431,43 +2415,43 @@
         <v>13</v>
       </c>
       <c r="C45" s="5">
-        <v>45589.885416666657</v>
+        <v>45583.82638888889</v>
       </c>
       <c r="D45" s="5">
-        <v>45590.569444444453</v>
+        <v>45583.85763888889</v>
       </c>
       <c r="E45" s="2">
-        <v>2552.5500000000002</v>
+        <v>68617.99000000001</v>
       </c>
       <c r="F45" s="2">
-        <v>2561.0755296428242</v>
+        <v>68425.34419984145</v>
       </c>
       <c r="G45" s="2">
-        <v>2526.9734110715299</v>
+        <v>69195.92740047567</v>
       </c>
       <c r="H45" s="2">
-        <v>2525.1</v>
+        <v>68425.34419984145</v>
       </c>
       <c r="I45" s="1">
-        <v>28.07366926953479</v>
+        <v>1.538779881986385</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K45" s="2">
-        <v>770.6222214487376</v>
+        <v>-296.4394816331557</v>
       </c>
       <c r="L45" s="2">
-        <v>24704.912175473179</v>
+        <v>29347.50868168241</v>
       </c>
       <c r="M45" s="2">
-        <v>239.34289954024439</v>
+        <v>296.4394816331557</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14">
       <c r="A46" s="4">
         <v>44</v>
       </c>
@@ -2475,43 +2459,43 @@
         <v>13</v>
       </c>
       <c r="C46" s="5">
-        <v>45591.715277777781</v>
+        <v>45583.88541666666</v>
       </c>
       <c r="D46" s="5">
-        <v>45591.753472222219</v>
+        <v>45583.90972222222</v>
       </c>
       <c r="E46" s="2">
-        <v>2475.2199999999998</v>
+        <v>68423.09</v>
       </c>
       <c r="F46" s="2">
-        <v>2484.5339584833559</v>
+        <v>68256.37086671173</v>
       </c>
       <c r="G46" s="2">
-        <v>2447.2781245499318</v>
+        <v>68923.24739986481</v>
       </c>
       <c r="H46" s="2">
-        <v>2484.5339584833559</v>
+        <v>68256.37086671173</v>
       </c>
       <c r="I46" s="1">
-        <v>26.524610582729519</v>
+        <v>1.7602963800765</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K46" s="2">
-        <v>-247.0491217547318</v>
+        <v>-293.4750868168241</v>
       </c>
       <c r="L46" s="2">
-        <v>24457.863053718451</v>
+        <v>29054.03359486559</v>
       </c>
       <c r="M46" s="2">
-        <v>247.0491217547318</v>
+        <v>293.4750868168241</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14">
       <c r="A47" s="4">
         <v>45</v>
       </c>
@@ -2519,43 +2503,43 @@
         <v>13</v>
       </c>
       <c r="C47" s="5">
-        <v>45591.847222222219</v>
+        <v>45584.67708333334</v>
       </c>
       <c r="D47" s="5">
-        <v>45592.541666666657</v>
+        <v>45584.70486111111</v>
       </c>
       <c r="E47" s="2">
-        <v>2505.17</v>
+        <v>68134</v>
       </c>
       <c r="F47" s="2">
-        <v>2512.521421767407</v>
+        <v>68060.49521876955</v>
       </c>
       <c r="G47" s="2">
-        <v>2483.1157346977789</v>
+        <v>68354.51434369135</v>
       </c>
       <c r="H47" s="2">
-        <v>2475.73</v>
+        <v>68060.49521876955</v>
       </c>
       <c r="I47" s="1">
-        <v>33.269568564483983</v>
+        <v>3.952672616462104</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K47" s="2">
-        <v>979.45609853841006</v>
+        <v>-290.5403359486559</v>
       </c>
       <c r="L47" s="2">
-        <v>25437.31915225686</v>
+        <v>28763.49325891693</v>
       </c>
       <c r="M47" s="2">
-        <v>244.57863053718449</v>
+        <v>290.5403359486559</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14">
       <c r="A48" s="4">
         <v>46</v>
       </c>
@@ -2563,263 +2547,263 @@
         <v>13</v>
       </c>
       <c r="C48" s="5">
-        <v>45592.548611111109</v>
+        <v>45585.73611111111</v>
       </c>
       <c r="D48" s="5">
-        <v>45592.555555555547</v>
+        <v>45585.85763888889</v>
       </c>
       <c r="E48" s="2">
-        <v>2480.81</v>
+        <v>68456.03</v>
       </c>
       <c r="F48" s="2">
-        <v>2486.5158172926931</v>
+        <v>68375.23532722067</v>
       </c>
       <c r="G48" s="2">
-        <v>2463.6925481219209</v>
+        <v>68698.41401833798</v>
       </c>
       <c r="H48" s="2">
-        <v>2486.5158172926931</v>
+        <v>68749</v>
       </c>
       <c r="I48" s="1">
-        <v>44.581376948108392</v>
+        <v>3.560072993608941</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K48" s="2">
-        <v>-254.37319152256859</v>
+        <v>1042.994584937616</v>
       </c>
       <c r="L48" s="2">
-        <v>25182.945960734291</v>
+        <v>29806.48784385455</v>
       </c>
       <c r="M48" s="2">
-        <v>254.37319152256859</v>
+        <v>287.6349325891694</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14">
       <c r="A49" s="4">
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" s="5">
-        <v>45594.541666666657</v>
+        <v>45589.67708333334</v>
       </c>
       <c r="D49" s="5">
-        <v>45594.583333333343</v>
+        <v>45589.87847222222</v>
       </c>
       <c r="E49" s="2">
-        <v>2619.19</v>
+        <v>67434.86</v>
       </c>
       <c r="F49" s="2">
-        <v>2611.173169454275</v>
+        <v>67127.41073820791</v>
       </c>
       <c r="G49" s="2">
-        <v>2643.240491637177</v>
+        <v>68357.20778537629</v>
       </c>
       <c r="H49" s="2">
-        <v>2645.41</v>
+        <v>68451.41</v>
       </c>
       <c r="I49" s="1">
-        <v>31.412596059126649</v>
+        <v>0.9694766437270161</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K49" s="2">
-        <v>823.63826867029434</v>
+        <v>985.5214821807011</v>
       </c>
       <c r="L49" s="2">
-        <v>26006.58422940458</v>
+        <v>30792.00932603525</v>
       </c>
       <c r="M49" s="2">
-        <v>251.8294596073429</v>
+        <v>298.0648784385455</v>
       </c>
       <c r="N49" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14">
       <c r="A50" s="4">
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C50" s="5">
-        <v>45594.815972222219</v>
+        <v>45590.56944444445</v>
       </c>
       <c r="D50" s="5">
-        <v>45594.847222222219</v>
+        <v>45590.57986111111</v>
       </c>
       <c r="E50" s="2">
-        <v>2629.52</v>
+        <v>67772</v>
       </c>
       <c r="F50" s="2">
-        <v>2610.280303575677</v>
+        <v>67575.89941978455</v>
       </c>
       <c r="G50" s="2">
-        <v>2687.2390892729691</v>
+        <v>68360.30174064638</v>
       </c>
       <c r="H50" s="2">
-        <v>2610.280303575677</v>
+        <v>68427.62</v>
       </c>
       <c r="I50" s="1">
-        <v>13.51714894863246</v>
+        <v>1.570215105544528</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K50" s="2">
-        <v>-260.06584229404581</v>
+        <v>1029.464427497096</v>
       </c>
       <c r="L50" s="2">
-        <v>25746.518387110529</v>
+        <v>31821.47375353235</v>
       </c>
       <c r="M50" s="2">
-        <v>260.06584229404581</v>
+        <v>307.9200932603525</v>
       </c>
       <c r="N50" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14">
       <c r="A51" s="4">
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C51" s="5">
-        <v>45594.850694444453</v>
+        <v>45590.65277777778</v>
       </c>
       <c r="D51" s="5">
-        <v>45595.541666666657</v>
+        <v>45590.65972222222</v>
       </c>
       <c r="E51" s="2">
-        <v>2613.11</v>
+        <v>68078.16</v>
       </c>
       <c r="F51" s="2">
-        <v>2594.6129331635411</v>
+        <v>67771.75524562591</v>
       </c>
       <c r="G51" s="2">
-        <v>2668.601200509378</v>
+        <v>68997.37426312228</v>
       </c>
       <c r="H51" s="2">
-        <v>2690.88</v>
+        <v>67771.75524562591</v>
       </c>
       <c r="I51" s="1">
-        <v>13.91924385349667</v>
+        <v>1.038543733387426</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K51" s="2">
-        <v>1082.4995944864361</v>
+        <v>-318.2147375353235</v>
       </c>
       <c r="L51" s="2">
-        <v>26829.017981596971</v>
+        <v>31503.25901599702</v>
       </c>
       <c r="M51" s="2">
-        <v>257.46518387110541</v>
+        <v>318.2147375353235</v>
       </c>
       <c r="N51" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14">
       <c r="A52" s="4">
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C52" s="5">
-        <v>45595.809027777781</v>
+        <v>45590.67013888889</v>
       </c>
       <c r="D52" s="5">
-        <v>45595.840277777781</v>
+        <v>45590.74652777778</v>
       </c>
       <c r="E52" s="2">
-        <v>2661</v>
+        <v>67570.47</v>
       </c>
       <c r="F52" s="2">
-        <v>2649.8470452248521</v>
+        <v>67193.39228434242</v>
       </c>
       <c r="G52" s="2">
-        <v>2694.4588643254451</v>
+        <v>68701.70314697274</v>
       </c>
       <c r="H52" s="2">
-        <v>2649.8470452248521</v>
+        <v>67193.39228434242</v>
       </c>
       <c r="I52" s="1">
-        <v>24.055524766745101</v>
+        <v>0.835457989371212</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K52" s="2">
-        <v>-268.29017981596968</v>
+        <v>-315.0325901599703</v>
       </c>
       <c r="L52" s="2">
-        <v>26560.727801780999</v>
+        <v>31188.22642583705</v>
       </c>
       <c r="M52" s="2">
-        <v>268.29017981596968</v>
+        <v>315.0325901599703</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14">
       <c r="A53" s="4">
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C53" s="5">
-        <v>45595.899305555547</v>
+        <v>45592.78819444445</v>
       </c>
       <c r="D53" s="5">
-        <v>45596.545138888891</v>
+        <v>45592.85416666666</v>
       </c>
       <c r="E53" s="2">
-        <v>2650.55</v>
+        <v>67560</v>
       </c>
       <c r="F53" s="2">
-        <v>2634.871530526922</v>
+        <v>67443.25745755009</v>
       </c>
       <c r="G53" s="2">
-        <v>2697.5854084192329</v>
+        <v>67910.22762734974</v>
       </c>
       <c r="H53" s="2">
-        <v>2634.871530526922</v>
+        <v>67921.25999999999</v>
       </c>
       <c r="I53" s="1">
-        <v>16.940893272388461</v>
+        <v>2.671539078328632</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K53" s="2">
-        <v>-265.60727801781002</v>
+        <v>965.1202074369875</v>
       </c>
       <c r="L53" s="2">
-        <v>26295.120523763191</v>
+        <v>32153.34663327404</v>
       </c>
       <c r="M53" s="2">
-        <v>265.60727801781002</v>
+        <v>311.8822642583705</v>
       </c>
       <c r="N53" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14">
       <c r="A54" s="4">
         <v>52</v>
       </c>
@@ -2827,43 +2811,43 @@
         <v>13</v>
       </c>
       <c r="C54" s="5">
-        <v>45597.854166666657</v>
+        <v>45593.63888888889</v>
       </c>
       <c r="D54" s="5">
-        <v>45597.899305555547</v>
+        <v>45593.79861111111</v>
       </c>
       <c r="E54" s="2">
-        <v>2523.4</v>
+        <v>68591.32000000001</v>
       </c>
       <c r="F54" s="2">
-        <v>2535.2534122852489</v>
+        <v>68268.49572255682</v>
       </c>
       <c r="G54" s="2">
-        <v>2487.8397631442522</v>
+        <v>69559.79283232955</v>
       </c>
       <c r="H54" s="2">
-        <v>2485.0500000000002</v>
+        <v>69617.77</v>
       </c>
       <c r="I54" s="1">
-        <v>22.183587216050451</v>
+        <v>0.9960015054609009</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K54" s="2">
-        <v>850.74056973553274</v>
+        <v>1022.345745280339</v>
       </c>
       <c r="L54" s="2">
-        <v>27145.861093498719</v>
+        <v>33175.69237855438</v>
       </c>
       <c r="M54" s="2">
-        <v>262.95120523763188</v>
+        <v>321.5334663327404</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14">
       <c r="A55" s="4">
         <v>53</v>
       </c>
@@ -2871,43 +2855,43 @@
         <v>13</v>
       </c>
       <c r="C55" s="5">
-        <v>45598.701388888891</v>
+        <v>45594.54166666666</v>
       </c>
       <c r="D55" s="5">
-        <v>45599.541666666657</v>
+        <v>45594.5625</v>
       </c>
       <c r="E55" s="2">
-        <v>2495.64</v>
+        <v>71122</v>
       </c>
       <c r="F55" s="2">
-        <v>2503.7964604473409</v>
+        <v>70949.16239189448</v>
       </c>
       <c r="G55" s="2">
-        <v>2471.1706186579768</v>
+        <v>71640.51282431657</v>
       </c>
       <c r="H55" s="2">
-        <v>2454.6999999999998</v>
+        <v>70949.16239189448</v>
       </c>
       <c r="I55" s="1">
-        <v>33.281423074083733</v>
+        <v>1.919471852347122</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K55" s="2">
-        <v>1362.5414606529901</v>
+        <v>-331.7569237855438</v>
       </c>
       <c r="L55" s="2">
-        <v>28508.402554151711</v>
+        <v>32843.93545476883</v>
       </c>
       <c r="M55" s="2">
-        <v>271.45861093498718</v>
+        <v>331.7569237855438</v>
       </c>
       <c r="N55" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14">
       <c r="A56" s="4">
         <v>54</v>
       </c>
@@ -2915,87 +2899,87 @@
         <v>13</v>
       </c>
       <c r="C56" s="5">
-        <v>45599.666666666657</v>
+        <v>45594.85069444445</v>
       </c>
       <c r="D56" s="5">
-        <v>45599.854166666657</v>
+        <v>45595.56944444445</v>
       </c>
       <c r="E56" s="2">
-        <v>2444.19</v>
+        <v>71995.53</v>
       </c>
       <c r="F56" s="2">
-        <v>2460.4660322513591</v>
+        <v>71476.19468174636</v>
       </c>
       <c r="G56" s="2">
-        <v>2395.3619032459219</v>
+        <v>73553.53595476093</v>
       </c>
       <c r="H56" s="2">
-        <v>2460.4660322513591</v>
+        <v>71476.19468174636</v>
       </c>
       <c r="I56" s="1">
-        <v>17.515572661617941</v>
+        <v>0.6324225274185613</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K56" s="2">
-        <v>-285.08402554151712</v>
+        <v>-328.4393545476884</v>
       </c>
       <c r="L56" s="2">
-        <v>28223.318528610191</v>
+        <v>32515.49610022115</v>
       </c>
       <c r="M56" s="2">
-        <v>285.08402554151712</v>
+        <v>328.4393545476884</v>
       </c>
       <c r="N56" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14">
       <c r="A57" s="4">
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C57" s="5">
-        <v>45601.690972222219</v>
+        <v>45599.67361111111</v>
       </c>
       <c r="D57" s="5">
-        <v>45601.829861111109</v>
+        <v>45599.85763888889</v>
       </c>
       <c r="E57" s="2">
-        <v>2462.42</v>
+        <v>68454.55</v>
       </c>
       <c r="F57" s="2">
-        <v>2480.3514599723699</v>
+        <v>68820.05479353893</v>
       </c>
       <c r="G57" s="2">
-        <v>2408.6256200828889</v>
+        <v>67358.03561938323</v>
       </c>
       <c r="H57" s="2">
-        <v>2401.3000000000002</v>
+        <v>68820.05479353893</v>
       </c>
       <c r="I57" s="1">
-        <v>15.73955415348119</v>
+        <v>0.8896051891794927</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K57" s="2">
-        <v>962.00154986076871</v>
+        <v>-325.1549610022115</v>
       </c>
       <c r="L57" s="2">
-        <v>29185.320078470959</v>
+        <v>32190.34113921893</v>
       </c>
       <c r="M57" s="2">
-        <v>282.2331852861019</v>
+        <v>325.1549610022115</v>
       </c>
       <c r="N57" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14">
       <c r="A58" s="4">
         <v>56</v>
       </c>
@@ -3003,1055 +2987,1055 @@
         <v>14</v>
       </c>
       <c r="C58" s="5">
-        <v>45603.614583333343</v>
+        <v>45600.54861111111</v>
       </c>
       <c r="D58" s="5">
-        <v>45603.659722222219</v>
+        <v>45600.58333333334</v>
       </c>
       <c r="E58" s="2">
-        <v>2783.99</v>
+        <v>69154.23</v>
       </c>
       <c r="F58" s="2">
-        <v>2764.6637380128059</v>
+        <v>69363.96094607309</v>
       </c>
       <c r="G58" s="2">
-        <v>2841.968785961581</v>
+        <v>68525.03716178073</v>
       </c>
       <c r="H58" s="2">
-        <v>2844.31</v>
+        <v>68511</v>
       </c>
       <c r="I58" s="1">
-        <v>15.10137868244254</v>
+        <v>1.53483983846622</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K58" s="2">
-        <v>910.9151621249365</v>
+        <v>987.2550292966203</v>
       </c>
       <c r="L58" s="2">
-        <v>30096.235240595899</v>
+        <v>33177.59616851556</v>
       </c>
       <c r="M58" s="2">
-        <v>291.8532007847096</v>
+        <v>321.9034113921894</v>
       </c>
       <c r="N58" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14">
       <c r="A59" s="4">
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C59" s="5">
-        <v>45604.628472222219</v>
+        <v>45602.55555555555</v>
       </c>
       <c r="D59" s="5">
-        <v>45604.822916666657</v>
+        <v>45602.78472222222</v>
       </c>
       <c r="E59" s="2">
-        <v>2909.81</v>
+        <v>73733.60000000001</v>
       </c>
       <c r="F59" s="2">
-        <v>2888.827016259183</v>
+        <v>73280.47778350514</v>
       </c>
       <c r="G59" s="2">
-        <v>2972.7589512224522</v>
+        <v>75092.9666494846</v>
       </c>
       <c r="H59" s="2">
-        <v>2981.69</v>
+        <v>75150</v>
       </c>
       <c r="I59" s="1">
-        <v>14.34316282772064</v>
+        <v>0.7321997236233758</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K59" s="2">
-        <v>1030.9865440565609</v>
+        <v>1037.087688540145</v>
       </c>
       <c r="L59" s="2">
-        <v>31127.221784652462</v>
+        <v>34214.6838570557</v>
       </c>
       <c r="M59" s="2">
-        <v>300.96235240595888</v>
+        <v>331.7759616851556</v>
       </c>
       <c r="N59" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14">
       <c r="A60" s="4">
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C60" s="5">
-        <v>45604.864583333343</v>
+        <v>45603.5625</v>
       </c>
       <c r="D60" s="5">
-        <v>45605.541666666657</v>
+        <v>45603.58333333334</v>
       </c>
       <c r="E60" s="2">
-        <v>2928.53</v>
+        <v>74785.99000000001</v>
       </c>
       <c r="F60" s="2">
-        <v>2908.679490966188</v>
+        <v>74592.20360532905</v>
       </c>
       <c r="G60" s="2">
-        <v>2988.0815271014371</v>
+        <v>75367.34918401287</v>
       </c>
       <c r="H60" s="2">
-        <v>3037.51</v>
+        <v>74592.20360532905</v>
       </c>
       <c r="I60" s="1">
-        <v>15.680817923425661</v>
+        <v>1.765587512743167</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K60" s="2">
-        <v>1708.8955372949281</v>
+        <v>-342.146838570557</v>
       </c>
       <c r="L60" s="2">
-        <v>32836.117321947393</v>
+        <v>33872.53701848514</v>
       </c>
       <c r="M60" s="2">
-        <v>311.2722178465246</v>
+        <v>342.146838570557</v>
       </c>
       <c r="N60" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14">
       <c r="A61" s="4">
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C61" s="5">
-        <v>45605.614583333343</v>
+        <v>45603.90972222222</v>
       </c>
       <c r="D61" s="5">
-        <v>45605.677083333343</v>
+        <v>45604.61458333334</v>
       </c>
       <c r="E61" s="2">
-        <v>3031</v>
+        <v>76010.89999999999</v>
       </c>
       <c r="F61" s="2">
-        <v>3020.3533282426129</v>
+        <v>75671.93440906159</v>
       </c>
       <c r="G61" s="2">
-        <v>3062.940015272161</v>
+        <v>77027.79677281521</v>
       </c>
       <c r="H61" s="2">
-        <v>3020.3533282426129</v>
+        <v>75671.93440906159</v>
       </c>
       <c r="I61" s="1">
-        <v>30.84167340762076</v>
+        <v>0.9992913122748377</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K61" s="2">
-        <v>-328.36117321947393</v>
+        <v>-338.7253701848514</v>
       </c>
       <c r="L61" s="2">
-        <v>32507.756148727909</v>
+        <v>33533.81164830029</v>
       </c>
       <c r="M61" s="2">
-        <v>328.36117321947393</v>
+        <v>338.7253701848514</v>
       </c>
       <c r="N61" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14">
       <c r="A62" s="4">
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C62" s="5">
-        <v>45608.677083333343</v>
+        <v>45605.54166666666</v>
       </c>
       <c r="D62" s="5">
-        <v>45609.541666666657</v>
+        <v>45605.67708333334</v>
       </c>
       <c r="E62" s="2">
-        <v>3228.47</v>
+        <v>76316.00999999999</v>
       </c>
       <c r="F62" s="2">
-        <v>3190.9440543854762</v>
+        <v>76230.48050748998</v>
       </c>
       <c r="G62" s="2">
-        <v>3341.047836843572</v>
+        <v>76572.59847753005</v>
       </c>
       <c r="H62" s="2">
-        <v>3190.9440543854762</v>
+        <v>76230.48050748998</v>
       </c>
       <c r="I62" s="1">
-        <v>8.6627413690399031</v>
+        <v>3.920730810412898</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K62" s="2">
-        <v>-325.07756148727913</v>
+        <v>-335.3381164830029</v>
       </c>
       <c r="L62" s="2">
-        <v>32182.678587240629</v>
+        <v>33198.47353181728</v>
       </c>
       <c r="M62" s="2">
-        <v>325.07756148727913</v>
+        <v>335.3381164830029</v>
       </c>
       <c r="N62" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14">
       <c r="A63" s="4">
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C63" s="5">
-        <v>45612.84375</v>
+        <v>45605.69791666666</v>
       </c>
       <c r="D63" s="5">
-        <v>45612.850694444453</v>
+        <v>45605.71180555555</v>
       </c>
       <c r="E63" s="2">
-        <v>3160.48</v>
+        <v>76114.46000000001</v>
       </c>
       <c r="F63" s="2">
-        <v>3148.2774552240789</v>
+        <v>75990.24939434923</v>
       </c>
       <c r="G63" s="2">
-        <v>3197.087634327761</v>
+        <v>76487.09181695232</v>
       </c>
       <c r="H63" s="2">
-        <v>3148.2774552240789</v>
+        <v>75990.24939434923</v>
       </c>
       <c r="I63" s="1">
-        <v>26.373743492215649</v>
+        <v>2.672756755180492</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K63" s="2">
-        <v>-321.82678587240628</v>
+        <v>-331.9847353181729</v>
       </c>
       <c r="L63" s="2">
-        <v>31860.85180136823</v>
+        <v>32866.48879649911</v>
       </c>
       <c r="M63" s="2">
-        <v>321.82678587240628</v>
+        <v>331.9847353181729</v>
       </c>
       <c r="N63" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14">
       <c r="A64" s="4">
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C64" s="5">
-        <v>45617.645833333343</v>
+        <v>45606.84375</v>
       </c>
       <c r="D64" s="5">
-        <v>45617.788194444453</v>
+        <v>45606.875</v>
       </c>
       <c r="E64" s="2">
-        <v>3246.59</v>
+        <v>79355.25</v>
       </c>
       <c r="F64" s="2">
-        <v>3201.6535579713409</v>
+        <v>78876.55804556879</v>
       </c>
       <c r="G64" s="2">
-        <v>3381.399326085977</v>
+        <v>80791.32586329363</v>
       </c>
       <c r="H64" s="2">
-        <v>3383.58</v>
+        <v>78876.55804556879</v>
       </c>
       <c r="I64" s="1">
-        <v>7.0902034880840263</v>
+        <v>0.6865895382668702</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K64" s="2">
-        <v>971.2869758326292</v>
+        <v>-328.6648879649911</v>
       </c>
       <c r="L64" s="2">
-        <v>32832.138777200853</v>
+        <v>32537.82390853412</v>
       </c>
       <c r="M64" s="2">
-        <v>318.60851801368233</v>
+        <v>328.6648879649911</v>
       </c>
       <c r="N64" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14">
       <c r="A65" s="4">
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C65" s="5">
-        <v>45618.770833333343</v>
+        <v>45607.55208333334</v>
       </c>
       <c r="D65" s="5">
-        <v>45618.802083333343</v>
+        <v>45607.63194444445</v>
       </c>
       <c r="E65" s="2">
-        <v>3287.07</v>
+        <v>81652</v>
       </c>
       <c r="F65" s="2">
-        <v>3266.3943300801789</v>
+        <v>81240.79654037564</v>
       </c>
       <c r="G65" s="2">
-        <v>3349.0970097594632</v>
+        <v>82885.6103788731</v>
       </c>
       <c r="H65" s="2">
-        <v>3266.3943300801789</v>
+        <v>82970</v>
       </c>
       <c r="I65" s="1">
-        <v>15.87960095345019</v>
+        <v>0.7912828344940914</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K65" s="2">
-        <v>-328.32138777200862</v>
+        <v>1042.910775863212</v>
       </c>
       <c r="L65" s="2">
-        <v>32503.817389428841</v>
+        <v>33580.73468439733</v>
       </c>
       <c r="M65" s="2">
-        <v>328.32138777200862</v>
+        <v>325.3782390853411</v>
       </c>
       <c r="N65" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14">
       <c r="A66" s="4">
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C66" s="5">
-        <v>45619.826388888891</v>
+        <v>45608.54513888889</v>
       </c>
       <c r="D66" s="5">
-        <v>45619.850694444453</v>
+        <v>45608.56597222222</v>
       </c>
       <c r="E66" s="2">
-        <v>3405.4</v>
+        <v>86179.84</v>
       </c>
       <c r="F66" s="2">
-        <v>3385.17720624711</v>
+        <v>85267.33284962896</v>
       </c>
       <c r="G66" s="2">
-        <v>3466.0683812586708</v>
+        <v>88917.3614511131</v>
       </c>
       <c r="H66" s="2">
-        <v>3385.17720624711</v>
+        <v>85267.33284962896</v>
       </c>
       <c r="I66" s="1">
-        <v>16.072862032122991</v>
+        <v>0.3680051676388842</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K66" s="2">
-        <v>-325.03817389428838</v>
+        <v>-335.8073468439733</v>
       </c>
       <c r="L66" s="2">
-        <v>32178.77921553456</v>
+        <v>33244.92733755335</v>
       </c>
       <c r="M66" s="2">
-        <v>325.03817389428838</v>
+        <v>335.8073468439733</v>
       </c>
       <c r="N66" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14">
       <c r="A67" s="4">
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C67" s="5">
-        <v>45621.618055555547</v>
+        <v>45608.90277777778</v>
       </c>
       <c r="D67" s="5">
-        <v>45621.631944444453</v>
+        <v>45609.54166666666</v>
       </c>
       <c r="E67" s="2">
-        <v>3430.48</v>
+        <v>88440</v>
       </c>
       <c r="F67" s="2">
-        <v>3387.027544291549</v>
+        <v>87797.81601832014</v>
       </c>
       <c r="G67" s="2">
-        <v>3560.837367125353</v>
+        <v>90366.55194503957</v>
       </c>
       <c r="H67" s="2">
-        <v>3387.027544291549</v>
+        <v>87797.81601832014</v>
       </c>
       <c r="I67" s="1">
-        <v>7.4055145309718728</v>
+        <v>0.5176854030302881</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K67" s="2">
-        <v>-321.78779215534558</v>
+        <v>-332.4492733755336</v>
       </c>
       <c r="L67" s="2">
-        <v>31856.991423379211</v>
+        <v>32912.47806417782</v>
       </c>
       <c r="M67" s="2">
-        <v>321.78779215534558</v>
+        <v>332.4492733755336</v>
       </c>
       <c r="N67" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14">
       <c r="A68" s="4">
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C68" s="5">
-        <v>45621.90625</v>
+        <v>45609.82291666666</v>
       </c>
       <c r="D68" s="5">
-        <v>45622.541666666657</v>
+        <v>45609.83333333334</v>
       </c>
       <c r="E68" s="2">
-        <v>3427.92</v>
+        <v>90563.99000000001</v>
       </c>
       <c r="F68" s="2">
-        <v>3394.2943605595451</v>
+        <v>89383.28468681063</v>
       </c>
       <c r="G68" s="2">
-        <v>3528.7969183213659</v>
+        <v>94106.10593956812</v>
       </c>
       <c r="H68" s="2">
-        <v>3394.2943605595451</v>
+        <v>89383.28468681063</v>
       </c>
       <c r="I68" s="1">
-        <v>9.4740180271640213</v>
+        <v>0.2787526887235993</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K68" s="2">
-        <v>-318.56991423379208</v>
+        <v>-329.1247806417782</v>
       </c>
       <c r="L68" s="2">
-        <v>31538.421509145421</v>
+        <v>32583.35328353604</v>
       </c>
       <c r="M68" s="2">
-        <v>318.56991423379208</v>
+        <v>329.1247806417782</v>
       </c>
       <c r="N68" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14">
       <c r="A69" s="4">
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C69" s="5">
-        <v>45624.579861111109</v>
+        <v>45610.5625</v>
       </c>
       <c r="D69" s="5">
-        <v>45624.597222222219</v>
+        <v>45610.60763888889</v>
       </c>
       <c r="E69" s="2">
-        <v>3588.12</v>
+        <v>90796.39</v>
       </c>
       <c r="F69" s="2">
-        <v>3563.5749370380449</v>
+        <v>90335.50365889214</v>
       </c>
       <c r="G69" s="2">
-        <v>3661.7551888858638</v>
+        <v>92179.04902332358</v>
       </c>
       <c r="H69" s="2">
-        <v>3563.5749370380449</v>
+        <v>90335.50365889214</v>
       </c>
       <c r="I69" s="1">
-        <v>12.84919152907891</v>
+        <v>0.706971554097551</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K69" s="2">
-        <v>-315.38421509145422</v>
+        <v>-325.8335328353604</v>
       </c>
       <c r="L69" s="2">
-        <v>31223.037294053971</v>
+        <v>32257.51975070068</v>
       </c>
       <c r="M69" s="2">
-        <v>315.38421509145422</v>
+        <v>325.8335328353604</v>
       </c>
       <c r="N69" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14">
       <c r="A70" s="4">
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C70" s="5">
-        <v>45624.600694444453</v>
+        <v>45610.61805555555</v>
       </c>
       <c r="D70" s="5">
-        <v>45625.631944444453</v>
+        <v>45610.65625</v>
       </c>
       <c r="E70" s="2">
-        <v>3557.82</v>
+        <v>89187</v>
       </c>
       <c r="F70" s="2">
-        <v>3528.9547454225162</v>
+        <v>88219.36436295127</v>
       </c>
       <c r="G70" s="2">
-        <v>3644.415763732452</v>
+        <v>92089.9069111462</v>
       </c>
       <c r="H70" s="2">
-        <v>3647.98</v>
+        <v>88219.36436295127</v>
       </c>
       <c r="I70" s="1">
-        <v>10.816823808098061</v>
+        <v>0.3333643213997923</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K70" s="2">
-        <v>975.24483453811922</v>
+        <v>-322.5751975070068</v>
       </c>
       <c r="L70" s="2">
-        <v>32198.282128592091</v>
+        <v>31934.94455319368</v>
       </c>
       <c r="M70" s="2">
-        <v>312.23037294053972</v>
+        <v>322.5751975070068</v>
       </c>
       <c r="N70" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14">
       <c r="A71" s="4">
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C71" s="5">
-        <v>45625.680555555547</v>
+        <v>45610.66666666666</v>
       </c>
       <c r="D71" s="5">
-        <v>45625.791666666657</v>
+        <v>45611.84375</v>
       </c>
       <c r="E71" s="2">
-        <v>3592.75</v>
+        <v>87841.53</v>
       </c>
       <c r="F71" s="2">
-        <v>3568.7263952057051</v>
+        <v>86751.23957777269</v>
       </c>
       <c r="G71" s="2">
-        <v>3664.820814382887</v>
+        <v>91112.4012666819</v>
       </c>
       <c r="H71" s="2">
-        <v>3568.7263952057051</v>
+        <v>91232.46000000001</v>
       </c>
       <c r="I71" s="1">
-        <v>13.402768820205489</v>
+        <v>0.2929031008816457</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K71" s="2">
-        <v>-321.98282128592092</v>
+        <v>993.213911872601</v>
       </c>
       <c r="L71" s="2">
-        <v>31876.29930730617</v>
+        <v>32928.15846506628</v>
       </c>
       <c r="M71" s="2">
-        <v>321.98282128592092</v>
+        <v>319.3494455319368</v>
       </c>
       <c r="N71" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14">
       <c r="A72" s="4">
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C72" s="5">
-        <v>45627.8125</v>
+        <v>45612.63541666666</v>
       </c>
       <c r="D72" s="5">
-        <v>45627.836805555547</v>
+        <v>45612.65277777778</v>
       </c>
       <c r="E72" s="2">
-        <v>3705.91</v>
+        <v>90625.44</v>
       </c>
       <c r="F72" s="2">
-        <v>3692.7159793232649</v>
+        <v>90285.46628495054</v>
       </c>
       <c r="G72" s="2">
-        <v>3745.4920620302041</v>
+        <v>91645.3611451484</v>
       </c>
       <c r="H72" s="2">
-        <v>3692.7159793232649</v>
+        <v>90285.46628495054</v>
       </c>
       <c r="I72" s="1">
-        <v>24.159655413845019</v>
+        <v>0.9685501263024299</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K72" s="2">
-        <v>-318.76299307306169</v>
+        <v>-329.2815846506628</v>
       </c>
       <c r="L72" s="2">
-        <v>31557.536314233101</v>
+        <v>32598.87688041561</v>
       </c>
       <c r="M72" s="2">
-        <v>318.76299307306169</v>
+        <v>329.2815846506628</v>
       </c>
       <c r="N72" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14">
       <c r="A73" s="4">
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C73" s="5">
-        <v>45627.840277777781</v>
+        <v>45612.84722222222</v>
       </c>
       <c r="D73" s="5">
-        <v>45628.541666666657</v>
+        <v>45613.56597222222</v>
       </c>
       <c r="E73" s="2">
-        <v>3692.39</v>
+        <v>90755.14</v>
       </c>
       <c r="F73" s="2">
-        <v>3677.4655321194618</v>
+        <v>90479.33527858699</v>
       </c>
       <c r="G73" s="2">
-        <v>3737.163403641614</v>
+        <v>91582.554164239</v>
       </c>
       <c r="H73" s="2">
-        <v>3677.4655321194618</v>
+        <v>90479.33527858699</v>
       </c>
       <c r="I73" s="1">
-        <v>21.1448318069585</v>
+        <v>1.181954997485348</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K73" s="2">
-        <v>-315.57536314233113</v>
+        <v>-325.9887688041562</v>
       </c>
       <c r="L73" s="2">
-        <v>31241.960951090769</v>
+        <v>32272.88811161146</v>
       </c>
       <c r="M73" s="2">
-        <v>315.57536314233113</v>
+        <v>325.9887688041562</v>
       </c>
       <c r="N73" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14">
       <c r="A74" s="4">
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C74" s="5">
-        <v>45631.791666666657</v>
+        <v>45613.56944444445</v>
       </c>
       <c r="D74" s="5">
-        <v>45631.819444444453</v>
+        <v>45613.60069444445</v>
       </c>
       <c r="E74" s="2">
-        <v>3871.22</v>
+        <v>90456.00999999999</v>
       </c>
       <c r="F74" s="2">
-        <v>3846.3744997022391</v>
+        <v>90097.42602338891</v>
       </c>
       <c r="G74" s="2">
-        <v>3945.756500893282</v>
+        <v>91531.76192983327</v>
       </c>
       <c r="H74" s="2">
-        <v>3846.3744997022391</v>
+        <v>90097.42602338891</v>
       </c>
       <c r="I74" s="1">
-        <v>12.57449460734205</v>
+        <v>0.9000092089060057</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K74" s="2">
-        <v>-312.41960951090772</v>
+        <v>-322.7288811161146</v>
       </c>
       <c r="L74" s="2">
-        <v>30929.541341579861</v>
+        <v>31950.15923049534</v>
       </c>
       <c r="M74" s="2">
-        <v>312.41960951090772</v>
+        <v>322.7288811161146</v>
       </c>
       <c r="N74" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14">
       <c r="A75" s="4">
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C75" s="5">
-        <v>45631.822916666657</v>
+        <v>45613.67361111111</v>
       </c>
       <c r="D75" s="5">
-        <v>45631.833333333343</v>
+        <v>45613.79166666666</v>
       </c>
       <c r="E75" s="2">
-        <v>3843</v>
+        <v>90158.02</v>
       </c>
       <c r="F75" s="2">
-        <v>3813.1560626612591</v>
+        <v>89826.12486262868</v>
       </c>
       <c r="G75" s="2">
-        <v>3932.5318120162242</v>
+        <v>91153.70541211398</v>
       </c>
       <c r="H75" s="2">
-        <v>3813.1560626612591</v>
+        <v>89826.12486262868</v>
       </c>
       <c r="I75" s="1">
-        <v>10.363760314370181</v>
+        <v>0.9626582505410389</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K75" s="2">
-        <v>-309.29541341579858</v>
+        <v>-319.5015923049534</v>
       </c>
       <c r="L75" s="2">
-        <v>30620.245928164069</v>
+        <v>31630.65763819039</v>
       </c>
       <c r="M75" s="2">
-        <v>309.29541341579858</v>
+        <v>319.5015923049534</v>
       </c>
       <c r="N75" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14">
       <c r="A76" s="4">
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C76" s="5">
-        <v>45631.850694444453</v>
+        <v>45613.79861111111</v>
       </c>
       <c r="D76" s="5">
-        <v>45632.600694444453</v>
+        <v>45613.85069444445</v>
       </c>
       <c r="E76" s="2">
-        <v>3806</v>
+        <v>89868</v>
       </c>
       <c r="F76" s="2">
-        <v>3770.9772678929999</v>
+        <v>89542.01706040309</v>
       </c>
       <c r="G76" s="2">
-        <v>3911.068196320999</v>
+        <v>90845.94881879074</v>
       </c>
       <c r="H76" s="2">
-        <v>3918.01</v>
+        <v>89542.01706040309</v>
       </c>
       <c r="I76" s="1">
-        <v>8.7429632373095956</v>
+        <v>0.9703163508281297</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K76" s="2">
-        <v>979.29931221104971</v>
+        <v>-316.3065763819039</v>
       </c>
       <c r="L76" s="2">
-        <v>31599.545240375119</v>
+        <v>31314.35106180848</v>
       </c>
       <c r="M76" s="2">
-        <v>306.20245928164059</v>
+        <v>316.3065763819039</v>
       </c>
       <c r="N76" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14">
       <c r="A77" s="4">
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C77" s="5">
-        <v>45632.913194444453</v>
+        <v>45614.78125</v>
       </c>
       <c r="D77" s="5">
-        <v>45633.541666666657</v>
+        <v>45614.80555555555</v>
       </c>
       <c r="E77" s="2">
-        <v>4022.8</v>
+        <v>90406.37</v>
       </c>
       <c r="F77" s="2">
-        <v>4001.8954713735998</v>
+        <v>89738.26755263879</v>
       </c>
       <c r="G77" s="2">
-        <v>4085.5135858792</v>
+        <v>92410.67734208361</v>
       </c>
       <c r="H77" s="2">
-        <v>4001.8954713735998</v>
+        <v>89738.26755263879</v>
       </c>
       <c r="I77" s="1">
-        <v>15.11612426432262</v>
+        <v>0.4687058277587567</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K77" s="2">
-        <v>-315.99545240375107</v>
+        <v>-313.1435106180849</v>
       </c>
       <c r="L77" s="2">
-        <v>31283.549787971369</v>
+        <v>31001.2075511904</v>
       </c>
       <c r="M77" s="2">
-        <v>315.99545240375107</v>
+        <v>313.1435106180849</v>
       </c>
       <c r="N77" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14">
       <c r="A78" s="4">
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C78" s="5">
-        <v>45633.586805555547</v>
+        <v>45614.80902777778</v>
       </c>
       <c r="D78" s="5">
-        <v>45633.78125</v>
+        <v>45614.84722222222</v>
       </c>
       <c r="E78" s="2">
-        <v>3983.01</v>
+        <v>89843.96000000001</v>
       </c>
       <c r="F78" s="2">
-        <v>3972.704261256134</v>
+        <v>89199.68963318452</v>
       </c>
       <c r="G78" s="2">
-        <v>4013.9272162316001</v>
+        <v>91776.77110044647</v>
       </c>
       <c r="H78" s="2">
-        <v>4014.55</v>
+        <v>91841.8</v>
       </c>
       <c r="I78" s="1">
-        <v>30.355465595893811</v>
+        <v>0.4811831980481091</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K78" s="2">
-        <v>957.41138489448963</v>
+        <v>961.3270403884325</v>
       </c>
       <c r="L78" s="2">
-        <v>32240.96117286586</v>
+        <v>31962.53459157883</v>
       </c>
       <c r="M78" s="2">
-        <v>312.83549787971373</v>
+        <v>310.012075511904</v>
       </c>
       <c r="N78" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14">
       <c r="A79" s="4">
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C79" s="5">
-        <v>45633.899305555547</v>
+        <v>45615.58333333334</v>
       </c>
       <c r="D79" s="5">
-        <v>45634.541666666657</v>
+        <v>45615.72916666666</v>
       </c>
       <c r="E79" s="2">
-        <v>4001.62</v>
+        <v>91220.33</v>
       </c>
       <c r="F79" s="2">
-        <v>3990.3008372728541</v>
+        <v>90645.43500969556</v>
       </c>
       <c r="G79" s="2">
-        <v>4035.5774881814382</v>
+        <v>92945.01497091331</v>
       </c>
       <c r="H79" s="2">
-        <v>3990.3008372728541</v>
+        <v>93068</v>
       </c>
       <c r="I79" s="1">
-        <v>28.483521219766349</v>
+        <v>0.5559717014519949</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K79" s="2">
-        <v>-322.40961172865849</v>
+        <v>1027.252233621806</v>
       </c>
       <c r="L79" s="2">
-        <v>31918.551561137199</v>
+        <v>32989.78682520064</v>
       </c>
       <c r="M79" s="2">
-        <v>322.40961172865849</v>
+        <v>319.6253459157883</v>
       </c>
       <c r="N79" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14">
       <c r="A80" s="4">
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C80" s="5">
-        <v>45634.625</v>
+        <v>45615.88541666666</v>
       </c>
       <c r="D80" s="5">
-        <v>45634.628472222219</v>
+        <v>45616.55208333334</v>
       </c>
       <c r="E80" s="2">
-        <v>3972.57</v>
+        <v>92095.99000000001</v>
       </c>
       <c r="F80" s="2">
-        <v>3960.6258573891791</v>
+        <v>91445.60200694622</v>
       </c>
       <c r="G80" s="2">
-        <v>4008.4024278324632</v>
+        <v>94047.15397916133</v>
       </c>
       <c r="H80" s="2">
-        <v>3960.6258573891791</v>
+        <v>94300</v>
       </c>
       <c r="I80" s="1">
-        <v>26.723183573025992</v>
+        <v>0.507232408616632</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K80" s="2">
-        <v>-319.18551561137201</v>
+        <v>1117.94530091514</v>
       </c>
       <c r="L80" s="2">
-        <v>31599.366045525829</v>
+        <v>34107.73212611578</v>
       </c>
       <c r="M80" s="2">
-        <v>319.18551561137201</v>
+        <v>329.8978682520064</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14">
       <c r="A81" s="4">
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C81" s="5">
-        <v>45634.767361111109</v>
+        <v>45617.55902777778</v>
       </c>
       <c r="D81" s="5">
-        <v>45635.541666666657</v>
+        <v>45617.60763888889</v>
       </c>
       <c r="E81" s="2">
-        <v>3969.99</v>
+        <v>97122.09</v>
       </c>
       <c r="F81" s="2">
-        <v>3956.0986029435799</v>
+        <v>96676.40251636146</v>
       </c>
       <c r="G81" s="2">
-        <v>4011.6641911692591</v>
+        <v>98459.1524509156</v>
       </c>
       <c r="H81" s="2">
-        <v>3956.0986029435799</v>
+        <v>96676.40251636146</v>
       </c>
       <c r="I81" s="1">
-        <v>22.747435637456029</v>
+        <v>0.765283598445806</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K81" s="2">
-        <v>-315.99366045525829</v>
+        <v>-341.0773212611578</v>
       </c>
       <c r="L81" s="2">
-        <v>31283.372385070568</v>
+        <v>33766.65480485462</v>
       </c>
       <c r="M81" s="2">
-        <v>315.99366045525829</v>
+        <v>341.0773212611578</v>
       </c>
       <c r="N81" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14">
       <c r="A82" s="4">
         <v>80</v>
       </c>
@@ -4059,43 +4043,43 @@
         <v>13</v>
       </c>
       <c r="C82" s="5">
-        <v>45636.805555555547</v>
+        <v>45617.64930555555</v>
       </c>
       <c r="D82" s="5">
-        <v>45636.847222222219</v>
+        <v>45617.75</v>
       </c>
       <c r="E82" s="2">
-        <v>3614.6</v>
+        <v>95713.17</v>
       </c>
       <c r="F82" s="2">
-        <v>3652.669154596193</v>
+        <v>94910.39223847893</v>
       </c>
       <c r="G82" s="2">
-        <v>3500.3925362114219</v>
+        <v>98121.50328456318</v>
       </c>
       <c r="H82" s="2">
-        <v>3652.669154596193</v>
+        <v>98149.05</v>
       </c>
       <c r="I82" s="1">
-        <v>8.2175117143786647</v>
+        <v>0.4206226981284977</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K82" s="2">
-        <v>-312.83372385070572</v>
+        <v>1024.586417917247</v>
       </c>
       <c r="L82" s="2">
-        <v>30970.538661219871</v>
+        <v>34791.24122277187</v>
       </c>
       <c r="M82" s="2">
-        <v>312.83372385070572</v>
+        <v>337.6665480485462</v>
       </c>
       <c r="N82" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14">
       <c r="A83" s="4">
         <v>81</v>
       </c>
@@ -4103,219 +4087,219 @@
         <v>13</v>
       </c>
       <c r="C83" s="5">
-        <v>45636.854166666657</v>
+        <v>45618.54861111111</v>
       </c>
       <c r="D83" s="5">
-        <v>45637.541666666657</v>
+        <v>45618.55208333334</v>
       </c>
       <c r="E83" s="2">
-        <v>3651.02</v>
+        <v>98344</v>
       </c>
       <c r="F83" s="2">
-        <v>3681.4981773425702</v>
+        <v>98044.33982473805</v>
       </c>
       <c r="G83" s="2">
-        <v>3559.5854679722888</v>
+        <v>99242.98052578585</v>
       </c>
       <c r="H83" s="2">
-        <v>3681.4981773425702</v>
+        <v>98044.33982473805</v>
       </c>
       <c r="I83" s="1">
-        <v>10.16154552587432</v>
+        <v>1.161023188762381</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K83" s="2">
-        <v>-309.70538661219871</v>
+        <v>-347.9124122277187</v>
       </c>
       <c r="L83" s="2">
-        <v>30660.83327460767</v>
+        <v>34443.32881054415</v>
       </c>
       <c r="M83" s="2">
-        <v>309.70538661219871</v>
+        <v>347.9124122277187</v>
       </c>
       <c r="N83" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14">
       <c r="A84" s="4">
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C84" s="5">
-        <v>45638.690972222219</v>
+        <v>45618.62152777778</v>
       </c>
       <c r="D84" s="5">
-        <v>45638.805555555547</v>
+        <v>45618.79513888889</v>
       </c>
       <c r="E84" s="2">
-        <v>3937.79</v>
+        <v>97296</v>
       </c>
       <c r="F84" s="2">
-        <v>3905.455732878509</v>
+        <v>96616.71599652777</v>
       </c>
       <c r="G84" s="2">
-        <v>4034.7928013644751</v>
+        <v>99333.8520104167</v>
       </c>
       <c r="H84" s="2">
-        <v>3905.455732878509</v>
+        <v>99384.62</v>
       </c>
       <c r="I84" s="1">
-        <v>9.4824580867733808</v>
+        <v>0.5070534361840323</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K84" s="2">
-        <v>-306.60833274607671</v>
+        <v>1059.041947882691</v>
       </c>
       <c r="L84" s="2">
-        <v>30354.22494186159</v>
+        <v>35502.37075842683</v>
       </c>
       <c r="M84" s="2">
-        <v>306.60833274607671</v>
+        <v>344.4332881054415</v>
       </c>
       <c r="N84" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14">
       <c r="A85" s="4">
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C85" s="5">
-        <v>45638.815972222219</v>
+        <v>45619.66666666666</v>
       </c>
       <c r="D85" s="5">
-        <v>45639.621527777781</v>
+        <v>45619.67361111111</v>
       </c>
       <c r="E85" s="2">
-        <v>3865.12</v>
+        <v>98437.94</v>
       </c>
       <c r="F85" s="2">
-        <v>3837.4862279699282</v>
+        <v>98258.69448145299</v>
       </c>
       <c r="G85" s="2">
-        <v>3948.0213160902149</v>
+        <v>98975.67655564107</v>
       </c>
       <c r="H85" s="2">
-        <v>3951.4</v>
+        <v>98258.69448145299</v>
       </c>
       <c r="I85" s="1">
-        <v>10.984466727462859</v>
+        <v>1.980655976574073</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K85" s="2">
-        <v>947.73978924549738</v>
+        <v>-355.0237075842683</v>
       </c>
       <c r="L85" s="2">
-        <v>31301.964731107091</v>
+        <v>35147.34705084257</v>
       </c>
       <c r="M85" s="2">
-        <v>303.54224941861588</v>
+        <v>355.0237075842683</v>
       </c>
       <c r="N85" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14">
       <c r="A86" s="4">
         <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C86" s="5">
-        <v>45639.659722222219</v>
+        <v>45619.67708333334</v>
       </c>
       <c r="D86" s="5">
-        <v>45640.552083333343</v>
+        <v>45619.68055555555</v>
       </c>
       <c r="E86" s="2">
-        <v>3892.99</v>
+        <v>97934.74000000001</v>
       </c>
       <c r="F86" s="2">
-        <v>3863.597315349793</v>
+        <v>97714.79550865605</v>
       </c>
       <c r="G86" s="2">
-        <v>3981.1680539506201</v>
+        <v>98594.57347403186</v>
       </c>
       <c r="H86" s="2">
-        <v>3863.597315349793</v>
+        <v>97714.79550865605</v>
       </c>
       <c r="I86" s="1">
-        <v>10.649576622082011</v>
+        <v>1.598009881314956</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K86" s="2">
-        <v>-313.01964731107091</v>
+        <v>-351.4734705084257</v>
       </c>
       <c r="L86" s="2">
-        <v>30988.945083796021</v>
+        <v>34795.87358033414</v>
       </c>
       <c r="M86" s="2">
-        <v>313.01964731107091</v>
+        <v>351.4734705084257</v>
       </c>
       <c r="N86" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14">
       <c r="A87" s="4">
         <v>85</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C87" s="5">
-        <v>45640.555555555547</v>
+        <v>45619.71527777778</v>
       </c>
       <c r="D87" s="5">
-        <v>45640.770833333343</v>
+        <v>45620.54166666666</v>
       </c>
       <c r="E87" s="2">
-        <v>3855.1</v>
+        <v>97517.83</v>
       </c>
       <c r="F87" s="2">
-        <v>3839.186976101149</v>
+        <v>97110.37048001928</v>
       </c>
       <c r="G87" s="2">
-        <v>3902.8390716965541</v>
+        <v>98740.20855994216</v>
       </c>
       <c r="H87" s="2">
-        <v>3839.186976101149</v>
+        <v>97110.37048001928</v>
       </c>
       <c r="I87" s="1">
-        <v>19.473951199201551</v>
+        <v>0.8539712995779402</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K87" s="2">
-        <v>-309.88945083796023</v>
+        <v>-347.9587358033414</v>
       </c>
       <c r="L87" s="2">
-        <v>30679.055632958061</v>
+        <v>34447.9148445308</v>
       </c>
       <c r="M87" s="2">
-        <v>309.88945083796023</v>
+        <v>347.9587358033414</v>
       </c>
       <c r="N87" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14">
       <c r="A88" s="4">
         <v>86</v>
       </c>
@@ -4323,43 +4307,43 @@
         <v>14</v>
       </c>
       <c r="C88" s="5">
-        <v>45641.871527777781</v>
+        <v>45623.54513888889</v>
       </c>
       <c r="D88" s="5">
-        <v>45641.875</v>
+        <v>45623.57986111111</v>
       </c>
       <c r="E88" s="2">
-        <v>3892</v>
+        <v>93719.98</v>
       </c>
       <c r="F88" s="2">
-        <v>3882.2213950233208</v>
+        <v>94078.64587105854</v>
       </c>
       <c r="G88" s="2">
-        <v>3921.3358149300361</v>
+        <v>92643.98238682434</v>
       </c>
       <c r="H88" s="2">
-        <v>3882.2213950233208</v>
+        <v>94078.64587105854</v>
       </c>
       <c r="I88" s="1">
-        <v>31.373652689852459</v>
+        <v>0.9604458529288858</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K88" s="2">
-        <v>-306.79055632958062</v>
+        <v>-344.479148445308</v>
       </c>
       <c r="L88" s="2">
-        <v>30372.265076628479</v>
+        <v>34103.43569608549</v>
       </c>
       <c r="M88" s="2">
-        <v>306.79055632958062</v>
+        <v>344.479148445308</v>
       </c>
       <c r="N88" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14">
       <c r="A89" s="4">
         <v>87</v>
       </c>
@@ -4367,43 +4351,43 @@
         <v>14</v>
       </c>
       <c r="C89" s="5">
-        <v>45641.878472222219</v>
+        <v>45623.59722222222</v>
       </c>
       <c r="D89" s="5">
-        <v>45641.885416666657</v>
+        <v>45623.60763888889</v>
       </c>
       <c r="E89" s="2">
-        <v>3881</v>
+        <v>94363.97</v>
       </c>
       <c r="F89" s="2">
-        <v>3868.9768150966388</v>
+        <v>94751.39031681232</v>
       </c>
       <c r="G89" s="2">
-        <v>3917.0695547100818</v>
+        <v>93201.70904956305</v>
       </c>
       <c r="H89" s="2">
-        <v>3868.9768150966388</v>
+        <v>94751.39031681232</v>
       </c>
       <c r="I89" s="1">
-        <v>25.261413943770229</v>
+        <v>0.8802696765282541</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K89" s="2">
-        <v>-303.72265076628491</v>
+        <v>-341.034356960855</v>
       </c>
       <c r="L89" s="2">
-        <v>30068.542425862201</v>
+        <v>33762.40133912464</v>
       </c>
       <c r="M89" s="2">
-        <v>303.72265076628491</v>
+        <v>341.034356960855</v>
       </c>
       <c r="N89" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14">
       <c r="A90" s="4">
         <v>88</v>
       </c>
@@ -4411,87 +4395,87 @@
         <v>14</v>
       </c>
       <c r="C90" s="5">
-        <v>45641.888888888891</v>
+        <v>45623.61111111111</v>
       </c>
       <c r="D90" s="5">
-        <v>45642.545138888891</v>
+        <v>45623.64583333334</v>
       </c>
       <c r="E90" s="2">
-        <v>3858.01</v>
+        <v>94731.98</v>
       </c>
       <c r="F90" s="2">
-        <v>3843.9024426994602</v>
+        <v>95173.58518764256</v>
       </c>
       <c r="G90" s="2">
-        <v>3900.3326719016218</v>
+        <v>93407.16443707232</v>
       </c>
       <c r="H90" s="2">
-        <v>3904.96</v>
+        <v>95173.58518764256</v>
       </c>
       <c r="I90" s="1">
-        <v>21.313783658855058</v>
+        <v>0.764538150454249</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K90" s="2">
-        <v>1000.682142783241</v>
+        <v>-337.6240133912464</v>
       </c>
       <c r="L90" s="2">
-        <v>31069.224568645441</v>
+        <v>33424.7773257334</v>
       </c>
       <c r="M90" s="2">
-        <v>300.68542425862199</v>
+        <v>337.6240133912464</v>
       </c>
       <c r="N90" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14">
       <c r="A91" s="4">
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C91" s="5">
-        <v>45643.642361111109</v>
+        <v>45624.66319444445</v>
       </c>
       <c r="D91" s="5">
-        <v>45644.541666666657</v>
+        <v>45625.54166666666</v>
       </c>
       <c r="E91" s="2">
-        <v>3933.96</v>
+        <v>95007.14</v>
       </c>
       <c r="F91" s="2">
-        <v>3901.3438358389262</v>
+        <v>94558.63116585581</v>
       </c>
       <c r="G91" s="2">
-        <v>4031.8084924832219</v>
+        <v>96352.66650243255</v>
       </c>
       <c r="H91" s="2">
-        <v>3901.3438358389262</v>
+        <v>96929.08</v>
       </c>
       <c r="I91" s="1">
-        <v>9.5257138194456896</v>
+        <v>0.7452423404215023</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K91" s="2">
-        <v>-310.69224568645438</v>
+        <v>1432.311063749704</v>
       </c>
       <c r="L91" s="2">
-        <v>30758.532322958981</v>
+        <v>34857.0883894831</v>
       </c>
       <c r="M91" s="2">
-        <v>310.69224568645438</v>
+        <v>334.247773257334</v>
       </c>
       <c r="N91" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14">
       <c r="A92" s="4">
         <v>90</v>
       </c>
@@ -4499,43 +4483,43 @@
         <v>13</v>
       </c>
       <c r="C92" s="5">
-        <v>45646.576388888891</v>
+        <v>45625.72222222222</v>
       </c>
       <c r="D92" s="5">
-        <v>45646.611111111109</v>
+        <v>45626.54166666666</v>
       </c>
       <c r="E92" s="2">
-        <v>3300.54</v>
+        <v>97076.00999999999</v>
       </c>
       <c r="F92" s="2">
-        <v>3355.3572896437399</v>
+        <v>96550.79320768494</v>
       </c>
       <c r="G92" s="2">
-        <v>3136.0881310687778</v>
+        <v>98651.66037694518</v>
       </c>
       <c r="H92" s="2">
-        <v>3355.3572896437399</v>
+        <v>96550.79320768494</v>
       </c>
       <c r="I92" s="1">
-        <v>5.611100534677985</v>
+        <v>0.6636704861594334</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K92" s="2">
-        <v>-307.58532322958979</v>
+        <v>-348.570883894831</v>
       </c>
       <c r="L92" s="2">
-        <v>30450.946999729389</v>
+        <v>34508.51750558826</v>
       </c>
       <c r="M92" s="2">
-        <v>307.58532322958979</v>
+        <v>348.570883894831</v>
       </c>
       <c r="N92" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14">
       <c r="A93" s="4">
         <v>91</v>
       </c>
@@ -4543,43 +4527,43 @@
         <v>13</v>
       </c>
       <c r="C93" s="5">
-        <v>45646.638888888891</v>
+        <v>45626.89930555555</v>
       </c>
       <c r="D93" s="5">
-        <v>45646.725694444453</v>
+        <v>45627.54166666666</v>
       </c>
       <c r="E93" s="2">
-        <v>3381.49</v>
+        <v>96794.50999999999</v>
       </c>
       <c r="F93" s="2">
-        <v>3429.6206563391329</v>
+        <v>96690.56478374751</v>
       </c>
       <c r="G93" s="2">
-        <v>3237.0980309825991</v>
+        <v>97106.34564875746</v>
       </c>
       <c r="H93" s="2">
-        <v>3429.6206563391329</v>
+        <v>96690.56478374751</v>
       </c>
       <c r="I93" s="1">
-        <v>6.3267258990130699</v>
+        <v>3.31987548342456</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K93" s="2">
-        <v>-304.50946999729388</v>
+        <v>-345.0851750558826</v>
       </c>
       <c r="L93" s="2">
-        <v>30146.437529732098</v>
+        <v>34163.43233053239</v>
       </c>
       <c r="M93" s="2">
-        <v>304.50946999729388</v>
+        <v>345.0851750558826</v>
       </c>
       <c r="N93" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14">
       <c r="A94" s="4">
         <v>92</v>
       </c>
@@ -4587,87 +4571,87 @@
         <v>13</v>
       </c>
       <c r="C94" s="5">
-        <v>45647.84375</v>
+        <v>45627.82291666666</v>
       </c>
       <c r="D94" s="5">
-        <v>45648.621527777781</v>
+        <v>45627.90625</v>
       </c>
       <c r="E94" s="2">
-        <v>3384.91</v>
+        <v>96978.28999999999</v>
       </c>
       <c r="F94" s="2">
-        <v>3415.753477819459</v>
+        <v>96798.98556005405</v>
       </c>
       <c r="G94" s="2">
-        <v>3292.3795665416242</v>
+        <v>97516.20331983785</v>
       </c>
       <c r="H94" s="2">
-        <v>3275</v>
+        <v>97598.8</v>
       </c>
       <c r="I94" s="1">
-        <v>9.7740072329694101</v>
+        <v>1.905331086103128</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K94" s="2">
-        <v>1074.261134975666</v>
+        <v>1182.27699223787</v>
       </c>
       <c r="L94" s="2">
-        <v>31220.698664707761</v>
+        <v>35345.70932277026</v>
       </c>
       <c r="M94" s="2">
-        <v>301.464375297321</v>
+        <v>341.6343233053238</v>
       </c>
       <c r="N94" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14">
       <c r="A95" s="4">
         <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C95" s="5">
-        <v>45648.881944444453</v>
+        <v>45629.88541666666</v>
       </c>
       <c r="D95" s="5">
-        <v>45649.541666666657</v>
+        <v>45630.60763888889</v>
       </c>
       <c r="E95" s="2">
-        <v>3299.28</v>
+        <v>95963.31</v>
       </c>
       <c r="F95" s="2">
-        <v>3326.8719971516639</v>
+        <v>96307.8226406036</v>
       </c>
       <c r="G95" s="2">
-        <v>3216.5040085450091</v>
+        <v>94929.7720781892</v>
       </c>
       <c r="H95" s="2">
-        <v>3326.8719971516639</v>
+        <v>96307.8226406036</v>
       </c>
       <c r="I95" s="1">
-        <v>11.31512825733431</v>
+        <v>1.02596262537256</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K95" s="2">
-        <v>-312.20698664707771</v>
+        <v>-353.4570932277026</v>
       </c>
       <c r="L95" s="2">
-        <v>30908.491678060691</v>
+        <v>34992.25222954255</v>
       </c>
       <c r="M95" s="2">
-        <v>312.20698664707771</v>
+        <v>353.4570932277026</v>
       </c>
       <c r="N95" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14">
       <c r="A96" s="4">
         <v>94</v>
       </c>
@@ -4675,43 +4659,43 @@
         <v>13</v>
       </c>
       <c r="C96" s="5">
-        <v>45649.704861111109</v>
+        <v>45631.66319444445</v>
       </c>
       <c r="D96" s="5">
-        <v>45649.871527777781</v>
+        <v>45631.78819444445</v>
       </c>
       <c r="E96" s="2">
-        <v>3374.67</v>
+        <v>101292.01</v>
       </c>
       <c r="F96" s="2">
-        <v>3413.438357274903</v>
+        <v>100366.1738931118</v>
       </c>
       <c r="G96" s="2">
-        <v>3258.364928175291</v>
+        <v>104069.5183206646</v>
       </c>
       <c r="H96" s="2">
-        <v>3413.438357274903</v>
+        <v>100366.1738931118</v>
       </c>
       <c r="I96" s="1">
-        <v>7.9726080367273227</v>
+        <v>0.3779529872425716</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K96" s="2">
-        <v>-309.08491678060687</v>
+        <v>-349.9225222954255</v>
       </c>
       <c r="L96" s="2">
-        <v>30599.406761280079</v>
+        <v>34642.32970724713</v>
       </c>
       <c r="M96" s="2">
-        <v>309.08491678060687</v>
+        <v>349.9225222954255</v>
       </c>
       <c r="N96" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14">
       <c r="A97" s="4">
         <v>95</v>
       </c>
@@ -4719,43 +4703,43 @@
         <v>13</v>
       </c>
       <c r="C97" s="5">
-        <v>45653.75</v>
+        <v>45632.89930555555</v>
       </c>
       <c r="D97" s="5">
-        <v>45654.590277777781</v>
+        <v>45633.54166666666</v>
       </c>
       <c r="E97" s="2">
-        <v>3351.4</v>
+        <v>100733.78</v>
       </c>
       <c r="F97" s="2">
-        <v>3373.1223219669641</v>
+        <v>100282.4041313534</v>
       </c>
       <c r="G97" s="2">
-        <v>3286.2330340991089</v>
+        <v>102087.9076059397</v>
       </c>
       <c r="H97" s="2">
-        <v>3373.1223219669641</v>
+        <v>100282.4041313534</v>
       </c>
       <c r="I97" s="1">
-        <v>14.08661873616329</v>
+        <v>0.7674829806724118</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K97" s="2">
-        <v>-305.99406761280079</v>
+        <v>-346.4232970724713</v>
       </c>
       <c r="L97" s="2">
-        <v>30293.41269366728</v>
+        <v>34295.90641017466</v>
       </c>
       <c r="M97" s="2">
-        <v>305.99406761280079</v>
+        <v>346.4232970724713</v>
       </c>
       <c r="N97" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14">
       <c r="A98" s="4">
         <v>96</v>
       </c>
@@ -4763,131 +4747,131 @@
         <v>13</v>
       </c>
       <c r="C98" s="5">
-        <v>45654.71875</v>
+        <v>45634.80208333334</v>
       </c>
       <c r="D98" s="5">
-        <v>45654.722222222219</v>
+        <v>45635.54166666666</v>
       </c>
       <c r="E98" s="2">
-        <v>3397.79</v>
+        <v>99528</v>
       </c>
       <c r="F98" s="2">
-        <v>3411.6033023017808</v>
+        <v>99280.49990923211</v>
       </c>
       <c r="G98" s="2">
-        <v>3356.3500930946561</v>
+        <v>100270.5002723037</v>
       </c>
       <c r="H98" s="2">
-        <v>3411.6033023017808</v>
+        <v>99280.49990923211</v>
       </c>
       <c r="I98" s="1">
-        <v>21.930608649432681</v>
+        <v>1.385692680102399</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K98" s="2">
-        <v>-302.93412693667278</v>
+        <v>-342.9590641017465</v>
       </c>
       <c r="L98" s="2">
-        <v>29990.478566730599</v>
+        <v>33952.94734607291</v>
       </c>
       <c r="M98" s="2">
-        <v>302.93412693667278</v>
+        <v>342.9590641017465</v>
       </c>
       <c r="N98" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14">
       <c r="A99" s="4">
         <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C99" s="5">
-        <v>45655.586805555547</v>
+        <v>45636.58680555555</v>
       </c>
       <c r="D99" s="5">
-        <v>45655.600694444453</v>
+        <v>45636.64583333334</v>
       </c>
       <c r="E99" s="2">
-        <v>3406.59</v>
+        <v>97903.99000000001</v>
       </c>
       <c r="F99" s="2">
-        <v>3415.4720500578878</v>
+        <v>98345.5529074759</v>
       </c>
       <c r="G99" s="2">
-        <v>3379.9438498263371</v>
+        <v>96579.30127757232</v>
       </c>
       <c r="H99" s="2">
-        <v>3379.23</v>
+        <v>96577.91</v>
       </c>
       <c r="I99" s="1">
-        <v>33.765266319454753</v>
+        <v>0.7689266188629471</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K99" s="2">
-        <v>923.81768650028619</v>
+        <v>1019.658210741778</v>
       </c>
       <c r="L99" s="2">
-        <v>30914.296253230888</v>
+        <v>34972.60555681468</v>
       </c>
       <c r="M99" s="2">
-        <v>299.90478566730599</v>
+        <v>339.5294734607291</v>
       </c>
       <c r="N99" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14">
       <c r="A100" s="4">
         <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C100" s="5">
-        <v>45656.732638888891</v>
+        <v>45636.80555555555</v>
       </c>
       <c r="D100" s="5">
-        <v>45656.739583333343</v>
+        <v>45636.86805555555</v>
       </c>
       <c r="E100" s="2">
-        <v>3381.86</v>
+        <v>95870.92999999999</v>
       </c>
       <c r="F100" s="2">
-        <v>3405.1600153868681</v>
+        <v>96649.27066528851</v>
       </c>
       <c r="G100" s="2">
-        <v>3311.9599538393968</v>
+        <v>93535.90800413443</v>
       </c>
       <c r="H100" s="2">
-        <v>3405.1600153868681</v>
+        <v>96649.27066528851</v>
       </c>
       <c r="I100" s="1">
-        <v>13.267929544224691</v>
+        <v>0.4493226053382546</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K100" s="2">
-        <v>-309.1429625323089</v>
+        <v>-349.7260555681468</v>
       </c>
       <c r="L100" s="2">
-        <v>30605.153290698581</v>
+        <v>34622.87950124653</v>
       </c>
       <c r="M100" s="2">
-        <v>309.1429625323089</v>
+        <v>349.7260555681468</v>
       </c>
       <c r="N100" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14">
       <c r="A101" s="4">
         <v>99</v>
       </c>
@@ -4895,43 +4879,43 @@
         <v>13</v>
       </c>
       <c r="C101" s="5">
-        <v>45656.767361111109</v>
+        <v>45639.66319444445</v>
       </c>
       <c r="D101" s="5">
-        <v>45656.902777777781</v>
+        <v>45639.73611111111</v>
       </c>
       <c r="E101" s="2">
-        <v>3396.4</v>
+        <v>99873.16</v>
       </c>
       <c r="F101" s="2">
-        <v>3421.1021542556641</v>
+        <v>99323.45398758577</v>
       </c>
       <c r="G101" s="2">
-        <v>3322.293537233008</v>
+        <v>101522.2780372427</v>
       </c>
       <c r="H101" s="2">
-        <v>3308.87</v>
+        <v>101600</v>
       </c>
       <c r="I101" s="1">
-        <v>12.38966973242062</v>
+        <v>0.6298435658214436</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K101" s="2">
-        <v>1084.4677916787789</v>
+        <v>1087.6390632031</v>
       </c>
       <c r="L101" s="2">
-        <v>31689.621082377362</v>
+        <v>35710.51856444963</v>
       </c>
       <c r="M101" s="2">
-        <v>306.05153290698581</v>
+        <v>346.2287950124654</v>
       </c>
       <c r="N101" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14">
       <c r="A102" s="4">
         <v>100</v>
       </c>
@@ -4939,43 +4923,43 @@
         <v>13</v>
       </c>
       <c r="C102" s="5">
-        <v>45658.777777777781</v>
+        <v>45640.73611111111</v>
       </c>
       <c r="D102" s="5">
-        <v>45658.822916666657</v>
+        <v>45640.86458333334</v>
       </c>
       <c r="E102" s="2">
-        <v>3348.34</v>
+        <v>101050.01</v>
       </c>
       <c r="F102" s="2">
-        <v>3358.780692428692</v>
+        <v>100825.5095559982</v>
       </c>
       <c r="G102" s="2">
-        <v>3317.0179227139238</v>
+        <v>101723.5113320055</v>
       </c>
       <c r="H102" s="2">
-        <v>3358.780692428692</v>
+        <v>100825.5095559982</v>
       </c>
       <c r="I102" s="1">
-        <v>30.35203009648275</v>
+        <v>1.590665832454087</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K102" s="2">
-        <v>-316.89621082377357</v>
+        <v>-357.1051856444963</v>
       </c>
       <c r="L102" s="2">
-        <v>31372.72487155359</v>
+        <v>35353.41337880513</v>
       </c>
       <c r="M102" s="2">
-        <v>316.89621082377357</v>
+        <v>357.1051856444963</v>
       </c>
       <c r="N102" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14">
       <c r="A103" s="4">
         <v>101</v>
       </c>
@@ -4983,659 +4967,659 @@
         <v>13</v>
       </c>
       <c r="C103" s="5">
-        <v>45658.871527777781</v>
+        <v>45640.86805555555</v>
       </c>
       <c r="D103" s="5">
-        <v>45658.888888888891</v>
+        <v>45641.54166666666</v>
       </c>
       <c r="E103" s="2">
-        <v>3360.4</v>
+        <v>100705.88</v>
       </c>
       <c r="F103" s="2">
-        <v>3370.592751213826</v>
+        <v>100452.2857587943</v>
       </c>
       <c r="G103" s="2">
-        <v>3329.8217463585238</v>
+        <v>101466.662723617</v>
       </c>
       <c r="H103" s="2">
-        <v>3370.592751213826</v>
+        <v>102987.43</v>
       </c>
       <c r="I103" s="1">
-        <v>30.779447288971081</v>
+        <v>1.394093699080967</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K103" s="2">
-        <v>-313.72724871553589</v>
+        <v>3180.694479138164</v>
       </c>
       <c r="L103" s="2">
-        <v>31058.997622838051</v>
+        <v>38534.10785794329</v>
       </c>
       <c r="M103" s="2">
-        <v>313.72724871553589</v>
+        <v>353.5341337880513</v>
       </c>
       <c r="N103" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14">
       <c r="A104" s="4">
         <v>102</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C104" s="5">
-        <v>45659.732638888891</v>
+        <v>45641.88888888889</v>
       </c>
       <c r="D104" s="5">
-        <v>45660.59375</v>
+        <v>45642.54166666666</v>
       </c>
       <c r="E104" s="2">
-        <v>3442.93</v>
+        <v>102770.03</v>
       </c>
       <c r="F104" s="2">
-        <v>3422.6574854327091</v>
+        <v>102535.9563622983</v>
       </c>
       <c r="G104" s="2">
-        <v>3503.747543701872</v>
+        <v>103472.2509131051</v>
       </c>
       <c r="H104" s="2">
-        <v>3507.01</v>
+        <v>103756.24</v>
       </c>
       <c r="I104" s="1">
-        <v>15.32074253529017</v>
+        <v>1.646238689512224</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K104" s="2">
-        <v>981.75318166139971</v>
+        <v>1623.537057983861</v>
       </c>
       <c r="L104" s="2">
-        <v>32040.75080449945</v>
+        <v>40157.64491592716</v>
       </c>
       <c r="M104" s="2">
-        <v>310.58997622838058</v>
+        <v>385.341078579433</v>
       </c>
       <c r="N104" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14">
       <c r="A105" s="4">
         <v>103</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C105" s="5">
-        <v>45663.552083333343</v>
+        <v>45642.80208333334</v>
       </c>
       <c r="D105" s="5">
-        <v>45663.614583333343</v>
+        <v>45643.62152777778</v>
       </c>
       <c r="E105" s="2">
-        <v>3632.64</v>
+        <v>106158</v>
       </c>
       <c r="F105" s="2">
-        <v>3620.8751939854969</v>
+        <v>105488.4257026225</v>
       </c>
       <c r="G105" s="2">
-        <v>3667.9344180435091</v>
+        <v>108166.7228921325</v>
       </c>
       <c r="H105" s="2">
-        <v>3679.03</v>
+        <v>108353</v>
       </c>
       <c r="I105" s="1">
-        <v>27.234406385452989</v>
+        <v>0.5997489012527961</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K105" s="2">
-        <v>1263.4041122211729</v>
+        <v>1316.448838249888</v>
       </c>
       <c r="L105" s="2">
-        <v>33304.154916720618</v>
+        <v>41474.09375417705</v>
       </c>
       <c r="M105" s="2">
-        <v>320.40750804499447</v>
+        <v>401.5764491592716</v>
       </c>
       <c r="N105" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14">
       <c r="A106" s="4">
         <v>104</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C106" s="5">
-        <v>45663.736111111109</v>
+        <v>45643.64236111111</v>
       </c>
       <c r="D106" s="5">
-        <v>45664.541666666657</v>
+        <v>45644.54166666666</v>
       </c>
       <c r="E106" s="2">
-        <v>3663.24</v>
+        <v>106042.22</v>
       </c>
       <c r="F106" s="2">
-        <v>3637.618777807143</v>
+        <v>105313.2038854929</v>
       </c>
       <c r="G106" s="2">
-        <v>3740.10366657857</v>
+        <v>108229.2683435213</v>
       </c>
       <c r="H106" s="2">
-        <v>3637.618777807143</v>
+        <v>105313.2038854929</v>
       </c>
       <c r="I106" s="1">
-        <v>12.998659730606409</v>
+        <v>0.568905034180461</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K106" s="2">
-        <v>-333.04154916720631</v>
+        <v>-414.7409375417705</v>
       </c>
       <c r="L106" s="2">
-        <v>32971.113367553422</v>
+        <v>41059.35281663528</v>
       </c>
       <c r="M106" s="2">
-        <v>333.04154916720631</v>
+        <v>414.7409375417705</v>
       </c>
       <c r="N106" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14">
       <c r="A107" s="4">
         <v>105</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C107" s="5">
-        <v>45665.767361111109</v>
+        <v>45646.57638888889</v>
       </c>
       <c r="D107" s="5">
-        <v>45666.579861111109</v>
+        <v>45646.63541666666</v>
       </c>
       <c r="E107" s="2">
-        <v>3325.72</v>
+        <v>95589.63</v>
       </c>
       <c r="F107" s="2">
-        <v>3361.412198834495</v>
+        <v>96605.52485192448</v>
       </c>
       <c r="G107" s="2">
-        <v>3218.6434034965141</v>
+        <v>92541.9454442266</v>
       </c>
       <c r="H107" s="2">
-        <v>3213</v>
+        <v>96605.52485192448</v>
       </c>
       <c r="I107" s="1">
-        <v>9.2376245914241686</v>
+        <v>0.4041693167245998</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K107" s="2">
-        <v>1041.26504394533</v>
+        <v>-410.5935281663528</v>
       </c>
       <c r="L107" s="2">
-        <v>34012.37841149875</v>
+        <v>40648.75928846892</v>
       </c>
       <c r="M107" s="2">
-        <v>329.7111336755342</v>
+        <v>410.5935281663528</v>
       </c>
       <c r="N107" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14">
       <c r="A108" s="4">
         <v>106</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C108" s="5">
-        <v>45666.649305555547</v>
+        <v>45646.64583333334</v>
       </c>
       <c r="D108" s="5">
-        <v>45666.659722222219</v>
+        <v>45647.84027777778</v>
       </c>
       <c r="E108" s="2">
-        <v>3299.7</v>
+        <v>96903.95</v>
       </c>
       <c r="F108" s="2">
-        <v>3327.5323299180859</v>
+        <v>97880.40554312149</v>
       </c>
       <c r="G108" s="2">
-        <v>3216.203010245742</v>
+        <v>93974.58337063552</v>
       </c>
       <c r="H108" s="2">
-        <v>3327.5323299180859</v>
+        <v>97880.40554312149</v>
       </c>
       <c r="I108" s="1">
-        <v>12.220456753567269</v>
+        <v>0.4162888886730515</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K108" s="2">
-        <v>-340.12378411498747</v>
+        <v>-406.4875928846892</v>
       </c>
       <c r="L108" s="2">
-        <v>33672.254627383772</v>
+        <v>40242.27169558423</v>
       </c>
       <c r="M108" s="2">
-        <v>340.12378411498747</v>
+        <v>406.4875928846892</v>
       </c>
       <c r="N108" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14">
       <c r="A109" s="4">
         <v>107</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C109" s="5">
-        <v>45666.663194444453</v>
+        <v>45647.84375</v>
       </c>
       <c r="D109" s="5">
-        <v>45666.815972222219</v>
+        <v>45647.90972222222</v>
       </c>
       <c r="E109" s="2">
-        <v>3320.58</v>
+        <v>97967.88</v>
       </c>
       <c r="F109" s="2">
-        <v>3349.0414195853409</v>
+        <v>98427.7678949446</v>
       </c>
       <c r="G109" s="2">
-        <v>3235.195741243977</v>
+        <v>96588.21631516621</v>
       </c>
       <c r="H109" s="2">
-        <v>3234.8</v>
+        <v>96539.91</v>
       </c>
       <c r="I109" s="1">
-        <v>11.83084158062397</v>
+        <v>0.8750452477213509</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K109" s="2">
-        <v>1014.849590785921</v>
+        <v>1249.538362388658</v>
       </c>
       <c r="L109" s="2">
-        <v>34687.104218169683</v>
+        <v>41491.81005797289</v>
       </c>
       <c r="M109" s="2">
-        <v>336.72254627383768</v>
+        <v>402.4227169558424</v>
       </c>
       <c r="N109" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14">
       <c r="A110" s="4">
         <v>108</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C110" s="5">
-        <v>45667.725694444453</v>
+        <v>45649.88194444445</v>
       </c>
       <c r="D110" s="5">
-        <v>45667.746527777781</v>
+        <v>45650.55555555555</v>
       </c>
       <c r="E110" s="2">
-        <v>3281.12</v>
+        <v>94050</v>
       </c>
       <c r="F110" s="2">
-        <v>3308.1294196438398</v>
+        <v>94630.08169749014</v>
       </c>
       <c r="G110" s="2">
-        <v>3200.0917410684801</v>
+        <v>92309.75490752958</v>
       </c>
       <c r="H110" s="2">
-        <v>3308.1294196438398</v>
+        <v>94630.08169749014</v>
       </c>
       <c r="I110" s="1">
-        <v>12.84259516700901</v>
+        <v>0.7152752834212327</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K110" s="2">
-        <v>-346.87104218169691</v>
+        <v>-414.918100579729</v>
       </c>
       <c r="L110" s="2">
-        <v>34340.233175987989</v>
+        <v>41076.89195739316</v>
       </c>
       <c r="M110" s="2">
-        <v>346.87104218169691</v>
+        <v>414.918100579729</v>
       </c>
       <c r="N110" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14">
       <c r="A111" s="4">
         <v>109</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C111" s="5">
-        <v>45668.628472222219</v>
+        <v>45650.55902777778</v>
       </c>
       <c r="D111" s="5">
-        <v>45668.854166666657</v>
+        <v>45650.5625</v>
       </c>
       <c r="E111" s="2">
-        <v>3280.32</v>
+        <v>94767.41</v>
       </c>
       <c r="F111" s="2">
-        <v>3290.592741399591</v>
+        <v>95027.82288763157</v>
       </c>
       <c r="G111" s="2">
-        <v>3249.5017758012259</v>
+        <v>93986.17133710532</v>
       </c>
       <c r="H111" s="2">
-        <v>3290.592741399591</v>
+        <v>95027.82288763157</v>
       </c>
       <c r="I111" s="1">
-        <v>33.428499599293247</v>
+        <v>1.577375541240839</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K111" s="2">
-        <v>-343.40233175987993</v>
+        <v>-410.7689195739317</v>
       </c>
       <c r="L111" s="2">
-        <v>33996.830844228112</v>
+        <v>40666.12303781923</v>
       </c>
       <c r="M111" s="2">
-        <v>343.40233175987993</v>
+        <v>410.7689195739317</v>
       </c>
       <c r="N111" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14">
       <c r="A112" s="4">
         <v>110</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C112" s="5">
-        <v>45668.857638888891</v>
+        <v>45650.56944444445</v>
       </c>
       <c r="D112" s="5">
-        <v>45668.868055555547</v>
+        <v>45650.57291666666</v>
       </c>
       <c r="E112" s="2">
-        <v>3289.89</v>
+        <v>95215.86</v>
       </c>
       <c r="F112" s="2">
-        <v>3299.8696742147599</v>
+        <v>95548.80577045427</v>
       </c>
       <c r="G112" s="2">
-        <v>3259.9509773557188</v>
+        <v>94217.02268863717</v>
       </c>
       <c r="H112" s="2">
-        <v>3299.8696742147599</v>
+        <v>95548.80577045427</v>
       </c>
       <c r="I112" s="1">
-        <v>34.066072812221527</v>
+        <v>1.221403803458268</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K112" s="2">
-        <v>-339.96830844228111</v>
+        <v>-406.6612303781923</v>
       </c>
       <c r="L112" s="2">
-        <v>33656.862535785833</v>
+        <v>40259.46180744104</v>
       </c>
       <c r="M112" s="2">
-        <v>339.96830844228111</v>
+        <v>406.6612303781923</v>
       </c>
       <c r="N112" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14">
       <c r="A113" s="4">
         <v>111</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C113" s="5">
-        <v>45668.871527777781</v>
+        <v>45652.67361111111</v>
       </c>
       <c r="D113" s="5">
-        <v>45668.878472222219</v>
+        <v>45653.63541666666</v>
       </c>
       <c r="E113" s="2">
-        <v>3299.54</v>
+        <v>96339</v>
       </c>
       <c r="F113" s="2">
-        <v>3309.536178551848</v>
+        <v>96891.90598221213</v>
       </c>
       <c r="G113" s="2">
-        <v>3269.5514643444581</v>
+        <v>94680.28205336361</v>
       </c>
       <c r="H113" s="2">
-        <v>3309.536178551848</v>
+        <v>94525.63</v>
       </c>
       <c r="I113" s="1">
-        <v>33.669729248248572</v>
+        <v>0.7281429954215004</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K113" s="2">
-        <v>-336.56862535785831</v>
+        <v>1320.392663607483</v>
       </c>
       <c r="L113" s="2">
-        <v>33320.293910427972</v>
+        <v>41579.85447104852</v>
       </c>
       <c r="M113" s="2">
-        <v>336.56862535785831</v>
+        <v>402.5946180744104</v>
       </c>
       <c r="N113" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14">
       <c r="A114" s="4">
         <v>112</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C114" s="5">
-        <v>45669.579861111109</v>
+        <v>45654.59375</v>
       </c>
       <c r="D114" s="5">
-        <v>45669.586805555547</v>
+        <v>45654.61805555555</v>
       </c>
       <c r="E114" s="2">
-        <v>3267.09</v>
+        <v>95142.39</v>
       </c>
       <c r="F114" s="2">
-        <v>3276.476283723372</v>
+        <v>95370.8282180886</v>
       </c>
       <c r="G114" s="2">
-        <v>3238.931148829884</v>
+        <v>94457.07534573419</v>
       </c>
       <c r="H114" s="2">
-        <v>3276.476283723372</v>
+        <v>94411.75999999999</v>
       </c>
       <c r="I114" s="1">
-        <v>35.498920437977681</v>
+        <v>1.820179426146693</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K114" s="2">
-        <v>-333.20293910427972</v>
+        <v>1329.877694125567</v>
       </c>
       <c r="L114" s="2">
-        <v>32987.090971323691</v>
+        <v>42909.73216517409</v>
       </c>
       <c r="M114" s="2">
-        <v>333.20293910427972</v>
+        <v>415.7985447104852</v>
       </c>
       <c r="N114" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14">
       <c r="A115" s="4">
         <v>113</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C115" s="5">
-        <v>45669.590277777781</v>
+        <v>45654.71527777778</v>
       </c>
       <c r="D115" s="5">
-        <v>45669.635416666657</v>
+        <v>45655.60416666666</v>
       </c>
       <c r="E115" s="2">
-        <v>3273.93</v>
+        <v>95002.52</v>
       </c>
       <c r="F115" s="2">
-        <v>3284.116066086096</v>
+        <v>95285.05937286992</v>
       </c>
       <c r="G115" s="2">
-        <v>3243.37180174171</v>
+        <v>94154.90188139027</v>
       </c>
       <c r="H115" s="2">
-        <v>3284.116066086096</v>
+        <v>94010</v>
       </c>
       <c r="I115" s="1">
-        <v>32.384524793481503</v>
+        <v>1.518716904101385</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K115" s="2">
-        <v>-329.87090971323693</v>
+        <v>1507.356901658713</v>
       </c>
       <c r="L115" s="2">
-        <v>32657.220061610449</v>
+        <v>44417.0890668328</v>
       </c>
       <c r="M115" s="2">
-        <v>329.87090971323693</v>
+        <v>429.0973216517409</v>
       </c>
       <c r="N115" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14">
       <c r="A116" s="4">
         <v>114</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C116" s="5">
-        <v>45670.868055555547</v>
+        <v>45655.875</v>
       </c>
       <c r="D116" s="5">
-        <v>45671.541666666657</v>
+        <v>45656.56944444445</v>
       </c>
       <c r="E116" s="2">
-        <v>3093.81</v>
+        <v>93900</v>
       </c>
       <c r="F116" s="2">
-        <v>3122.3613001571011</v>
+        <v>94186.47816912466</v>
       </c>
       <c r="G116" s="2">
-        <v>3008.1560995286982</v>
+        <v>93040.565492626</v>
       </c>
       <c r="H116" s="2">
-        <v>3122.3613001571011</v>
+        <v>93031</v>
       </c>
       <c r="I116" s="1">
-        <v>11.438085089616679</v>
+        <v>1.550452839130815</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K116" s="2">
-        <v>-326.57220061610451</v>
+        <v>1347.343517204678</v>
       </c>
       <c r="L116" s="2">
-        <v>32330.647860994352</v>
+        <v>45764.43258403748</v>
       </c>
       <c r="M116" s="2">
-        <v>326.57220061610451</v>
+        <v>444.170890668328</v>
       </c>
       <c r="N116" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14">
       <c r="A117" s="4">
         <v>115</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C117" s="5">
-        <v>45678.597222222219</v>
+        <v>45656.73611111111</v>
       </c>
       <c r="D117" s="5">
-        <v>45678.628472222219</v>
+        <v>45656.76041666666</v>
       </c>
       <c r="E117" s="2">
-        <v>3325.21</v>
+        <v>93964</v>
       </c>
       <c r="F117" s="2">
-        <v>3344.310886655323</v>
+        <v>94599.21963839306</v>
       </c>
       <c r="G117" s="2">
-        <v>3267.9073400340312</v>
+        <v>92058.34108482082</v>
       </c>
       <c r="H117" s="2">
-        <v>3265.11</v>
+        <v>94599.21963839306</v>
       </c>
       <c r="I117" s="1">
-        <v>16.926255018630041</v>
+        <v>0.7204505310920454</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K117" s="2">
-        <v>1017.267926619664</v>
+        <v>-457.6443258403748</v>
       </c>
       <c r="L117" s="2">
-        <v>33347.915787614009</v>
+        <v>45306.78825819711</v>
       </c>
       <c r="M117" s="2">
-        <v>323.3064786099435</v>
+        <v>457.6443258403748</v>
       </c>
       <c r="N117" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14">
       <c r="A118" s="4">
         <v>116</v>
       </c>
@@ -5643,43 +5627,43 @@
         <v>13</v>
       </c>
       <c r="C118" s="5">
-        <v>45680.572916666657</v>
+        <v>45660.88888888889</v>
       </c>
       <c r="D118" s="5">
-        <v>45680.604166666657</v>
+        <v>45661.54166666666</v>
       </c>
       <c r="E118" s="2">
-        <v>3235.81</v>
+        <v>98225.87</v>
       </c>
       <c r="F118" s="2">
-        <v>3253.5450793405698</v>
+        <v>97972.69397452232</v>
       </c>
       <c r="G118" s="2">
-        <v>3182.6047619782912</v>
+        <v>98985.398076433</v>
       </c>
       <c r="H118" s="2">
-        <v>3253.5450793405698</v>
+        <v>97972.69397452232</v>
       </c>
       <c r="I118" s="1">
-        <v>18.803364308232322</v>
+        <v>1.789537069029955</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K118" s="2">
-        <v>-333.47915787614011</v>
+        <v>-453.067882581971</v>
       </c>
       <c r="L118" s="2">
-        <v>33014.436629737873</v>
+        <v>44853.72037561514</v>
       </c>
       <c r="M118" s="2">
-        <v>333.47915787614011</v>
+        <v>453.067882581971</v>
       </c>
       <c r="N118" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14">
       <c r="A119" s="4">
         <v>117</v>
       </c>
@@ -5687,43 +5671,43 @@
         <v>13</v>
       </c>
       <c r="C119" s="5">
-        <v>45680.611111111109</v>
+        <v>45661.65277777778</v>
       </c>
       <c r="D119" s="5">
-        <v>45680.677083333343</v>
+        <v>45661.80208333334</v>
       </c>
       <c r="E119" s="2">
-        <v>3269.3</v>
+        <v>97637.63</v>
       </c>
       <c r="F119" s="2">
-        <v>3291.1918814026981</v>
+        <v>97418.50068046554</v>
       </c>
       <c r="G119" s="2">
-        <v>3203.6243557919079</v>
+        <v>98295.01795860338</v>
       </c>
       <c r="H119" s="2">
-        <v>3291.1918814026981</v>
+        <v>98350</v>
       </c>
       <c r="I119" s="1">
-        <v>15.080675809649669</v>
+        <v>2.046906387100837</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K119" s="2">
-        <v>-330.14436629737872</v>
+        <v>1458.154702979014</v>
       </c>
       <c r="L119" s="2">
-        <v>32684.292263440489</v>
+        <v>46311.87507859415</v>
       </c>
       <c r="M119" s="2">
-        <v>330.14436629737872</v>
+        <v>448.5372037561514</v>
       </c>
       <c r="N119" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14">
       <c r="A120" s="4">
         <v>118</v>
       </c>
@@ -5731,87 +5715,87 @@
         <v>13</v>
       </c>
       <c r="C120" s="5">
-        <v>45680.850694444453</v>
+        <v>45662.74305555555</v>
       </c>
       <c r="D120" s="5">
-        <v>45681.541666666657</v>
+        <v>45662.84375</v>
       </c>
       <c r="E120" s="2">
-        <v>3283.05</v>
+        <v>97722.17999999999</v>
       </c>
       <c r="F120" s="2">
-        <v>3316.5438855973948</v>
+        <v>97511.10796841781</v>
       </c>
       <c r="G120" s="2">
-        <v>3182.5683432078158</v>
+        <v>98355.39609474654</v>
       </c>
       <c r="H120" s="2">
-        <v>3316.5438855973948</v>
+        <v>98678</v>
       </c>
       <c r="I120" s="1">
-        <v>9.7582862306017066</v>
+        <v>2.194126561034328</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K120" s="2">
-        <v>-326.84292263440489</v>
+        <v>2097.190049567846</v>
       </c>
       <c r="L120" s="2">
-        <v>32357.449340806081</v>
+        <v>48409.065128162</v>
       </c>
       <c r="M120" s="2">
-        <v>326.84292263440489</v>
+        <v>463.1187507859415</v>
       </c>
       <c r="N120" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14">
       <c r="A121" s="4">
         <v>119</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C121" s="5">
-        <v>45681.788194444453</v>
+        <v>45663.55208333334</v>
       </c>
       <c r="D121" s="5">
-        <v>45681.84375</v>
+        <v>45663.59375</v>
       </c>
       <c r="E121" s="2">
-        <v>3381.49</v>
+        <v>99009.99000000001</v>
       </c>
       <c r="F121" s="2">
-        <v>3364.6049949632729</v>
+        <v>98744.31347126026</v>
       </c>
       <c r="G121" s="2">
-        <v>3432.1450151101808</v>
+        <v>99807.01958621923</v>
       </c>
       <c r="H121" s="2">
-        <v>3364.6049949632729</v>
+        <v>98744.31347126026</v>
       </c>
       <c r="I121" s="1">
-        <v>19.163422972291009</v>
+        <v>1.82210545123403</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K121" s="2">
-        <v>-323.57449340806079</v>
+        <v>-484.09065128162</v>
       </c>
       <c r="L121" s="2">
-        <v>32033.874847398019</v>
+        <v>47924.97447688038</v>
       </c>
       <c r="M121" s="2">
-        <v>323.57449340806079</v>
+        <v>484.09065128162</v>
       </c>
       <c r="N121" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14">
       <c r="A122" s="4">
         <v>120</v>
       </c>
@@ -5819,43 +5803,43 @@
         <v>14</v>
       </c>
       <c r="C122" s="5">
-        <v>45681.850694444453</v>
+        <v>45665.76736111111</v>
       </c>
       <c r="D122" s="5">
-        <v>45682.541666666657</v>
+        <v>45666.56597222222</v>
       </c>
       <c r="E122" s="2">
-        <v>3341.02</v>
+        <v>94921.39999999999</v>
       </c>
       <c r="F122" s="2">
-        <v>3322.7239360749809</v>
+        <v>95729.2962396372</v>
       </c>
       <c r="G122" s="2">
-        <v>3395.9081917750582</v>
+        <v>92497.71128108836</v>
       </c>
       <c r="H122" s="2">
-        <v>3322.7239360749809</v>
+        <v>92125</v>
       </c>
       <c r="I122" s="1">
-        <v>17.508615502590722</v>
+        <v>0.5932070496874877</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K122" s="2">
-        <v>-320.33874847398022</v>
+        <v>1658.844193746087</v>
       </c>
       <c r="L122" s="2">
-        <v>31713.53609892404</v>
+        <v>49583.81867062647</v>
       </c>
       <c r="M122" s="2">
-        <v>320.33874847398022</v>
+        <v>479.2497447688038</v>
       </c>
       <c r="N122" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14">
       <c r="A123" s="4">
         <v>121</v>
       </c>
@@ -5863,219 +5847,219 @@
         <v>14</v>
       </c>
       <c r="C123" s="5">
-        <v>45683.871527777781</v>
+        <v>45666.63541666666</v>
       </c>
       <c r="D123" s="5">
-        <v>45683.875</v>
+        <v>45666.64583333334</v>
       </c>
       <c r="E123" s="2">
-        <v>3329.67</v>
+        <v>93188.2</v>
       </c>
       <c r="F123" s="2">
-        <v>3322.0282279362391</v>
+        <v>93801.34997159497</v>
       </c>
       <c r="G123" s="2">
-        <v>3352.5953161912848</v>
+        <v>91348.75008521508</v>
       </c>
       <c r="H123" s="2">
-        <v>3322.0282279362391</v>
+        <v>93801.34997159497</v>
       </c>
       <c r="I123" s="1">
-        <v>41.500238209557359</v>
+        <v>0.8086735866862228</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K123" s="2">
-        <v>-317.13536098924038</v>
+        <v>-495.8381867062647</v>
       </c>
       <c r="L123" s="2">
-        <v>31396.4007379348</v>
+        <v>49087.9804839202</v>
       </c>
       <c r="M123" s="2">
-        <v>317.13536098924038</v>
+        <v>495.8381867062647</v>
       </c>
       <c r="N123" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14">
       <c r="A124" s="4">
         <v>122</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C124" s="5">
-        <v>45684.552083333343</v>
+        <v>45666.64930555555</v>
       </c>
       <c r="D124" s="5">
-        <v>45684.649305555547</v>
+        <v>45666.65972222222</v>
       </c>
       <c r="E124" s="2">
-        <v>3120.7</v>
+        <v>93739.87</v>
       </c>
       <c r="F124" s="2">
-        <v>3147.866856596404</v>
+        <v>94376.30887387348</v>
       </c>
       <c r="G124" s="2">
-        <v>3039.1994302107878</v>
+        <v>91830.55337837953</v>
       </c>
       <c r="H124" s="2">
-        <v>3147.866856596404</v>
+        <v>94376.30887387348</v>
       </c>
       <c r="I124" s="1">
-        <v>11.55687652950286</v>
+        <v>0.7712913603966653</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K124" s="2">
-        <v>-313.964007379348</v>
+        <v>-490.8798048392021</v>
       </c>
       <c r="L124" s="2">
-        <v>31082.436730555452</v>
+        <v>48597.100679081</v>
       </c>
       <c r="M124" s="2">
-        <v>313.964007379348</v>
+        <v>490.8798048392021</v>
       </c>
       <c r="N124" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14">
       <c r="A125" s="4">
         <v>123</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C125" s="5">
-        <v>45684.652777777781</v>
+        <v>45666.66319444445</v>
       </c>
       <c r="D125" s="5">
-        <v>45684.777777777781</v>
+        <v>45666.82291666666</v>
       </c>
       <c r="E125" s="2">
-        <v>3144.97</v>
+        <v>94244.02</v>
       </c>
       <c r="F125" s="2">
-        <v>3172.9627190161909</v>
+        <v>94919.84370097617</v>
       </c>
       <c r="G125" s="2">
-        <v>3060.991842951425</v>
+        <v>92216.54889707149</v>
       </c>
       <c r="H125" s="2">
-        <v>3057.58</v>
+        <v>92106.85000000001</v>
       </c>
       <c r="I125" s="1">
-        <v>11.103757628037741</v>
+        <v>0.7190795559387302</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K125" s="2">
-        <v>970.35737911421688</v>
+        <v>1536.795254565575</v>
       </c>
       <c r="L125" s="2">
-        <v>32052.79410966967</v>
+        <v>50133.89593364657</v>
       </c>
       <c r="M125" s="2">
-        <v>310.82436730555452</v>
+        <v>485.97100679081</v>
       </c>
       <c r="N125" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14">
       <c r="A126" s="4">
         <v>124</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C126" s="5">
-        <v>45684.850694444453</v>
+        <v>45667.75</v>
       </c>
       <c r="D126" s="5">
-        <v>45684.857638888891</v>
+        <v>45670.54166666666</v>
       </c>
       <c r="E126" s="2">
-        <v>3100.11</v>
+        <v>95486.73</v>
       </c>
       <c r="F126" s="2">
-        <v>3121.88780544771</v>
+        <v>96318.69892474354</v>
       </c>
       <c r="G126" s="2">
-        <v>3034.7765836568719</v>
+        <v>92990.82322576936</v>
       </c>
       <c r="H126" s="2">
-        <v>3121.88780544771</v>
+        <v>90583.24000000001</v>
       </c>
       <c r="I126" s="1">
-        <v>14.7181010440338</v>
+        <v>0.6025933714904118</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K126" s="2">
-        <v>-320.52794109669668</v>
+        <v>2954.810571169514</v>
       </c>
       <c r="L126" s="2">
-        <v>31732.266168572969</v>
+        <v>53088.70650481609</v>
       </c>
       <c r="M126" s="2">
-        <v>320.52794109669668</v>
+        <v>501.3389593364657</v>
       </c>
       <c r="N126" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14">
       <c r="A127" s="4">
         <v>125</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C127" s="5">
-        <v>45684.861111111109</v>
+        <v>45670.63541666666</v>
       </c>
       <c r="D127" s="5">
-        <v>45684.871527777781</v>
+        <v>45670.86805555555</v>
       </c>
       <c r="E127" s="2">
-        <v>3121.73</v>
+        <v>92680.00999999999</v>
       </c>
       <c r="F127" s="2">
-        <v>3144.2717779040149</v>
+        <v>93739.19579047592</v>
       </c>
       <c r="G127" s="2">
-        <v>3054.1046662879548</v>
+        <v>89502.45262857222</v>
       </c>
       <c r="H127" s="2">
-        <v>3144.2717779040149</v>
+        <v>93739.19579047592</v>
       </c>
       <c r="I127" s="1">
-        <v>14.07709112550574</v>
+        <v>0.5012218534480317</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K127" s="2">
-        <v>-317.32266168572971</v>
+        <v>-530.8870650481609</v>
       </c>
       <c r="L127" s="2">
-        <v>31414.943506887241</v>
+        <v>52557.81943976793</v>
       </c>
       <c r="M127" s="2">
-        <v>317.32266168572971</v>
+        <v>530.8870650481609</v>
       </c>
       <c r="N127" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14">
       <c r="A128" s="4">
         <v>126</v>
       </c>
@@ -6083,43 +6067,43 @@
         <v>13</v>
       </c>
       <c r="C128" s="5">
-        <v>45684.875</v>
+        <v>45673.625</v>
       </c>
       <c r="D128" s="5">
-        <v>45684.881944444453</v>
+        <v>45673.67013888889</v>
       </c>
       <c r="E128" s="2">
-        <v>3147.24</v>
+        <v>97571.23</v>
       </c>
       <c r="F128" s="2">
-        <v>3170.7711073176952</v>
+        <v>96887.64624180444</v>
       </c>
       <c r="G128" s="2">
-        <v>3076.646678046915</v>
+        <v>99621.98127458667</v>
       </c>
       <c r="H128" s="2">
-        <v>3170.7711073176952</v>
+        <v>99815.27</v>
       </c>
       <c r="I128" s="1">
-        <v>13.35038894802193</v>
+        <v>0.7688570538671636</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K128" s="2">
-        <v>-314.14943506887238</v>
+        <v>1725.345983160076</v>
       </c>
       <c r="L128" s="2">
-        <v>31100.794071818371</v>
+        <v>54283.165422928</v>
       </c>
       <c r="M128" s="2">
-        <v>314.14943506887238</v>
+        <v>525.5781943976792</v>
       </c>
       <c r="N128" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14">
       <c r="A129" s="4">
         <v>127</v>
       </c>
@@ -6127,43 +6111,43 @@
         <v>13</v>
       </c>
       <c r="C129" s="5">
-        <v>45686.722222222219</v>
+        <v>45674.87152777778</v>
       </c>
       <c r="D129" s="5">
-        <v>45686.729166666657</v>
+        <v>45675.54166666666</v>
       </c>
       <c r="E129" s="2">
-        <v>3112.44</v>
+        <v>104692.7</v>
       </c>
       <c r="F129" s="2">
-        <v>3130.67872241648</v>
+        <v>104197.1529992671</v>
       </c>
       <c r="G129" s="2">
-        <v>3057.723832750562</v>
+        <v>106179.3410021986</v>
       </c>
       <c r="H129" s="2">
-        <v>3130.67872241648</v>
+        <v>104197.1529992671</v>
       </c>
       <c r="I129" s="1">
-        <v>17.052068320156788</v>
+        <v>1.095419109441617</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K129" s="2">
-        <v>-311.0079407181837</v>
+        <v>-542.83165422928</v>
       </c>
       <c r="L129" s="2">
-        <v>30789.78613110018</v>
+        <v>53740.33376869872</v>
       </c>
       <c r="M129" s="2">
-        <v>311.0079407181837</v>
+        <v>542.83165422928</v>
       </c>
       <c r="N129" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14">
       <c r="A130" s="4">
         <v>128</v>
       </c>
@@ -6171,43 +6155,43 @@
         <v>13</v>
       </c>
       <c r="C130" s="5">
-        <v>45686.732638888891</v>
+        <v>45675.70138888889</v>
       </c>
       <c r="D130" s="5">
-        <v>45686.802083333343</v>
+        <v>45676.54166666666</v>
       </c>
       <c r="E130" s="2">
-        <v>3124.45</v>
+        <v>103240.85</v>
       </c>
       <c r="F130" s="2">
-        <v>3143.8722934216489</v>
+        <v>102688.8552242209</v>
       </c>
       <c r="G130" s="2">
-        <v>3066.1831197350521</v>
+        <v>104896.8343273375</v>
       </c>
       <c r="H130" s="2">
-        <v>3064.43</v>
+        <v>105157.8</v>
       </c>
       <c r="I130" s="1">
-        <v>15.85280659841143</v>
+        <v>0.9735659851643178</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K130" s="2">
-        <v>951.4854520366539</v>
+        <v>1866.277315260736</v>
       </c>
       <c r="L130" s="2">
-        <v>31741.27158313684</v>
+        <v>55606.61108395945</v>
       </c>
       <c r="M130" s="2">
-        <v>307.89786131100192</v>
+        <v>537.4033376869872</v>
       </c>
       <c r="N130" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14">
       <c r="A131" s="4">
         <v>129</v>
       </c>
@@ -6215,131 +6199,131 @@
         <v>13</v>
       </c>
       <c r="C131" s="5">
-        <v>45686.854166666657</v>
+        <v>45677.65972222222</v>
       </c>
       <c r="D131" s="5">
-        <v>45687.541666666657</v>
+        <v>45677.67361111111</v>
       </c>
       <c r="E131" s="2">
-        <v>3160.81</v>
+        <v>105535.7</v>
       </c>
       <c r="F131" s="2">
-        <v>3208.3056809980421</v>
+        <v>104427.1512541753</v>
       </c>
       <c r="G131" s="2">
-        <v>3018.3229570058738</v>
+        <v>108861.3462374741</v>
       </c>
       <c r="H131" s="2">
-        <v>3208.3056809980421</v>
+        <v>104427.1512541753</v>
       </c>
       <c r="I131" s="1">
-        <v>6.6829806239529939</v>
+        <v>0.5016162915108572</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K131" s="2">
-        <v>-317.41271583136842</v>
+        <v>-556.0661108395946</v>
       </c>
       <c r="L131" s="2">
-        <v>31423.858867305469</v>
+        <v>55050.54497311986</v>
       </c>
       <c r="M131" s="2">
-        <v>317.41271583136842</v>
+        <v>556.0661108395946</v>
       </c>
       <c r="N131" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14">
       <c r="A132" s="4">
         <v>130</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C132" s="5">
-        <v>45688.746527777781</v>
+        <v>45678.62847222222</v>
       </c>
       <c r="D132" s="5">
-        <v>45688.763888888891</v>
+        <v>45678.67361111111</v>
       </c>
       <c r="E132" s="2">
-        <v>3375.88</v>
+        <v>103281.22</v>
       </c>
       <c r="F132" s="2">
-        <v>3356.7514454718771</v>
+        <v>102325.420213087</v>
       </c>
       <c r="G132" s="2">
-        <v>3433.2656635843691</v>
+        <v>106148.619360739</v>
       </c>
       <c r="H132" s="2">
-        <v>3356.7514454718771</v>
+        <v>106300</v>
       </c>
       <c r="I132" s="1">
-        <v>16.427722659914409</v>
+        <v>0.5759631433997305</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K132" s="2">
-        <v>-314.23858867305472</v>
+        <v>1738.706018032238</v>
       </c>
       <c r="L132" s="2">
-        <v>31109.62027863241</v>
+        <v>56789.2509911521</v>
       </c>
       <c r="M132" s="2">
-        <v>314.23858867305472</v>
+        <v>550.5054497311986</v>
       </c>
       <c r="N132" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14">
       <c r="A133" s="4">
         <v>131</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C133" s="5">
-        <v>45688.777777777781</v>
+        <v>45678.86111111111</v>
       </c>
       <c r="D133" s="5">
-        <v>45688.888888888891</v>
+        <v>45679.54166666666</v>
       </c>
       <c r="E133" s="2">
-        <v>3311.12</v>
+        <v>106072</v>
       </c>
       <c r="F133" s="2">
-        <v>3284.046998635507</v>
+        <v>105391.0783661026</v>
       </c>
       <c r="G133" s="2">
-        <v>3392.3390040934778</v>
+        <v>108114.7649016923</v>
       </c>
       <c r="H133" s="2">
-        <v>3284.046998635507</v>
+        <v>105391.0783661026</v>
       </c>
       <c r="I133" s="1">
-        <v>11.491012710335889</v>
+        <v>0.8340056794216522</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K133" s="2">
-        <v>-311.09620278632423</v>
+        <v>-567.892509911521</v>
       </c>
       <c r="L133" s="2">
-        <v>30798.52407584609</v>
+        <v>56221.35848124058</v>
       </c>
       <c r="M133" s="2">
-        <v>311.09620278632423</v>
+        <v>567.892509911521</v>
       </c>
       <c r="N133" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14">
       <c r="A134" s="4">
         <v>132</v>
       </c>
@@ -6347,43 +6331,43 @@
         <v>13</v>
       </c>
       <c r="C134" s="5">
-        <v>45690.586805555547</v>
+        <v>45679.54861111111</v>
       </c>
       <c r="D134" s="5">
-        <v>45690.690972222219</v>
+        <v>45679.56597222222</v>
       </c>
       <c r="E134" s="2">
-        <v>3092.44</v>
+        <v>104947.17</v>
       </c>
       <c r="F134" s="2">
-        <v>3111.2265745609602</v>
+        <v>104638.4792248785</v>
       </c>
       <c r="G134" s="2">
-        <v>3036.0802763171209</v>
+        <v>105873.2423253646</v>
       </c>
       <c r="H134" s="2">
-        <v>3033</v>
+        <v>104638.4792248785</v>
       </c>
       <c r="I134" s="1">
-        <v>16.393900855054419</v>
+        <v>1.82128404903267</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K134" s="2">
-        <v>974.45346682443551</v>
+        <v>-562.2135848124058</v>
       </c>
       <c r="L134" s="2">
-        <v>31772.97754267052</v>
+        <v>55659.14489642817</v>
       </c>
       <c r="M134" s="2">
-        <v>307.98524075846092</v>
+        <v>562.2135848124058</v>
       </c>
       <c r="N134" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14">
       <c r="A135" s="4">
         <v>133</v>
       </c>
@@ -6391,43 +6375,43 @@
         <v>13</v>
       </c>
       <c r="C135" s="5">
-        <v>45691.611111111109</v>
+        <v>45679.57986111111</v>
       </c>
       <c r="D135" s="5">
-        <v>45691.638888888891</v>
+        <v>45679.69444444445</v>
       </c>
       <c r="E135" s="2">
-        <v>2625.55</v>
+        <v>104073.94</v>
       </c>
       <c r="F135" s="2">
-        <v>2679.1089392180561</v>
+        <v>103607.8322012325</v>
       </c>
       <c r="G135" s="2">
-        <v>2464.8731823458338</v>
+        <v>105472.2633963026</v>
       </c>
       <c r="H135" s="2">
-        <v>2679.1089392180561</v>
+        <v>103607.8322012325</v>
       </c>
       <c r="I135" s="1">
-        <v>5.9323388413860547</v>
+        <v>1.19412601641937</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K135" s="2">
-        <v>-317.72977542670532</v>
+        <v>-556.5914489642817</v>
       </c>
       <c r="L135" s="2">
-        <v>31455.247767243822</v>
+        <v>55102.55344746388</v>
       </c>
       <c r="M135" s="2">
-        <v>317.72977542670532</v>
+        <v>556.5914489642817</v>
       </c>
       <c r="N135" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14">
       <c r="A136" s="4">
         <v>134</v>
       </c>
@@ -6435,43 +6419,43 @@
         <v>13</v>
       </c>
       <c r="C136" s="5">
-        <v>45691.642361111109</v>
+        <v>45679.88194444445</v>
       </c>
       <c r="D136" s="5">
-        <v>45691.791666666657</v>
+        <v>45680.54166666666</v>
       </c>
       <c r="E136" s="2">
-        <v>2676.79</v>
+        <v>103891.76</v>
       </c>
       <c r="F136" s="2">
-        <v>2736.7515076166701</v>
+        <v>103383.4969139</v>
       </c>
       <c r="G136" s="2">
-        <v>2496.90547714999</v>
+        <v>105416.5492583</v>
       </c>
       <c r="H136" s="2">
-        <v>2736.7515076166701</v>
+        <v>103383.4969139</v>
       </c>
       <c r="I136" s="1">
-        <v>5.24590675210088</v>
+        <v>1.084134475912409</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K136" s="2">
-        <v>-314.55247767243821</v>
+        <v>-551.0255344746389</v>
       </c>
       <c r="L136" s="2">
-        <v>31140.69528957138</v>
+        <v>54551.52791298924</v>
       </c>
       <c r="M136" s="2">
-        <v>314.55247767243821</v>
+        <v>551.0255344746389</v>
       </c>
       <c r="N136" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14">
       <c r="A137" s="4">
         <v>135</v>
       </c>
@@ -6479,43 +6463,43 @@
         <v>13</v>
       </c>
       <c r="C137" s="5">
-        <v>45691.795138888891</v>
+        <v>45680.82986111111</v>
       </c>
       <c r="D137" s="5">
-        <v>45691.826388888891</v>
+        <v>45680.85069444445</v>
       </c>
       <c r="E137" s="2">
-        <v>2738.39</v>
+        <v>103770.04</v>
       </c>
       <c r="F137" s="2">
-        <v>2769.366527878426</v>
+        <v>102905.7172240915</v>
       </c>
       <c r="G137" s="2">
-        <v>2645.46041636472</v>
+        <v>106363.0083277254</v>
       </c>
       <c r="H137" s="2">
-        <v>2769.366527878426</v>
+        <v>106421.03</v>
       </c>
       <c r="I137" s="1">
-        <v>10.0529973571567</v>
+        <v>0.6311476387470004</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K137" s="2">
-        <v>-311.4069528957138</v>
+        <v>1673.166078841914</v>
       </c>
       <c r="L137" s="2">
-        <v>30829.288336675669</v>
+        <v>56224.69399183115</v>
       </c>
       <c r="M137" s="2">
-        <v>311.4069528957138</v>
+        <v>545.5152791298924</v>
       </c>
       <c r="N137" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14">
       <c r="A138" s="4">
         <v>136</v>
       </c>
@@ -6523,43 +6507,43 @@
         <v>13</v>
       </c>
       <c r="C138" s="5">
-        <v>45691.829861111109</v>
+        <v>45681.82986111111</v>
       </c>
       <c r="D138" s="5">
-        <v>45691.909722222219</v>
+        <v>45681.84722222222</v>
       </c>
       <c r="E138" s="2">
-        <v>2764.23</v>
+        <v>105760.94</v>
       </c>
       <c r="F138" s="2">
-        <v>2793.3912584718341</v>
+        <v>105294.4043978837</v>
       </c>
       <c r="G138" s="2">
-        <v>2676.7462245844981</v>
+        <v>107160.546806349</v>
       </c>
       <c r="H138" s="2">
-        <v>2793.3912584718341</v>
+        <v>105294.4043978837</v>
       </c>
       <c r="I138" s="1">
-        <v>10.57200201646052</v>
+        <v>1.205153341712455</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K138" s="2">
-        <v>-308.29288336675671</v>
+        <v>-562.2469399183116</v>
       </c>
       <c r="L138" s="2">
-        <v>30520.995453308911</v>
+        <v>55662.44705191284</v>
       </c>
       <c r="M138" s="2">
-        <v>308.29288336675671</v>
+        <v>562.2469399183116</v>
       </c>
       <c r="N138" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14">
       <c r="A139" s="4">
         <v>137</v>
       </c>
@@ -6567,43 +6551,43 @@
         <v>13</v>
       </c>
       <c r="C139" s="5">
-        <v>45693.84375</v>
+        <v>45681.85763888889</v>
       </c>
       <c r="D139" s="5">
-        <v>45694.652777777781</v>
+        <v>45682.58680555555</v>
       </c>
       <c r="E139" s="2">
-        <v>2778.16</v>
+        <v>105052.52</v>
       </c>
       <c r="F139" s="2">
-        <v>2803.755233022915</v>
+        <v>104590.815085935</v>
       </c>
       <c r="G139" s="2">
-        <v>2701.3743009312552</v>
+        <v>106437.6347421952</v>
       </c>
       <c r="H139" s="2">
-        <v>2700</v>
+        <v>104590.815085935</v>
       </c>
       <c r="I139" s="1">
-        <v>11.92448430767703</v>
+        <v>1.2055848953791</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K139" s="2">
-        <v>932.01769348803521</v>
+        <v>-556.6244705191284</v>
       </c>
       <c r="L139" s="2">
-        <v>31453.01314679694</v>
+        <v>55105.82258139372</v>
       </c>
       <c r="M139" s="2">
-        <v>305.2099545330891</v>
+        <v>556.6244705191284</v>
       </c>
       <c r="N139" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14">
       <c r="A140" s="4">
         <v>138</v>
       </c>
@@ -6611,219 +6595,219 @@
         <v>13</v>
       </c>
       <c r="C140" s="5">
-        <v>45696.565972222219</v>
+        <v>45683.88541666666</v>
       </c>
       <c r="D140" s="5">
-        <v>45696.770833333343</v>
+        <v>45683.90625</v>
       </c>
       <c r="E140" s="2">
-        <v>2626.08</v>
+        <v>104795.54</v>
       </c>
       <c r="F140" s="2">
-        <v>2640.2829948441172</v>
+        <v>104635.5126717815</v>
       </c>
       <c r="G140" s="2">
-        <v>2583.4710154676491</v>
+        <v>105275.6219846556</v>
       </c>
       <c r="H140" s="2">
-        <v>2640.2829948441172</v>
+        <v>104635.5126717815</v>
       </c>
       <c r="I140" s="1">
-        <v>22.1453387063824</v>
+        <v>3.443525752435227</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K140" s="2">
-        <v>-314.53013146796951</v>
+        <v>-551.0582258139372</v>
       </c>
       <c r="L140" s="2">
-        <v>31138.483015328969</v>
+        <v>54554.76435557978</v>
       </c>
       <c r="M140" s="2">
-        <v>314.53013146796951</v>
+        <v>551.0582258139372</v>
       </c>
       <c r="N140" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14">
       <c r="A141" s="4">
         <v>139</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C141" s="5">
-        <v>45697.652777777781</v>
+        <v>45684.54166666666</v>
       </c>
       <c r="D141" s="5">
-        <v>45697.895833333343</v>
+        <v>45684.54513888889</v>
       </c>
       <c r="E141" s="2">
-        <v>2653.61</v>
+        <v>100632.01</v>
       </c>
       <c r="F141" s="2">
-        <v>2668.9385684269669</v>
+        <v>101286.0915115136</v>
       </c>
       <c r="G141" s="2">
-        <v>2607.6242947190999</v>
+        <v>98669.76546545928</v>
       </c>
       <c r="H141" s="2">
-        <v>2605.56</v>
+        <v>101286.0915115136</v>
       </c>
       <c r="I141" s="1">
-        <v>20.31401899250336</v>
+        <v>0.8340667546058185</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K141" s="2">
-        <v>976.08861258979016</v>
+        <v>-545.5476435557978</v>
       </c>
       <c r="L141" s="2">
-        <v>32114.571627918762</v>
+        <v>54009.21671202398</v>
       </c>
       <c r="M141" s="2">
-        <v>311.38483015328973</v>
+        <v>545.5476435557978</v>
       </c>
       <c r="N141" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14">
       <c r="A142" s="4">
         <v>140</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C142" s="5">
-        <v>45698.576388888891</v>
+        <v>45684.85069444445</v>
       </c>
       <c r="D142" s="5">
-        <v>45698.579861111109</v>
+        <v>45684.86458333334</v>
       </c>
       <c r="E142" s="2">
-        <v>2669.27</v>
+        <v>100351.68</v>
       </c>
       <c r="F142" s="2">
-        <v>2684.5187826260681</v>
+        <v>100958.2739530618</v>
       </c>
       <c r="G142" s="2">
-        <v>2623.5236521217971</v>
+        <v>98531.89814081455</v>
       </c>
       <c r="H142" s="2">
-        <v>2684.5187826260681</v>
+        <v>100958.2739530618</v>
       </c>
       <c r="I142" s="1">
-        <v>21.060416700425161</v>
+        <v>0.8903685313612043</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K142" s="2">
-        <v>-321.14571627918758</v>
+        <v>-540.0921671202398</v>
       </c>
       <c r="L142" s="2">
-        <v>31793.42591163957</v>
+        <v>53469.12454490374</v>
       </c>
       <c r="M142" s="2">
-        <v>321.14571627918758</v>
+        <v>540.0921671202398</v>
       </c>
       <c r="N142" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14">
       <c r="A143" s="4">
         <v>141</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C143" s="5">
-        <v>45699.90625</v>
+        <v>45684.87152777778</v>
       </c>
       <c r="D143" s="5">
-        <v>45700.552083333343</v>
+        <v>45684.87847222222</v>
       </c>
       <c r="E143" s="2">
-        <v>2626.2</v>
+        <v>101386.5</v>
       </c>
       <c r="F143" s="2">
-        <v>2644.1910702390469</v>
+        <v>102047.4840323447</v>
       </c>
       <c r="G143" s="2">
-        <v>2572.2267892828572</v>
+        <v>99403.54790296599</v>
       </c>
       <c r="H143" s="2">
-        <v>2644.1910702390469</v>
+        <v>102047.4840323447</v>
       </c>
       <c r="I143" s="1">
-        <v>17.67178132773649</v>
+        <v>0.8089321667156749</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K143" s="2">
-        <v>-317.93425911639582</v>
+        <v>-534.6912454490374</v>
       </c>
       <c r="L143" s="2">
-        <v>31475.491652523178</v>
+        <v>52934.4332994547</v>
       </c>
       <c r="M143" s="2">
-        <v>317.93425911639582</v>
+        <v>534.6912454490374</v>
       </c>
       <c r="N143" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14">
       <c r="A144" s="4">
         <v>142</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C144" s="5">
-        <v>45700.701388888891</v>
+        <v>45684.88194444445</v>
       </c>
       <c r="D144" s="5">
-        <v>45700.708333333343</v>
+        <v>45685.625</v>
       </c>
       <c r="E144" s="2">
-        <v>2632.4</v>
+        <v>102295.12</v>
       </c>
       <c r="F144" s="2">
-        <v>2656.8407714030482</v>
+        <v>103009.0155608824</v>
       </c>
       <c r="G144" s="2">
-        <v>2559.0776857908559</v>
+        <v>100153.4333173529</v>
       </c>
       <c r="H144" s="2">
-        <v>2656.8407714030482</v>
+        <v>103009.0155608824</v>
       </c>
       <c r="I144" s="1">
-        <v>12.878272593555611</v>
+        <v>0.7414870773818482</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K144" s="2">
-        <v>-314.75491652523181</v>
+        <v>-529.344332994547</v>
       </c>
       <c r="L144" s="2">
-        <v>31160.736735997951</v>
+        <v>52405.08896646016</v>
       </c>
       <c r="M144" s="2">
-        <v>314.75491652523181</v>
+        <v>529.344332994547</v>
       </c>
       <c r="N144" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14">
       <c r="A145" s="4">
         <v>143</v>
       </c>
@@ -6831,217 +6815,745 @@
         <v>13</v>
       </c>
       <c r="C145" s="5">
-        <v>45700.711805555547</v>
+        <v>45687.73611111111</v>
       </c>
       <c r="D145" s="5">
-        <v>45700.725694444453</v>
+        <v>45688.56597222222</v>
       </c>
       <c r="E145" s="2">
-        <v>2653.64</v>
+        <v>105018.14</v>
       </c>
       <c r="F145" s="2">
-        <v>2680.296980602222</v>
+        <v>104555.7455826141</v>
       </c>
       <c r="G145" s="2">
-        <v>2573.669058193334</v>
+        <v>106405.3232521578</v>
       </c>
       <c r="H145" s="2">
-        <v>2680.296980602222</v>
+        <v>104555.7455826141</v>
       </c>
       <c r="I145" s="1">
-        <v>11.689522230961501</v>
+        <v>1.133341731561656</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K145" s="2">
-        <v>-311.60736735997949</v>
+        <v>-524.0508896646015</v>
       </c>
       <c r="L145" s="2">
-        <v>30849.129368637969</v>
+        <v>51881.03807679556</v>
       </c>
       <c r="M145" s="2">
-        <v>311.60736735997949</v>
+        <v>524.0508896646015</v>
       </c>
       <c r="N145" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14">
       <c r="A146" s="4">
         <v>144</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C146" s="5">
-        <v>45700.729166666657</v>
+        <v>45690.59027777778</v>
       </c>
       <c r="D146" s="5">
-        <v>45700.840277777781</v>
+        <v>45690.72222222222</v>
       </c>
       <c r="E146" s="2">
-        <v>2668.05</v>
+        <v>99272.12</v>
       </c>
       <c r="F146" s="2">
-        <v>2695.5265944969751</v>
+        <v>99715.13450807023</v>
       </c>
       <c r="G146" s="2">
-        <v>2585.6202165090772</v>
+        <v>97943.07647578928</v>
       </c>
       <c r="H146" s="2">
-        <v>2695.5265944969751</v>
+        <v>97727</v>
       </c>
       <c r="I146" s="1">
-        <v>11.227420986263359</v>
+        <v>1.17109117493214</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K146" s="2">
-        <v>-308.49129368637972</v>
+        <v>1809.476396211143</v>
       </c>
       <c r="L146" s="2">
-        <v>30540.638074951588</v>
+        <v>53690.5144730067</v>
       </c>
       <c r="M146" s="2">
-        <v>308.49129368637972</v>
+        <v>518.8103807679556</v>
       </c>
       <c r="N146" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14">
       <c r="A147" s="4">
         <v>145</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C147" s="5">
-        <v>45700.847222222219</v>
+        <v>45690.82291666666</v>
       </c>
       <c r="D147" s="5">
-        <v>45701.586805555547</v>
+        <v>45691.54166666666</v>
       </c>
       <c r="E147" s="2">
-        <v>2689.19</v>
+        <v>98512.55</v>
       </c>
       <c r="F147" s="2">
-        <v>2706.772376962359</v>
+        <v>99337.82221928821</v>
       </c>
       <c r="G147" s="2">
-        <v>2636.442869112921</v>
+        <v>96036.73334213537</v>
       </c>
       <c r="H147" s="2">
-        <v>2628</v>
+        <v>94564.71000000001</v>
       </c>
       <c r="I147" s="1">
-        <v>17.370028034510611</v>
+        <v>0.6505794478252827</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K147" s="2">
-        <v>1062.872015431705</v>
+        <v>2568.383567302561</v>
       </c>
       <c r="L147" s="2">
-        <v>31603.51009038329</v>
+        <v>56258.89804030926</v>
       </c>
       <c r="M147" s="2">
-        <v>305.4063807495159</v>
+        <v>536.905144730067</v>
       </c>
       <c r="N147" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14">
       <c r="A148" s="4">
         <v>146</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C148" s="5">
-        <v>45701.798611111109</v>
+        <v>45691.61111111111</v>
       </c>
       <c r="D148" s="5">
-        <v>45702.541666666657</v>
+        <v>45691.63541666666</v>
       </c>
       <c r="E148" s="2">
-        <v>2657.8</v>
+        <v>96150.84</v>
       </c>
       <c r="F148" s="2">
-        <v>2676.6047675615828</v>
+        <v>97150.404590042</v>
       </c>
       <c r="G148" s="2">
-        <v>2601.385697315251</v>
+        <v>93152.14622987396</v>
       </c>
       <c r="H148" s="2">
-        <v>2676.6047675615828</v>
+        <v>97150.404590042</v>
       </c>
       <c r="I148" s="1">
-        <v>16.806115782546161</v>
+        <v>0.5628340439505268</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K148" s="2">
-        <v>-316.03510090383293</v>
+        <v>-562.5889804030927</v>
       </c>
       <c r="L148" s="2">
-        <v>31287.474989479459</v>
+        <v>55696.30905990617</v>
       </c>
       <c r="M148" s="2">
-        <v>316.03510090383293</v>
+        <v>562.5889804030927</v>
       </c>
       <c r="N148" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A152" s="3" t="s">
+    <row r="149" spans="1:14">
+      <c r="A149" s="4">
+        <v>147</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C149" s="5">
+        <v>45691.66666666666</v>
+      </c>
+      <c r="D149" s="5">
+        <v>45691.78472222222</v>
+      </c>
+      <c r="E149" s="2">
+        <v>98730.92999999999</v>
+      </c>
+      <c r="F149" s="2">
+        <v>99908.6225083747</v>
+      </c>
+      <c r="G149" s="2">
+        <v>95197.85247487589</v>
+      </c>
+      <c r="H149" s="2">
+        <v>99908.6225083747</v>
+      </c>
+      <c r="I149" s="1">
+        <v>0.4729274293913175</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K149" s="2">
+        <v>-556.9630905990617</v>
+      </c>
+      <c r="L149" s="2">
+        <v>55139.34596930711</v>
+      </c>
+      <c r="M149" s="2">
+        <v>556.9630905990617</v>
+      </c>
+      <c r="N149" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14">
+      <c r="A150" s="4">
+        <v>148</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C150" s="5">
+        <v>45693.57638888889</v>
+      </c>
+      <c r="D150" s="5">
+        <v>45693.61111111111</v>
+      </c>
+      <c r="E150" s="2">
+        <v>98581.99000000001</v>
+      </c>
+      <c r="F150" s="2">
+        <v>98923.60589796901</v>
+      </c>
+      <c r="G150" s="2">
+        <v>97557.14230609298</v>
+      </c>
+      <c r="H150" s="2">
+        <v>98923.60589796901</v>
+      </c>
+      <c r="I150" s="1">
+        <v>1.614074353597836</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K150" s="2">
+        <v>-551.3934596930711</v>
+      </c>
+      <c r="L150" s="2">
+        <v>54587.95250961404</v>
+      </c>
+      <c r="M150" s="2">
+        <v>551.3934596930711</v>
+      </c>
+      <c r="N150" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14">
+      <c r="A151" s="4">
+        <v>149</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C151" s="5">
+        <v>45694.86458333334</v>
+      </c>
+      <c r="D151" s="5">
+        <v>45695.54166666666</v>
+      </c>
+      <c r="E151" s="2">
+        <v>96870.89999999999</v>
+      </c>
+      <c r="F151" s="2">
+        <v>97360.8412369147</v>
+      </c>
+      <c r="G151" s="2">
+        <v>95401.07628925589</v>
+      </c>
+      <c r="H151" s="2">
+        <v>97360.8412369147</v>
+      </c>
+      <c r="I151" s="1">
+        <v>1.114173464013146</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K151" s="2">
+        <v>-545.8795250961404</v>
+      </c>
+      <c r="L151" s="2">
+        <v>54042.07298451789</v>
+      </c>
+      <c r="M151" s="2">
+        <v>545.8795250961404</v>
+      </c>
+      <c r="N151" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14">
+      <c r="A152" s="4">
+        <v>150</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C152" s="5">
+        <v>45696.56944444445</v>
+      </c>
+      <c r="D152" s="5">
+        <v>45696.64583333334</v>
+      </c>
+      <c r="E152" s="2">
+        <v>96418.33</v>
+      </c>
+      <c r="F152" s="2">
+        <v>96632.08010532602</v>
+      </c>
+      <c r="G152" s="2">
+        <v>95777.07968402194</v>
+      </c>
+      <c r="H152" s="2">
+        <v>95688</v>
+      </c>
+      <c r="I152" s="1">
+        <v>2.528282870414999</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K152" s="2">
+        <v>1846.480828750191</v>
+      </c>
+      <c r="L152" s="2">
+        <v>55888.55381326808</v>
+      </c>
+      <c r="M152" s="2">
+        <v>540.4207298451789</v>
+      </c>
+      <c r="N152" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14">
+      <c r="A153" s="4">
+        <v>151</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C153" s="5">
+        <v>45696.71180555555</v>
+      </c>
+      <c r="D153" s="5">
+        <v>45696.77777777778</v>
+      </c>
+      <c r="E153" s="2">
+        <v>96282.74000000001</v>
+      </c>
+      <c r="F153" s="2">
+        <v>96504.35545976873</v>
+      </c>
+      <c r="G153" s="2">
+        <v>95617.89362069382</v>
+      </c>
+      <c r="H153" s="2">
+        <v>96504.35545976873</v>
+      </c>
+      <c r="I153" s="1">
+        <v>2.521870715679857</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K153" s="2">
+        <v>-558.8855381326808</v>
+      </c>
+      <c r="L153" s="2">
+        <v>55329.6682751354</v>
+      </c>
+      <c r="M153" s="2">
+        <v>558.8855381326808</v>
+      </c>
+      <c r="N153" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14">
+      <c r="A154" s="4">
+        <v>152</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C154" s="5">
+        <v>45696.80555555555</v>
+      </c>
+      <c r="D154" s="5">
+        <v>45697.57291666666</v>
+      </c>
+      <c r="E154" s="2">
+        <v>96622.64</v>
+      </c>
+      <c r="F154" s="2">
+        <v>96814.10035087884</v>
+      </c>
+      <c r="G154" s="2">
+        <v>96048.25894736346</v>
+      </c>
+      <c r="H154" s="2">
+        <v>95915.44</v>
+      </c>
+      <c r="I154" s="1">
+        <v>2.889876051159463</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K154" s="2">
+        <v>2043.720343379964</v>
+      </c>
+      <c r="L154" s="2">
+        <v>57373.38861851537</v>
+      </c>
+      <c r="M154" s="2">
+        <v>553.2966827513541</v>
+      </c>
+      <c r="N154" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14">
+      <c r="A155" s="4">
+        <v>153</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C155" s="5">
+        <v>45697.65277777778</v>
+      </c>
+      <c r="D155" s="5">
+        <v>45697.89930555555</v>
+      </c>
+      <c r="E155" s="2">
+        <v>96612.05</v>
+      </c>
+      <c r="F155" s="2">
+        <v>96880.50705339119</v>
+      </c>
+      <c r="G155" s="2">
+        <v>95806.67883982643</v>
+      </c>
+      <c r="H155" s="2">
+        <v>95376.64999999999</v>
+      </c>
+      <c r="I155" s="1">
+        <v>2.13715333211648</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K155" s="2">
+        <v>2640.239226496718</v>
+      </c>
+      <c r="L155" s="2">
+        <v>60013.62784501209</v>
+      </c>
+      <c r="M155" s="2">
+        <v>573.7338861851537</v>
+      </c>
+      <c r="N155" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14">
+      <c r="A156" s="4">
+        <v>154</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C156" s="5">
+        <v>45699.88888888889</v>
+      </c>
+      <c r="D156" s="5">
+        <v>45699.89930555555</v>
+      </c>
+      <c r="E156" s="2">
+        <v>95686.37</v>
+      </c>
+      <c r="F156" s="2">
+        <v>96056.14374028651</v>
+      </c>
+      <c r="G156" s="2">
+        <v>94577.04877914043</v>
+      </c>
+      <c r="H156" s="2">
+        <v>96056.14374028651</v>
+      </c>
+      <c r="I156" s="1">
+        <v>1.622982416179984</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K156" s="2">
+        <v>-600.1362784501209</v>
+      </c>
+      <c r="L156" s="2">
+        <v>59413.49156656197</v>
+      </c>
+      <c r="M156" s="2">
+        <v>600.1362784501209</v>
+      </c>
+      <c r="N156" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14">
+      <c r="A157" s="4">
+        <v>155</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C157" s="5">
+        <v>45699.90625</v>
+      </c>
+      <c r="D157" s="5">
+        <v>45700.5625</v>
+      </c>
+      <c r="E157" s="2">
+        <v>96317.67</v>
+      </c>
+      <c r="F157" s="2">
+        <v>96720.53183445179</v>
+      </c>
+      <c r="G157" s="2">
+        <v>95109.08449664462</v>
+      </c>
+      <c r="H157" s="2">
+        <v>94844.8</v>
+      </c>
+      <c r="I157" s="1">
+        <v>1.474785807084738</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K157" s="2">
+        <v>2172.167771680891</v>
+      </c>
+      <c r="L157" s="2">
+        <v>61585.65933824286</v>
+      </c>
+      <c r="M157" s="2">
+        <v>594.1349156656197</v>
+      </c>
+      <c r="N157" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14">
+      <c r="A158" s="4">
+        <v>156</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C158" s="5">
+        <v>45701.79861111111</v>
+      </c>
+      <c r="D158" s="5">
+        <v>45701.89583333334</v>
+      </c>
+      <c r="E158" s="2">
+        <v>96270.05</v>
+      </c>
+      <c r="F158" s="2">
+        <v>96701.70211287875</v>
+      </c>
+      <c r="G158" s="2">
+        <v>94975.09366136376</v>
+      </c>
+      <c r="H158" s="2">
+        <v>96701.70211287875</v>
+      </c>
+      <c r="I158" s="1">
+        <v>1.426742914045301</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K158" s="2">
+        <v>-615.8565933824286</v>
+      </c>
+      <c r="L158" s="2">
+        <v>60969.80274486043</v>
+      </c>
+      <c r="M158" s="2">
+        <v>615.8565933824286</v>
+      </c>
+      <c r="N158" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14">
+      <c r="A159" s="4">
+        <v>157</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159" s="5">
+        <v>45703.72569444445</v>
+      </c>
+      <c r="D159" s="5">
+        <v>45704.54166666666</v>
+      </c>
+      <c r="E159" s="2">
+        <v>97405.02</v>
+      </c>
+      <c r="F159" s="2">
+        <v>97254.04536282181</v>
+      </c>
+      <c r="G159" s="2">
+        <v>97857.9439115346</v>
+      </c>
+      <c r="H159" s="2">
+        <v>97254.04536282181</v>
+      </c>
+      <c r="I159" s="1">
+        <v>4.038413596112703</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K159" s="2">
+        <v>-609.6980274486043</v>
+      </c>
+      <c r="L159" s="2">
+        <v>60360.10471741183</v>
+      </c>
+      <c r="M159" s="2">
+        <v>609.6980274486043</v>
+      </c>
+      <c r="N159" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14">
+      <c r="A160" s="4">
+        <v>158</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160" s="5">
+        <v>45704.58333333334</v>
+      </c>
+      <c r="D160" s="5">
+        <v>45704.77083333334</v>
+      </c>
+      <c r="E160" s="2">
+        <v>96778.58</v>
+      </c>
+      <c r="F160" s="2">
+        <v>96615.71125013877</v>
+      </c>
+      <c r="G160" s="2">
+        <v>97267.18624958368</v>
+      </c>
+      <c r="H160" s="2">
+        <v>96615.71125013877</v>
+      </c>
+      <c r="I160" s="1">
+        <v>3.706058084736444</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K160" s="2">
+        <v>-603.6010471741183</v>
+      </c>
+      <c r="L160" s="2">
+        <v>59756.50367023771</v>
+      </c>
+      <c r="M160" s="2">
+        <v>603.6010471741183</v>
+      </c>
+      <c r="N160" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
+    <row r="165" spans="1:2">
+      <c r="A165" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B165" s="2">
         <v>20000</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
+    <row r="166" spans="1:2">
+      <c r="A166" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B154" s="2">
-        <v>31287.474989479459</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
+      <c r="B166" s="2">
+        <v>59756.50367023771</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B155" s="6">
-        <v>0.56437374947397312</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
+      <c r="B167" s="6">
+        <v>1.987825183511886</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B156" s="1">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
+      <c r="B168" s="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B157" s="6">
-        <v>0.2857142857142857</v>
+      <c r="B169" s="6">
+        <v>0.3647798742138365</v>
       </c>
     </row>
   </sheetData>
